--- a/export_rfq.xlsx
+++ b/export_rfq.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="71">
   <si>
     <t>Republic of the Philippines</t>
   </si>
@@ -46,7 +46,7 @@
     <t>RFQ Number :</t>
   </si>
   <si>
-    <t>2020-0088</t>
+    <t>2020-0091</t>
   </si>
   <si>
     <t>Mode of Procurement:</t>
@@ -55,19 +55,19 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>March 11,   2020</t>
+    <t>March 13,   2020</t>
   </si>
   <si>
     <t>Office/End User:</t>
   </si>
   <si>
-    <t>LGMED</t>
+    <t>FAD</t>
   </si>
   <si>
     <t>Purpose:</t>
   </si>
   <si>
-    <t>ECLIP ON THE SPOT POSTER MAKING CONTEST</t>
+    <t>For the use of Isuzu Fuego GNJ 918</t>
   </si>
   <si>
     <t>Company Name:</t>
@@ -169,9 +169,6 @@
     <t>Approved Budget for the Contract (ABC):</t>
   </si>
   <si>
-    <t>40,000.00</t>
-  </si>
-  <si>
     <t>DR. CARINA S. CRUZ</t>
   </si>
   <si>
@@ -226,26 +223,11 @@
     <t>NO</t>
   </si>
   <si>
-    <t xml:space="preserve">Meals And Snacks (AM PM Snacks Lunch)
-</t>
-  </si>
-  <si>
-    <t>pack</t>
-  </si>
-  <si>
     <t>REF:  approved and funded PPMP; approved and funded Activity Design	
 *In order to be eligible for this procurement, suppliers/service providers must submit together with the quotation/ proposal the following eligibility requirements:									
 1. PhilGEPS Platinum Registration No. 									
 2. For non-Platinum Registration, please provide copy of:
     a) Mayor's Permit; b) Latest Income / Business Tax Return; c) PhilGEPS Registration No. _____________________________________									
-Other Instruction:</t>
-  </si>
-  <si>
-    <t>NOTE: ** A guaranteed of a minimum of 75% out of total number of target participants	
-              ** Free Flowing Coffee 
-              ** Free Wi-Fi
-              ** Atleast Triple/Quad Sharing Per Room  
-              ** Free use of Function Room, Sound System and LCD
 Other Instruction:</t>
   </si>
   <si>
@@ -585,6 +567,17 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -600,22 +593,11 @@
         <color rgb="FF000000"/>
       </right>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="246">
+  <cellXfs count="234">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -916,9 +898,51 @@
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="15" fillId="2" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="15" fillId="2" borderId="6" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="15" fillId="2" borderId="9" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="3" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="3" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="3" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="15" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="5" numFmtId="167" fillId="4" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="15" numFmtId="164" fillId="3" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
@@ -994,244 +1018,166 @@
     <xf xfId="0" fontId="15" numFmtId="165" fillId="3" borderId="4" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="15" numFmtId="165" fillId="3" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="15" numFmtId="165" fillId="3" borderId="14" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="165" fillId="3" borderId="15" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="15" numFmtId="165" fillId="3" borderId="14" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="15" numFmtId="165" fillId="3" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="166" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="166" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="17" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="166" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="166" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="166" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="5" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="15" fillId="2" borderId="15" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="15" fillId="2" borderId="6" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="15" fillId="2" borderId="9" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="3" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="3" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="3" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="167" fillId="4" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="166" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="166" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="166" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="166" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="17" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="166" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="166" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="5" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="166" fillId="2" borderId="10" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="166" fillId="2" borderId="3" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="166" fillId="2" borderId="3" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="11" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="165" fillId="2" borderId="12" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="12" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="5" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="10" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="165" fillId="2" borderId="3" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="3" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="11" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="165" fillId="2" borderId="12" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="12" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="5" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1240,19 +1186,19 @@
     <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="bottom" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="5" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="5" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="5" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1273,7 +1219,7 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="5" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="5" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="5" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1291,7 +1237,7 @@
     <xf xfId="0" fontId="4" numFmtId="0" fillId="5" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -1309,7 +1255,7 @@
     <xf xfId="0" fontId="4" numFmtId="0" fillId="5" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -1327,7 +1273,7 @@
     <xf xfId="0" fontId="4" numFmtId="0" fillId="5" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -1345,7 +1291,7 @@
     <xf xfId="0" fontId="4" numFmtId="165" fillId="5" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="15" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -1750,8 +1696,8 @@
   </sheetPr>
   <dimension ref="A1:N877"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="55" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="N71" sqref="N71"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="145" zoomScaleNormal="55" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="N70" sqref="N70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1927,11 +1873,11 @@
       <c r="K12" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="131" t="s">
+      <c r="L12" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="M12" s="132"/>
-      <c r="N12" s="133"/>
+      <c r="M12" s="101"/>
+      <c r="N12" s="102"/>
     </row>
     <row r="13" spans="1:14" customHeight="1" ht="15.75">
       <c r="A13" s="9"/>
@@ -1940,19 +1886,19 @@
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
-      <c r="F13" s="134"/>
-      <c r="G13" s="134"/>
-      <c r="H13" s="134"/>
-      <c r="I13" s="134"/>
-      <c r="J13" s="135"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="103"/>
+      <c r="J13" s="104"/>
       <c r="K13" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="L13" s="136" t="s">
+      <c r="L13" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="M13" s="137"/>
-      <c r="N13" s="138"/>
+      <c r="M13" s="106"/>
+      <c r="N13" s="107"/>
     </row>
     <row r="14" spans="1:14" customHeight="1" ht="4.5">
       <c r="A14" s="12"/>
@@ -1971,70 +1917,70 @@
       <c r="N14" s="21"/>
     </row>
     <row r="15" spans="1:14" customHeight="1" ht="12.95">
-      <c r="A15" s="144" t="s">
+      <c r="A15" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="144"/>
-      <c r="C15" s="144"/>
-      <c r="D15" s="144"/>
-      <c r="E15" s="131" t="s">
+      <c r="B15" s="114"/>
+      <c r="C15" s="114"/>
+      <c r="D15" s="114"/>
+      <c r="E15" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="132"/>
-      <c r="G15" s="132"/>
-      <c r="H15" s="132"/>
-      <c r="I15" s="132"/>
-      <c r="J15" s="132"/>
-      <c r="K15" s="132"/>
-      <c r="L15" s="132"/>
-      <c r="M15" s="132"/>
-      <c r="N15" s="133"/>
+      <c r="F15" s="101"/>
+      <c r="G15" s="101"/>
+      <c r="H15" s="101"/>
+      <c r="I15" s="101"/>
+      <c r="J15" s="101"/>
+      <c r="K15" s="101"/>
+      <c r="L15" s="101"/>
+      <c r="M15" s="101"/>
+      <c r="N15" s="102"/>
     </row>
     <row r="16" spans="1:14" customHeight="1" ht="12.95">
-      <c r="A16" s="144" t="s">
+      <c r="A16" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="144"/>
-      <c r="C16" s="144"/>
-      <c r="D16" s="144"/>
-      <c r="E16" s="131" t="s">
+      <c r="B16" s="114"/>
+      <c r="C16" s="114"/>
+      <c r="D16" s="114"/>
+      <c r="E16" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="132"/>
-      <c r="G16" s="132"/>
-      <c r="H16" s="132"/>
-      <c r="I16" s="132"/>
-      <c r="J16" s="132"/>
-      <c r="K16" s="132"/>
-      <c r="L16" s="132"/>
-      <c r="M16" s="132"/>
-      <c r="N16" s="133"/>
+      <c r="F16" s="101"/>
+      <c r="G16" s="101"/>
+      <c r="H16" s="101"/>
+      <c r="I16" s="101"/>
+      <c r="J16" s="101"/>
+      <c r="K16" s="101"/>
+      <c r="L16" s="101"/>
+      <c r="M16" s="101"/>
+      <c r="N16" s="102"/>
     </row>
     <row r="17" spans="1:14" customHeight="1" ht="12.95">
-      <c r="A17" s="144" t="s">
+      <c r="A17" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="144"/>
-      <c r="C17" s="144"/>
-      <c r="D17" s="144"/>
-      <c r="E17" s="131"/>
-      <c r="F17" s="132"/>
-      <c r="G17" s="132"/>
-      <c r="H17" s="132"/>
-      <c r="I17" s="132"/>
-      <c r="J17" s="132"/>
-      <c r="K17" s="132"/>
-      <c r="L17" s="132"/>
-      <c r="M17" s="132"/>
-      <c r="N17" s="133"/>
+      <c r="B17" s="114"/>
+      <c r="C17" s="114"/>
+      <c r="D17" s="114"/>
+      <c r="E17" s="100"/>
+      <c r="F17" s="101"/>
+      <c r="G17" s="101"/>
+      <c r="H17" s="101"/>
+      <c r="I17" s="101"/>
+      <c r="J17" s="101"/>
+      <c r="K17" s="101"/>
+      <c r="L17" s="101"/>
+      <c r="M17" s="101"/>
+      <c r="N17" s="102"/>
     </row>
     <row r="18" spans="1:14" customHeight="1" ht="12.95">
-      <c r="A18" s="144" t="s">
+      <c r="A18" s="114" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="144"/>
-      <c r="C18" s="144"/>
-      <c r="D18" s="144"/>
+      <c r="B18" s="114"/>
+      <c r="C18" s="114"/>
+      <c r="D18" s="114"/>
       <c r="E18" s="40"/>
       <c r="F18" s="40"/>
       <c r="G18" s="40"/>
@@ -2047,12 +1993,12 @@
       <c r="N18" s="41"/>
     </row>
     <row r="19" spans="1:14" customHeight="1" ht="12.95">
-      <c r="A19" s="144" t="s">
+      <c r="A19" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="144"/>
-      <c r="C19" s="144"/>
-      <c r="D19" s="144"/>
+      <c r="B19" s="114"/>
+      <c r="C19" s="114"/>
+      <c r="D19" s="114"/>
       <c r="E19" s="40"/>
       <c r="F19" s="40"/>
       <c r="G19" s="40"/>
@@ -2065,12 +2011,12 @@
       <c r="N19" s="41"/>
     </row>
     <row r="20" spans="1:14" customHeight="1" ht="12.95">
-      <c r="A20" s="144" t="s">
+      <c r="A20" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="144"/>
-      <c r="C20" s="144"/>
-      <c r="D20" s="144"/>
+      <c r="B20" s="114"/>
+      <c r="C20" s="114"/>
+      <c r="D20" s="114"/>
       <c r="E20" s="40"/>
       <c r="F20" s="40"/>
       <c r="G20" s="40"/>
@@ -2119,38 +2065,38 @@
       <c r="N22" s="64"/>
     </row>
     <row r="23" spans="1:14" customHeight="1" ht="8.25">
-      <c r="A23" s="142" t="s">
+      <c r="A23" s="111" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="142"/>
-      <c r="C23" s="142"/>
-      <c r="D23" s="142"/>
-      <c r="E23" s="142"/>
-      <c r="F23" s="142"/>
-      <c r="G23" s="142"/>
-      <c r="H23" s="142"/>
-      <c r="I23" s="142"/>
-      <c r="J23" s="142"/>
-      <c r="K23" s="142"/>
-      <c r="L23" s="142"/>
-      <c r="M23" s="142"/>
-      <c r="N23" s="142"/>
+      <c r="B23" s="111"/>
+      <c r="C23" s="111"/>
+      <c r="D23" s="111"/>
+      <c r="E23" s="111"/>
+      <c r="F23" s="111"/>
+      <c r="G23" s="111"/>
+      <c r="H23" s="111"/>
+      <c r="I23" s="111"/>
+      <c r="J23" s="111"/>
+      <c r="K23" s="111"/>
+      <c r="L23" s="111"/>
+      <c r="M23" s="111"/>
+      <c r="N23" s="111"/>
     </row>
     <row r="24" spans="1:14" customHeight="1" ht="12.95">
-      <c r="A24" s="142"/>
-      <c r="B24" s="142"/>
-      <c r="C24" s="142"/>
-      <c r="D24" s="142"/>
-      <c r="E24" s="142"/>
-      <c r="F24" s="142"/>
-      <c r="G24" s="142"/>
-      <c r="H24" s="142"/>
-      <c r="I24" s="142"/>
-      <c r="J24" s="142"/>
-      <c r="K24" s="142"/>
-      <c r="L24" s="142"/>
-      <c r="M24" s="142"/>
-      <c r="N24" s="142"/>
+      <c r="A24" s="111"/>
+      <c r="B24" s="111"/>
+      <c r="C24" s="111"/>
+      <c r="D24" s="111"/>
+      <c r="E24" s="111"/>
+      <c r="F24" s="111"/>
+      <c r="G24" s="111"/>
+      <c r="H24" s="111"/>
+      <c r="I24" s="111"/>
+      <c r="J24" s="111"/>
+      <c r="K24" s="111"/>
+      <c r="L24" s="111"/>
+      <c r="M24" s="111"/>
+      <c r="N24" s="111"/>
     </row>
     <row r="25" spans="1:14" customHeight="1" ht="12">
       <c r="A25" s="23" t="s">
@@ -2411,18 +2357,18 @@
       <c r="N37" s="83"/>
     </row>
     <row r="38" spans="1:14" customHeight="1" ht="12.95">
-      <c r="A38" s="100" t="s">
+      <c r="A38" s="112" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="100"/>
-      <c r="C38" s="100"/>
-      <c r="D38" s="100"/>
-      <c r="E38" s="143" t="s">
-        <v>45</v>
+      <c r="B38" s="112"/>
+      <c r="C38" s="112"/>
+      <c r="D38" s="112"/>
+      <c r="E38" s="113">
+        <v>0</v>
       </c>
-      <c r="F38" s="143"/>
-      <c r="G38" s="143"/>
-      <c r="H38" s="143"/>
+      <c r="F38" s="113"/>
+      <c r="G38" s="113"/>
+      <c r="H38" s="113"/>
       <c r="I38" s="84"/>
       <c r="J38" s="84"/>
       <c r="K38" s="85"/>
@@ -2431,14 +2377,14 @@
       <c r="N38" s="86"/>
     </row>
     <row r="39" spans="1:14" customHeight="1" ht="12.95">
-      <c r="A39" s="100"/>
-      <c r="B39" s="100"/>
-      <c r="C39" s="100"/>
-      <c r="D39" s="100"/>
-      <c r="E39" s="143"/>
-      <c r="F39" s="143"/>
-      <c r="G39" s="143"/>
-      <c r="H39" s="143"/>
+      <c r="A39" s="112"/>
+      <c r="B39" s="112"/>
+      <c r="C39" s="112"/>
+      <c r="D39" s="112"/>
+      <c r="E39" s="113"/>
+      <c r="F39" s="113"/>
+      <c r="G39" s="113"/>
+      <c r="H39" s="113"/>
       <c r="I39" s="87"/>
       <c r="J39" s="87"/>
       <c r="K39" s="43"/>
@@ -2447,35 +2393,35 @@
       <c r="N39" s="88"/>
     </row>
     <row r="40" spans="1:14" customHeight="1" ht="12.95">
-      <c r="A40" s="100"/>
-      <c r="B40" s="100"/>
-      <c r="C40" s="100"/>
-      <c r="D40" s="100"/>
-      <c r="E40" s="143"/>
-      <c r="F40" s="143"/>
-      <c r="G40" s="143"/>
-      <c r="H40" s="143"/>
+      <c r="A40" s="112"/>
+      <c r="B40" s="112"/>
+      <c r="C40" s="112"/>
+      <c r="D40" s="112"/>
+      <c r="E40" s="113"/>
+      <c r="F40" s="113"/>
+      <c r="G40" s="113"/>
+      <c r="H40" s="113"/>
       <c r="I40" s="89"/>
       <c r="J40" s="89"/>
       <c r="K40" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L40" s="18"/>
       <c r="M40" s="18"/>
       <c r="N40" s="88"/>
     </row>
     <row r="41" spans="1:14" customHeight="1" ht="12.75">
-      <c r="A41" s="100"/>
-      <c r="B41" s="100"/>
-      <c r="C41" s="100"/>
-      <c r="D41" s="100"/>
-      <c r="E41" s="143"/>
-      <c r="F41" s="143"/>
-      <c r="G41" s="143"/>
-      <c r="H41" s="143"/>
+      <c r="A41" s="112"/>
+      <c r="B41" s="112"/>
+      <c r="C41" s="112"/>
+      <c r="D41" s="112"/>
+      <c r="E41" s="113"/>
+      <c r="F41" s="113"/>
+      <c r="G41" s="113"/>
+      <c r="H41" s="113"/>
       <c r="I41" s="90"/>
       <c r="J41" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K41" s="19"/>
       <c r="L41" s="19"/>
@@ -2483,544 +2429,534 @@
       <c r="N41" s="91"/>
     </row>
     <row r="42" spans="1:14" customHeight="1" ht="4.5">
-      <c r="A42" s="139"/>
-      <c r="B42" s="140"/>
-      <c r="C42" s="140"/>
-      <c r="D42" s="140"/>
-      <c r="E42" s="140"/>
-      <c r="F42" s="140"/>
-      <c r="G42" s="140"/>
-      <c r="H42" s="140"/>
-      <c r="I42" s="140"/>
-      <c r="J42" s="140"/>
-      <c r="K42" s="140"/>
-      <c r="L42" s="140"/>
-      <c r="M42" s="140"/>
-      <c r="N42" s="141"/>
+      <c r="A42" s="108"/>
+      <c r="B42" s="109"/>
+      <c r="C42" s="109"/>
+      <c r="D42" s="109"/>
+      <c r="E42" s="109"/>
+      <c r="F42" s="109"/>
+      <c r="G42" s="109"/>
+      <c r="H42" s="109"/>
+      <c r="I42" s="109"/>
+      <c r="J42" s="109"/>
+      <c r="K42" s="109"/>
+      <c r="L42" s="109"/>
+      <c r="M42" s="109"/>
+      <c r="N42" s="110"/>
     </row>
     <row r="43" spans="1:14" customHeight="1" ht="14.25">
-      <c r="A43" s="100" t="s">
+      <c r="A43" s="112" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" s="116" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="102" t="s">
+      <c r="C43" s="117"/>
+      <c r="D43" s="118"/>
+      <c r="E43" s="115" t="s">
         <v>49</v>
       </c>
-      <c r="C43" s="103"/>
-      <c r="D43" s="104"/>
-      <c r="E43" s="101" t="s">
+      <c r="F43" s="112" t="s">
         <v>50</v>
       </c>
-      <c r="F43" s="100" t="s">
+      <c r="G43" s="130" t="s">
         <v>51</v>
       </c>
-      <c r="G43" s="116" t="s">
+      <c r="H43" s="128" t="s">
         <v>52</v>
       </c>
-      <c r="H43" s="114" t="s">
+      <c r="I43" s="128"/>
+      <c r="J43" s="128"/>
+      <c r="K43" s="128"/>
+      <c r="L43" s="128"/>
+      <c r="M43" s="128"/>
+      <c r="N43" s="129"/>
+    </row>
+    <row r="44" spans="1:14" customHeight="1" ht="12.75">
+      <c r="A44" s="112"/>
+      <c r="B44" s="119"/>
+      <c r="C44" s="120"/>
+      <c r="D44" s="121"/>
+      <c r="E44" s="115"/>
+      <c r="F44" s="112"/>
+      <c r="G44" s="130"/>
+      <c r="H44" s="126" t="s">
         <v>53</v>
       </c>
-      <c r="I43" s="114"/>
-      <c r="J43" s="114"/>
-      <c r="K43" s="114"/>
-      <c r="L43" s="114"/>
-      <c r="M43" s="114"/>
-      <c r="N43" s="115"/>
-    </row>
-    <row r="44" spans="1:14" customHeight="1" ht="12.75">
-      <c r="A44" s="100"/>
-      <c r="B44" s="105"/>
-      <c r="C44" s="106"/>
-      <c r="D44" s="107"/>
-      <c r="E44" s="101"/>
-      <c r="F44" s="100"/>
-      <c r="G44" s="116"/>
-      <c r="H44" s="112" t="s">
+      <c r="I44" s="127"/>
+      <c r="J44" s="127"/>
+      <c r="K44" s="125" t="s">
         <v>54</v>
       </c>
-      <c r="I44" s="113"/>
-      <c r="J44" s="113"/>
-      <c r="K44" s="111" t="s">
+      <c r="L44" s="125"/>
+      <c r="M44" s="131" t="s">
         <v>55</v>
       </c>
-      <c r="L44" s="111"/>
-      <c r="M44" s="117" t="s">
+      <c r="N44" s="132"/>
+    </row>
+    <row r="45" spans="1:14" customHeight="1" ht="12.75">
+      <c r="A45" s="112"/>
+      <c r="B45" s="119"/>
+      <c r="C45" s="120"/>
+      <c r="D45" s="121"/>
+      <c r="E45" s="115"/>
+      <c r="F45" s="112"/>
+      <c r="G45" s="130"/>
+      <c r="H45" s="126"/>
+      <c r="I45" s="127"/>
+      <c r="J45" s="127"/>
+      <c r="K45" s="125"/>
+      <c r="L45" s="125"/>
+      <c r="M45" s="133"/>
+      <c r="N45" s="134"/>
+    </row>
+    <row r="46" spans="1:14" customHeight="1" ht="12.75">
+      <c r="A46" s="112"/>
+      <c r="B46" s="119"/>
+      <c r="C46" s="120"/>
+      <c r="D46" s="121"/>
+      <c r="E46" s="115"/>
+      <c r="F46" s="112"/>
+      <c r="G46" s="130"/>
+      <c r="H46" s="126"/>
+      <c r="I46" s="127"/>
+      <c r="J46" s="127"/>
+      <c r="K46" s="125"/>
+      <c r="L46" s="125"/>
+      <c r="M46" s="133"/>
+      <c r="N46" s="134"/>
+    </row>
+    <row r="47" spans="1:14" customHeight="1" ht="12.75">
+      <c r="A47" s="112"/>
+      <c r="B47" s="119"/>
+      <c r="C47" s="120"/>
+      <c r="D47" s="121"/>
+      <c r="E47" s="115"/>
+      <c r="F47" s="112"/>
+      <c r="G47" s="130"/>
+      <c r="H47" s="126"/>
+      <c r="I47" s="127"/>
+      <c r="J47" s="127"/>
+      <c r="K47" s="125"/>
+      <c r="L47" s="125"/>
+      <c r="M47" s="133"/>
+      <c r="N47" s="134"/>
+    </row>
+    <row r="48" spans="1:14" customHeight="1" ht="14.1">
+      <c r="A48" s="112"/>
+      <c r="B48" s="119"/>
+      <c r="C48" s="120"/>
+      <c r="D48" s="121"/>
+      <c r="E48" s="115"/>
+      <c r="F48" s="112"/>
+      <c r="G48" s="130"/>
+      <c r="H48" s="137" t="s">
         <v>56</v>
       </c>
-      <c r="N44" s="118"/>
-    </row>
-    <row r="45" spans="1:14" customHeight="1" ht="12.75">
-      <c r="A45" s="100"/>
-      <c r="B45" s="105"/>
-      <c r="C45" s="106"/>
-      <c r="D45" s="107"/>
-      <c r="E45" s="101"/>
-      <c r="F45" s="100"/>
-      <c r="G45" s="116"/>
-      <c r="H45" s="112"/>
-      <c r="I45" s="113"/>
-      <c r="J45" s="113"/>
-      <c r="K45" s="111"/>
-      <c r="L45" s="111"/>
-      <c r="M45" s="119"/>
-      <c r="N45" s="120"/>
-    </row>
-    <row r="46" spans="1:14" customHeight="1" ht="12.75">
-      <c r="A46" s="100"/>
-      <c r="B46" s="105"/>
-      <c r="C46" s="106"/>
-      <c r="D46" s="107"/>
-      <c r="E46" s="101"/>
-      <c r="F46" s="100"/>
-      <c r="G46" s="116"/>
-      <c r="H46" s="112"/>
-      <c r="I46" s="113"/>
-      <c r="J46" s="113"/>
-      <c r="K46" s="111"/>
-      <c r="L46" s="111"/>
-      <c r="M46" s="119"/>
-      <c r="N46" s="120"/>
-    </row>
-    <row r="47" spans="1:14" customHeight="1" ht="12.75">
-      <c r="A47" s="100"/>
-      <c r="B47" s="105"/>
-      <c r="C47" s="106"/>
-      <c r="D47" s="107"/>
-      <c r="E47" s="101"/>
-      <c r="F47" s="100"/>
-      <c r="G47" s="116"/>
-      <c r="H47" s="112"/>
-      <c r="I47" s="113"/>
-      <c r="J47" s="113"/>
-      <c r="K47" s="111"/>
-      <c r="L47" s="111"/>
-      <c r="M47" s="119"/>
-      <c r="N47" s="120"/>
-    </row>
-    <row r="48" spans="1:14" customHeight="1" ht="14.1">
-      <c r="A48" s="100"/>
-      <c r="B48" s="105"/>
-      <c r="C48" s="106"/>
-      <c r="D48" s="107"/>
-      <c r="E48" s="101"/>
-      <c r="F48" s="100"/>
-      <c r="G48" s="116"/>
-      <c r="H48" s="123" t="s">
+      <c r="I48" s="139" t="s">
         <v>57</v>
       </c>
-      <c r="I48" s="125" t="s">
+      <c r="J48" s="141" t="s">
         <v>58</v>
       </c>
-      <c r="J48" s="127" t="s">
+      <c r="K48" s="143" t="s">
         <v>59</v>
       </c>
-      <c r="K48" s="129" t="s">
+      <c r="L48" s="144" t="s">
         <v>60</v>
       </c>
-      <c r="L48" s="130" t="s">
+      <c r="M48" s="133"/>
+      <c r="N48" s="134"/>
+    </row>
+    <row r="49" spans="1:14" customHeight="1" ht="13.5">
+      <c r="A49" s="112"/>
+      <c r="B49" s="122"/>
+      <c r="C49" s="123"/>
+      <c r="D49" s="124"/>
+      <c r="E49" s="115"/>
+      <c r="F49" s="112"/>
+      <c r="G49" s="130"/>
+      <c r="H49" s="138"/>
+      <c r="I49" s="140"/>
+      <c r="J49" s="142"/>
+      <c r="K49" s="144"/>
+      <c r="L49" s="127"/>
+      <c r="M49" s="135"/>
+      <c r="N49" s="136"/>
+    </row>
+    <row r="50" spans="1:14">
+      <c r="A50" s="157" t="s">
         <v>61</v>
       </c>
-      <c r="M48" s="119"/>
-      <c r="N48" s="120"/>
-    </row>
-    <row r="49" spans="1:14" customHeight="1" ht="13.5">
-      <c r="A49" s="100"/>
-      <c r="B49" s="108"/>
-      <c r="C49" s="109"/>
-      <c r="D49" s="110"/>
-      <c r="E49" s="101"/>
-      <c r="F49" s="100"/>
-      <c r="G49" s="116"/>
-      <c r="H49" s="124"/>
-      <c r="I49" s="126"/>
-      <c r="J49" s="128"/>
-      <c r="K49" s="130"/>
-      <c r="L49" s="113"/>
-      <c r="M49" s="121"/>
-      <c r="N49" s="122"/>
-    </row>
-    <row r="50" spans="1:14">
-      <c r="A50" s="145"/>
-      <c r="B50" s="148" t="s">
+      <c r="B50" s="146"/>
+      <c r="C50" s="147"/>
+      <c r="D50" s="147"/>
+      <c r="E50" s="147"/>
+      <c r="F50" s="148"/>
+      <c r="G50" s="149"/>
+      <c r="H50" s="147"/>
+      <c r="I50" s="149"/>
+      <c r="J50" s="149"/>
+      <c r="K50" s="150"/>
+      <c r="L50" s="150"/>
+      <c r="M50" s="150"/>
+      <c r="N50" s="155"/>
+    </row>
+    <row r="51" spans="1:14">
+      <c r="A51" s="145" t="s">
         <v>62</v>
       </c>
-      <c r="C50" s="146"/>
-      <c r="D50" s="147"/>
-      <c r="E50" s="149">
-        <v>80</v>
-      </c>
-      <c r="F50" s="150" t="s">
+      <c r="B51" s="151"/>
+      <c r="C51" s="151"/>
+      <c r="D51" s="151"/>
+      <c r="E51" s="151"/>
+      <c r="F51" s="153"/>
+      <c r="G51" s="154"/>
+      <c r="H51" s="151"/>
+      <c r="I51" s="154"/>
+      <c r="J51" s="154"/>
+      <c r="K51" s="152"/>
+      <c r="L51" s="152"/>
+      <c r="M51" s="152"/>
+      <c r="N51" s="156"/>
+    </row>
+    <row r="52" spans="1:14">
+      <c r="A52" s="158"/>
+      <c r="B52" s="161"/>
+      <c r="C52" s="161"/>
+      <c r="D52" s="161"/>
+      <c r="E52" s="161"/>
+      <c r="F52" s="164"/>
+      <c r="G52" s="167"/>
+      <c r="H52" s="161"/>
+      <c r="I52" s="167"/>
+      <c r="J52" s="167"/>
+      <c r="K52" s="162"/>
+      <c r="L52" s="162"/>
+      <c r="M52" s="162"/>
+      <c r="N52" s="170"/>
+    </row>
+    <row r="53" spans="1:14">
+      <c r="A53" s="159"/>
+      <c r="B53" s="162"/>
+      <c r="C53" s="162"/>
+      <c r="D53" s="162"/>
+      <c r="E53" s="162"/>
+      <c r="F53" s="165"/>
+      <c r="G53" s="168"/>
+      <c r="H53" s="162"/>
+      <c r="I53" s="168"/>
+      <c r="J53" s="168"/>
+      <c r="K53" s="162"/>
+      <c r="L53" s="162"/>
+      <c r="M53" s="162"/>
+      <c r="N53" s="170"/>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="A54" s="159"/>
+      <c r="B54" s="162"/>
+      <c r="C54" s="162"/>
+      <c r="D54" s="162"/>
+      <c r="E54" s="162"/>
+      <c r="F54" s="165"/>
+      <c r="G54" s="168"/>
+      <c r="H54" s="162"/>
+      <c r="I54" s="168"/>
+      <c r="J54" s="168"/>
+      <c r="K54" s="162"/>
+      <c r="L54" s="162"/>
+      <c r="M54" s="162"/>
+      <c r="N54" s="170"/>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="A55" s="159"/>
+      <c r="B55" s="162"/>
+      <c r="C55" s="162"/>
+      <c r="D55" s="162"/>
+      <c r="E55" s="162"/>
+      <c r="F55" s="165"/>
+      <c r="G55" s="168"/>
+      <c r="H55" s="162"/>
+      <c r="I55" s="168"/>
+      <c r="J55" s="168"/>
+      <c r="K55" s="162"/>
+      <c r="L55" s="162"/>
+      <c r="M55" s="162"/>
+      <c r="N55" s="170"/>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="A56" s="159"/>
+      <c r="B56" s="162"/>
+      <c r="C56" s="162"/>
+      <c r="D56" s="162"/>
+      <c r="E56" s="162"/>
+      <c r="F56" s="165"/>
+      <c r="G56" s="168"/>
+      <c r="H56" s="162"/>
+      <c r="I56" s="168"/>
+      <c r="J56" s="168"/>
+      <c r="K56" s="162"/>
+      <c r="L56" s="162"/>
+      <c r="M56" s="162"/>
+      <c r="N56" s="170"/>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="A57" s="159"/>
+      <c r="B57" s="162"/>
+      <c r="C57" s="162"/>
+      <c r="D57" s="162"/>
+      <c r="E57" s="162"/>
+      <c r="F57" s="165"/>
+      <c r="G57" s="168"/>
+      <c r="H57" s="162"/>
+      <c r="I57" s="168"/>
+      <c r="J57" s="168"/>
+      <c r="K57" s="162"/>
+      <c r="L57" s="162"/>
+      <c r="M57" s="162"/>
+      <c r="N57" s="170"/>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="A58" s="159"/>
+      <c r="B58" s="162"/>
+      <c r="C58" s="162"/>
+      <c r="D58" s="162"/>
+      <c r="E58" s="162"/>
+      <c r="F58" s="165"/>
+      <c r="G58" s="168"/>
+      <c r="H58" s="162"/>
+      <c r="I58" s="168"/>
+      <c r="J58" s="168"/>
+      <c r="K58" s="162"/>
+      <c r="L58" s="162"/>
+      <c r="M58" s="162"/>
+      <c r="N58" s="170"/>
+    </row>
+    <row r="59" spans="1:14">
+      <c r="A59" s="159"/>
+      <c r="B59" s="162"/>
+      <c r="C59" s="162"/>
+      <c r="D59" s="162"/>
+      <c r="E59" s="162"/>
+      <c r="F59" s="165"/>
+      <c r="G59" s="168"/>
+      <c r="H59" s="162"/>
+      <c r="I59" s="168"/>
+      <c r="J59" s="168"/>
+      <c r="K59" s="162"/>
+      <c r="L59" s="162"/>
+      <c r="M59" s="162"/>
+      <c r="N59" s="170"/>
+    </row>
+    <row r="60" spans="1:14">
+      <c r="A60" s="159"/>
+      <c r="B60" s="162"/>
+      <c r="C60" s="162"/>
+      <c r="D60" s="162"/>
+      <c r="E60" s="162"/>
+      <c r="F60" s="165"/>
+      <c r="G60" s="168"/>
+      <c r="H60" s="162"/>
+      <c r="I60" s="168"/>
+      <c r="J60" s="168"/>
+      <c r="K60" s="162"/>
+      <c r="L60" s="162"/>
+      <c r="M60" s="162"/>
+      <c r="N60" s="170"/>
+    </row>
+    <row r="61" spans="1:14">
+      <c r="A61" s="159"/>
+      <c r="B61" s="162"/>
+      <c r="C61" s="162"/>
+      <c r="D61" s="162"/>
+      <c r="E61" s="162"/>
+      <c r="F61" s="165"/>
+      <c r="G61" s="168"/>
+      <c r="H61" s="162"/>
+      <c r="I61" s="168"/>
+      <c r="J61" s="168"/>
+      <c r="K61" s="162"/>
+      <c r="L61" s="162"/>
+      <c r="M61" s="162"/>
+      <c r="N61" s="170"/>
+    </row>
+    <row r="62" spans="1:14">
+      <c r="A62" s="160"/>
+      <c r="B62" s="163"/>
+      <c r="C62" s="163"/>
+      <c r="D62" s="163"/>
+      <c r="E62" s="163"/>
+      <c r="F62" s="166"/>
+      <c r="G62" s="169"/>
+      <c r="H62" s="163"/>
+      <c r="I62" s="169"/>
+      <c r="J62" s="169"/>
+      <c r="K62" s="163"/>
+      <c r="L62" s="163"/>
+      <c r="M62" s="163"/>
+      <c r="N62" s="171"/>
+    </row>
+    <row r="63" spans="1:14">
+      <c r="A63" s="173" t="s">
         <v>63</v>
       </c>
-      <c r="G50" s="151">
-        <v>500</v>
-      </c>
-      <c r="H50" s="152"/>
-      <c r="I50" s="153"/>
-      <c r="J50" s="154"/>
-      <c r="K50" s="155"/>
-      <c r="L50" s="156"/>
-      <c r="M50" s="157"/>
-      <c r="N50" s="158"/>
-    </row>
-    <row r="51" spans="1:14">
-      <c r="A51" s="173" t="s">
+      <c r="B63" s="179"/>
+      <c r="C63" s="175"/>
+      <c r="D63" s="177"/>
+      <c r="E63" s="185" t="s">
         <v>64</v>
       </c>
-      <c r="B51" s="161"/>
-      <c r="C51" s="161"/>
-      <c r="D51" s="161"/>
-      <c r="E51" s="161"/>
-      <c r="F51" s="162"/>
-      <c r="G51" s="163"/>
-      <c r="H51" s="161"/>
-      <c r="I51" s="163"/>
-      <c r="J51" s="163"/>
-      <c r="K51" s="164"/>
-      <c r="L51" s="164"/>
-      <c r="M51" s="164"/>
-      <c r="N51" s="171"/>
-    </row>
-    <row r="52" spans="1:14">
-      <c r="A52" s="159" t="s">
+      <c r="F63" s="181"/>
+      <c r="G63" s="183"/>
+      <c r="H63" s="191"/>
+      <c r="I63" s="187"/>
+      <c r="J63" s="189"/>
+      <c r="K63" s="194" t="s">
         <v>65</v>
       </c>
-      <c r="B52" s="165"/>
-      <c r="C52" s="165"/>
-      <c r="D52" s="165"/>
-      <c r="E52" s="165"/>
-      <c r="F52" s="167"/>
-      <c r="G52" s="169"/>
-      <c r="H52" s="165"/>
-      <c r="I52" s="169"/>
-      <c r="J52" s="169"/>
-      <c r="K52" s="166"/>
-      <c r="L52" s="166"/>
-      <c r="M52" s="166"/>
-      <c r="N52" s="172"/>
-    </row>
-    <row r="53" spans="1:14">
-      <c r="A53" s="160" t="s">
+      <c r="L63" s="195"/>
+      <c r="M63" s="199"/>
+      <c r="N63" s="197"/>
+    </row>
+    <row r="64" spans="1:14">
+      <c r="A64" s="172"/>
+      <c r="B64" s="174"/>
+      <c r="C64" s="176"/>
+      <c r="D64" s="178"/>
+      <c r="E64" s="180"/>
+      <c r="F64" s="182"/>
+      <c r="G64" s="184"/>
+      <c r="H64" s="186"/>
+      <c r="I64" s="188"/>
+      <c r="J64" s="190"/>
+      <c r="K64" s="192"/>
+      <c r="L64" s="193"/>
+      <c r="M64" s="196"/>
+      <c r="N64" s="198"/>
+    </row>
+    <row r="65" spans="1:14">
+      <c r="A65" s="206"/>
+      <c r="B65" s="92"/>
+      <c r="C65" s="92"/>
+      <c r="D65" s="92"/>
+      <c r="E65" s="92"/>
+      <c r="F65" s="94"/>
+      <c r="G65" s="95"/>
+      <c r="H65" s="92"/>
+      <c r="I65" s="95"/>
+      <c r="J65" s="95"/>
+      <c r="K65" s="92"/>
+      <c r="L65" s="92"/>
+      <c r="M65" s="92"/>
+      <c r="N65" s="205"/>
+    </row>
+    <row r="66" spans="1:14">
+      <c r="A66" s="200" t="s">
         <v>66</v>
       </c>
-      <c r="B53" s="166"/>
-      <c r="C53" s="166"/>
-      <c r="D53" s="166"/>
-      <c r="E53" s="166"/>
-      <c r="F53" s="168"/>
-      <c r="G53" s="170"/>
-      <c r="H53" s="166"/>
-      <c r="I53" s="170"/>
-      <c r="J53" s="170"/>
-      <c r="K53" s="166"/>
-      <c r="L53" s="166"/>
-      <c r="M53" s="166"/>
-      <c r="N53" s="172"/>
-    </row>
-    <row r="54" spans="1:14">
-      <c r="A54" s="174"/>
-      <c r="B54" s="176"/>
-      <c r="C54" s="176"/>
-      <c r="D54" s="176"/>
-      <c r="E54" s="176"/>
-      <c r="F54" s="178"/>
-      <c r="G54" s="180"/>
-      <c r="H54" s="176"/>
-      <c r="I54" s="180"/>
-      <c r="J54" s="180"/>
-      <c r="K54" s="176"/>
-      <c r="L54" s="176"/>
-      <c r="M54" s="176"/>
-      <c r="N54" s="182"/>
-    </row>
-    <row r="55" spans="1:14">
-      <c r="A55" s="174"/>
-      <c r="B55" s="176"/>
-      <c r="C55" s="176"/>
-      <c r="D55" s="176"/>
-      <c r="E55" s="176"/>
-      <c r="F55" s="178"/>
-      <c r="G55" s="180"/>
-      <c r="H55" s="176"/>
-      <c r="I55" s="180"/>
-      <c r="J55" s="180"/>
-      <c r="K55" s="176"/>
-      <c r="L55" s="176"/>
-      <c r="M55" s="176"/>
-      <c r="N55" s="182"/>
-    </row>
-    <row r="56" spans="1:14">
-      <c r="A56" s="174"/>
-      <c r="B56" s="176"/>
-      <c r="C56" s="176"/>
-      <c r="D56" s="176"/>
-      <c r="E56" s="176"/>
-      <c r="F56" s="178"/>
-      <c r="G56" s="180"/>
-      <c r="H56" s="176"/>
-      <c r="I56" s="180"/>
-      <c r="J56" s="180"/>
-      <c r="K56" s="176"/>
-      <c r="L56" s="176"/>
-      <c r="M56" s="176"/>
-      <c r="N56" s="182"/>
-    </row>
-    <row r="57" spans="1:14">
-      <c r="A57" s="174"/>
-      <c r="B57" s="176"/>
-      <c r="C57" s="176"/>
-      <c r="D57" s="176"/>
-      <c r="E57" s="176"/>
-      <c r="F57" s="178"/>
-      <c r="G57" s="180"/>
-      <c r="H57" s="176"/>
-      <c r="I57" s="180"/>
-      <c r="J57" s="180"/>
-      <c r="K57" s="176"/>
-      <c r="L57" s="176"/>
-      <c r="M57" s="176"/>
-      <c r="N57" s="182"/>
-    </row>
-    <row r="58" spans="1:14">
-      <c r="A58" s="174"/>
-      <c r="B58" s="176"/>
-      <c r="C58" s="176"/>
-      <c r="D58" s="176"/>
-      <c r="E58" s="176"/>
-      <c r="F58" s="178"/>
-      <c r="G58" s="180"/>
-      <c r="H58" s="176"/>
-      <c r="I58" s="180"/>
-      <c r="J58" s="180"/>
-      <c r="K58" s="176"/>
-      <c r="L58" s="176"/>
-      <c r="M58" s="176"/>
-      <c r="N58" s="182"/>
-    </row>
-    <row r="59" spans="1:14">
-      <c r="A59" s="174"/>
-      <c r="B59" s="176"/>
-      <c r="C59" s="176"/>
-      <c r="D59" s="176"/>
-      <c r="E59" s="176"/>
-      <c r="F59" s="178"/>
-      <c r="G59" s="180"/>
-      <c r="H59" s="176"/>
-      <c r="I59" s="180"/>
-      <c r="J59" s="180"/>
-      <c r="K59" s="176"/>
-      <c r="L59" s="176"/>
-      <c r="M59" s="176"/>
-      <c r="N59" s="182"/>
-    </row>
-    <row r="60" spans="1:14">
-      <c r="A60" s="174"/>
-      <c r="B60" s="176"/>
-      <c r="C60" s="176"/>
-      <c r="D60" s="176"/>
-      <c r="E60" s="176"/>
-      <c r="F60" s="178"/>
-      <c r="G60" s="180"/>
-      <c r="H60" s="176"/>
-      <c r="I60" s="180"/>
-      <c r="J60" s="180"/>
-      <c r="K60" s="176"/>
-      <c r="L60" s="176"/>
-      <c r="M60" s="176"/>
-      <c r="N60" s="182"/>
-    </row>
-    <row r="61" spans="1:14">
-      <c r="A61" s="174"/>
-      <c r="B61" s="176"/>
-      <c r="C61" s="176"/>
-      <c r="D61" s="176"/>
-      <c r="E61" s="176"/>
-      <c r="F61" s="178"/>
-      <c r="G61" s="180"/>
-      <c r="H61" s="176"/>
-      <c r="I61" s="180"/>
-      <c r="J61" s="180"/>
-      <c r="K61" s="176"/>
-      <c r="L61" s="176"/>
-      <c r="M61" s="176"/>
-      <c r="N61" s="182"/>
-    </row>
-    <row r="62" spans="1:14">
-      <c r="A62" s="174"/>
-      <c r="B62" s="176"/>
-      <c r="C62" s="176"/>
-      <c r="D62" s="176"/>
-      <c r="E62" s="176"/>
-      <c r="F62" s="178"/>
-      <c r="G62" s="180"/>
-      <c r="H62" s="176"/>
-      <c r="I62" s="180"/>
-      <c r="J62" s="180"/>
-      <c r="K62" s="176"/>
-      <c r="L62" s="176"/>
-      <c r="M62" s="176"/>
-      <c r="N62" s="182"/>
-    </row>
-    <row r="63" spans="1:14">
-      <c r="A63" s="175"/>
-      <c r="B63" s="177"/>
-      <c r="C63" s="177"/>
-      <c r="D63" s="177"/>
-      <c r="E63" s="177"/>
-      <c r="F63" s="179"/>
-      <c r="G63" s="181"/>
-      <c r="H63" s="177"/>
-      <c r="I63" s="181"/>
-      <c r="J63" s="181"/>
-      <c r="K63" s="177"/>
-      <c r="L63" s="177"/>
-      <c r="M63" s="177"/>
-      <c r="N63" s="183"/>
-    </row>
-    <row r="64" spans="1:14">
-      <c r="A64" s="185" t="s">
+      <c r="B66" s="201"/>
+      <c r="C66" s="201"/>
+      <c r="D66" s="201"/>
+      <c r="E66" s="201"/>
+      <c r="F66" s="202"/>
+      <c r="G66" s="203"/>
+      <c r="H66" s="201"/>
+      <c r="I66" s="203"/>
+      <c r="J66" s="203"/>
+      <c r="K66" s="201"/>
+      <c r="L66" s="201"/>
+      <c r="M66" s="201"/>
+      <c r="N66" s="204"/>
+    </row>
+    <row r="67" spans="1:14">
+      <c r="A67" s="207" t="s">
         <v>67</v>
       </c>
-      <c r="B64" s="191"/>
-      <c r="C64" s="187"/>
-      <c r="D64" s="189"/>
-      <c r="E64" s="197" t="s">
+      <c r="B67" s="208"/>
+      <c r="C67" s="208"/>
+      <c r="D67" s="208"/>
+      <c r="E67" s="208"/>
+      <c r="F67" s="209"/>
+      <c r="G67" s="210"/>
+      <c r="H67" s="208"/>
+      <c r="I67" s="210"/>
+      <c r="J67" s="210"/>
+      <c r="K67" s="208"/>
+      <c r="L67" s="208"/>
+      <c r="M67" s="208"/>
+      <c r="N67" s="211"/>
+    </row>
+    <row r="68" spans="1:14">
+      <c r="A68" s="212" t="s">
         <v>68</v>
       </c>
-      <c r="F64" s="193"/>
-      <c r="G64" s="195"/>
-      <c r="H64" s="203"/>
-      <c r="I64" s="199"/>
-      <c r="J64" s="201"/>
-      <c r="K64" s="206" t="s">
+      <c r="B68" s="213"/>
+      <c r="C68" s="214"/>
+      <c r="D68" s="214"/>
+      <c r="E68" s="214"/>
+      <c r="F68" s="215"/>
+      <c r="G68" s="216"/>
+      <c r="H68" s="214"/>
+      <c r="I68" s="216"/>
+      <c r="J68" s="216"/>
+      <c r="K68" s="214"/>
+      <c r="L68" s="214"/>
+      <c r="M68" s="214"/>
+      <c r="N68" s="217"/>
+    </row>
+    <row r="69" spans="1:14">
+      <c r="A69" s="218" t="s">
         <v>69</v>
       </c>
-      <c r="L64" s="207"/>
-      <c r="M64" s="211"/>
-      <c r="N64" s="209"/>
-    </row>
-    <row r="65" spans="1:14">
-      <c r="A65" s="184"/>
-      <c r="B65" s="186"/>
-      <c r="C65" s="188"/>
-      <c r="D65" s="190"/>
-      <c r="E65" s="192"/>
-      <c r="F65" s="194"/>
-      <c r="G65" s="196"/>
-      <c r="H65" s="198"/>
-      <c r="I65" s="200"/>
-      <c r="J65" s="202"/>
-      <c r="K65" s="204"/>
-      <c r="L65" s="205"/>
-      <c r="M65" s="208"/>
-      <c r="N65" s="210"/>
-    </row>
-    <row r="66" spans="1:14">
-      <c r="A66" s="218"/>
-      <c r="B66" s="92"/>
-      <c r="C66" s="92"/>
-      <c r="D66" s="92"/>
-      <c r="E66" s="92"/>
-      <c r="F66" s="94"/>
-      <c r="G66" s="95"/>
-      <c r="H66" s="92"/>
-      <c r="I66" s="95"/>
-      <c r="J66" s="95"/>
-      <c r="K66" s="92"/>
-      <c r="L66" s="92"/>
-      <c r="M66" s="92"/>
-      <c r="N66" s="217"/>
-    </row>
-    <row r="67" spans="1:14">
-      <c r="A67" s="212" t="s">
+      <c r="B69" s="219"/>
+      <c r="C69" s="220"/>
+      <c r="D69" s="220"/>
+      <c r="E69" s="220"/>
+      <c r="F69" s="221"/>
+      <c r="G69" s="222"/>
+      <c r="H69" s="220"/>
+      <c r="I69" s="222"/>
+      <c r="J69" s="222"/>
+      <c r="K69" s="220"/>
+      <c r="L69" s="220"/>
+      <c r="M69" s="220"/>
+      <c r="N69" s="223"/>
+    </row>
+    <row r="70" spans="1:14">
+      <c r="A70" s="224" t="s">
         <v>70</v>
       </c>
-      <c r="B67" s="213"/>
-      <c r="C67" s="213"/>
-      <c r="D67" s="213"/>
-      <c r="E67" s="213"/>
-      <c r="F67" s="214"/>
-      <c r="G67" s="215"/>
-      <c r="H67" s="213"/>
-      <c r="I67" s="215"/>
-      <c r="J67" s="215"/>
-      <c r="K67" s="213"/>
-      <c r="L67" s="213"/>
-      <c r="M67" s="213"/>
-      <c r="N67" s="216"/>
-    </row>
-    <row r="68" spans="1:14">
-      <c r="A68" s="219" t="s">
-        <v>71</v>
+      <c r="B70" s="225"/>
+      <c r="C70" s="226"/>
+      <c r="D70" s="226"/>
+      <c r="E70" s="226"/>
+      <c r="F70" s="227"/>
+      <c r="G70" s="228"/>
+      <c r="H70" s="229"/>
+      <c r="I70" s="230" t="s">
+        <v>6</v>
       </c>
-      <c r="B68" s="220"/>
-      <c r="C68" s="220"/>
-      <c r="D68" s="220"/>
-      <c r="E68" s="220"/>
-      <c r="F68" s="221"/>
-      <c r="G68" s="222"/>
-      <c r="H68" s="220"/>
-      <c r="I68" s="222"/>
-      <c r="J68" s="222"/>
-      <c r="K68" s="220"/>
-      <c r="L68" s="220"/>
-      <c r="M68" s="220"/>
-      <c r="N68" s="223"/>
-    </row>
-    <row r="69" spans="1:14">
-      <c r="A69" s="224" t="s">
-        <v>72</v>
-      </c>
-      <c r="B69" s="225"/>
-      <c r="C69" s="226"/>
-      <c r="D69" s="226"/>
-      <c r="E69" s="226"/>
-      <c r="F69" s="227"/>
-      <c r="G69" s="228"/>
-      <c r="H69" s="226"/>
-      <c r="I69" s="228"/>
-      <c r="J69" s="228"/>
-      <c r="K69" s="226"/>
-      <c r="L69" s="226"/>
-      <c r="M69" s="226"/>
-      <c r="N69" s="229"/>
-    </row>
-    <row r="70" spans="1:14">
-      <c r="A70" s="230" t="s">
-        <v>73</v>
-      </c>
-      <c r="B70" s="231"/>
-      <c r="C70" s="232"/>
-      <c r="D70" s="232"/>
-      <c r="E70" s="232"/>
-      <c r="F70" s="233"/>
-      <c r="G70" s="234"/>
-      <c r="H70" s="232"/>
-      <c r="I70" s="234"/>
-      <c r="J70" s="234"/>
+      <c r="J70" s="231"/>
       <c r="K70" s="232"/>
       <c r="L70" s="232"/>
       <c r="M70" s="232"/>
-      <c r="N70" s="235"/>
+      <c r="N70" s="233"/>
     </row>
     <row r="71" spans="1:14">
-      <c r="A71" s="236" t="s">
-        <v>74</v>
-      </c>
-      <c r="B71" s="237"/>
-      <c r="C71" s="238"/>
-      <c r="D71" s="238"/>
-      <c r="E71" s="238"/>
-      <c r="F71" s="239"/>
-      <c r="G71" s="240"/>
-      <c r="H71" s="241"/>
-      <c r="I71" s="242" t="s">
-        <v>6</v>
-      </c>
-      <c r="J71" s="243"/>
-      <c r="K71" s="244"/>
-      <c r="L71" s="244"/>
-      <c r="M71" s="244"/>
-      <c r="N71" s="245"/>
+      <c r="A71" s="92"/>
+      <c r="B71" s="92"/>
+      <c r="C71" s="92"/>
+      <c r="D71" s="92"/>
+      <c r="E71" s="92"/>
+      <c r="F71" s="94"/>
+      <c r="G71" s="95"/>
+      <c r="H71" s="92"/>
+      <c r="I71" s="95"/>
+      <c r="J71" s="95"/>
+      <c r="K71" s="92"/>
+      <c r="L71" s="92"/>
+      <c r="M71" s="92"/>
+      <c r="N71" s="92"/>
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="92"/>
@@ -15921,6 +15857,20 @@
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
+    <mergeCell ref="F43:F49"/>
+    <mergeCell ref="E43:E49"/>
+    <mergeCell ref="B43:D49"/>
+    <mergeCell ref="A43:A49"/>
+    <mergeCell ref="K44:L47"/>
+    <mergeCell ref="H44:J47"/>
+    <mergeCell ref="H43:N43"/>
+    <mergeCell ref="G43:G49"/>
+    <mergeCell ref="M44:N49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="J48:J49"/>
+    <mergeCell ref="K48:K49"/>
+    <mergeCell ref="L48:L49"/>
     <mergeCell ref="L12:N12"/>
     <mergeCell ref="F13:J13"/>
     <mergeCell ref="L13:N13"/>
@@ -15937,33 +15887,19 @@
     <mergeCell ref="E15:N15"/>
     <mergeCell ref="E16:N16"/>
     <mergeCell ref="E17:N17"/>
-    <mergeCell ref="F43:F49"/>
-    <mergeCell ref="E43:E49"/>
-    <mergeCell ref="B43:D49"/>
-    <mergeCell ref="A43:A49"/>
-    <mergeCell ref="K44:L47"/>
-    <mergeCell ref="H44:J47"/>
-    <mergeCell ref="H43:N43"/>
-    <mergeCell ref="G43:G49"/>
-    <mergeCell ref="M44:N49"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="J48:J49"/>
-    <mergeCell ref="K48:K49"/>
-    <mergeCell ref="L48:L49"/>
-    <mergeCell ref="A51:N63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B64:D65"/>
-    <mergeCell ref="E64:G65"/>
-    <mergeCell ref="H64:J65"/>
-    <mergeCell ref="K64:L65"/>
-    <mergeCell ref="M64:N65"/>
+    <mergeCell ref="A50:N62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:D64"/>
+    <mergeCell ref="E63:G64"/>
+    <mergeCell ref="H63:J64"/>
+    <mergeCell ref="K63:L64"/>
+    <mergeCell ref="M63:N64"/>
+    <mergeCell ref="A66:N66"/>
     <mergeCell ref="A67:N67"/>
-    <mergeCell ref="A68:N68"/>
+    <mergeCell ref="B68:N68"/>
     <mergeCell ref="B69:N69"/>
-    <mergeCell ref="B70:N70"/>
-    <mergeCell ref="B71:H71"/>
-    <mergeCell ref="J71:N71"/>
+    <mergeCell ref="B70:H70"/>
+    <mergeCell ref="J70:N70"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.5" right="0.5" top="0" bottom="0.25" header="0.12" footer="0.12"/>

--- a/export_rfq.xlsx
+++ b/export_rfq.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="94">
   <si>
     <t>Republic of the Philippines</t>
   </si>
@@ -46,7 +46,7 @@
     <t>RFQ Number :</t>
   </si>
   <si>
-    <t>2020-0091</t>
+    <t>2020-0092</t>
   </si>
   <si>
     <t>Mode of Procurement:</t>
@@ -55,19 +55,19 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>March 13,   2020</t>
+    <t>March 10,   2020</t>
   </si>
   <si>
     <t>Office/End User:</t>
   </si>
   <si>
-    <t>FAD</t>
+    <t>LGMED</t>
   </si>
   <si>
     <t>Purpose:</t>
   </si>
   <si>
-    <t>For the use of Isuzu Fuego GNJ 918</t>
+    <t xml:space="preserve">Meeting of the Regional Task Force to End Local Communist Armed Conflict </t>
   </si>
   <si>
     <t>Company Name:</t>
@@ -169,6 +169,9 @@
     <t>Approved Budget for the Contract (ABC):</t>
   </si>
   <si>
+    <t>9,792.00</t>
+  </si>
+  <si>
     <t>DR. CARINA S. CRUZ</t>
   </si>
   <si>
@@ -221,6 +224,89 @@
   </si>
   <si>
     <t>NO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concrete Primer Paint
+</t>
+  </si>
+  <si>
+    <t>bottle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semi gloo paint (Cyan Blue)
+</t>
+  </si>
+  <si>
+    <t>gallon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concrete Neutralizer
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QDE
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paint varnish 350 ml
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glazing putty
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Red oxide
+</t>
+  </si>
+  <si>
+    <t>piece</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tinting color
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Putty knife
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empty paint can
+</t>
+  </si>
+  <si>
+    <t>can</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sponge
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Used rags
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Used magazines
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assorted Paint Brush
+</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roller paint with tray
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assorted sand paper
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paint Thinner 350 ml
+</t>
   </si>
   <si>
     <t>REF:  approved and funded PPMP; approved and funded Activity Design	
@@ -597,7 +683,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="234">
+  <cellXfs count="465">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -1033,166 +1119,859 @@
     <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="166" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="166" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="166" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="166" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="166" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="166" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="166" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="166" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="166" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="166" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="166" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="166" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="166" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="166" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="166" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="166" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="166" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="166" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="166" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="165" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="166" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="165" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="166" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="17" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="17" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="166" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="166" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="165" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="166" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="165" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="166" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="166" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="5" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="166" fillId="2" borderId="10" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="166" fillId="2" borderId="3" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="11" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="12" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="166" fillId="2" borderId="10" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="166" fillId="2" borderId="3" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="165" fillId="2" borderId="11" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="165" fillId="2" borderId="12" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="5" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="10" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="3" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="11" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="12" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="165" fillId="2" borderId="10" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="165" fillId="2" borderId="3" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="165" fillId="2" borderId="11" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="165" fillId="2" borderId="12" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="5" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="bottom" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -1697,7 +2476,7 @@
   <dimension ref="A1:N877"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="145" zoomScaleNormal="55" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="N70" sqref="N70"/>
+      <selection activeCell="N87" sqref="N87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2363,8 +3142,8 @@
       <c r="B38" s="112"/>
       <c r="C38" s="112"/>
       <c r="D38" s="112"/>
-      <c r="E38" s="113">
-        <v>0</v>
+      <c r="E38" s="113" t="s">
+        <v>45</v>
       </c>
       <c r="F38" s="113"/>
       <c r="G38" s="113"/>
@@ -2404,7 +3183,7 @@
       <c r="I40" s="89"/>
       <c r="J40" s="89"/>
       <c r="K40" s="17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L40" s="18"/>
       <c r="M40" s="18"/>
@@ -2421,7 +3200,7 @@
       <c r="H41" s="113"/>
       <c r="I41" s="90"/>
       <c r="J41" s="19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K41" s="19"/>
       <c r="L41" s="19"/>
@@ -2446,24 +3225,24 @@
     </row>
     <row r="43" spans="1:14" customHeight="1" ht="14.25">
       <c r="A43" s="112" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43" s="116" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C43" s="117"/>
       <c r="D43" s="118"/>
       <c r="E43" s="115" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F43" s="112" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G43" s="130" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H43" s="128" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I43" s="128"/>
       <c r="J43" s="128"/>
@@ -2481,16 +3260,16 @@
       <c r="F44" s="112"/>
       <c r="G44" s="130"/>
       <c r="H44" s="126" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I44" s="127"/>
       <c r="J44" s="127"/>
       <c r="K44" s="125" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L44" s="125"/>
       <c r="M44" s="131" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N44" s="132"/>
     </row>
@@ -2551,19 +3330,19 @@
       <c r="F48" s="112"/>
       <c r="G48" s="130"/>
       <c r="H48" s="137" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I48" s="139" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J48" s="141" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K48" s="143" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L48" s="144" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M48" s="133"/>
       <c r="N48" s="134"/>
@@ -2585,541 +3364,665 @@
       <c r="N49" s="136"/>
     </row>
     <row r="50" spans="1:14">
-      <c r="A50" s="157" t="s">
-        <v>61</v>
-      </c>
-      <c r="B50" s="146"/>
-      <c r="C50" s="147"/>
-      <c r="D50" s="147"/>
-      <c r="E50" s="147"/>
-      <c r="F50" s="148"/>
-      <c r="G50" s="149"/>
-      <c r="H50" s="147"/>
-      <c r="I50" s="149"/>
-      <c r="J50" s="149"/>
-      <c r="K50" s="150"/>
-      <c r="L50" s="150"/>
-      <c r="M50" s="150"/>
-      <c r="N50" s="155"/>
-    </row>
-    <row r="51" spans="1:14">
-      <c r="A51" s="145" t="s">
+      <c r="A50" s="145"/>
+      <c r="B50" s="148" t="s">
         <v>62</v>
       </c>
-      <c r="B51" s="151"/>
-      <c r="C51" s="151"/>
-      <c r="D51" s="151"/>
-      <c r="E51" s="151"/>
-      <c r="F51" s="153"/>
-      <c r="G51" s="154"/>
-      <c r="H51" s="151"/>
-      <c r="I51" s="154"/>
-      <c r="J51" s="154"/>
-      <c r="K51" s="152"/>
-      <c r="L51" s="152"/>
-      <c r="M51" s="152"/>
-      <c r="N51" s="156"/>
-    </row>
-    <row r="52" spans="1:14">
-      <c r="A52" s="158"/>
-      <c r="B52" s="161"/>
-      <c r="C52" s="161"/>
-      <c r="D52" s="161"/>
-      <c r="E52" s="161"/>
-      <c r="F52" s="164"/>
-      <c r="G52" s="167"/>
-      <c r="H52" s="161"/>
-      <c r="I52" s="167"/>
-      <c r="J52" s="167"/>
-      <c r="K52" s="162"/>
-      <c r="L52" s="162"/>
-      <c r="M52" s="162"/>
-      <c r="N52" s="170"/>
-    </row>
-    <row r="53" spans="1:14">
-      <c r="A53" s="159"/>
-      <c r="B53" s="162"/>
-      <c r="C53" s="162"/>
-      <c r="D53" s="162"/>
-      <c r="E53" s="162"/>
-      <c r="F53" s="165"/>
-      <c r="G53" s="168"/>
-      <c r="H53" s="162"/>
-      <c r="I53" s="168"/>
-      <c r="J53" s="168"/>
-      <c r="K53" s="162"/>
-      <c r="L53" s="162"/>
-      <c r="M53" s="162"/>
-      <c r="N53" s="170"/>
-    </row>
-    <row r="54" spans="1:14">
-      <c r="A54" s="159"/>
-      <c r="B54" s="162"/>
-      <c r="C54" s="162"/>
-      <c r="D54" s="162"/>
-      <c r="E54" s="162"/>
-      <c r="F54" s="165"/>
-      <c r="G54" s="168"/>
-      <c r="H54" s="162"/>
-      <c r="I54" s="168"/>
-      <c r="J54" s="168"/>
-      <c r="K54" s="162"/>
-      <c r="L54" s="162"/>
-      <c r="M54" s="162"/>
-      <c r="N54" s="170"/>
-    </row>
-    <row r="55" spans="1:14">
-      <c r="A55" s="159"/>
-      <c r="B55" s="162"/>
-      <c r="C55" s="162"/>
-      <c r="D55" s="162"/>
-      <c r="E55" s="162"/>
-      <c r="F55" s="165"/>
-      <c r="G55" s="168"/>
-      <c r="H55" s="162"/>
-      <c r="I55" s="168"/>
-      <c r="J55" s="168"/>
-      <c r="K55" s="162"/>
-      <c r="L55" s="162"/>
-      <c r="M55" s="162"/>
-      <c r="N55" s="170"/>
-    </row>
-    <row r="56" spans="1:14">
-      <c r="A56" s="159"/>
-      <c r="B56" s="162"/>
-      <c r="C56" s="162"/>
-      <c r="D56" s="162"/>
-      <c r="E56" s="162"/>
-      <c r="F56" s="165"/>
-      <c r="G56" s="168"/>
-      <c r="H56" s="162"/>
-      <c r="I56" s="168"/>
-      <c r="J56" s="168"/>
-      <c r="K56" s="162"/>
-      <c r="L56" s="162"/>
-      <c r="M56" s="162"/>
-      <c r="N56" s="170"/>
-    </row>
-    <row r="57" spans="1:14">
-      <c r="A57" s="159"/>
-      <c r="B57" s="162"/>
-      <c r="C57" s="162"/>
-      <c r="D57" s="162"/>
-      <c r="E57" s="162"/>
-      <c r="F57" s="165"/>
-      <c r="G57" s="168"/>
-      <c r="H57" s="162"/>
-      <c r="I57" s="168"/>
-      <c r="J57" s="168"/>
-      <c r="K57" s="162"/>
-      <c r="L57" s="162"/>
-      <c r="M57" s="162"/>
-      <c r="N57" s="170"/>
-    </row>
-    <row r="58" spans="1:14">
-      <c r="A58" s="159"/>
-      <c r="B58" s="162"/>
-      <c r="C58" s="162"/>
-      <c r="D58" s="162"/>
-      <c r="E58" s="162"/>
-      <c r="F58" s="165"/>
-      <c r="G58" s="168"/>
-      <c r="H58" s="162"/>
-      <c r="I58" s="168"/>
-      <c r="J58" s="168"/>
-      <c r="K58" s="162"/>
-      <c r="L58" s="162"/>
-      <c r="M58" s="162"/>
-      <c r="N58" s="170"/>
-    </row>
-    <row r="59" spans="1:14">
-      <c r="A59" s="159"/>
-      <c r="B59" s="162"/>
-      <c r="C59" s="162"/>
-      <c r="D59" s="162"/>
-      <c r="E59" s="162"/>
-      <c r="F59" s="165"/>
-      <c r="G59" s="168"/>
-      <c r="H59" s="162"/>
-      <c r="I59" s="168"/>
-      <c r="J59" s="168"/>
-      <c r="K59" s="162"/>
-      <c r="L59" s="162"/>
-      <c r="M59" s="162"/>
-      <c r="N59" s="170"/>
-    </row>
-    <row r="60" spans="1:14">
-      <c r="A60" s="159"/>
-      <c r="B60" s="162"/>
-      <c r="C60" s="162"/>
-      <c r="D60" s="162"/>
-      <c r="E60" s="162"/>
-      <c r="F60" s="165"/>
-      <c r="G60" s="168"/>
-      <c r="H60" s="162"/>
-      <c r="I60" s="168"/>
-      <c r="J60" s="168"/>
-      <c r="K60" s="162"/>
-      <c r="L60" s="162"/>
-      <c r="M60" s="162"/>
-      <c r="N60" s="170"/>
-    </row>
-    <row r="61" spans="1:14">
-      <c r="A61" s="159"/>
-      <c r="B61" s="162"/>
-      <c r="C61" s="162"/>
-      <c r="D61" s="162"/>
-      <c r="E61" s="162"/>
-      <c r="F61" s="165"/>
-      <c r="G61" s="168"/>
-      <c r="H61" s="162"/>
-      <c r="I61" s="168"/>
-      <c r="J61" s="168"/>
-      <c r="K61" s="162"/>
-      <c r="L61" s="162"/>
-      <c r="M61" s="162"/>
-      <c r="N61" s="170"/>
-    </row>
-    <row r="62" spans="1:14">
-      <c r="A62" s="160"/>
-      <c r="B62" s="163"/>
-      <c r="C62" s="163"/>
-      <c r="D62" s="163"/>
-      <c r="E62" s="163"/>
-      <c r="F62" s="166"/>
-      <c r="G62" s="169"/>
-      <c r="H62" s="163"/>
-      <c r="I62" s="169"/>
-      <c r="J62" s="169"/>
-      <c r="K62" s="163"/>
-      <c r="L62" s="163"/>
-      <c r="M62" s="163"/>
-      <c r="N62" s="171"/>
-    </row>
-    <row r="63" spans="1:14">
-      <c r="A63" s="173" t="s">
+      <c r="C50" s="146"/>
+      <c r="D50" s="147"/>
+      <c r="E50" s="149">
+        <v>4</v>
+      </c>
+      <c r="F50" s="150" t="s">
         <v>63</v>
       </c>
-      <c r="B63" s="179"/>
-      <c r="C63" s="175"/>
-      <c r="D63" s="177"/>
-      <c r="E63" s="185" t="s">
+      <c r="G50" s="151">
+        <v>230</v>
+      </c>
+      <c r="H50" s="152"/>
+      <c r="I50" s="153"/>
+      <c r="J50" s="154"/>
+      <c r="K50" s="155"/>
+      <c r="L50" s="156"/>
+      <c r="M50" s="157"/>
+      <c r="N50" s="158"/>
+    </row>
+    <row r="51" spans="1:14">
+      <c r="A51" s="159"/>
+      <c r="B51" s="162" t="s">
         <v>64</v>
       </c>
-      <c r="F63" s="181"/>
-      <c r="G63" s="183"/>
-      <c r="H63" s="191"/>
-      <c r="I63" s="187"/>
-      <c r="J63" s="189"/>
-      <c r="K63" s="194" t="s">
+      <c r="C51" s="160"/>
+      <c r="D51" s="161"/>
+      <c r="E51" s="163">
+        <v>6</v>
+      </c>
+      <c r="F51" s="164" t="s">
         <v>65</v>
       </c>
-      <c r="L63" s="195"/>
-      <c r="M63" s="199"/>
-      <c r="N63" s="197"/>
-    </row>
-    <row r="64" spans="1:14">
-      <c r="A64" s="172"/>
-      <c r="B64" s="174"/>
-      <c r="C64" s="176"/>
-      <c r="D64" s="178"/>
-      <c r="E64" s="180"/>
-      <c r="F64" s="182"/>
-      <c r="G64" s="184"/>
-      <c r="H64" s="186"/>
-      <c r="I64" s="188"/>
-      <c r="J64" s="190"/>
-      <c r="K64" s="192"/>
-      <c r="L64" s="193"/>
-      <c r="M64" s="196"/>
-      <c r="N64" s="198"/>
-    </row>
-    <row r="65" spans="1:14">
-      <c r="A65" s="206"/>
-      <c r="B65" s="92"/>
-      <c r="C65" s="92"/>
-      <c r="D65" s="92"/>
-      <c r="E65" s="92"/>
-      <c r="F65" s="94"/>
-      <c r="G65" s="95"/>
-      <c r="H65" s="92"/>
-      <c r="I65" s="95"/>
-      <c r="J65" s="95"/>
-      <c r="K65" s="92"/>
-      <c r="L65" s="92"/>
-      <c r="M65" s="92"/>
-      <c r="N65" s="205"/>
-    </row>
-    <row r="66" spans="1:14">
-      <c r="A66" s="200" t="s">
+      <c r="G51" s="165">
+        <v>800</v>
+      </c>
+      <c r="H51" s="166"/>
+      <c r="I51" s="167"/>
+      <c r="J51" s="168"/>
+      <c r="K51" s="169"/>
+      <c r="L51" s="170"/>
+      <c r="M51" s="171"/>
+      <c r="N51" s="172"/>
+    </row>
+    <row r="52" spans="1:14">
+      <c r="A52" s="173"/>
+      <c r="B52" s="176" t="s">
         <v>66</v>
       </c>
-      <c r="B66" s="201"/>
-      <c r="C66" s="201"/>
-      <c r="D66" s="201"/>
-      <c r="E66" s="201"/>
-      <c r="F66" s="202"/>
-      <c r="G66" s="203"/>
-      <c r="H66" s="201"/>
-      <c r="I66" s="203"/>
-      <c r="J66" s="203"/>
-      <c r="K66" s="201"/>
-      <c r="L66" s="201"/>
-      <c r="M66" s="201"/>
-      <c r="N66" s="204"/>
-    </row>
-    <row r="67" spans="1:14">
-      <c r="A67" s="207" t="s">
+      <c r="C52" s="174"/>
+      <c r="D52" s="175"/>
+      <c r="E52" s="177">
+        <v>1</v>
+      </c>
+      <c r="F52" s="178" t="s">
+        <v>63</v>
+      </c>
+      <c r="G52" s="179">
+        <v>350</v>
+      </c>
+      <c r="H52" s="180"/>
+      <c r="I52" s="181"/>
+      <c r="J52" s="182"/>
+      <c r="K52" s="183"/>
+      <c r="L52" s="184"/>
+      <c r="M52" s="185"/>
+      <c r="N52" s="186"/>
+    </row>
+    <row r="53" spans="1:14">
+      <c r="A53" s="187"/>
+      <c r="B53" s="190" t="s">
         <v>67</v>
       </c>
-      <c r="B67" s="208"/>
-      <c r="C67" s="208"/>
-      <c r="D67" s="208"/>
-      <c r="E67" s="208"/>
-      <c r="F67" s="209"/>
-      <c r="G67" s="210"/>
-      <c r="H67" s="208"/>
-      <c r="I67" s="210"/>
-      <c r="J67" s="210"/>
-      <c r="K67" s="208"/>
-      <c r="L67" s="208"/>
-      <c r="M67" s="208"/>
-      <c r="N67" s="211"/>
-    </row>
-    <row r="68" spans="1:14">
-      <c r="A68" s="212" t="s">
+      <c r="C53" s="188"/>
+      <c r="D53" s="189"/>
+      <c r="E53" s="191">
+        <v>1</v>
+      </c>
+      <c r="F53" s="192" t="s">
+        <v>63</v>
+      </c>
+      <c r="G53" s="193">
+        <v>600</v>
+      </c>
+      <c r="H53" s="194"/>
+      <c r="I53" s="195"/>
+      <c r="J53" s="196"/>
+      <c r="K53" s="197"/>
+      <c r="L53" s="198"/>
+      <c r="M53" s="199"/>
+      <c r="N53" s="200"/>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="A54" s="201"/>
+      <c r="B54" s="204" t="s">
         <v>68</v>
       </c>
-      <c r="B68" s="213"/>
-      <c r="C68" s="214"/>
-      <c r="D68" s="214"/>
-      <c r="E68" s="214"/>
-      <c r="F68" s="215"/>
-      <c r="G68" s="216"/>
-      <c r="H68" s="214"/>
-      <c r="I68" s="216"/>
-      <c r="J68" s="216"/>
-      <c r="K68" s="214"/>
-      <c r="L68" s="214"/>
-      <c r="M68" s="214"/>
-      <c r="N68" s="217"/>
-    </row>
-    <row r="69" spans="1:14">
-      <c r="A69" s="218" t="s">
+      <c r="C54" s="202"/>
+      <c r="D54" s="203"/>
+      <c r="E54" s="205">
+        <v>1</v>
+      </c>
+      <c r="F54" s="206" t="s">
+        <v>63</v>
+      </c>
+      <c r="G54" s="207">
+        <v>38</v>
+      </c>
+      <c r="H54" s="208"/>
+      <c r="I54" s="209"/>
+      <c r="J54" s="210"/>
+      <c r="K54" s="211"/>
+      <c r="L54" s="212"/>
+      <c r="M54" s="213"/>
+      <c r="N54" s="214"/>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="A55" s="215"/>
+      <c r="B55" s="218" t="s">
         <v>69</v>
       </c>
-      <c r="B69" s="219"/>
-      <c r="C69" s="220"/>
-      <c r="D69" s="220"/>
-      <c r="E69" s="220"/>
-      <c r="F69" s="221"/>
-      <c r="G69" s="222"/>
-      <c r="H69" s="220"/>
-      <c r="I69" s="222"/>
-      <c r="J69" s="222"/>
-      <c r="K69" s="220"/>
-      <c r="L69" s="220"/>
-      <c r="M69" s="220"/>
-      <c r="N69" s="223"/>
-    </row>
-    <row r="70" spans="1:14">
-      <c r="A70" s="224" t="s">
+      <c r="C55" s="216"/>
+      <c r="D55" s="217"/>
+      <c r="E55" s="219">
+        <v>1</v>
+      </c>
+      <c r="F55" s="220" t="s">
+        <v>63</v>
+      </c>
+      <c r="G55" s="221">
+        <v>200</v>
+      </c>
+      <c r="H55" s="222"/>
+      <c r="I55" s="223"/>
+      <c r="J55" s="224"/>
+      <c r="K55" s="225"/>
+      <c r="L55" s="226"/>
+      <c r="M55" s="227"/>
+      <c r="N55" s="228"/>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="A56" s="229"/>
+      <c r="B56" s="232" t="s">
         <v>70</v>
       </c>
-      <c r="B70" s="225"/>
-      <c r="C70" s="226"/>
-      <c r="D70" s="226"/>
-      <c r="E70" s="226"/>
-      <c r="F70" s="227"/>
-      <c r="G70" s="228"/>
-      <c r="H70" s="229"/>
-      <c r="I70" s="230" t="s">
-        <v>6</v>
+      <c r="C56" s="230"/>
+      <c r="D56" s="231"/>
+      <c r="E56" s="233">
+        <v>1</v>
       </c>
-      <c r="J70" s="231"/>
-      <c r="K70" s="232"/>
-      <c r="L70" s="232"/>
-      <c r="M70" s="232"/>
-      <c r="N70" s="233"/>
+      <c r="F56" s="234" t="s">
+        <v>71</v>
+      </c>
+      <c r="G56" s="235">
+        <v>150</v>
+      </c>
+      <c r="H56" s="236"/>
+      <c r="I56" s="237"/>
+      <c r="J56" s="238"/>
+      <c r="K56" s="239"/>
+      <c r="L56" s="240"/>
+      <c r="M56" s="241"/>
+      <c r="N56" s="242"/>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="A57" s="243"/>
+      <c r="B57" s="246" t="s">
+        <v>72</v>
+      </c>
+      <c r="C57" s="244"/>
+      <c r="D57" s="245"/>
+      <c r="E57" s="247">
+        <v>1</v>
+      </c>
+      <c r="F57" s="248" t="s">
+        <v>71</v>
+      </c>
+      <c r="G57" s="249">
+        <v>85</v>
+      </c>
+      <c r="H57" s="250"/>
+      <c r="I57" s="251"/>
+      <c r="J57" s="252"/>
+      <c r="K57" s="253"/>
+      <c r="L57" s="254"/>
+      <c r="M57" s="255"/>
+      <c r="N57" s="256"/>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="A58" s="257"/>
+      <c r="B58" s="260" t="s">
+        <v>73</v>
+      </c>
+      <c r="C58" s="258"/>
+      <c r="D58" s="259"/>
+      <c r="E58" s="261">
+        <v>2</v>
+      </c>
+      <c r="F58" s="262" t="s">
+        <v>71</v>
+      </c>
+      <c r="G58" s="263">
+        <v>70</v>
+      </c>
+      <c r="H58" s="264"/>
+      <c r="I58" s="265"/>
+      <c r="J58" s="266"/>
+      <c r="K58" s="267"/>
+      <c r="L58" s="268"/>
+      <c r="M58" s="269"/>
+      <c r="N58" s="270"/>
+    </row>
+    <row r="59" spans="1:14">
+      <c r="A59" s="271"/>
+      <c r="B59" s="274" t="s">
+        <v>74</v>
+      </c>
+      <c r="C59" s="272"/>
+      <c r="D59" s="273"/>
+      <c r="E59" s="275">
+        <v>5</v>
+      </c>
+      <c r="F59" s="276" t="s">
+        <v>75</v>
+      </c>
+      <c r="G59" s="277">
+        <v>35</v>
+      </c>
+      <c r="H59" s="278"/>
+      <c r="I59" s="279"/>
+      <c r="J59" s="280"/>
+      <c r="K59" s="281"/>
+      <c r="L59" s="282"/>
+      <c r="M59" s="283"/>
+      <c r="N59" s="284"/>
+    </row>
+    <row r="60" spans="1:14">
+      <c r="A60" s="285"/>
+      <c r="B60" s="288" t="s">
+        <v>76</v>
+      </c>
+      <c r="C60" s="286"/>
+      <c r="D60" s="287"/>
+      <c r="E60" s="289">
+        <v>5</v>
+      </c>
+      <c r="F60" s="290" t="s">
+        <v>71</v>
+      </c>
+      <c r="G60" s="291">
+        <v>25</v>
+      </c>
+      <c r="H60" s="292"/>
+      <c r="I60" s="293"/>
+      <c r="J60" s="294"/>
+      <c r="K60" s="295"/>
+      <c r="L60" s="296"/>
+      <c r="M60" s="297"/>
+      <c r="N60" s="298"/>
+    </row>
+    <row r="61" spans="1:14">
+      <c r="A61" s="299"/>
+      <c r="B61" s="302" t="s">
+        <v>77</v>
+      </c>
+      <c r="C61" s="300"/>
+      <c r="D61" s="301"/>
+      <c r="E61" s="303">
+        <v>1</v>
+      </c>
+      <c r="F61" s="304" t="s">
+        <v>71</v>
+      </c>
+      <c r="G61" s="305">
+        <v>35</v>
+      </c>
+      <c r="H61" s="306"/>
+      <c r="I61" s="307"/>
+      <c r="J61" s="308"/>
+      <c r="K61" s="309"/>
+      <c r="L61" s="310"/>
+      <c r="M61" s="311"/>
+      <c r="N61" s="312"/>
+    </row>
+    <row r="62" spans="1:14">
+      <c r="A62" s="313"/>
+      <c r="B62" s="316" t="s">
+        <v>78</v>
+      </c>
+      <c r="C62" s="314"/>
+      <c r="D62" s="315"/>
+      <c r="E62" s="317">
+        <v>1</v>
+      </c>
+      <c r="F62" s="318" t="s">
+        <v>71</v>
+      </c>
+      <c r="G62" s="319">
+        <v>50</v>
+      </c>
+      <c r="H62" s="320"/>
+      <c r="I62" s="321"/>
+      <c r="J62" s="322"/>
+      <c r="K62" s="323"/>
+      <c r="L62" s="324"/>
+      <c r="M62" s="325"/>
+      <c r="N62" s="326"/>
+    </row>
+    <row r="63" spans="1:14">
+      <c r="A63" s="327"/>
+      <c r="B63" s="330" t="s">
+        <v>79</v>
+      </c>
+      <c r="C63" s="328"/>
+      <c r="D63" s="329"/>
+      <c r="E63" s="331">
+        <v>1</v>
+      </c>
+      <c r="F63" s="332" t="s">
+        <v>80</v>
+      </c>
+      <c r="G63" s="333">
+        <v>185</v>
+      </c>
+      <c r="H63" s="334"/>
+      <c r="I63" s="335"/>
+      <c r="J63" s="336"/>
+      <c r="K63" s="337"/>
+      <c r="L63" s="338"/>
+      <c r="M63" s="339"/>
+      <c r="N63" s="340"/>
+    </row>
+    <row r="64" spans="1:14">
+      <c r="A64" s="341"/>
+      <c r="B64" s="344" t="s">
+        <v>81</v>
+      </c>
+      <c r="C64" s="342"/>
+      <c r="D64" s="343"/>
+      <c r="E64" s="345">
+        <v>2</v>
+      </c>
+      <c r="F64" s="346" t="s">
+        <v>80</v>
+      </c>
+      <c r="G64" s="347">
+        <v>550</v>
+      </c>
+      <c r="H64" s="348"/>
+      <c r="I64" s="349"/>
+      <c r="J64" s="350"/>
+      <c r="K64" s="351"/>
+      <c r="L64" s="352"/>
+      <c r="M64" s="353"/>
+      <c r="N64" s="354"/>
+    </row>
+    <row r="65" spans="1:14">
+      <c r="A65" s="355"/>
+      <c r="B65" s="358" t="s">
+        <v>82</v>
+      </c>
+      <c r="C65" s="356"/>
+      <c r="D65" s="357"/>
+      <c r="E65" s="359">
+        <v>1</v>
+      </c>
+      <c r="F65" s="360" t="s">
+        <v>80</v>
+      </c>
+      <c r="G65" s="361">
+        <v>319</v>
+      </c>
+      <c r="H65" s="362"/>
+      <c r="I65" s="363"/>
+      <c r="J65" s="364"/>
+      <c r="K65" s="365"/>
+      <c r="L65" s="366"/>
+      <c r="M65" s="367"/>
+      <c r="N65" s="368"/>
+    </row>
+    <row r="66" spans="1:14">
+      <c r="A66" s="369"/>
+      <c r="B66" s="372" t="s">
+        <v>83</v>
+      </c>
+      <c r="C66" s="370"/>
+      <c r="D66" s="371"/>
+      <c r="E66" s="373">
+        <v>2</v>
+      </c>
+      <c r="F66" s="374" t="s">
+        <v>63</v>
+      </c>
+      <c r="G66" s="375">
+        <v>260</v>
+      </c>
+      <c r="H66" s="376"/>
+      <c r="I66" s="377"/>
+      <c r="J66" s="378"/>
+      <c r="K66" s="379"/>
+      <c r="L66" s="380"/>
+      <c r="M66" s="381"/>
+      <c r="N66" s="382"/>
+    </row>
+    <row r="67" spans="1:14">
+      <c r="A67" s="392" t="s">
+        <v>84</v>
+      </c>
+      <c r="B67" s="384"/>
+      <c r="C67" s="384"/>
+      <c r="D67" s="384"/>
+      <c r="E67" s="384"/>
+      <c r="F67" s="385"/>
+      <c r="G67" s="386"/>
+      <c r="H67" s="384"/>
+      <c r="I67" s="386"/>
+      <c r="J67" s="386"/>
+      <c r="K67" s="384"/>
+      <c r="L67" s="384"/>
+      <c r="M67" s="384"/>
+      <c r="N67" s="390"/>
+    </row>
+    <row r="68" spans="1:14">
+      <c r="A68" s="383" t="s">
+        <v>85</v>
+      </c>
+      <c r="B68" s="387"/>
+      <c r="C68" s="387"/>
+      <c r="D68" s="387"/>
+      <c r="E68" s="387"/>
+      <c r="F68" s="388"/>
+      <c r="G68" s="389"/>
+      <c r="H68" s="387"/>
+      <c r="I68" s="389"/>
+      <c r="J68" s="389"/>
+      <c r="K68" s="387"/>
+      <c r="L68" s="387"/>
+      <c r="M68" s="387"/>
+      <c r="N68" s="391"/>
+    </row>
+    <row r="69" spans="1:14">
+      <c r="A69" s="393"/>
+      <c r="B69" s="395"/>
+      <c r="C69" s="395"/>
+      <c r="D69" s="395"/>
+      <c r="E69" s="395"/>
+      <c r="F69" s="397"/>
+      <c r="G69" s="399"/>
+      <c r="H69" s="395"/>
+      <c r="I69" s="399"/>
+      <c r="J69" s="399"/>
+      <c r="K69" s="395"/>
+      <c r="L69" s="395"/>
+      <c r="M69" s="395"/>
+      <c r="N69" s="401"/>
+    </row>
+    <row r="70" spans="1:14">
+      <c r="A70" s="393"/>
+      <c r="B70" s="395"/>
+      <c r="C70" s="395"/>
+      <c r="D70" s="395"/>
+      <c r="E70" s="395"/>
+      <c r="F70" s="397"/>
+      <c r="G70" s="399"/>
+      <c r="H70" s="395"/>
+      <c r="I70" s="399"/>
+      <c r="J70" s="399"/>
+      <c r="K70" s="395"/>
+      <c r="L70" s="395"/>
+      <c r="M70" s="395"/>
+      <c r="N70" s="401"/>
     </row>
     <row r="71" spans="1:14">
-      <c r="A71" s="92"/>
-      <c r="B71" s="92"/>
-      <c r="C71" s="92"/>
-      <c r="D71" s="92"/>
-      <c r="E71" s="92"/>
-      <c r="F71" s="94"/>
-      <c r="G71" s="95"/>
-      <c r="H71" s="92"/>
-      <c r="I71" s="95"/>
-      <c r="J71" s="95"/>
-      <c r="K71" s="92"/>
-      <c r="L71" s="92"/>
-      <c r="M71" s="92"/>
-      <c r="N71" s="92"/>
+      <c r="A71" s="393"/>
+      <c r="B71" s="395"/>
+      <c r="C71" s="395"/>
+      <c r="D71" s="395"/>
+      <c r="E71" s="395"/>
+      <c r="F71" s="397"/>
+      <c r="G71" s="399"/>
+      <c r="H71" s="395"/>
+      <c r="I71" s="399"/>
+      <c r="J71" s="399"/>
+      <c r="K71" s="395"/>
+      <c r="L71" s="395"/>
+      <c r="M71" s="395"/>
+      <c r="N71" s="401"/>
     </row>
     <row r="72" spans="1:14">
-      <c r="A72" s="92"/>
-      <c r="B72" s="92"/>
-      <c r="C72" s="92"/>
-      <c r="D72" s="92"/>
-      <c r="E72" s="92"/>
-      <c r="F72" s="94"/>
-      <c r="G72" s="95"/>
-      <c r="H72" s="92"/>
-      <c r="I72" s="95"/>
-      <c r="J72" s="95"/>
-      <c r="K72" s="92"/>
-      <c r="L72" s="92"/>
-      <c r="M72" s="92"/>
-      <c r="N72" s="92"/>
+      <c r="A72" s="393"/>
+      <c r="B72" s="395"/>
+      <c r="C72" s="395"/>
+      <c r="D72" s="395"/>
+      <c r="E72" s="395"/>
+      <c r="F72" s="397"/>
+      <c r="G72" s="399"/>
+      <c r="H72" s="395"/>
+      <c r="I72" s="399"/>
+      <c r="J72" s="399"/>
+      <c r="K72" s="395"/>
+      <c r="L72" s="395"/>
+      <c r="M72" s="395"/>
+      <c r="N72" s="401"/>
     </row>
     <row r="73" spans="1:14">
-      <c r="A73" s="92"/>
-      <c r="B73" s="92"/>
-      <c r="C73" s="92"/>
-      <c r="D73" s="92"/>
-      <c r="E73" s="92"/>
-      <c r="F73" s="94"/>
-      <c r="G73" s="95"/>
-      <c r="H73" s="92"/>
-      <c r="I73" s="95"/>
-      <c r="J73" s="95"/>
-      <c r="K73" s="92"/>
-      <c r="L73" s="92"/>
-      <c r="M73" s="92"/>
-      <c r="N73" s="92"/>
+      <c r="A73" s="393"/>
+      <c r="B73" s="395"/>
+      <c r="C73" s="395"/>
+      <c r="D73" s="395"/>
+      <c r="E73" s="395"/>
+      <c r="F73" s="397"/>
+      <c r="G73" s="399"/>
+      <c r="H73" s="395"/>
+      <c r="I73" s="399"/>
+      <c r="J73" s="399"/>
+      <c r="K73" s="395"/>
+      <c r="L73" s="395"/>
+      <c r="M73" s="395"/>
+      <c r="N73" s="401"/>
     </row>
     <row r="74" spans="1:14">
-      <c r="A74" s="92"/>
-      <c r="B74" s="92"/>
-      <c r="C74" s="92"/>
-      <c r="D74" s="92"/>
-      <c r="E74" s="92"/>
-      <c r="F74" s="94"/>
-      <c r="G74" s="95"/>
-      <c r="H74" s="92"/>
-      <c r="I74" s="95"/>
-      <c r="J74" s="95"/>
-      <c r="K74" s="92"/>
-      <c r="L74" s="92"/>
-      <c r="M74" s="92"/>
-      <c r="N74" s="92"/>
+      <c r="A74" s="393"/>
+      <c r="B74" s="395"/>
+      <c r="C74" s="395"/>
+      <c r="D74" s="395"/>
+      <c r="E74" s="395"/>
+      <c r="F74" s="397"/>
+      <c r="G74" s="399"/>
+      <c r="H74" s="395"/>
+      <c r="I74" s="399"/>
+      <c r="J74" s="399"/>
+      <c r="K74" s="395"/>
+      <c r="L74" s="395"/>
+      <c r="M74" s="395"/>
+      <c r="N74" s="401"/>
     </row>
     <row r="75" spans="1:14">
-      <c r="A75" s="92"/>
-      <c r="B75" s="92"/>
-      <c r="C75" s="92"/>
-      <c r="D75" s="92"/>
-      <c r="E75" s="92"/>
-      <c r="F75" s="94"/>
-      <c r="G75" s="95"/>
-      <c r="H75" s="92"/>
-      <c r="I75" s="95"/>
-      <c r="J75" s="95"/>
-      <c r="K75" s="92"/>
-      <c r="L75" s="92"/>
-      <c r="M75" s="92"/>
-      <c r="N75" s="92"/>
+      <c r="A75" s="393"/>
+      <c r="B75" s="395"/>
+      <c r="C75" s="395"/>
+      <c r="D75" s="395"/>
+      <c r="E75" s="395"/>
+      <c r="F75" s="397"/>
+      <c r="G75" s="399"/>
+      <c r="H75" s="395"/>
+      <c r="I75" s="399"/>
+      <c r="J75" s="399"/>
+      <c r="K75" s="395"/>
+      <c r="L75" s="395"/>
+      <c r="M75" s="395"/>
+      <c r="N75" s="401"/>
     </row>
     <row r="76" spans="1:14">
-      <c r="A76" s="92"/>
-      <c r="B76" s="92"/>
-      <c r="C76" s="92"/>
-      <c r="D76" s="92"/>
-      <c r="E76" s="92"/>
-      <c r="F76" s="94"/>
-      <c r="G76" s="95"/>
-      <c r="H76" s="92"/>
-      <c r="I76" s="95"/>
-      <c r="J76" s="95"/>
-      <c r="K76" s="92"/>
-      <c r="L76" s="92"/>
-      <c r="M76" s="92"/>
-      <c r="N76" s="92"/>
+      <c r="A76" s="393"/>
+      <c r="B76" s="395"/>
+      <c r="C76" s="395"/>
+      <c r="D76" s="395"/>
+      <c r="E76" s="395"/>
+      <c r="F76" s="397"/>
+      <c r="G76" s="399"/>
+      <c r="H76" s="395"/>
+      <c r="I76" s="399"/>
+      <c r="J76" s="399"/>
+      <c r="K76" s="395"/>
+      <c r="L76" s="395"/>
+      <c r="M76" s="395"/>
+      <c r="N76" s="401"/>
     </row>
     <row r="77" spans="1:14">
-      <c r="A77" s="92"/>
-      <c r="B77" s="92"/>
-      <c r="C77" s="92"/>
-      <c r="D77" s="92"/>
-      <c r="E77" s="92"/>
-      <c r="F77" s="94"/>
-      <c r="G77" s="95"/>
-      <c r="H77" s="92"/>
-      <c r="I77" s="95"/>
-      <c r="J77" s="95"/>
-      <c r="K77" s="92"/>
-      <c r="L77" s="92"/>
-      <c r="M77" s="92"/>
-      <c r="N77" s="92"/>
+      <c r="A77" s="393"/>
+      <c r="B77" s="395"/>
+      <c r="C77" s="395"/>
+      <c r="D77" s="395"/>
+      <c r="E77" s="395"/>
+      <c r="F77" s="397"/>
+      <c r="G77" s="399"/>
+      <c r="H77" s="395"/>
+      <c r="I77" s="399"/>
+      <c r="J77" s="399"/>
+      <c r="K77" s="395"/>
+      <c r="L77" s="395"/>
+      <c r="M77" s="395"/>
+      <c r="N77" s="401"/>
     </row>
     <row r="78" spans="1:14">
-      <c r="A78" s="92"/>
-      <c r="B78" s="92"/>
-      <c r="C78" s="92"/>
-      <c r="D78" s="92"/>
-      <c r="E78" s="92"/>
-      <c r="F78" s="94"/>
-      <c r="G78" s="95"/>
-      <c r="H78" s="92"/>
-      <c r="I78" s="95"/>
-      <c r="J78" s="95"/>
-      <c r="K78" s="92"/>
-      <c r="L78" s="92"/>
-      <c r="M78" s="92"/>
-      <c r="N78" s="92"/>
+      <c r="A78" s="393"/>
+      <c r="B78" s="395"/>
+      <c r="C78" s="395"/>
+      <c r="D78" s="395"/>
+      <c r="E78" s="395"/>
+      <c r="F78" s="397"/>
+      <c r="G78" s="399"/>
+      <c r="H78" s="395"/>
+      <c r="I78" s="399"/>
+      <c r="J78" s="399"/>
+      <c r="K78" s="395"/>
+      <c r="L78" s="395"/>
+      <c r="M78" s="395"/>
+      <c r="N78" s="401"/>
     </row>
     <row r="79" spans="1:14">
-      <c r="A79" s="92"/>
-      <c r="B79" s="92"/>
-      <c r="C79" s="92"/>
-      <c r="D79" s="92"/>
-      <c r="E79" s="92"/>
-      <c r="F79" s="94"/>
-      <c r="G79" s="95"/>
-      <c r="H79" s="92"/>
-      <c r="I79" s="95"/>
-      <c r="J79" s="95"/>
-      <c r="K79" s="92"/>
-      <c r="L79" s="92"/>
-      <c r="M79" s="92"/>
-      <c r="N79" s="92"/>
+      <c r="A79" s="394"/>
+      <c r="B79" s="396"/>
+      <c r="C79" s="396"/>
+      <c r="D79" s="396"/>
+      <c r="E79" s="396"/>
+      <c r="F79" s="398"/>
+      <c r="G79" s="400"/>
+      <c r="H79" s="396"/>
+      <c r="I79" s="400"/>
+      <c r="J79" s="400"/>
+      <c r="K79" s="396"/>
+      <c r="L79" s="396"/>
+      <c r="M79" s="396"/>
+      <c r="N79" s="402"/>
     </row>
     <row r="80" spans="1:14">
-      <c r="A80" s="92"/>
-      <c r="B80" s="92"/>
-      <c r="C80" s="92"/>
-      <c r="D80" s="92"/>
-      <c r="E80" s="92"/>
-      <c r="F80" s="94"/>
-      <c r="G80" s="95"/>
-      <c r="H80" s="92"/>
-      <c r="I80" s="95"/>
-      <c r="J80" s="95"/>
-      <c r="K80" s="92"/>
-      <c r="L80" s="92"/>
-      <c r="M80" s="92"/>
-      <c r="N80" s="92"/>
+      <c r="A80" s="404" t="s">
+        <v>86</v>
+      </c>
+      <c r="B80" s="410"/>
+      <c r="C80" s="406"/>
+      <c r="D80" s="408"/>
+      <c r="E80" s="416" t="s">
+        <v>87</v>
+      </c>
+      <c r="F80" s="412"/>
+      <c r="G80" s="414"/>
+      <c r="H80" s="422"/>
+      <c r="I80" s="418"/>
+      <c r="J80" s="420"/>
+      <c r="K80" s="425" t="s">
+        <v>88</v>
+      </c>
+      <c r="L80" s="426"/>
+      <c r="M80" s="430"/>
+      <c r="N80" s="428"/>
     </row>
     <row r="81" spans="1:14">
-      <c r="A81" s="92"/>
-      <c r="B81" s="92"/>
-      <c r="C81" s="92"/>
-      <c r="D81" s="92"/>
-      <c r="E81" s="92"/>
-      <c r="F81" s="94"/>
-      <c r="G81" s="95"/>
-      <c r="H81" s="92"/>
-      <c r="I81" s="95"/>
-      <c r="J81" s="95"/>
-      <c r="K81" s="92"/>
-      <c r="L81" s="92"/>
-      <c r="M81" s="92"/>
-      <c r="N81" s="92"/>
+      <c r="A81" s="403"/>
+      <c r="B81" s="405"/>
+      <c r="C81" s="407"/>
+      <c r="D81" s="409"/>
+      <c r="E81" s="411"/>
+      <c r="F81" s="413"/>
+      <c r="G81" s="415"/>
+      <c r="H81" s="417"/>
+      <c r="I81" s="419"/>
+      <c r="J81" s="421"/>
+      <c r="K81" s="423"/>
+      <c r="L81" s="424"/>
+      <c r="M81" s="427"/>
+      <c r="N81" s="429"/>
     </row>
     <row r="82" spans="1:14">
-      <c r="A82" s="92"/>
+      <c r="A82" s="437"/>
       <c r="B82" s="92"/>
       <c r="C82" s="92"/>
       <c r="D82" s="92"/>
@@ -3132,87 +4035,99 @@
       <c r="K82" s="92"/>
       <c r="L82" s="92"/>
       <c r="M82" s="92"/>
-      <c r="N82" s="92"/>
+      <c r="N82" s="436"/>
     </row>
     <row r="83" spans="1:14">
-      <c r="A83" s="92"/>
-      <c r="B83" s="92"/>
-      <c r="C83" s="92"/>
-      <c r="D83" s="92"/>
-      <c r="E83" s="92"/>
-      <c r="F83" s="94"/>
-      <c r="G83" s="95"/>
-      <c r="H83" s="92"/>
-      <c r="I83" s="95"/>
-      <c r="J83" s="95"/>
-      <c r="K83" s="92"/>
-      <c r="L83" s="92"/>
-      <c r="M83" s="92"/>
-      <c r="N83" s="92"/>
+      <c r="A83" s="431" t="s">
+        <v>89</v>
+      </c>
+      <c r="B83" s="432"/>
+      <c r="C83" s="432"/>
+      <c r="D83" s="432"/>
+      <c r="E83" s="432"/>
+      <c r="F83" s="433"/>
+      <c r="G83" s="434"/>
+      <c r="H83" s="432"/>
+      <c r="I83" s="434"/>
+      <c r="J83" s="434"/>
+      <c r="K83" s="432"/>
+      <c r="L83" s="432"/>
+      <c r="M83" s="432"/>
+      <c r="N83" s="435"/>
     </row>
     <row r="84" spans="1:14">
-      <c r="A84" s="92"/>
-      <c r="B84" s="92"/>
-      <c r="C84" s="92"/>
-      <c r="D84" s="92"/>
-      <c r="E84" s="92"/>
-      <c r="F84" s="94"/>
-      <c r="G84" s="95"/>
-      <c r="H84" s="92"/>
-      <c r="I84" s="95"/>
-      <c r="J84" s="95"/>
-      <c r="K84" s="92"/>
-      <c r="L84" s="92"/>
-      <c r="M84" s="92"/>
-      <c r="N84" s="92"/>
+      <c r="A84" s="438" t="s">
+        <v>90</v>
+      </c>
+      <c r="B84" s="439"/>
+      <c r="C84" s="439"/>
+      <c r="D84" s="439"/>
+      <c r="E84" s="439"/>
+      <c r="F84" s="440"/>
+      <c r="G84" s="441"/>
+      <c r="H84" s="439"/>
+      <c r="I84" s="441"/>
+      <c r="J84" s="441"/>
+      <c r="K84" s="439"/>
+      <c r="L84" s="439"/>
+      <c r="M84" s="439"/>
+      <c r="N84" s="442"/>
     </row>
     <row r="85" spans="1:14">
-      <c r="A85" s="92"/>
-      <c r="B85" s="92"/>
-      <c r="C85" s="92"/>
-      <c r="D85" s="92"/>
-      <c r="E85" s="92"/>
-      <c r="F85" s="94"/>
-      <c r="G85" s="95"/>
-      <c r="H85" s="92"/>
-      <c r="I85" s="95"/>
-      <c r="J85" s="95"/>
-      <c r="K85" s="92"/>
-      <c r="L85" s="92"/>
-      <c r="M85" s="92"/>
-      <c r="N85" s="92"/>
+      <c r="A85" s="443" t="s">
+        <v>91</v>
+      </c>
+      <c r="B85" s="444"/>
+      <c r="C85" s="445"/>
+      <c r="D85" s="445"/>
+      <c r="E85" s="445"/>
+      <c r="F85" s="446"/>
+      <c r="G85" s="447"/>
+      <c r="H85" s="445"/>
+      <c r="I85" s="447"/>
+      <c r="J85" s="447"/>
+      <c r="K85" s="445"/>
+      <c r="L85" s="445"/>
+      <c r="M85" s="445"/>
+      <c r="N85" s="448"/>
     </row>
     <row r="86" spans="1:14">
-      <c r="A86" s="92"/>
-      <c r="B86" s="92"/>
-      <c r="C86" s="92"/>
-      <c r="D86" s="92"/>
-      <c r="E86" s="92"/>
-      <c r="F86" s="94"/>
-      <c r="G86" s="95"/>
-      <c r="H86" s="92"/>
-      <c r="I86" s="95"/>
-      <c r="J86" s="95"/>
-      <c r="K86" s="92"/>
-      <c r="L86" s="92"/>
-      <c r="M86" s="92"/>
-      <c r="N86" s="92"/>
+      <c r="A86" s="449" t="s">
+        <v>92</v>
+      </c>
+      <c r="B86" s="450"/>
+      <c r="C86" s="451"/>
+      <c r="D86" s="451"/>
+      <c r="E86" s="451"/>
+      <c r="F86" s="452"/>
+      <c r="G86" s="453"/>
+      <c r="H86" s="451"/>
+      <c r="I86" s="453"/>
+      <c r="J86" s="453"/>
+      <c r="K86" s="451"/>
+      <c r="L86" s="451"/>
+      <c r="M86" s="451"/>
+      <c r="N86" s="454"/>
     </row>
     <row r="87" spans="1:14">
-      <c r="A87" s="92"/>
-      <c r="B87" s="92"/>
-      <c r="C87" s="92"/>
-      <c r="D87" s="92"/>
-      <c r="E87" s="92"/>
-      <c r="F87" s="94"/>
-      <c r="G87" s="95"/>
-      <c r="H87" s="92"/>
-      <c r="I87" s="95"/>
-      <c r="J87" s="95"/>
-      <c r="K87" s="92"/>
-      <c r="L87" s="92"/>
-      <c r="M87" s="92"/>
-      <c r="N87" s="92"/>
+      <c r="A87" s="455" t="s">
+        <v>93</v>
+      </c>
+      <c r="B87" s="456"/>
+      <c r="C87" s="457"/>
+      <c r="D87" s="457"/>
+      <c r="E87" s="457"/>
+      <c r="F87" s="458"/>
+      <c r="G87" s="459"/>
+      <c r="H87" s="460"/>
+      <c r="I87" s="461" t="s">
+        <v>6</v>
+      </c>
+      <c r="J87" s="462"/>
+      <c r="K87" s="463"/>
+      <c r="L87" s="463"/>
+      <c r="M87" s="463"/>
+      <c r="N87" s="464"/>
     </row>
     <row r="88" spans="1:14">
       <c r="A88" s="92"/>
@@ -15887,19 +16802,19 @@
     <mergeCell ref="E15:N15"/>
     <mergeCell ref="E16:N16"/>
     <mergeCell ref="E17:N17"/>
-    <mergeCell ref="A50:N62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:D64"/>
-    <mergeCell ref="E63:G64"/>
-    <mergeCell ref="H63:J64"/>
-    <mergeCell ref="K63:L64"/>
-    <mergeCell ref="M63:N64"/>
-    <mergeCell ref="A66:N66"/>
-    <mergeCell ref="A67:N67"/>
-    <mergeCell ref="B68:N68"/>
-    <mergeCell ref="B69:N69"/>
-    <mergeCell ref="B70:H70"/>
-    <mergeCell ref="J70:N70"/>
+    <mergeCell ref="A67:N79"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="B80:D81"/>
+    <mergeCell ref="E80:G81"/>
+    <mergeCell ref="H80:J81"/>
+    <mergeCell ref="K80:L81"/>
+    <mergeCell ref="M80:N81"/>
+    <mergeCell ref="A83:N83"/>
+    <mergeCell ref="A84:N84"/>
+    <mergeCell ref="B85:N85"/>
+    <mergeCell ref="B86:N86"/>
+    <mergeCell ref="B87:H87"/>
+    <mergeCell ref="J87:N87"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.5" right="0.5" top="0" bottom="0.25" header="0.12" footer="0.12"/>

--- a/export_rfq.xlsx
+++ b/export_rfq.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="76">
   <si>
     <t>Republic of the Philippines</t>
   </si>
@@ -46,7 +46,7 @@
     <t>RFQ Number :</t>
   </si>
   <si>
-    <t>2020-0092</t>
+    <t>2020-0094</t>
   </si>
   <si>
     <t>Mode of Procurement:</t>
@@ -55,19 +55,19 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>March 10,   2020</t>
+    <t>March 25,   2020</t>
   </si>
   <si>
     <t>Office/End User:</t>
   </si>
   <si>
-    <t>LGMED</t>
+    <t>FAD</t>
   </si>
   <si>
     <t>Purpose:</t>
   </si>
   <si>
-    <t xml:space="preserve">Meeting of the Regional Task Force to End Local Communist Armed Conflict </t>
+    <t>Test</t>
   </si>
   <si>
     <t>Company Name:</t>
@@ -169,7 +169,7 @@
     <t>Approved Budget for the Contract (ABC):</t>
   </si>
   <si>
-    <t>9,792.00</t>
+    <t>16,000.00</t>
   </si>
   <si>
     <t>DR. CARINA S. CRUZ</t>
@@ -226,87 +226,14 @@
     <t>NO</t>
   </si>
   <si>
-    <t xml:space="preserve">Concrete Primer Paint
-</t>
-  </si>
-  <si>
-    <t>bottle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Semi gloo paint (Cyan Blue)
-</t>
-  </si>
-  <si>
-    <t>gallon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Concrete Neutralizer
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QDE
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paint varnish 350 ml
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glazing putty
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Red oxide
+    <t xml:space="preserve">Battery 2-3 SMF, 12 Volts
 </t>
   </si>
   <si>
     <t>piece</t>
   </si>
   <si>
-    <t xml:space="preserve">Tinting color
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Putty knife
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empty paint can
-</t>
-  </si>
-  <si>
-    <t>can</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sponge
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Used rags
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Used magazines
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assorted Paint Brush
-</t>
-  </si>
-  <si>
-    <t>set</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roller paint with tray
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assorted sand paper
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paint Thinner 350 ml
-</t>
+    <t>8,000.00</t>
   </si>
   <si>
     <t>REF:  approved and funded PPMP; approved and funded Activity Design	
@@ -314,6 +241,14 @@
 1. PhilGEPS Platinum Registration No. 									
 2. For non-Platinum Registration, please provide copy of:
     a) Mayor's Permit; b) Latest Income / Business Tax Return; c) PhilGEPS Registration No. _____________________________________									
+Other Instruction:</t>
+  </si>
+  <si>
+    <t>NOTE: ** A guaranteed of a minimum of 75% out of total number of target participants	
+              ** Free Flowing Coffee 
+              ** Free Wi-Fi
+              ** Atleast Triple/Quad Sharing Per Room  
+              ** Free use of Function Room, Sound System and LCD
 Other Instruction:</t>
   </si>
   <si>
@@ -683,7 +618,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="465">
+  <cellXfs count="246">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -1161,814 +1096,157 @@
     <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="166" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="166" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="166" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="17" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="166" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="166" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="5" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="166" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="166" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="166" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="166" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="166" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="166" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="166" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="166" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="166" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="166" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="166" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="166" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="166" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="166" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="166" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="166" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="166" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="165" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="166" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="165" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="17" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="166" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="166" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="165" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="165" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="5" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="166" fillId="2" borderId="10" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="166" fillId="2" borderId="3" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="11" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="165" fillId="2" borderId="12" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="5" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="10" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="165" fillId="2" borderId="3" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="11" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="165" fillId="2" borderId="12" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="5" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="bottom" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="166" fillId="2" borderId="10" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="166" fillId="2" borderId="3" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="165" fillId="2" borderId="11" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="165" fillId="2" borderId="12" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="5" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="165" fillId="2" borderId="10" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="165" fillId="2" borderId="3" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="165" fillId="2" borderId="11" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="165" fillId="2" borderId="12" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="5" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="bottom" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -2476,7 +1754,7 @@
   <dimension ref="A1:N877"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="145" zoomScaleNormal="55" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="N87" sqref="N87"/>
+      <selection activeCell="N71" sqref="N71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3371,13 +2649,13 @@
       <c r="C50" s="146"/>
       <c r="D50" s="147"/>
       <c r="E50" s="149">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F50" s="150" t="s">
         <v>63</v>
       </c>
-      <c r="G50" s="151">
-        <v>230</v>
+      <c r="G50" s="151" t="s">
+        <v>64</v>
       </c>
       <c r="H50" s="152"/>
       <c r="I50" s="153"/>
@@ -3388,641 +2666,527 @@
       <c r="N50" s="158"/>
     </row>
     <row r="51" spans="1:14">
-      <c r="A51" s="159"/>
-      <c r="B51" s="162" t="s">
-        <v>64</v>
+      <c r="A51" s="173" t="s">
+        <v>65</v>
       </c>
-      <c r="C51" s="160"/>
+      <c r="B51" s="161"/>
+      <c r="C51" s="161"/>
       <c r="D51" s="161"/>
-      <c r="E51" s="163">
+      <c r="E51" s="161"/>
+      <c r="F51" s="162"/>
+      <c r="G51" s="163"/>
+      <c r="H51" s="161"/>
+      <c r="I51" s="163"/>
+      <c r="J51" s="163"/>
+      <c r="K51" s="164"/>
+      <c r="L51" s="164"/>
+      <c r="M51" s="164"/>
+      <c r="N51" s="171"/>
+    </row>
+    <row r="52" spans="1:14">
+      <c r="A52" s="159" t="s">
+        <v>66</v>
+      </c>
+      <c r="B52" s="165"/>
+      <c r="C52" s="165"/>
+      <c r="D52" s="165"/>
+      <c r="E52" s="165"/>
+      <c r="F52" s="167"/>
+      <c r="G52" s="169"/>
+      <c r="H52" s="165"/>
+      <c r="I52" s="169"/>
+      <c r="J52" s="169"/>
+      <c r="K52" s="166"/>
+      <c r="L52" s="166"/>
+      <c r="M52" s="166"/>
+      <c r="N52" s="172"/>
+    </row>
+    <row r="53" spans="1:14">
+      <c r="A53" s="160" t="s">
+        <v>67</v>
+      </c>
+      <c r="B53" s="166"/>
+      <c r="C53" s="166"/>
+      <c r="D53" s="166"/>
+      <c r="E53" s="166"/>
+      <c r="F53" s="168"/>
+      <c r="G53" s="170"/>
+      <c r="H53" s="166"/>
+      <c r="I53" s="170"/>
+      <c r="J53" s="170"/>
+      <c r="K53" s="166"/>
+      <c r="L53" s="166"/>
+      <c r="M53" s="166"/>
+      <c r="N53" s="172"/>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="A54" s="174"/>
+      <c r="B54" s="176"/>
+      <c r="C54" s="176"/>
+      <c r="D54" s="176"/>
+      <c r="E54" s="176"/>
+      <c r="F54" s="178"/>
+      <c r="G54" s="180"/>
+      <c r="H54" s="176"/>
+      <c r="I54" s="180"/>
+      <c r="J54" s="180"/>
+      <c r="K54" s="176"/>
+      <c r="L54" s="176"/>
+      <c r="M54" s="176"/>
+      <c r="N54" s="182"/>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="A55" s="174"/>
+      <c r="B55" s="176"/>
+      <c r="C55" s="176"/>
+      <c r="D55" s="176"/>
+      <c r="E55" s="176"/>
+      <c r="F55" s="178"/>
+      <c r="G55" s="180"/>
+      <c r="H55" s="176"/>
+      <c r="I55" s="180"/>
+      <c r="J55" s="180"/>
+      <c r="K55" s="176"/>
+      <c r="L55" s="176"/>
+      <c r="M55" s="176"/>
+      <c r="N55" s="182"/>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="A56" s="174"/>
+      <c r="B56" s="176"/>
+      <c r="C56" s="176"/>
+      <c r="D56" s="176"/>
+      <c r="E56" s="176"/>
+      <c r="F56" s="178"/>
+      <c r="G56" s="180"/>
+      <c r="H56" s="176"/>
+      <c r="I56" s="180"/>
+      <c r="J56" s="180"/>
+      <c r="K56" s="176"/>
+      <c r="L56" s="176"/>
+      <c r="M56" s="176"/>
+      <c r="N56" s="182"/>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="A57" s="174"/>
+      <c r="B57" s="176"/>
+      <c r="C57" s="176"/>
+      <c r="D57" s="176"/>
+      <c r="E57" s="176"/>
+      <c r="F57" s="178"/>
+      <c r="G57" s="180"/>
+      <c r="H57" s="176"/>
+      <c r="I57" s="180"/>
+      <c r="J57" s="180"/>
+      <c r="K57" s="176"/>
+      <c r="L57" s="176"/>
+      <c r="M57" s="176"/>
+      <c r="N57" s="182"/>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="A58" s="174"/>
+      <c r="B58" s="176"/>
+      <c r="C58" s="176"/>
+      <c r="D58" s="176"/>
+      <c r="E58" s="176"/>
+      <c r="F58" s="178"/>
+      <c r="G58" s="180"/>
+      <c r="H58" s="176"/>
+      <c r="I58" s="180"/>
+      <c r="J58" s="180"/>
+      <c r="K58" s="176"/>
+      <c r="L58" s="176"/>
+      <c r="M58" s="176"/>
+      <c r="N58" s="182"/>
+    </row>
+    <row r="59" spans="1:14">
+      <c r="A59" s="174"/>
+      <c r="B59" s="176"/>
+      <c r="C59" s="176"/>
+      <c r="D59" s="176"/>
+      <c r="E59" s="176"/>
+      <c r="F59" s="178"/>
+      <c r="G59" s="180"/>
+      <c r="H59" s="176"/>
+      <c r="I59" s="180"/>
+      <c r="J59" s="180"/>
+      <c r="K59" s="176"/>
+      <c r="L59" s="176"/>
+      <c r="M59" s="176"/>
+      <c r="N59" s="182"/>
+    </row>
+    <row r="60" spans="1:14">
+      <c r="A60" s="174"/>
+      <c r="B60" s="176"/>
+      <c r="C60" s="176"/>
+      <c r="D60" s="176"/>
+      <c r="E60" s="176"/>
+      <c r="F60" s="178"/>
+      <c r="G60" s="180"/>
+      <c r="H60" s="176"/>
+      <c r="I60" s="180"/>
+      <c r="J60" s="180"/>
+      <c r="K60" s="176"/>
+      <c r="L60" s="176"/>
+      <c r="M60" s="176"/>
+      <c r="N60" s="182"/>
+    </row>
+    <row r="61" spans="1:14">
+      <c r="A61" s="174"/>
+      <c r="B61" s="176"/>
+      <c r="C61" s="176"/>
+      <c r="D61" s="176"/>
+      <c r="E61" s="176"/>
+      <c r="F61" s="178"/>
+      <c r="G61" s="180"/>
+      <c r="H61" s="176"/>
+      <c r="I61" s="180"/>
+      <c r="J61" s="180"/>
+      <c r="K61" s="176"/>
+      <c r="L61" s="176"/>
+      <c r="M61" s="176"/>
+      <c r="N61" s="182"/>
+    </row>
+    <row r="62" spans="1:14">
+      <c r="A62" s="174"/>
+      <c r="B62" s="176"/>
+      <c r="C62" s="176"/>
+      <c r="D62" s="176"/>
+      <c r="E62" s="176"/>
+      <c r="F62" s="178"/>
+      <c r="G62" s="180"/>
+      <c r="H62" s="176"/>
+      <c r="I62" s="180"/>
+      <c r="J62" s="180"/>
+      <c r="K62" s="176"/>
+      <c r="L62" s="176"/>
+      <c r="M62" s="176"/>
+      <c r="N62" s="182"/>
+    </row>
+    <row r="63" spans="1:14">
+      <c r="A63" s="175"/>
+      <c r="B63" s="177"/>
+      <c r="C63" s="177"/>
+      <c r="D63" s="177"/>
+      <c r="E63" s="177"/>
+      <c r="F63" s="179"/>
+      <c r="G63" s="181"/>
+      <c r="H63" s="177"/>
+      <c r="I63" s="181"/>
+      <c r="J63" s="181"/>
+      <c r="K63" s="177"/>
+      <c r="L63" s="177"/>
+      <c r="M63" s="177"/>
+      <c r="N63" s="183"/>
+    </row>
+    <row r="64" spans="1:14">
+      <c r="A64" s="185" t="s">
+        <v>68</v>
+      </c>
+      <c r="B64" s="191"/>
+      <c r="C64" s="187"/>
+      <c r="D64" s="189"/>
+      <c r="E64" s="197" t="s">
+        <v>69</v>
+      </c>
+      <c r="F64" s="193"/>
+      <c r="G64" s="195"/>
+      <c r="H64" s="203"/>
+      <c r="I64" s="199"/>
+      <c r="J64" s="201"/>
+      <c r="K64" s="206" t="s">
+        <v>70</v>
+      </c>
+      <c r="L64" s="207"/>
+      <c r="M64" s="211"/>
+      <c r="N64" s="209"/>
+    </row>
+    <row r="65" spans="1:14">
+      <c r="A65" s="184"/>
+      <c r="B65" s="186"/>
+      <c r="C65" s="188"/>
+      <c r="D65" s="190"/>
+      <c r="E65" s="192"/>
+      <c r="F65" s="194"/>
+      <c r="G65" s="196"/>
+      <c r="H65" s="198"/>
+      <c r="I65" s="200"/>
+      <c r="J65" s="202"/>
+      <c r="K65" s="204"/>
+      <c r="L65" s="205"/>
+      <c r="M65" s="208"/>
+      <c r="N65" s="210"/>
+    </row>
+    <row r="66" spans="1:14">
+      <c r="A66" s="218"/>
+      <c r="B66" s="92"/>
+      <c r="C66" s="92"/>
+      <c r="D66" s="92"/>
+      <c r="E66" s="92"/>
+      <c r="F66" s="94"/>
+      <c r="G66" s="95"/>
+      <c r="H66" s="92"/>
+      <c r="I66" s="95"/>
+      <c r="J66" s="95"/>
+      <c r="K66" s="92"/>
+      <c r="L66" s="92"/>
+      <c r="M66" s="92"/>
+      <c r="N66" s="217"/>
+    </row>
+    <row r="67" spans="1:14">
+      <c r="A67" s="212" t="s">
+        <v>71</v>
+      </c>
+      <c r="B67" s="213"/>
+      <c r="C67" s="213"/>
+      <c r="D67" s="213"/>
+      <c r="E67" s="213"/>
+      <c r="F67" s="214"/>
+      <c r="G67" s="215"/>
+      <c r="H67" s="213"/>
+      <c r="I67" s="215"/>
+      <c r="J67" s="215"/>
+      <c r="K67" s="213"/>
+      <c r="L67" s="213"/>
+      <c r="M67" s="213"/>
+      <c r="N67" s="216"/>
+    </row>
+    <row r="68" spans="1:14">
+      <c r="A68" s="219" t="s">
+        <v>72</v>
+      </c>
+      <c r="B68" s="220"/>
+      <c r="C68" s="220"/>
+      <c r="D68" s="220"/>
+      <c r="E68" s="220"/>
+      <c r="F68" s="221"/>
+      <c r="G68" s="222"/>
+      <c r="H68" s="220"/>
+      <c r="I68" s="222"/>
+      <c r="J68" s="222"/>
+      <c r="K68" s="220"/>
+      <c r="L68" s="220"/>
+      <c r="M68" s="220"/>
+      <c r="N68" s="223"/>
+    </row>
+    <row r="69" spans="1:14">
+      <c r="A69" s="224" t="s">
+        <v>73</v>
+      </c>
+      <c r="B69" s="225"/>
+      <c r="C69" s="226"/>
+      <c r="D69" s="226"/>
+      <c r="E69" s="226"/>
+      <c r="F69" s="227"/>
+      <c r="G69" s="228"/>
+      <c r="H69" s="226"/>
+      <c r="I69" s="228"/>
+      <c r="J69" s="228"/>
+      <c r="K69" s="226"/>
+      <c r="L69" s="226"/>
+      <c r="M69" s="226"/>
+      <c r="N69" s="229"/>
+    </row>
+    <row r="70" spans="1:14">
+      <c r="A70" s="230" t="s">
+        <v>74</v>
+      </c>
+      <c r="B70" s="231"/>
+      <c r="C70" s="232"/>
+      <c r="D70" s="232"/>
+      <c r="E70" s="232"/>
+      <c r="F70" s="233"/>
+      <c r="G70" s="234"/>
+      <c r="H70" s="232"/>
+      <c r="I70" s="234"/>
+      <c r="J70" s="234"/>
+      <c r="K70" s="232"/>
+      <c r="L70" s="232"/>
+      <c r="M70" s="232"/>
+      <c r="N70" s="235"/>
+    </row>
+    <row r="71" spans="1:14">
+      <c r="A71" s="236" t="s">
+        <v>75</v>
+      </c>
+      <c r="B71" s="237"/>
+      <c r="C71" s="238"/>
+      <c r="D71" s="238"/>
+      <c r="E71" s="238"/>
+      <c r="F71" s="239"/>
+      <c r="G71" s="240"/>
+      <c r="H71" s="241"/>
+      <c r="I71" s="242" t="s">
         <v>6</v>
       </c>
-      <c r="F51" s="164" t="s">
-        <v>65</v>
-      </c>
-      <c r="G51" s="165">
-        <v>800</v>
-      </c>
-      <c r="H51" s="166"/>
-      <c r="I51" s="167"/>
-      <c r="J51" s="168"/>
-      <c r="K51" s="169"/>
-      <c r="L51" s="170"/>
-      <c r="M51" s="171"/>
-      <c r="N51" s="172"/>
-    </row>
-    <row r="52" spans="1:14">
-      <c r="A52" s="173"/>
-      <c r="B52" s="176" t="s">
-        <v>66</v>
-      </c>
-      <c r="C52" s="174"/>
-      <c r="D52" s="175"/>
-      <c r="E52" s="177">
-        <v>1</v>
-      </c>
-      <c r="F52" s="178" t="s">
-        <v>63</v>
-      </c>
-      <c r="G52" s="179">
-        <v>350</v>
-      </c>
-      <c r="H52" s="180"/>
-      <c r="I52" s="181"/>
-      <c r="J52" s="182"/>
-      <c r="K52" s="183"/>
-      <c r="L52" s="184"/>
-      <c r="M52" s="185"/>
-      <c r="N52" s="186"/>
-    </row>
-    <row r="53" spans="1:14">
-      <c r="A53" s="187"/>
-      <c r="B53" s="190" t="s">
-        <v>67</v>
-      </c>
-      <c r="C53" s="188"/>
-      <c r="D53" s="189"/>
-      <c r="E53" s="191">
-        <v>1</v>
-      </c>
-      <c r="F53" s="192" t="s">
-        <v>63</v>
-      </c>
-      <c r="G53" s="193">
-        <v>600</v>
-      </c>
-      <c r="H53" s="194"/>
-      <c r="I53" s="195"/>
-      <c r="J53" s="196"/>
-      <c r="K53" s="197"/>
-      <c r="L53" s="198"/>
-      <c r="M53" s="199"/>
-      <c r="N53" s="200"/>
-    </row>
-    <row r="54" spans="1:14">
-      <c r="A54" s="201"/>
-      <c r="B54" s="204" t="s">
-        <v>68</v>
-      </c>
-      <c r="C54" s="202"/>
-      <c r="D54" s="203"/>
-      <c r="E54" s="205">
-        <v>1</v>
-      </c>
-      <c r="F54" s="206" t="s">
-        <v>63</v>
-      </c>
-      <c r="G54" s="207">
-        <v>38</v>
-      </c>
-      <c r="H54" s="208"/>
-      <c r="I54" s="209"/>
-      <c r="J54" s="210"/>
-      <c r="K54" s="211"/>
-      <c r="L54" s="212"/>
-      <c r="M54" s="213"/>
-      <c r="N54" s="214"/>
-    </row>
-    <row r="55" spans="1:14">
-      <c r="A55" s="215"/>
-      <c r="B55" s="218" t="s">
-        <v>69</v>
-      </c>
-      <c r="C55" s="216"/>
-      <c r="D55" s="217"/>
-      <c r="E55" s="219">
-        <v>1</v>
-      </c>
-      <c r="F55" s="220" t="s">
-        <v>63</v>
-      </c>
-      <c r="G55" s="221">
-        <v>200</v>
-      </c>
-      <c r="H55" s="222"/>
-      <c r="I55" s="223"/>
-      <c r="J55" s="224"/>
-      <c r="K55" s="225"/>
-      <c r="L55" s="226"/>
-      <c r="M55" s="227"/>
-      <c r="N55" s="228"/>
-    </row>
-    <row r="56" spans="1:14">
-      <c r="A56" s="229"/>
-      <c r="B56" s="232" t="s">
-        <v>70</v>
-      </c>
-      <c r="C56" s="230"/>
-      <c r="D56" s="231"/>
-      <c r="E56" s="233">
-        <v>1</v>
-      </c>
-      <c r="F56" s="234" t="s">
-        <v>71</v>
-      </c>
-      <c r="G56" s="235">
-        <v>150</v>
-      </c>
-      <c r="H56" s="236"/>
-      <c r="I56" s="237"/>
-      <c r="J56" s="238"/>
-      <c r="K56" s="239"/>
-      <c r="L56" s="240"/>
-      <c r="M56" s="241"/>
-      <c r="N56" s="242"/>
-    </row>
-    <row r="57" spans="1:14">
-      <c r="A57" s="243"/>
-      <c r="B57" s="246" t="s">
-        <v>72</v>
-      </c>
-      <c r="C57" s="244"/>
-      <c r="D57" s="245"/>
-      <c r="E57" s="247">
-        <v>1</v>
-      </c>
-      <c r="F57" s="248" t="s">
-        <v>71</v>
-      </c>
-      <c r="G57" s="249">
-        <v>85</v>
-      </c>
-      <c r="H57" s="250"/>
-      <c r="I57" s="251"/>
-      <c r="J57" s="252"/>
-      <c r="K57" s="253"/>
-      <c r="L57" s="254"/>
-      <c r="M57" s="255"/>
-      <c r="N57" s="256"/>
-    </row>
-    <row r="58" spans="1:14">
-      <c r="A58" s="257"/>
-      <c r="B58" s="260" t="s">
-        <v>73</v>
-      </c>
-      <c r="C58" s="258"/>
-      <c r="D58" s="259"/>
-      <c r="E58" s="261">
-        <v>2</v>
-      </c>
-      <c r="F58" s="262" t="s">
-        <v>71</v>
-      </c>
-      <c r="G58" s="263">
-        <v>70</v>
-      </c>
-      <c r="H58" s="264"/>
-      <c r="I58" s="265"/>
-      <c r="J58" s="266"/>
-      <c r="K58" s="267"/>
-      <c r="L58" s="268"/>
-      <c r="M58" s="269"/>
-      <c r="N58" s="270"/>
-    </row>
-    <row r="59" spans="1:14">
-      <c r="A59" s="271"/>
-      <c r="B59" s="274" t="s">
-        <v>74</v>
-      </c>
-      <c r="C59" s="272"/>
-      <c r="D59" s="273"/>
-      <c r="E59" s="275">
-        <v>5</v>
-      </c>
-      <c r="F59" s="276" t="s">
-        <v>75</v>
-      </c>
-      <c r="G59" s="277">
-        <v>35</v>
-      </c>
-      <c r="H59" s="278"/>
-      <c r="I59" s="279"/>
-      <c r="J59" s="280"/>
-      <c r="K59" s="281"/>
-      <c r="L59" s="282"/>
-      <c r="M59" s="283"/>
-      <c r="N59" s="284"/>
-    </row>
-    <row r="60" spans="1:14">
-      <c r="A60" s="285"/>
-      <c r="B60" s="288" t="s">
-        <v>76</v>
-      </c>
-      <c r="C60" s="286"/>
-      <c r="D60" s="287"/>
-      <c r="E60" s="289">
-        <v>5</v>
-      </c>
-      <c r="F60" s="290" t="s">
-        <v>71</v>
-      </c>
-      <c r="G60" s="291">
-        <v>25</v>
-      </c>
-      <c r="H60" s="292"/>
-      <c r="I60" s="293"/>
-      <c r="J60" s="294"/>
-      <c r="K60" s="295"/>
-      <c r="L60" s="296"/>
-      <c r="M60" s="297"/>
-      <c r="N60" s="298"/>
-    </row>
-    <row r="61" spans="1:14">
-      <c r="A61" s="299"/>
-      <c r="B61" s="302" t="s">
-        <v>77</v>
-      </c>
-      <c r="C61" s="300"/>
-      <c r="D61" s="301"/>
-      <c r="E61" s="303">
-        <v>1</v>
-      </c>
-      <c r="F61" s="304" t="s">
-        <v>71</v>
-      </c>
-      <c r="G61" s="305">
-        <v>35</v>
-      </c>
-      <c r="H61" s="306"/>
-      <c r="I61" s="307"/>
-      <c r="J61" s="308"/>
-      <c r="K61" s="309"/>
-      <c r="L61" s="310"/>
-      <c r="M61" s="311"/>
-      <c r="N61" s="312"/>
-    </row>
-    <row r="62" spans="1:14">
-      <c r="A62" s="313"/>
-      <c r="B62" s="316" t="s">
-        <v>78</v>
-      </c>
-      <c r="C62" s="314"/>
-      <c r="D62" s="315"/>
-      <c r="E62" s="317">
-        <v>1</v>
-      </c>
-      <c r="F62" s="318" t="s">
-        <v>71</v>
-      </c>
-      <c r="G62" s="319">
-        <v>50</v>
-      </c>
-      <c r="H62" s="320"/>
-      <c r="I62" s="321"/>
-      <c r="J62" s="322"/>
-      <c r="K62" s="323"/>
-      <c r="L62" s="324"/>
-      <c r="M62" s="325"/>
-      <c r="N62" s="326"/>
-    </row>
-    <row r="63" spans="1:14">
-      <c r="A63" s="327"/>
-      <c r="B63" s="330" t="s">
-        <v>79</v>
-      </c>
-      <c r="C63" s="328"/>
-      <c r="D63" s="329"/>
-      <c r="E63" s="331">
-        <v>1</v>
-      </c>
-      <c r="F63" s="332" t="s">
-        <v>80</v>
-      </c>
-      <c r="G63" s="333">
-        <v>185</v>
-      </c>
-      <c r="H63" s="334"/>
-      <c r="I63" s="335"/>
-      <c r="J63" s="336"/>
-      <c r="K63" s="337"/>
-      <c r="L63" s="338"/>
-      <c r="M63" s="339"/>
-      <c r="N63" s="340"/>
-    </row>
-    <row r="64" spans="1:14">
-      <c r="A64" s="341"/>
-      <c r="B64" s="344" t="s">
-        <v>81</v>
-      </c>
-      <c r="C64" s="342"/>
-      <c r="D64" s="343"/>
-      <c r="E64" s="345">
-        <v>2</v>
-      </c>
-      <c r="F64" s="346" t="s">
-        <v>80</v>
-      </c>
-      <c r="G64" s="347">
-        <v>550</v>
-      </c>
-      <c r="H64" s="348"/>
-      <c r="I64" s="349"/>
-      <c r="J64" s="350"/>
-      <c r="K64" s="351"/>
-      <c r="L64" s="352"/>
-      <c r="M64" s="353"/>
-      <c r="N64" s="354"/>
-    </row>
-    <row r="65" spans="1:14">
-      <c r="A65" s="355"/>
-      <c r="B65" s="358" t="s">
-        <v>82</v>
-      </c>
-      <c r="C65" s="356"/>
-      <c r="D65" s="357"/>
-      <c r="E65" s="359">
-        <v>1</v>
-      </c>
-      <c r="F65" s="360" t="s">
-        <v>80</v>
-      </c>
-      <c r="G65" s="361">
-        <v>319</v>
-      </c>
-      <c r="H65" s="362"/>
-      <c r="I65" s="363"/>
-      <c r="J65" s="364"/>
-      <c r="K65" s="365"/>
-      <c r="L65" s="366"/>
-      <c r="M65" s="367"/>
-      <c r="N65" s="368"/>
-    </row>
-    <row r="66" spans="1:14">
-      <c r="A66" s="369"/>
-      <c r="B66" s="372" t="s">
-        <v>83</v>
-      </c>
-      <c r="C66" s="370"/>
-      <c r="D66" s="371"/>
-      <c r="E66" s="373">
-        <v>2</v>
-      </c>
-      <c r="F66" s="374" t="s">
-        <v>63</v>
-      </c>
-      <c r="G66" s="375">
-        <v>260</v>
-      </c>
-      <c r="H66" s="376"/>
-      <c r="I66" s="377"/>
-      <c r="J66" s="378"/>
-      <c r="K66" s="379"/>
-      <c r="L66" s="380"/>
-      <c r="M66" s="381"/>
-      <c r="N66" s="382"/>
-    </row>
-    <row r="67" spans="1:14">
-      <c r="A67" s="392" t="s">
-        <v>84</v>
-      </c>
-      <c r="B67" s="384"/>
-      <c r="C67" s="384"/>
-      <c r="D67" s="384"/>
-      <c r="E67" s="384"/>
-      <c r="F67" s="385"/>
-      <c r="G67" s="386"/>
-      <c r="H67" s="384"/>
-      <c r="I67" s="386"/>
-      <c r="J67" s="386"/>
-      <c r="K67" s="384"/>
-      <c r="L67" s="384"/>
-      <c r="M67" s="384"/>
-      <c r="N67" s="390"/>
-    </row>
-    <row r="68" spans="1:14">
-      <c r="A68" s="383" t="s">
-        <v>85</v>
-      </c>
-      <c r="B68" s="387"/>
-      <c r="C68" s="387"/>
-      <c r="D68" s="387"/>
-      <c r="E68" s="387"/>
-      <c r="F68" s="388"/>
-      <c r="G68" s="389"/>
-      <c r="H68" s="387"/>
-      <c r="I68" s="389"/>
-      <c r="J68" s="389"/>
-      <c r="K68" s="387"/>
-      <c r="L68" s="387"/>
-      <c r="M68" s="387"/>
-      <c r="N68" s="391"/>
-    </row>
-    <row r="69" spans="1:14">
-      <c r="A69" s="393"/>
-      <c r="B69" s="395"/>
-      <c r="C69" s="395"/>
-      <c r="D69" s="395"/>
-      <c r="E69" s="395"/>
-      <c r="F69" s="397"/>
-      <c r="G69" s="399"/>
-      <c r="H69" s="395"/>
-      <c r="I69" s="399"/>
-      <c r="J69" s="399"/>
-      <c r="K69" s="395"/>
-      <c r="L69" s="395"/>
-      <c r="M69" s="395"/>
-      <c r="N69" s="401"/>
-    </row>
-    <row r="70" spans="1:14">
-      <c r="A70" s="393"/>
-      <c r="B70" s="395"/>
-      <c r="C70" s="395"/>
-      <c r="D70" s="395"/>
-      <c r="E70" s="395"/>
-      <c r="F70" s="397"/>
-      <c r="G70" s="399"/>
-      <c r="H70" s="395"/>
-      <c r="I70" s="399"/>
-      <c r="J70" s="399"/>
-      <c r="K70" s="395"/>
-      <c r="L70" s="395"/>
-      <c r="M70" s="395"/>
-      <c r="N70" s="401"/>
-    </row>
-    <row r="71" spans="1:14">
-      <c r="A71" s="393"/>
-      <c r="B71" s="395"/>
-      <c r="C71" s="395"/>
-      <c r="D71" s="395"/>
-      <c r="E71" s="395"/>
-      <c r="F71" s="397"/>
-      <c r="G71" s="399"/>
-      <c r="H71" s="395"/>
-      <c r="I71" s="399"/>
-      <c r="J71" s="399"/>
-      <c r="K71" s="395"/>
-      <c r="L71" s="395"/>
-      <c r="M71" s="395"/>
-      <c r="N71" s="401"/>
+      <c r="J71" s="243"/>
+      <c r="K71" s="244"/>
+      <c r="L71" s="244"/>
+      <c r="M71" s="244"/>
+      <c r="N71" s="245"/>
     </row>
     <row r="72" spans="1:14">
-      <c r="A72" s="393"/>
-      <c r="B72" s="395"/>
-      <c r="C72" s="395"/>
-      <c r="D72" s="395"/>
-      <c r="E72" s="395"/>
-      <c r="F72" s="397"/>
-      <c r="G72" s="399"/>
-      <c r="H72" s="395"/>
-      <c r="I72" s="399"/>
-      <c r="J72" s="399"/>
-      <c r="K72" s="395"/>
-      <c r="L72" s="395"/>
-      <c r="M72" s="395"/>
-      <c r="N72" s="401"/>
+      <c r="A72" s="92"/>
+      <c r="B72" s="92"/>
+      <c r="C72" s="92"/>
+      <c r="D72" s="92"/>
+      <c r="E72" s="92"/>
+      <c r="F72" s="94"/>
+      <c r="G72" s="95"/>
+      <c r="H72" s="92"/>
+      <c r="I72" s="95"/>
+      <c r="J72" s="95"/>
+      <c r="K72" s="92"/>
+      <c r="L72" s="92"/>
+      <c r="M72" s="92"/>
+      <c r="N72" s="92"/>
     </row>
     <row r="73" spans="1:14">
-      <c r="A73" s="393"/>
-      <c r="B73" s="395"/>
-      <c r="C73" s="395"/>
-      <c r="D73" s="395"/>
-      <c r="E73" s="395"/>
-      <c r="F73" s="397"/>
-      <c r="G73" s="399"/>
-      <c r="H73" s="395"/>
-      <c r="I73" s="399"/>
-      <c r="J73" s="399"/>
-      <c r="K73" s="395"/>
-      <c r="L73" s="395"/>
-      <c r="M73" s="395"/>
-      <c r="N73" s="401"/>
+      <c r="A73" s="92"/>
+      <c r="B73" s="92"/>
+      <c r="C73" s="92"/>
+      <c r="D73" s="92"/>
+      <c r="E73" s="92"/>
+      <c r="F73" s="94"/>
+      <c r="G73" s="95"/>
+      <c r="H73" s="92"/>
+      <c r="I73" s="95"/>
+      <c r="J73" s="95"/>
+      <c r="K73" s="92"/>
+      <c r="L73" s="92"/>
+      <c r="M73" s="92"/>
+      <c r="N73" s="92"/>
     </row>
     <row r="74" spans="1:14">
-      <c r="A74" s="393"/>
-      <c r="B74" s="395"/>
-      <c r="C74" s="395"/>
-      <c r="D74" s="395"/>
-      <c r="E74" s="395"/>
-      <c r="F74" s="397"/>
-      <c r="G74" s="399"/>
-      <c r="H74" s="395"/>
-      <c r="I74" s="399"/>
-      <c r="J74" s="399"/>
-      <c r="K74" s="395"/>
-      <c r="L74" s="395"/>
-      <c r="M74" s="395"/>
-      <c r="N74" s="401"/>
+      <c r="A74" s="92"/>
+      <c r="B74" s="92"/>
+      <c r="C74" s="92"/>
+      <c r="D74" s="92"/>
+      <c r="E74" s="92"/>
+      <c r="F74" s="94"/>
+      <c r="G74" s="95"/>
+      <c r="H74" s="92"/>
+      <c r="I74" s="95"/>
+      <c r="J74" s="95"/>
+      <c r="K74" s="92"/>
+      <c r="L74" s="92"/>
+      <c r="M74" s="92"/>
+      <c r="N74" s="92"/>
     </row>
     <row r="75" spans="1:14">
-      <c r="A75" s="393"/>
-      <c r="B75" s="395"/>
-      <c r="C75" s="395"/>
-      <c r="D75" s="395"/>
-      <c r="E75" s="395"/>
-      <c r="F75" s="397"/>
-      <c r="G75" s="399"/>
-      <c r="H75" s="395"/>
-      <c r="I75" s="399"/>
-      <c r="J75" s="399"/>
-      <c r="K75" s="395"/>
-      <c r="L75" s="395"/>
-      <c r="M75" s="395"/>
-      <c r="N75" s="401"/>
+      <c r="A75" s="92"/>
+      <c r="B75" s="92"/>
+      <c r="C75" s="92"/>
+      <c r="D75" s="92"/>
+      <c r="E75" s="92"/>
+      <c r="F75" s="94"/>
+      <c r="G75" s="95"/>
+      <c r="H75" s="92"/>
+      <c r="I75" s="95"/>
+      <c r="J75" s="95"/>
+      <c r="K75" s="92"/>
+      <c r="L75" s="92"/>
+      <c r="M75" s="92"/>
+      <c r="N75" s="92"/>
     </row>
     <row r="76" spans="1:14">
-      <c r="A76" s="393"/>
-      <c r="B76" s="395"/>
-      <c r="C76" s="395"/>
-      <c r="D76" s="395"/>
-      <c r="E76" s="395"/>
-      <c r="F76" s="397"/>
-      <c r="G76" s="399"/>
-      <c r="H76" s="395"/>
-      <c r="I76" s="399"/>
-      <c r="J76" s="399"/>
-      <c r="K76" s="395"/>
-      <c r="L76" s="395"/>
-      <c r="M76" s="395"/>
-      <c r="N76" s="401"/>
+      <c r="A76" s="92"/>
+      <c r="B76" s="92"/>
+      <c r="C76" s="92"/>
+      <c r="D76" s="92"/>
+      <c r="E76" s="92"/>
+      <c r="F76" s="94"/>
+      <c r="G76" s="95"/>
+      <c r="H76" s="92"/>
+      <c r="I76" s="95"/>
+      <c r="J76" s="95"/>
+      <c r="K76" s="92"/>
+      <c r="L76" s="92"/>
+      <c r="M76" s="92"/>
+      <c r="N76" s="92"/>
     </row>
     <row r="77" spans="1:14">
-      <c r="A77" s="393"/>
-      <c r="B77" s="395"/>
-      <c r="C77" s="395"/>
-      <c r="D77" s="395"/>
-      <c r="E77" s="395"/>
-      <c r="F77" s="397"/>
-      <c r="G77" s="399"/>
-      <c r="H77" s="395"/>
-      <c r="I77" s="399"/>
-      <c r="J77" s="399"/>
-      <c r="K77" s="395"/>
-      <c r="L77" s="395"/>
-      <c r="M77" s="395"/>
-      <c r="N77" s="401"/>
+      <c r="A77" s="92"/>
+      <c r="B77" s="92"/>
+      <c r="C77" s="92"/>
+      <c r="D77" s="92"/>
+      <c r="E77" s="92"/>
+      <c r="F77" s="94"/>
+      <c r="G77" s="95"/>
+      <c r="H77" s="92"/>
+      <c r="I77" s="95"/>
+      <c r="J77" s="95"/>
+      <c r="K77" s="92"/>
+      <c r="L77" s="92"/>
+      <c r="M77" s="92"/>
+      <c r="N77" s="92"/>
     </row>
     <row r="78" spans="1:14">
-      <c r="A78" s="393"/>
-      <c r="B78" s="395"/>
-      <c r="C78" s="395"/>
-      <c r="D78" s="395"/>
-      <c r="E78" s="395"/>
-      <c r="F78" s="397"/>
-      <c r="G78" s="399"/>
-      <c r="H78" s="395"/>
-      <c r="I78" s="399"/>
-      <c r="J78" s="399"/>
-      <c r="K78" s="395"/>
-      <c r="L78" s="395"/>
-      <c r="M78" s="395"/>
-      <c r="N78" s="401"/>
+      <c r="A78" s="92"/>
+      <c r="B78" s="92"/>
+      <c r="C78" s="92"/>
+      <c r="D78" s="92"/>
+      <c r="E78" s="92"/>
+      <c r="F78" s="94"/>
+      <c r="G78" s="95"/>
+      <c r="H78" s="92"/>
+      <c r="I78" s="95"/>
+      <c r="J78" s="95"/>
+      <c r="K78" s="92"/>
+      <c r="L78" s="92"/>
+      <c r="M78" s="92"/>
+      <c r="N78" s="92"/>
     </row>
     <row r="79" spans="1:14">
-      <c r="A79" s="394"/>
-      <c r="B79" s="396"/>
-      <c r="C79" s="396"/>
-      <c r="D79" s="396"/>
-      <c r="E79" s="396"/>
-      <c r="F79" s="398"/>
-      <c r="G79" s="400"/>
-      <c r="H79" s="396"/>
-      <c r="I79" s="400"/>
-      <c r="J79" s="400"/>
-      <c r="K79" s="396"/>
-      <c r="L79" s="396"/>
-      <c r="M79" s="396"/>
-      <c r="N79" s="402"/>
+      <c r="A79" s="92"/>
+      <c r="B79" s="92"/>
+      <c r="C79" s="92"/>
+      <c r="D79" s="92"/>
+      <c r="E79" s="92"/>
+      <c r="F79" s="94"/>
+      <c r="G79" s="95"/>
+      <c r="H79" s="92"/>
+      <c r="I79" s="95"/>
+      <c r="J79" s="95"/>
+      <c r="K79" s="92"/>
+      <c r="L79" s="92"/>
+      <c r="M79" s="92"/>
+      <c r="N79" s="92"/>
     </row>
     <row r="80" spans="1:14">
-      <c r="A80" s="404" t="s">
-        <v>86</v>
-      </c>
-      <c r="B80" s="410"/>
-      <c r="C80" s="406"/>
-      <c r="D80" s="408"/>
-      <c r="E80" s="416" t="s">
-        <v>87</v>
-      </c>
-      <c r="F80" s="412"/>
-      <c r="G80" s="414"/>
-      <c r="H80" s="422"/>
-      <c r="I80" s="418"/>
-      <c r="J80" s="420"/>
-      <c r="K80" s="425" t="s">
-        <v>88</v>
-      </c>
-      <c r="L80" s="426"/>
-      <c r="M80" s="430"/>
-      <c r="N80" s="428"/>
+      <c r="A80" s="92"/>
+      <c r="B80" s="92"/>
+      <c r="C80" s="92"/>
+      <c r="D80" s="92"/>
+      <c r="E80" s="92"/>
+      <c r="F80" s="94"/>
+      <c r="G80" s="95"/>
+      <c r="H80" s="92"/>
+      <c r="I80" s="95"/>
+      <c r="J80" s="95"/>
+      <c r="K80" s="92"/>
+      <c r="L80" s="92"/>
+      <c r="M80" s="92"/>
+      <c r="N80" s="92"/>
     </row>
     <row r="81" spans="1:14">
-      <c r="A81" s="403"/>
-      <c r="B81" s="405"/>
-      <c r="C81" s="407"/>
-      <c r="D81" s="409"/>
-      <c r="E81" s="411"/>
-      <c r="F81" s="413"/>
-      <c r="G81" s="415"/>
-      <c r="H81" s="417"/>
-      <c r="I81" s="419"/>
-      <c r="J81" s="421"/>
-      <c r="K81" s="423"/>
-      <c r="L81" s="424"/>
-      <c r="M81" s="427"/>
-      <c r="N81" s="429"/>
+      <c r="A81" s="92"/>
+      <c r="B81" s="92"/>
+      <c r="C81" s="92"/>
+      <c r="D81" s="92"/>
+      <c r="E81" s="92"/>
+      <c r="F81" s="94"/>
+      <c r="G81" s="95"/>
+      <c r="H81" s="92"/>
+      <c r="I81" s="95"/>
+      <c r="J81" s="95"/>
+      <c r="K81" s="92"/>
+      <c r="L81" s="92"/>
+      <c r="M81" s="92"/>
+      <c r="N81" s="92"/>
     </row>
     <row r="82" spans="1:14">
-      <c r="A82" s="437"/>
+      <c r="A82" s="92"/>
       <c r="B82" s="92"/>
       <c r="C82" s="92"/>
       <c r="D82" s="92"/>
@@ -4035,99 +3199,87 @@
       <c r="K82" s="92"/>
       <c r="L82" s="92"/>
       <c r="M82" s="92"/>
-      <c r="N82" s="436"/>
+      <c r="N82" s="92"/>
     </row>
     <row r="83" spans="1:14">
-      <c r="A83" s="431" t="s">
-        <v>89</v>
-      </c>
-      <c r="B83" s="432"/>
-      <c r="C83" s="432"/>
-      <c r="D83" s="432"/>
-      <c r="E83" s="432"/>
-      <c r="F83" s="433"/>
-      <c r="G83" s="434"/>
-      <c r="H83" s="432"/>
-      <c r="I83" s="434"/>
-      <c r="J83" s="434"/>
-      <c r="K83" s="432"/>
-      <c r="L83" s="432"/>
-      <c r="M83" s="432"/>
-      <c r="N83" s="435"/>
+      <c r="A83" s="92"/>
+      <c r="B83" s="92"/>
+      <c r="C83" s="92"/>
+      <c r="D83" s="92"/>
+      <c r="E83" s="92"/>
+      <c r="F83" s="94"/>
+      <c r="G83" s="95"/>
+      <c r="H83" s="92"/>
+      <c r="I83" s="95"/>
+      <c r="J83" s="95"/>
+      <c r="K83" s="92"/>
+      <c r="L83" s="92"/>
+      <c r="M83" s="92"/>
+      <c r="N83" s="92"/>
     </row>
     <row r="84" spans="1:14">
-      <c r="A84" s="438" t="s">
-        <v>90</v>
-      </c>
-      <c r="B84" s="439"/>
-      <c r="C84" s="439"/>
-      <c r="D84" s="439"/>
-      <c r="E84" s="439"/>
-      <c r="F84" s="440"/>
-      <c r="G84" s="441"/>
-      <c r="H84" s="439"/>
-      <c r="I84" s="441"/>
-      <c r="J84" s="441"/>
-      <c r="K84" s="439"/>
-      <c r="L84" s="439"/>
-      <c r="M84" s="439"/>
-      <c r="N84" s="442"/>
+      <c r="A84" s="92"/>
+      <c r="B84" s="92"/>
+      <c r="C84" s="92"/>
+      <c r="D84" s="92"/>
+      <c r="E84" s="92"/>
+      <c r="F84" s="94"/>
+      <c r="G84" s="95"/>
+      <c r="H84" s="92"/>
+      <c r="I84" s="95"/>
+      <c r="J84" s="95"/>
+      <c r="K84" s="92"/>
+      <c r="L84" s="92"/>
+      <c r="M84" s="92"/>
+      <c r="N84" s="92"/>
     </row>
     <row r="85" spans="1:14">
-      <c r="A85" s="443" t="s">
-        <v>91</v>
-      </c>
-      <c r="B85" s="444"/>
-      <c r="C85" s="445"/>
-      <c r="D85" s="445"/>
-      <c r="E85" s="445"/>
-      <c r="F85" s="446"/>
-      <c r="G85" s="447"/>
-      <c r="H85" s="445"/>
-      <c r="I85" s="447"/>
-      <c r="J85" s="447"/>
-      <c r="K85" s="445"/>
-      <c r="L85" s="445"/>
-      <c r="M85" s="445"/>
-      <c r="N85" s="448"/>
+      <c r="A85" s="92"/>
+      <c r="B85" s="92"/>
+      <c r="C85" s="92"/>
+      <c r="D85" s="92"/>
+      <c r="E85" s="92"/>
+      <c r="F85" s="94"/>
+      <c r="G85" s="95"/>
+      <c r="H85" s="92"/>
+      <c r="I85" s="95"/>
+      <c r="J85" s="95"/>
+      <c r="K85" s="92"/>
+      <c r="L85" s="92"/>
+      <c r="M85" s="92"/>
+      <c r="N85" s="92"/>
     </row>
     <row r="86" spans="1:14">
-      <c r="A86" s="449" t="s">
-        <v>92</v>
-      </c>
-      <c r="B86" s="450"/>
-      <c r="C86" s="451"/>
-      <c r="D86" s="451"/>
-      <c r="E86" s="451"/>
-      <c r="F86" s="452"/>
-      <c r="G86" s="453"/>
-      <c r="H86" s="451"/>
-      <c r="I86" s="453"/>
-      <c r="J86" s="453"/>
-      <c r="K86" s="451"/>
-      <c r="L86" s="451"/>
-      <c r="M86" s="451"/>
-      <c r="N86" s="454"/>
+      <c r="A86" s="92"/>
+      <c r="B86" s="92"/>
+      <c r="C86" s="92"/>
+      <c r="D86" s="92"/>
+      <c r="E86" s="92"/>
+      <c r="F86" s="94"/>
+      <c r="G86" s="95"/>
+      <c r="H86" s="92"/>
+      <c r="I86" s="95"/>
+      <c r="J86" s="95"/>
+      <c r="K86" s="92"/>
+      <c r="L86" s="92"/>
+      <c r="M86" s="92"/>
+      <c r="N86" s="92"/>
     </row>
     <row r="87" spans="1:14">
-      <c r="A87" s="455" t="s">
-        <v>93</v>
-      </c>
-      <c r="B87" s="456"/>
-      <c r="C87" s="457"/>
-      <c r="D87" s="457"/>
-      <c r="E87" s="457"/>
-      <c r="F87" s="458"/>
-      <c r="G87" s="459"/>
-      <c r="H87" s="460"/>
-      <c r="I87" s="461" t="s">
-        <v>6</v>
-      </c>
-      <c r="J87" s="462"/>
-      <c r="K87" s="463"/>
-      <c r="L87" s="463"/>
-      <c r="M87" s="463"/>
-      <c r="N87" s="464"/>
+      <c r="A87" s="92"/>
+      <c r="B87" s="92"/>
+      <c r="C87" s="92"/>
+      <c r="D87" s="92"/>
+      <c r="E87" s="92"/>
+      <c r="F87" s="94"/>
+      <c r="G87" s="95"/>
+      <c r="H87" s="92"/>
+      <c r="I87" s="95"/>
+      <c r="J87" s="95"/>
+      <c r="K87" s="92"/>
+      <c r="L87" s="92"/>
+      <c r="M87" s="92"/>
+      <c r="N87" s="92"/>
     </row>
     <row r="88" spans="1:14">
       <c r="A88" s="92"/>
@@ -16802,19 +15954,19 @@
     <mergeCell ref="E15:N15"/>
     <mergeCell ref="E16:N16"/>
     <mergeCell ref="E17:N17"/>
-    <mergeCell ref="A67:N79"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="B80:D81"/>
-    <mergeCell ref="E80:G81"/>
-    <mergeCell ref="H80:J81"/>
-    <mergeCell ref="K80:L81"/>
-    <mergeCell ref="M80:N81"/>
-    <mergeCell ref="A83:N83"/>
-    <mergeCell ref="A84:N84"/>
-    <mergeCell ref="B85:N85"/>
-    <mergeCell ref="B86:N86"/>
-    <mergeCell ref="B87:H87"/>
-    <mergeCell ref="J87:N87"/>
+    <mergeCell ref="A51:N63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:D65"/>
+    <mergeCell ref="E64:G65"/>
+    <mergeCell ref="H64:J65"/>
+    <mergeCell ref="K64:L65"/>
+    <mergeCell ref="M64:N65"/>
+    <mergeCell ref="A67:N67"/>
+    <mergeCell ref="A68:N68"/>
+    <mergeCell ref="B69:N69"/>
+    <mergeCell ref="B70:N70"/>
+    <mergeCell ref="B71:H71"/>
+    <mergeCell ref="J71:N71"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.5" right="0.5" top="0" bottom="0.25" header="0.12" footer="0.12"/>

--- a/export_rfq.xlsx
+++ b/export_rfq.xlsx
@@ -46,7 +46,7 @@
     <t>RFQ Number :</t>
   </si>
   <si>
-    <t>2020-0094</t>
+    <t>2020-0071</t>
   </si>
   <si>
     <t>Mode of Procurement:</t>
@@ -55,7 +55,7 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>March 25,   2020</t>
+    <t>March 26,   2020</t>
   </si>
   <si>
     <t>Office/End User:</t>
@@ -67,7 +67,7 @@
     <t>Purpose:</t>
   </si>
   <si>
-    <t>Test</t>
+    <t xml:space="preserve">Test </t>
   </si>
   <si>
     <t>Company Name:</t>
@@ -169,9 +169,6 @@
     <t>Approved Budget for the Contract (ABC):</t>
   </si>
   <si>
-    <t>16,000.00</t>
-  </si>
-  <si>
     <t>DR. CARINA S. CRUZ</t>
   </si>
   <si>
@@ -226,14 +223,18 @@
     <t>NO</t>
   </si>
   <si>
-    <t xml:space="preserve">Battery 2-3 SMF, 12 Volts
+    <t xml:space="preserve">Map Pin/Pin Assrtd Colored
 </t>
   </si>
   <si>
-    <t>piece</t>
+    <t>box</t>
   </si>
   <si>
-    <t>8,000.00</t>
+    <t xml:space="preserve">Copy Paper, A4, 80gsm, 500sheets
+</t>
+  </si>
+  <si>
+    <t>ream</t>
   </si>
   <si>
     <t>REF:  approved and funded PPMP; approved and funded Activity Design	
@@ -618,7 +619,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="246">
+  <cellXfs count="269">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -1096,79 +1097,148 @@
     <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="166" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="166" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="166" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="166" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="17" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="4" numFmtId="166" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="2" numFmtId="166" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="166" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="166" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="165" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="17" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="166" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="166" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -1180,13 +1250,13 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -1198,13 +1268,13 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="166" fillId="2" borderId="10" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="166" fillId="2" borderId="10" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="166" fillId="2" borderId="3" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="11" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="165" fillId="2" borderId="11" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="165" fillId="2" borderId="12" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -1216,13 +1286,13 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="10" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="165" fillId="2" borderId="10" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="165" fillId="2" borderId="3" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="11" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="165" fillId="2" borderId="11" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="165" fillId="2" borderId="12" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -1240,13 +1310,13 @@
     <xf xfId="0" fontId="4" numFmtId="0" fillId="5" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="bottom" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -1754,7 +1824,7 @@
   <dimension ref="A1:N877"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="145" zoomScaleNormal="55" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="N71" sqref="N71"/>
+      <selection activeCell="N73" sqref="N73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2420,8 +2490,8 @@
       <c r="B38" s="112"/>
       <c r="C38" s="112"/>
       <c r="D38" s="112"/>
-      <c r="E38" s="113" t="s">
-        <v>45</v>
+      <c r="E38" s="113">
+        <v>480</v>
       </c>
       <c r="F38" s="113"/>
       <c r="G38" s="113"/>
@@ -2461,7 +2531,7 @@
       <c r="I40" s="89"/>
       <c r="J40" s="89"/>
       <c r="K40" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L40" s="18"/>
       <c r="M40" s="18"/>
@@ -2478,7 +2548,7 @@
       <c r="H41" s="113"/>
       <c r="I41" s="90"/>
       <c r="J41" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K41" s="19"/>
       <c r="L41" s="19"/>
@@ -2503,24 +2573,24 @@
     </row>
     <row r="43" spans="1:14" customHeight="1" ht="14.25">
       <c r="A43" s="112" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B43" s="116" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C43" s="117"/>
       <c r="D43" s="118"/>
       <c r="E43" s="115" t="s">
+        <v>49</v>
+      </c>
+      <c r="F43" s="112" t="s">
         <v>50</v>
       </c>
-      <c r="F43" s="112" t="s">
+      <c r="G43" s="130" t="s">
         <v>51</v>
       </c>
-      <c r="G43" s="130" t="s">
+      <c r="H43" s="128" t="s">
         <v>52</v>
-      </c>
-      <c r="H43" s="128" t="s">
-        <v>53</v>
       </c>
       <c r="I43" s="128"/>
       <c r="J43" s="128"/>
@@ -2538,16 +2608,16 @@
       <c r="F44" s="112"/>
       <c r="G44" s="130"/>
       <c r="H44" s="126" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I44" s="127"/>
       <c r="J44" s="127"/>
       <c r="K44" s="125" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L44" s="125"/>
       <c r="M44" s="131" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N44" s="132"/>
     </row>
@@ -2608,19 +2678,19 @@
       <c r="F48" s="112"/>
       <c r="G48" s="130"/>
       <c r="H48" s="137" t="s">
+        <v>56</v>
+      </c>
+      <c r="I48" s="139" t="s">
         <v>57</v>
       </c>
-      <c r="I48" s="139" t="s">
+      <c r="J48" s="141" t="s">
         <v>58</v>
       </c>
-      <c r="J48" s="141" t="s">
+      <c r="K48" s="143" t="s">
         <v>59</v>
       </c>
-      <c r="K48" s="143" t="s">
+      <c r="L48" s="144" t="s">
         <v>60</v>
-      </c>
-      <c r="L48" s="144" t="s">
-        <v>61</v>
       </c>
       <c r="M48" s="133"/>
       <c r="N48" s="134"/>
@@ -2644,18 +2714,18 @@
     <row r="50" spans="1:14">
       <c r="A50" s="145"/>
       <c r="B50" s="148" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C50" s="146"/>
       <c r="D50" s="147"/>
       <c r="E50" s="149">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F50" s="150" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
-      <c r="G50" s="151" t="s">
-        <v>64</v>
+      <c r="G50" s="151">
+        <v>65</v>
       </c>
       <c r="H50" s="152"/>
       <c r="I50" s="153"/>
@@ -2666,396 +2736,416 @@
       <c r="N50" s="158"/>
     </row>
     <row r="51" spans="1:14">
-      <c r="A51" s="173" t="s">
+      <c r="A51" s="159"/>
+      <c r="B51" s="162" t="s">
+        <v>61</v>
+      </c>
+      <c r="C51" s="160"/>
+      <c r="D51" s="161"/>
+      <c r="E51" s="163">
+        <v>1</v>
+      </c>
+      <c r="F51" s="164" t="s">
+        <v>62</v>
+      </c>
+      <c r="G51" s="165">
         <v>65</v>
       </c>
-      <c r="B51" s="161"/>
-      <c r="C51" s="161"/>
-      <c r="D51" s="161"/>
-      <c r="E51" s="161"/>
-      <c r="F51" s="162"/>
-      <c r="G51" s="163"/>
-      <c r="H51" s="161"/>
-      <c r="I51" s="163"/>
-      <c r="J51" s="163"/>
-      <c r="K51" s="164"/>
-      <c r="L51" s="164"/>
-      <c r="M51" s="164"/>
-      <c r="N51" s="171"/>
+      <c r="H51" s="166"/>
+      <c r="I51" s="167"/>
+      <c r="J51" s="168"/>
+      <c r="K51" s="169"/>
+      <c r="L51" s="170"/>
+      <c r="M51" s="171"/>
+      <c r="N51" s="172"/>
     </row>
     <row r="52" spans="1:14">
-      <c r="A52" s="159" t="s">
+      <c r="A52" s="173"/>
+      <c r="B52" s="176" t="s">
+        <v>63</v>
+      </c>
+      <c r="C52" s="174"/>
+      <c r="D52" s="175"/>
+      <c r="E52" s="177">
+        <v>1</v>
+      </c>
+      <c r="F52" s="178" t="s">
+        <v>64</v>
+      </c>
+      <c r="G52" s="179">
+        <v>350</v>
+      </c>
+      <c r="H52" s="180"/>
+      <c r="I52" s="181"/>
+      <c r="J52" s="182"/>
+      <c r="K52" s="183"/>
+      <c r="L52" s="184"/>
+      <c r="M52" s="185"/>
+      <c r="N52" s="186"/>
+    </row>
+    <row r="53" spans="1:14">
+      <c r="A53" s="196" t="s">
+        <v>65</v>
+      </c>
+      <c r="B53" s="188"/>
+      <c r="C53" s="188"/>
+      <c r="D53" s="188"/>
+      <c r="E53" s="188"/>
+      <c r="F53" s="189"/>
+      <c r="G53" s="190"/>
+      <c r="H53" s="188"/>
+      <c r="I53" s="190"/>
+      <c r="J53" s="190"/>
+      <c r="K53" s="188"/>
+      <c r="L53" s="188"/>
+      <c r="M53" s="188"/>
+      <c r="N53" s="194"/>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="A54" s="187" t="s">
+        <v>65</v>
+      </c>
+      <c r="B54" s="191"/>
+      <c r="C54" s="191"/>
+      <c r="D54" s="191"/>
+      <c r="E54" s="191"/>
+      <c r="F54" s="192"/>
+      <c r="G54" s="193"/>
+      <c r="H54" s="191"/>
+      <c r="I54" s="193"/>
+      <c r="J54" s="193"/>
+      <c r="K54" s="191"/>
+      <c r="L54" s="191"/>
+      <c r="M54" s="191"/>
+      <c r="N54" s="195"/>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="A55" s="187" t="s">
         <v>66</v>
       </c>
-      <c r="B52" s="165"/>
-      <c r="C52" s="165"/>
-      <c r="D52" s="165"/>
-      <c r="E52" s="165"/>
-      <c r="F52" s="167"/>
-      <c r="G52" s="169"/>
-      <c r="H52" s="165"/>
-      <c r="I52" s="169"/>
-      <c r="J52" s="169"/>
-      <c r="K52" s="166"/>
-      <c r="L52" s="166"/>
-      <c r="M52" s="166"/>
-      <c r="N52" s="172"/>
-    </row>
-    <row r="53" spans="1:14">
-      <c r="A53" s="160" t="s">
+      <c r="B55" s="191"/>
+      <c r="C55" s="191"/>
+      <c r="D55" s="191"/>
+      <c r="E55" s="191"/>
+      <c r="F55" s="192"/>
+      <c r="G55" s="193"/>
+      <c r="H55" s="191"/>
+      <c r="I55" s="193"/>
+      <c r="J55" s="193"/>
+      <c r="K55" s="191"/>
+      <c r="L55" s="191"/>
+      <c r="M55" s="191"/>
+      <c r="N55" s="195"/>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="A56" s="187" t="s">
         <v>67</v>
       </c>
-      <c r="B53" s="166"/>
-      <c r="C53" s="166"/>
-      <c r="D53" s="166"/>
-      <c r="E53" s="166"/>
-      <c r="F53" s="168"/>
-      <c r="G53" s="170"/>
-      <c r="H53" s="166"/>
-      <c r="I53" s="170"/>
-      <c r="J53" s="170"/>
-      <c r="K53" s="166"/>
-      <c r="L53" s="166"/>
-      <c r="M53" s="166"/>
-      <c r="N53" s="172"/>
-    </row>
-    <row r="54" spans="1:14">
-      <c r="A54" s="174"/>
-      <c r="B54" s="176"/>
-      <c r="C54" s="176"/>
-      <c r="D54" s="176"/>
-      <c r="E54" s="176"/>
-      <c r="F54" s="178"/>
-      <c r="G54" s="180"/>
-      <c r="H54" s="176"/>
-      <c r="I54" s="180"/>
-      <c r="J54" s="180"/>
-      <c r="K54" s="176"/>
-      <c r="L54" s="176"/>
-      <c r="M54" s="176"/>
-      <c r="N54" s="182"/>
-    </row>
-    <row r="55" spans="1:14">
-      <c r="A55" s="174"/>
-      <c r="B55" s="176"/>
-      <c r="C55" s="176"/>
-      <c r="D55" s="176"/>
-      <c r="E55" s="176"/>
-      <c r="F55" s="178"/>
-      <c r="G55" s="180"/>
-      <c r="H55" s="176"/>
-      <c r="I55" s="180"/>
-      <c r="J55" s="180"/>
-      <c r="K55" s="176"/>
-      <c r="L55" s="176"/>
-      <c r="M55" s="176"/>
-      <c r="N55" s="182"/>
-    </row>
-    <row r="56" spans="1:14">
-      <c r="A56" s="174"/>
-      <c r="B56" s="176"/>
-      <c r="C56" s="176"/>
-      <c r="D56" s="176"/>
-      <c r="E56" s="176"/>
-      <c r="F56" s="178"/>
-      <c r="G56" s="180"/>
-      <c r="H56" s="176"/>
-      <c r="I56" s="180"/>
-      <c r="J56" s="180"/>
-      <c r="K56" s="176"/>
-      <c r="L56" s="176"/>
-      <c r="M56" s="176"/>
-      <c r="N56" s="182"/>
+      <c r="B56" s="191"/>
+      <c r="C56" s="191"/>
+      <c r="D56" s="191"/>
+      <c r="E56" s="191"/>
+      <c r="F56" s="192"/>
+      <c r="G56" s="193"/>
+      <c r="H56" s="191"/>
+      <c r="I56" s="193"/>
+      <c r="J56" s="193"/>
+      <c r="K56" s="191"/>
+      <c r="L56" s="191"/>
+      <c r="M56" s="191"/>
+      <c r="N56" s="195"/>
     </row>
     <row r="57" spans="1:14">
-      <c r="A57" s="174"/>
-      <c r="B57" s="176"/>
-      <c r="C57" s="176"/>
-      <c r="D57" s="176"/>
-      <c r="E57" s="176"/>
-      <c r="F57" s="178"/>
-      <c r="G57" s="180"/>
-      <c r="H57" s="176"/>
-      <c r="I57" s="180"/>
-      <c r="J57" s="180"/>
-      <c r="K57" s="176"/>
-      <c r="L57" s="176"/>
-      <c r="M57" s="176"/>
-      <c r="N57" s="182"/>
+      <c r="A57" s="187" t="s">
+        <v>67</v>
+      </c>
+      <c r="B57" s="191"/>
+      <c r="C57" s="191"/>
+      <c r="D57" s="191"/>
+      <c r="E57" s="191"/>
+      <c r="F57" s="192"/>
+      <c r="G57" s="193"/>
+      <c r="H57" s="191"/>
+      <c r="I57" s="193"/>
+      <c r="J57" s="193"/>
+      <c r="K57" s="191"/>
+      <c r="L57" s="191"/>
+      <c r="M57" s="191"/>
+      <c r="N57" s="195"/>
     </row>
     <row r="58" spans="1:14">
-      <c r="A58" s="174"/>
-      <c r="B58" s="176"/>
-      <c r="C58" s="176"/>
-      <c r="D58" s="176"/>
-      <c r="E58" s="176"/>
-      <c r="F58" s="178"/>
-      <c r="G58" s="180"/>
-      <c r="H58" s="176"/>
-      <c r="I58" s="180"/>
-      <c r="J58" s="180"/>
-      <c r="K58" s="176"/>
-      <c r="L58" s="176"/>
-      <c r="M58" s="176"/>
-      <c r="N58" s="182"/>
+      <c r="A58" s="197"/>
+      <c r="B58" s="199"/>
+      <c r="C58" s="199"/>
+      <c r="D58" s="199"/>
+      <c r="E58" s="199"/>
+      <c r="F58" s="201"/>
+      <c r="G58" s="203"/>
+      <c r="H58" s="199"/>
+      <c r="I58" s="203"/>
+      <c r="J58" s="203"/>
+      <c r="K58" s="199"/>
+      <c r="L58" s="199"/>
+      <c r="M58" s="199"/>
+      <c r="N58" s="205"/>
     </row>
     <row r="59" spans="1:14">
-      <c r="A59" s="174"/>
-      <c r="B59" s="176"/>
-      <c r="C59" s="176"/>
-      <c r="D59" s="176"/>
-      <c r="E59" s="176"/>
-      <c r="F59" s="178"/>
-      <c r="G59" s="180"/>
-      <c r="H59" s="176"/>
-      <c r="I59" s="180"/>
-      <c r="J59" s="180"/>
-      <c r="K59" s="176"/>
-      <c r="L59" s="176"/>
-      <c r="M59" s="176"/>
-      <c r="N59" s="182"/>
+      <c r="A59" s="197"/>
+      <c r="B59" s="199"/>
+      <c r="C59" s="199"/>
+      <c r="D59" s="199"/>
+      <c r="E59" s="199"/>
+      <c r="F59" s="201"/>
+      <c r="G59" s="203"/>
+      <c r="H59" s="199"/>
+      <c r="I59" s="203"/>
+      <c r="J59" s="203"/>
+      <c r="K59" s="199"/>
+      <c r="L59" s="199"/>
+      <c r="M59" s="199"/>
+      <c r="N59" s="205"/>
     </row>
     <row r="60" spans="1:14">
-      <c r="A60" s="174"/>
-      <c r="B60" s="176"/>
-      <c r="C60" s="176"/>
-      <c r="D60" s="176"/>
-      <c r="E60" s="176"/>
-      <c r="F60" s="178"/>
-      <c r="G60" s="180"/>
-      <c r="H60" s="176"/>
-      <c r="I60" s="180"/>
-      <c r="J60" s="180"/>
-      <c r="K60" s="176"/>
-      <c r="L60" s="176"/>
-      <c r="M60" s="176"/>
-      <c r="N60" s="182"/>
+      <c r="A60" s="197"/>
+      <c r="B60" s="199"/>
+      <c r="C60" s="199"/>
+      <c r="D60" s="199"/>
+      <c r="E60" s="199"/>
+      <c r="F60" s="201"/>
+      <c r="G60" s="203"/>
+      <c r="H60" s="199"/>
+      <c r="I60" s="203"/>
+      <c r="J60" s="203"/>
+      <c r="K60" s="199"/>
+      <c r="L60" s="199"/>
+      <c r="M60" s="199"/>
+      <c r="N60" s="205"/>
     </row>
     <row r="61" spans="1:14">
-      <c r="A61" s="174"/>
-      <c r="B61" s="176"/>
-      <c r="C61" s="176"/>
-      <c r="D61" s="176"/>
-      <c r="E61" s="176"/>
-      <c r="F61" s="178"/>
-      <c r="G61" s="180"/>
-      <c r="H61" s="176"/>
-      <c r="I61" s="180"/>
-      <c r="J61" s="180"/>
-      <c r="K61" s="176"/>
-      <c r="L61" s="176"/>
-      <c r="M61" s="176"/>
-      <c r="N61" s="182"/>
+      <c r="A61" s="197"/>
+      <c r="B61" s="199"/>
+      <c r="C61" s="199"/>
+      <c r="D61" s="199"/>
+      <c r="E61" s="199"/>
+      <c r="F61" s="201"/>
+      <c r="G61" s="203"/>
+      <c r="H61" s="199"/>
+      <c r="I61" s="203"/>
+      <c r="J61" s="203"/>
+      <c r="K61" s="199"/>
+      <c r="L61" s="199"/>
+      <c r="M61" s="199"/>
+      <c r="N61" s="205"/>
     </row>
     <row r="62" spans="1:14">
-      <c r="A62" s="174"/>
-      <c r="B62" s="176"/>
-      <c r="C62" s="176"/>
-      <c r="D62" s="176"/>
-      <c r="E62" s="176"/>
-      <c r="F62" s="178"/>
-      <c r="G62" s="180"/>
-      <c r="H62" s="176"/>
-      <c r="I62" s="180"/>
-      <c r="J62" s="180"/>
-      <c r="K62" s="176"/>
-      <c r="L62" s="176"/>
-      <c r="M62" s="176"/>
-      <c r="N62" s="182"/>
+      <c r="A62" s="197"/>
+      <c r="B62" s="199"/>
+      <c r="C62" s="199"/>
+      <c r="D62" s="199"/>
+      <c r="E62" s="199"/>
+      <c r="F62" s="201"/>
+      <c r="G62" s="203"/>
+      <c r="H62" s="199"/>
+      <c r="I62" s="203"/>
+      <c r="J62" s="203"/>
+      <c r="K62" s="199"/>
+      <c r="L62" s="199"/>
+      <c r="M62" s="199"/>
+      <c r="N62" s="205"/>
     </row>
     <row r="63" spans="1:14">
-      <c r="A63" s="175"/>
-      <c r="B63" s="177"/>
-      <c r="C63" s="177"/>
-      <c r="D63" s="177"/>
-      <c r="E63" s="177"/>
-      <c r="F63" s="179"/>
-      <c r="G63" s="181"/>
-      <c r="H63" s="177"/>
-      <c r="I63" s="181"/>
-      <c r="J63" s="181"/>
-      <c r="K63" s="177"/>
-      <c r="L63" s="177"/>
-      <c r="M63" s="177"/>
-      <c r="N63" s="183"/>
+      <c r="A63" s="197"/>
+      <c r="B63" s="199"/>
+      <c r="C63" s="199"/>
+      <c r="D63" s="199"/>
+      <c r="E63" s="199"/>
+      <c r="F63" s="201"/>
+      <c r="G63" s="203"/>
+      <c r="H63" s="199"/>
+      <c r="I63" s="203"/>
+      <c r="J63" s="203"/>
+      <c r="K63" s="199"/>
+      <c r="L63" s="199"/>
+      <c r="M63" s="199"/>
+      <c r="N63" s="205"/>
     </row>
     <row r="64" spans="1:14">
-      <c r="A64" s="185" t="s">
+      <c r="A64" s="197"/>
+      <c r="B64" s="199"/>
+      <c r="C64" s="199"/>
+      <c r="D64" s="199"/>
+      <c r="E64" s="199"/>
+      <c r="F64" s="201"/>
+      <c r="G64" s="203"/>
+      <c r="H64" s="199"/>
+      <c r="I64" s="203"/>
+      <c r="J64" s="203"/>
+      <c r="K64" s="199"/>
+      <c r="L64" s="199"/>
+      <c r="M64" s="199"/>
+      <c r="N64" s="205"/>
+    </row>
+    <row r="65" spans="1:14">
+      <c r="A65" s="198"/>
+      <c r="B65" s="200"/>
+      <c r="C65" s="200"/>
+      <c r="D65" s="200"/>
+      <c r="E65" s="200"/>
+      <c r="F65" s="202"/>
+      <c r="G65" s="204"/>
+      <c r="H65" s="200"/>
+      <c r="I65" s="204"/>
+      <c r="J65" s="204"/>
+      <c r="K65" s="200"/>
+      <c r="L65" s="200"/>
+      <c r="M65" s="200"/>
+      <c r="N65" s="206"/>
+    </row>
+    <row r="66" spans="1:14">
+      <c r="A66" s="208" t="s">
         <v>68</v>
       </c>
-      <c r="B64" s="191"/>
-      <c r="C64" s="187"/>
-      <c r="D64" s="189"/>
-      <c r="E64" s="197" t="s">
+      <c r="B66" s="214"/>
+      <c r="C66" s="210"/>
+      <c r="D66" s="212"/>
+      <c r="E66" s="220" t="s">
         <v>69</v>
       </c>
-      <c r="F64" s="193"/>
-      <c r="G64" s="195"/>
-      <c r="H64" s="203"/>
-      <c r="I64" s="199"/>
-      <c r="J64" s="201"/>
-      <c r="K64" s="206" t="s">
+      <c r="F66" s="216"/>
+      <c r="G66" s="218"/>
+      <c r="H66" s="226"/>
+      <c r="I66" s="222"/>
+      <c r="J66" s="224"/>
+      <c r="K66" s="229" t="s">
         <v>70</v>
       </c>
-      <c r="L64" s="207"/>
-      <c r="M64" s="211"/>
-      <c r="N64" s="209"/>
-    </row>
-    <row r="65" spans="1:14">
-      <c r="A65" s="184"/>
-      <c r="B65" s="186"/>
-      <c r="C65" s="188"/>
-      <c r="D65" s="190"/>
-      <c r="E65" s="192"/>
-      <c r="F65" s="194"/>
-      <c r="G65" s="196"/>
-      <c r="H65" s="198"/>
-      <c r="I65" s="200"/>
-      <c r="J65" s="202"/>
-      <c r="K65" s="204"/>
-      <c r="L65" s="205"/>
-      <c r="M65" s="208"/>
-      <c r="N65" s="210"/>
-    </row>
-    <row r="66" spans="1:14">
-      <c r="A66" s="218"/>
-      <c r="B66" s="92"/>
-      <c r="C66" s="92"/>
-      <c r="D66" s="92"/>
-      <c r="E66" s="92"/>
-      <c r="F66" s="94"/>
-      <c r="G66" s="95"/>
-      <c r="H66" s="92"/>
-      <c r="I66" s="95"/>
-      <c r="J66" s="95"/>
-      <c r="K66" s="92"/>
-      <c r="L66" s="92"/>
-      <c r="M66" s="92"/>
-      <c r="N66" s="217"/>
+      <c r="L66" s="230"/>
+      <c r="M66" s="234"/>
+      <c r="N66" s="232"/>
     </row>
     <row r="67" spans="1:14">
-      <c r="A67" s="212" t="s">
+      <c r="A67" s="207"/>
+      <c r="B67" s="209"/>
+      <c r="C67" s="211"/>
+      <c r="D67" s="213"/>
+      <c r="E67" s="215"/>
+      <c r="F67" s="217"/>
+      <c r="G67" s="219"/>
+      <c r="H67" s="221"/>
+      <c r="I67" s="223"/>
+      <c r="J67" s="225"/>
+      <c r="K67" s="227"/>
+      <c r="L67" s="228"/>
+      <c r="M67" s="231"/>
+      <c r="N67" s="233"/>
+    </row>
+    <row r="68" spans="1:14">
+      <c r="A68" s="241"/>
+      <c r="B68" s="92"/>
+      <c r="C68" s="92"/>
+      <c r="D68" s="92"/>
+      <c r="E68" s="92"/>
+      <c r="F68" s="94"/>
+      <c r="G68" s="95"/>
+      <c r="H68" s="92"/>
+      <c r="I68" s="95"/>
+      <c r="J68" s="95"/>
+      <c r="K68" s="92"/>
+      <c r="L68" s="92"/>
+      <c r="M68" s="92"/>
+      <c r="N68" s="240"/>
+    </row>
+    <row r="69" spans="1:14">
+      <c r="A69" s="235" t="s">
         <v>71</v>
       </c>
-      <c r="B67" s="213"/>
-      <c r="C67" s="213"/>
-      <c r="D67" s="213"/>
-      <c r="E67" s="213"/>
-      <c r="F67" s="214"/>
-      <c r="G67" s="215"/>
-      <c r="H67" s="213"/>
-      <c r="I67" s="215"/>
-      <c r="J67" s="215"/>
-      <c r="K67" s="213"/>
-      <c r="L67" s="213"/>
-      <c r="M67" s="213"/>
-      <c r="N67" s="216"/>
-    </row>
-    <row r="68" spans="1:14">
-      <c r="A68" s="219" t="s">
+      <c r="B69" s="236"/>
+      <c r="C69" s="236"/>
+      <c r="D69" s="236"/>
+      <c r="E69" s="236"/>
+      <c r="F69" s="237"/>
+      <c r="G69" s="238"/>
+      <c r="H69" s="236"/>
+      <c r="I69" s="238"/>
+      <c r="J69" s="238"/>
+      <c r="K69" s="236"/>
+      <c r="L69" s="236"/>
+      <c r="M69" s="236"/>
+      <c r="N69" s="239"/>
+    </row>
+    <row r="70" spans="1:14">
+      <c r="A70" s="242" t="s">
         <v>72</v>
       </c>
-      <c r="B68" s="220"/>
-      <c r="C68" s="220"/>
-      <c r="D68" s="220"/>
-      <c r="E68" s="220"/>
-      <c r="F68" s="221"/>
-      <c r="G68" s="222"/>
-      <c r="H68" s="220"/>
-      <c r="I68" s="222"/>
-      <c r="J68" s="222"/>
-      <c r="K68" s="220"/>
-      <c r="L68" s="220"/>
-      <c r="M68" s="220"/>
-      <c r="N68" s="223"/>
-    </row>
-    <row r="69" spans="1:14">
-      <c r="A69" s="224" t="s">
+      <c r="B70" s="243"/>
+      <c r="C70" s="243"/>
+      <c r="D70" s="243"/>
+      <c r="E70" s="243"/>
+      <c r="F70" s="244"/>
+      <c r="G70" s="245"/>
+      <c r="H70" s="243"/>
+      <c r="I70" s="245"/>
+      <c r="J70" s="245"/>
+      <c r="K70" s="243"/>
+      <c r="L70" s="243"/>
+      <c r="M70" s="243"/>
+      <c r="N70" s="246"/>
+    </row>
+    <row r="71" spans="1:14">
+      <c r="A71" s="247" t="s">
         <v>73</v>
       </c>
-      <c r="B69" s="225"/>
-      <c r="C69" s="226"/>
-      <c r="D69" s="226"/>
-      <c r="E69" s="226"/>
-      <c r="F69" s="227"/>
-      <c r="G69" s="228"/>
-      <c r="H69" s="226"/>
-      <c r="I69" s="228"/>
-      <c r="J69" s="228"/>
-      <c r="K69" s="226"/>
-      <c r="L69" s="226"/>
-      <c r="M69" s="226"/>
-      <c r="N69" s="229"/>
-    </row>
-    <row r="70" spans="1:14">
-      <c r="A70" s="230" t="s">
+      <c r="B71" s="248"/>
+      <c r="C71" s="249"/>
+      <c r="D71" s="249"/>
+      <c r="E71" s="249"/>
+      <c r="F71" s="250"/>
+      <c r="G71" s="251"/>
+      <c r="H71" s="249"/>
+      <c r="I71" s="251"/>
+      <c r="J71" s="251"/>
+      <c r="K71" s="249"/>
+      <c r="L71" s="249"/>
+      <c r="M71" s="249"/>
+      <c r="N71" s="252"/>
+    </row>
+    <row r="72" spans="1:14">
+      <c r="A72" s="253" t="s">
         <v>74</v>
       </c>
-      <c r="B70" s="231"/>
-      <c r="C70" s="232"/>
-      <c r="D70" s="232"/>
-      <c r="E70" s="232"/>
-      <c r="F70" s="233"/>
-      <c r="G70" s="234"/>
-      <c r="H70" s="232"/>
-      <c r="I70" s="234"/>
-      <c r="J70" s="234"/>
-      <c r="K70" s="232"/>
-      <c r="L70" s="232"/>
-      <c r="M70" s="232"/>
-      <c r="N70" s="235"/>
-    </row>
-    <row r="71" spans="1:14">
-      <c r="A71" s="236" t="s">
+      <c r="B72" s="254"/>
+      <c r="C72" s="255"/>
+      <c r="D72" s="255"/>
+      <c r="E72" s="255"/>
+      <c r="F72" s="256"/>
+      <c r="G72" s="257"/>
+      <c r="H72" s="255"/>
+      <c r="I72" s="257"/>
+      <c r="J72" s="257"/>
+      <c r="K72" s="255"/>
+      <c r="L72" s="255"/>
+      <c r="M72" s="255"/>
+      <c r="N72" s="258"/>
+    </row>
+    <row r="73" spans="1:14">
+      <c r="A73" s="259" t="s">
         <v>75</v>
       </c>
-      <c r="B71" s="237"/>
-      <c r="C71" s="238"/>
-      <c r="D71" s="238"/>
-      <c r="E71" s="238"/>
-      <c r="F71" s="239"/>
-      <c r="G71" s="240"/>
-      <c r="H71" s="241"/>
-      <c r="I71" s="242" t="s">
+      <c r="B73" s="260"/>
+      <c r="C73" s="261"/>
+      <c r="D73" s="261"/>
+      <c r="E73" s="261"/>
+      <c r="F73" s="262"/>
+      <c r="G73" s="263"/>
+      <c r="H73" s="264"/>
+      <c r="I73" s="265" t="s">
         <v>6</v>
       </c>
-      <c r="J71" s="243"/>
-      <c r="K71" s="244"/>
-      <c r="L71" s="244"/>
-      <c r="M71" s="244"/>
-      <c r="N71" s="245"/>
-    </row>
-    <row r="72" spans="1:14">
-      <c r="A72" s="92"/>
-      <c r="B72" s="92"/>
-      <c r="C72" s="92"/>
-      <c r="D72" s="92"/>
-      <c r="E72" s="92"/>
-      <c r="F72" s="94"/>
-      <c r="G72" s="95"/>
-      <c r="H72" s="92"/>
-      <c r="I72" s="95"/>
-      <c r="J72" s="95"/>
-      <c r="K72" s="92"/>
-      <c r="L72" s="92"/>
-      <c r="M72" s="92"/>
-      <c r="N72" s="92"/>
-    </row>
-    <row r="73" spans="1:14">
-      <c r="A73" s="92"/>
-      <c r="B73" s="92"/>
-      <c r="C73" s="92"/>
-      <c r="D73" s="92"/>
-      <c r="E73" s="92"/>
-      <c r="F73" s="94"/>
-      <c r="G73" s="95"/>
-      <c r="H73" s="92"/>
-      <c r="I73" s="95"/>
-      <c r="J73" s="95"/>
-      <c r="K73" s="92"/>
-      <c r="L73" s="92"/>
-      <c r="M73" s="92"/>
-      <c r="N73" s="92"/>
+      <c r="J73" s="266"/>
+      <c r="K73" s="267"/>
+      <c r="L73" s="267"/>
+      <c r="M73" s="267"/>
+      <c r="N73" s="268"/>
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="92"/>
@@ -15954,19 +16044,19 @@
     <mergeCell ref="E15:N15"/>
     <mergeCell ref="E16:N16"/>
     <mergeCell ref="E17:N17"/>
-    <mergeCell ref="A51:N63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B64:D65"/>
-    <mergeCell ref="E64:G65"/>
-    <mergeCell ref="H64:J65"/>
-    <mergeCell ref="K64:L65"/>
-    <mergeCell ref="M64:N65"/>
-    <mergeCell ref="A67:N67"/>
-    <mergeCell ref="A68:N68"/>
-    <mergeCell ref="B69:N69"/>
-    <mergeCell ref="B70:N70"/>
-    <mergeCell ref="B71:H71"/>
-    <mergeCell ref="J71:N71"/>
+    <mergeCell ref="A53:N65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="B66:D67"/>
+    <mergeCell ref="E66:G67"/>
+    <mergeCell ref="H66:J67"/>
+    <mergeCell ref="K66:L67"/>
+    <mergeCell ref="M66:N67"/>
+    <mergeCell ref="A69:N69"/>
+    <mergeCell ref="A70:N70"/>
+    <mergeCell ref="B71:N71"/>
+    <mergeCell ref="B72:N72"/>
+    <mergeCell ref="B73:H73"/>
+    <mergeCell ref="J73:N73"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.5" right="0.5" top="0" bottom="0.25" header="0.12" footer="0.12"/>

--- a/export_rfq.xlsx
+++ b/export_rfq.xlsx
@@ -46,7 +46,7 @@
     <t>RFQ Number :</t>
   </si>
   <si>
-    <t>2020-0071</t>
+    <t>2020-0094</t>
   </si>
   <si>
     <t>Mode of Procurement:</t>
@@ -55,7 +55,7 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>March 26,   2020</t>
+    <t>March 25,   2020</t>
   </si>
   <si>
     <t>Office/End User:</t>
@@ -67,7 +67,7 @@
     <t>Purpose:</t>
   </si>
   <si>
-    <t xml:space="preserve">Test </t>
+    <t>Test</t>
   </si>
   <si>
     <t>Company Name:</t>
@@ -169,6 +169,9 @@
     <t>Approved Budget for the Contract (ABC):</t>
   </si>
   <si>
+    <t>16,000.00</t>
+  </si>
+  <si>
     <t>DR. CARINA S. CRUZ</t>
   </si>
   <si>
@@ -223,18 +226,14 @@
     <t>NO</t>
   </si>
   <si>
-    <t xml:space="preserve">Map Pin/Pin Assrtd Colored
+    <t xml:space="preserve">Battery 2-3 SMF, 12 Volts
 </t>
   </si>
   <si>
-    <t>box</t>
+    <t>piece</t>
   </si>
   <si>
-    <t xml:space="preserve">Copy Paper, A4, 80gsm, 500sheets
-</t>
-  </si>
-  <si>
-    <t>ream</t>
+    <t>8,000.00</t>
   </si>
   <si>
     <t>REF:  approved and funded PPMP; approved and funded Activity Design	
@@ -619,7 +618,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="269">
+  <cellXfs count="246">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -1097,93 +1096,12 @@
     <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="166" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="166" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
@@ -1196,12 +1114,24 @@
     <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="4" numFmtId="166" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="4" numFmtId="166" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
@@ -1214,31 +1144,31 @@
     <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="166" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="166" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="166" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="165" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -1250,13 +1180,13 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -1268,13 +1198,13 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="166" fillId="2" borderId="10" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="166" fillId="2" borderId="10" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="166" fillId="2" borderId="3" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="165" fillId="2" borderId="11" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="11" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="165" fillId="2" borderId="12" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -1286,13 +1216,13 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="165" fillId="2" borderId="10" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="10" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="165" fillId="2" borderId="3" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="165" fillId="2" borderId="11" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="11" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="165" fillId="2" borderId="12" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -1310,13 +1240,13 @@
     <xf xfId="0" fontId="4" numFmtId="0" fillId="5" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="bottom" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -1824,7 +1754,7 @@
   <dimension ref="A1:N877"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="145" zoomScaleNormal="55" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="N73" sqref="N73"/>
+      <selection activeCell="N71" sqref="N71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2490,8 +2420,8 @@
       <c r="B38" s="112"/>
       <c r="C38" s="112"/>
       <c r="D38" s="112"/>
-      <c r="E38" s="113">
-        <v>480</v>
+      <c r="E38" s="113" t="s">
+        <v>45</v>
       </c>
       <c r="F38" s="113"/>
       <c r="G38" s="113"/>
@@ -2531,7 +2461,7 @@
       <c r="I40" s="89"/>
       <c r="J40" s="89"/>
       <c r="K40" s="17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L40" s="18"/>
       <c r="M40" s="18"/>
@@ -2548,7 +2478,7 @@
       <c r="H41" s="113"/>
       <c r="I41" s="90"/>
       <c r="J41" s="19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K41" s="19"/>
       <c r="L41" s="19"/>
@@ -2573,24 +2503,24 @@
     </row>
     <row r="43" spans="1:14" customHeight="1" ht="14.25">
       <c r="A43" s="112" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43" s="116" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C43" s="117"/>
       <c r="D43" s="118"/>
       <c r="E43" s="115" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F43" s="112" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G43" s="130" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H43" s="128" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I43" s="128"/>
       <c r="J43" s="128"/>
@@ -2608,16 +2538,16 @@
       <c r="F44" s="112"/>
       <c r="G44" s="130"/>
       <c r="H44" s="126" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I44" s="127"/>
       <c r="J44" s="127"/>
       <c r="K44" s="125" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L44" s="125"/>
       <c r="M44" s="131" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N44" s="132"/>
     </row>
@@ -2678,19 +2608,19 @@
       <c r="F48" s="112"/>
       <c r="G48" s="130"/>
       <c r="H48" s="137" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I48" s="139" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J48" s="141" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K48" s="143" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L48" s="144" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M48" s="133"/>
       <c r="N48" s="134"/>
@@ -2714,18 +2644,18 @@
     <row r="50" spans="1:14">
       <c r="A50" s="145"/>
       <c r="B50" s="148" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C50" s="146"/>
       <c r="D50" s="147"/>
       <c r="E50" s="149">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F50" s="150" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
-      <c r="G50" s="151">
-        <v>65</v>
+      <c r="G50" s="151" t="s">
+        <v>64</v>
       </c>
       <c r="H50" s="152"/>
       <c r="I50" s="153"/>
@@ -2736,416 +2666,396 @@
       <c r="N50" s="158"/>
     </row>
     <row r="51" spans="1:14">
-      <c r="A51" s="159"/>
-      <c r="B51" s="162" t="s">
-        <v>61</v>
-      </c>
-      <c r="C51" s="160"/>
-      <c r="D51" s="161"/>
-      <c r="E51" s="163">
-        <v>1</v>
-      </c>
-      <c r="F51" s="164" t="s">
-        <v>62</v>
-      </c>
-      <c r="G51" s="165">
+      <c r="A51" s="173" t="s">
         <v>65</v>
       </c>
-      <c r="H51" s="166"/>
-      <c r="I51" s="167"/>
-      <c r="J51" s="168"/>
-      <c r="K51" s="169"/>
-      <c r="L51" s="170"/>
-      <c r="M51" s="171"/>
-      <c r="N51" s="172"/>
+      <c r="B51" s="161"/>
+      <c r="C51" s="161"/>
+      <c r="D51" s="161"/>
+      <c r="E51" s="161"/>
+      <c r="F51" s="162"/>
+      <c r="G51" s="163"/>
+      <c r="H51" s="161"/>
+      <c r="I51" s="163"/>
+      <c r="J51" s="163"/>
+      <c r="K51" s="164"/>
+      <c r="L51" s="164"/>
+      <c r="M51" s="164"/>
+      <c r="N51" s="171"/>
     </row>
     <row r="52" spans="1:14">
-      <c r="A52" s="173"/>
-      <c r="B52" s="176" t="s">
-        <v>63</v>
-      </c>
-      <c r="C52" s="174"/>
-      <c r="D52" s="175"/>
-      <c r="E52" s="177">
-        <v>1</v>
-      </c>
-      <c r="F52" s="178" t="s">
-        <v>64</v>
-      </c>
-      <c r="G52" s="179">
-        <v>350</v>
-      </c>
-      <c r="H52" s="180"/>
-      <c r="I52" s="181"/>
-      <c r="J52" s="182"/>
-      <c r="K52" s="183"/>
-      <c r="L52" s="184"/>
-      <c r="M52" s="185"/>
-      <c r="N52" s="186"/>
-    </row>
-    <row r="53" spans="1:14">
-      <c r="A53" s="196" t="s">
-        <v>65</v>
-      </c>
-      <c r="B53" s="188"/>
-      <c r="C53" s="188"/>
-      <c r="D53" s="188"/>
-      <c r="E53" s="188"/>
-      <c r="F53" s="189"/>
-      <c r="G53" s="190"/>
-      <c r="H53" s="188"/>
-      <c r="I53" s="190"/>
-      <c r="J53" s="190"/>
-      <c r="K53" s="188"/>
-      <c r="L53" s="188"/>
-      <c r="M53" s="188"/>
-      <c r="N53" s="194"/>
-    </row>
-    <row r="54" spans="1:14">
-      <c r="A54" s="187" t="s">
-        <v>65</v>
-      </c>
-      <c r="B54" s="191"/>
-      <c r="C54" s="191"/>
-      <c r="D54" s="191"/>
-      <c r="E54" s="191"/>
-      <c r="F54" s="192"/>
-      <c r="G54" s="193"/>
-      <c r="H54" s="191"/>
-      <c r="I54" s="193"/>
-      <c r="J54" s="193"/>
-      <c r="K54" s="191"/>
-      <c r="L54" s="191"/>
-      <c r="M54" s="191"/>
-      <c r="N54" s="195"/>
-    </row>
-    <row r="55" spans="1:14">
-      <c r="A55" s="187" t="s">
+      <c r="A52" s="159" t="s">
         <v>66</v>
       </c>
-      <c r="B55" s="191"/>
-      <c r="C55" s="191"/>
-      <c r="D55" s="191"/>
-      <c r="E55" s="191"/>
-      <c r="F55" s="192"/>
-      <c r="G55" s="193"/>
-      <c r="H55" s="191"/>
-      <c r="I55" s="193"/>
-      <c r="J55" s="193"/>
-      <c r="K55" s="191"/>
-      <c r="L55" s="191"/>
-      <c r="M55" s="191"/>
-      <c r="N55" s="195"/>
-    </row>
-    <row r="56" spans="1:14">
-      <c r="A56" s="187" t="s">
+      <c r="B52" s="165"/>
+      <c r="C52" s="165"/>
+      <c r="D52" s="165"/>
+      <c r="E52" s="165"/>
+      <c r="F52" s="167"/>
+      <c r="G52" s="169"/>
+      <c r="H52" s="165"/>
+      <c r="I52" s="169"/>
+      <c r="J52" s="169"/>
+      <c r="K52" s="166"/>
+      <c r="L52" s="166"/>
+      <c r="M52" s="166"/>
+      <c r="N52" s="172"/>
+    </row>
+    <row r="53" spans="1:14">
+      <c r="A53" s="160" t="s">
         <v>67</v>
       </c>
-      <c r="B56" s="191"/>
-      <c r="C56" s="191"/>
-      <c r="D56" s="191"/>
-      <c r="E56" s="191"/>
-      <c r="F56" s="192"/>
-      <c r="G56" s="193"/>
-      <c r="H56" s="191"/>
-      <c r="I56" s="193"/>
-      <c r="J56" s="193"/>
-      <c r="K56" s="191"/>
-      <c r="L56" s="191"/>
-      <c r="M56" s="191"/>
-      <c r="N56" s="195"/>
+      <c r="B53" s="166"/>
+      <c r="C53" s="166"/>
+      <c r="D53" s="166"/>
+      <c r="E53" s="166"/>
+      <c r="F53" s="168"/>
+      <c r="G53" s="170"/>
+      <c r="H53" s="166"/>
+      <c r="I53" s="170"/>
+      <c r="J53" s="170"/>
+      <c r="K53" s="166"/>
+      <c r="L53" s="166"/>
+      <c r="M53" s="166"/>
+      <c r="N53" s="172"/>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="A54" s="174"/>
+      <c r="B54" s="176"/>
+      <c r="C54" s="176"/>
+      <c r="D54" s="176"/>
+      <c r="E54" s="176"/>
+      <c r="F54" s="178"/>
+      <c r="G54" s="180"/>
+      <c r="H54" s="176"/>
+      <c r="I54" s="180"/>
+      <c r="J54" s="180"/>
+      <c r="K54" s="176"/>
+      <c r="L54" s="176"/>
+      <c r="M54" s="176"/>
+      <c r="N54" s="182"/>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="A55" s="174"/>
+      <c r="B55" s="176"/>
+      <c r="C55" s="176"/>
+      <c r="D55" s="176"/>
+      <c r="E55" s="176"/>
+      <c r="F55" s="178"/>
+      <c r="G55" s="180"/>
+      <c r="H55" s="176"/>
+      <c r="I55" s="180"/>
+      <c r="J55" s="180"/>
+      <c r="K55" s="176"/>
+      <c r="L55" s="176"/>
+      <c r="M55" s="176"/>
+      <c r="N55" s="182"/>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="A56" s="174"/>
+      <c r="B56" s="176"/>
+      <c r="C56" s="176"/>
+      <c r="D56" s="176"/>
+      <c r="E56" s="176"/>
+      <c r="F56" s="178"/>
+      <c r="G56" s="180"/>
+      <c r="H56" s="176"/>
+      <c r="I56" s="180"/>
+      <c r="J56" s="180"/>
+      <c r="K56" s="176"/>
+      <c r="L56" s="176"/>
+      <c r="M56" s="176"/>
+      <c r="N56" s="182"/>
     </row>
     <row r="57" spans="1:14">
-      <c r="A57" s="187" t="s">
-        <v>67</v>
-      </c>
-      <c r="B57" s="191"/>
-      <c r="C57" s="191"/>
-      <c r="D57" s="191"/>
-      <c r="E57" s="191"/>
-      <c r="F57" s="192"/>
-      <c r="G57" s="193"/>
-      <c r="H57" s="191"/>
-      <c r="I57" s="193"/>
-      <c r="J57" s="193"/>
-      <c r="K57" s="191"/>
-      <c r="L57" s="191"/>
-      <c r="M57" s="191"/>
-      <c r="N57" s="195"/>
+      <c r="A57" s="174"/>
+      <c r="B57" s="176"/>
+      <c r="C57" s="176"/>
+      <c r="D57" s="176"/>
+      <c r="E57" s="176"/>
+      <c r="F57" s="178"/>
+      <c r="G57" s="180"/>
+      <c r="H57" s="176"/>
+      <c r="I57" s="180"/>
+      <c r="J57" s="180"/>
+      <c r="K57" s="176"/>
+      <c r="L57" s="176"/>
+      <c r="M57" s="176"/>
+      <c r="N57" s="182"/>
     </row>
     <row r="58" spans="1:14">
-      <c r="A58" s="197"/>
-      <c r="B58" s="199"/>
-      <c r="C58" s="199"/>
-      <c r="D58" s="199"/>
-      <c r="E58" s="199"/>
-      <c r="F58" s="201"/>
-      <c r="G58" s="203"/>
-      <c r="H58" s="199"/>
-      <c r="I58" s="203"/>
-      <c r="J58" s="203"/>
-      <c r="K58" s="199"/>
-      <c r="L58" s="199"/>
-      <c r="M58" s="199"/>
-      <c r="N58" s="205"/>
+      <c r="A58" s="174"/>
+      <c r="B58" s="176"/>
+      <c r="C58" s="176"/>
+      <c r="D58" s="176"/>
+      <c r="E58" s="176"/>
+      <c r="F58" s="178"/>
+      <c r="G58" s="180"/>
+      <c r="H58" s="176"/>
+      <c r="I58" s="180"/>
+      <c r="J58" s="180"/>
+      <c r="K58" s="176"/>
+      <c r="L58" s="176"/>
+      <c r="M58" s="176"/>
+      <c r="N58" s="182"/>
     </row>
     <row r="59" spans="1:14">
-      <c r="A59" s="197"/>
-      <c r="B59" s="199"/>
-      <c r="C59" s="199"/>
-      <c r="D59" s="199"/>
-      <c r="E59" s="199"/>
-      <c r="F59" s="201"/>
-      <c r="G59" s="203"/>
-      <c r="H59" s="199"/>
-      <c r="I59" s="203"/>
-      <c r="J59" s="203"/>
-      <c r="K59" s="199"/>
-      <c r="L59" s="199"/>
-      <c r="M59" s="199"/>
-      <c r="N59" s="205"/>
+      <c r="A59" s="174"/>
+      <c r="B59" s="176"/>
+      <c r="C59" s="176"/>
+      <c r="D59" s="176"/>
+      <c r="E59" s="176"/>
+      <c r="F59" s="178"/>
+      <c r="G59" s="180"/>
+      <c r="H59" s="176"/>
+      <c r="I59" s="180"/>
+      <c r="J59" s="180"/>
+      <c r="K59" s="176"/>
+      <c r="L59" s="176"/>
+      <c r="M59" s="176"/>
+      <c r="N59" s="182"/>
     </row>
     <row r="60" spans="1:14">
-      <c r="A60" s="197"/>
-      <c r="B60" s="199"/>
-      <c r="C60" s="199"/>
-      <c r="D60" s="199"/>
-      <c r="E60" s="199"/>
-      <c r="F60" s="201"/>
-      <c r="G60" s="203"/>
-      <c r="H60" s="199"/>
-      <c r="I60" s="203"/>
-      <c r="J60" s="203"/>
-      <c r="K60" s="199"/>
-      <c r="L60" s="199"/>
-      <c r="M60" s="199"/>
-      <c r="N60" s="205"/>
+      <c r="A60" s="174"/>
+      <c r="B60" s="176"/>
+      <c r="C60" s="176"/>
+      <c r="D60" s="176"/>
+      <c r="E60" s="176"/>
+      <c r="F60" s="178"/>
+      <c r="G60" s="180"/>
+      <c r="H60" s="176"/>
+      <c r="I60" s="180"/>
+      <c r="J60" s="180"/>
+      <c r="K60" s="176"/>
+      <c r="L60" s="176"/>
+      <c r="M60" s="176"/>
+      <c r="N60" s="182"/>
     </row>
     <row r="61" spans="1:14">
-      <c r="A61" s="197"/>
-      <c r="B61" s="199"/>
-      <c r="C61" s="199"/>
-      <c r="D61" s="199"/>
-      <c r="E61" s="199"/>
-      <c r="F61" s="201"/>
-      <c r="G61" s="203"/>
-      <c r="H61" s="199"/>
-      <c r="I61" s="203"/>
-      <c r="J61" s="203"/>
-      <c r="K61" s="199"/>
-      <c r="L61" s="199"/>
-      <c r="M61" s="199"/>
-      <c r="N61" s="205"/>
+      <c r="A61" s="174"/>
+      <c r="B61" s="176"/>
+      <c r="C61" s="176"/>
+      <c r="D61" s="176"/>
+      <c r="E61" s="176"/>
+      <c r="F61" s="178"/>
+      <c r="G61" s="180"/>
+      <c r="H61" s="176"/>
+      <c r="I61" s="180"/>
+      <c r="J61" s="180"/>
+      <c r="K61" s="176"/>
+      <c r="L61" s="176"/>
+      <c r="M61" s="176"/>
+      <c r="N61" s="182"/>
     </row>
     <row r="62" spans="1:14">
-      <c r="A62" s="197"/>
-      <c r="B62" s="199"/>
-      <c r="C62" s="199"/>
-      <c r="D62" s="199"/>
-      <c r="E62" s="199"/>
-      <c r="F62" s="201"/>
-      <c r="G62" s="203"/>
-      <c r="H62" s="199"/>
-      <c r="I62" s="203"/>
-      <c r="J62" s="203"/>
-      <c r="K62" s="199"/>
-      <c r="L62" s="199"/>
-      <c r="M62" s="199"/>
-      <c r="N62" s="205"/>
+      <c r="A62" s="174"/>
+      <c r="B62" s="176"/>
+      <c r="C62" s="176"/>
+      <c r="D62" s="176"/>
+      <c r="E62" s="176"/>
+      <c r="F62" s="178"/>
+      <c r="G62" s="180"/>
+      <c r="H62" s="176"/>
+      <c r="I62" s="180"/>
+      <c r="J62" s="180"/>
+      <c r="K62" s="176"/>
+      <c r="L62" s="176"/>
+      <c r="M62" s="176"/>
+      <c r="N62" s="182"/>
     </row>
     <row r="63" spans="1:14">
-      <c r="A63" s="197"/>
-      <c r="B63" s="199"/>
-      <c r="C63" s="199"/>
-      <c r="D63" s="199"/>
-      <c r="E63" s="199"/>
-      <c r="F63" s="201"/>
-      <c r="G63" s="203"/>
-      <c r="H63" s="199"/>
-      <c r="I63" s="203"/>
-      <c r="J63" s="203"/>
-      <c r="K63" s="199"/>
-      <c r="L63" s="199"/>
-      <c r="M63" s="199"/>
-      <c r="N63" s="205"/>
+      <c r="A63" s="175"/>
+      <c r="B63" s="177"/>
+      <c r="C63" s="177"/>
+      <c r="D63" s="177"/>
+      <c r="E63" s="177"/>
+      <c r="F63" s="179"/>
+      <c r="G63" s="181"/>
+      <c r="H63" s="177"/>
+      <c r="I63" s="181"/>
+      <c r="J63" s="181"/>
+      <c r="K63" s="177"/>
+      <c r="L63" s="177"/>
+      <c r="M63" s="177"/>
+      <c r="N63" s="183"/>
     </row>
     <row r="64" spans="1:14">
-      <c r="A64" s="197"/>
-      <c r="B64" s="199"/>
-      <c r="C64" s="199"/>
-      <c r="D64" s="199"/>
-      <c r="E64" s="199"/>
-      <c r="F64" s="201"/>
-      <c r="G64" s="203"/>
-      <c r="H64" s="199"/>
-      <c r="I64" s="203"/>
-      <c r="J64" s="203"/>
-      <c r="K64" s="199"/>
-      <c r="L64" s="199"/>
-      <c r="M64" s="199"/>
-      <c r="N64" s="205"/>
-    </row>
-    <row r="65" spans="1:14">
-      <c r="A65" s="198"/>
-      <c r="B65" s="200"/>
-      <c r="C65" s="200"/>
-      <c r="D65" s="200"/>
-      <c r="E65" s="200"/>
-      <c r="F65" s="202"/>
-      <c r="G65" s="204"/>
-      <c r="H65" s="200"/>
-      <c r="I65" s="204"/>
-      <c r="J65" s="204"/>
-      <c r="K65" s="200"/>
-      <c r="L65" s="200"/>
-      <c r="M65" s="200"/>
-      <c r="N65" s="206"/>
-    </row>
-    <row r="66" spans="1:14">
-      <c r="A66" s="208" t="s">
+      <c r="A64" s="185" t="s">
         <v>68</v>
       </c>
-      <c r="B66" s="214"/>
-      <c r="C66" s="210"/>
-      <c r="D66" s="212"/>
-      <c r="E66" s="220" t="s">
+      <c r="B64" s="191"/>
+      <c r="C64" s="187"/>
+      <c r="D64" s="189"/>
+      <c r="E64" s="197" t="s">
         <v>69</v>
       </c>
-      <c r="F66" s="216"/>
-      <c r="G66" s="218"/>
-      <c r="H66" s="226"/>
-      <c r="I66" s="222"/>
-      <c r="J66" s="224"/>
-      <c r="K66" s="229" t="s">
+      <c r="F64" s="193"/>
+      <c r="G64" s="195"/>
+      <c r="H64" s="203"/>
+      <c r="I64" s="199"/>
+      <c r="J64" s="201"/>
+      <c r="K64" s="206" t="s">
         <v>70</v>
       </c>
-      <c r="L66" s="230"/>
-      <c r="M66" s="234"/>
-      <c r="N66" s="232"/>
+      <c r="L64" s="207"/>
+      <c r="M64" s="211"/>
+      <c r="N64" s="209"/>
+    </row>
+    <row r="65" spans="1:14">
+      <c r="A65" s="184"/>
+      <c r="B65" s="186"/>
+      <c r="C65" s="188"/>
+      <c r="D65" s="190"/>
+      <c r="E65" s="192"/>
+      <c r="F65" s="194"/>
+      <c r="G65" s="196"/>
+      <c r="H65" s="198"/>
+      <c r="I65" s="200"/>
+      <c r="J65" s="202"/>
+      <c r="K65" s="204"/>
+      <c r="L65" s="205"/>
+      <c r="M65" s="208"/>
+      <c r="N65" s="210"/>
+    </row>
+    <row r="66" spans="1:14">
+      <c r="A66" s="218"/>
+      <c r="B66" s="92"/>
+      <c r="C66" s="92"/>
+      <c r="D66" s="92"/>
+      <c r="E66" s="92"/>
+      <c r="F66" s="94"/>
+      <c r="G66" s="95"/>
+      <c r="H66" s="92"/>
+      <c r="I66" s="95"/>
+      <c r="J66" s="95"/>
+      <c r="K66" s="92"/>
+      <c r="L66" s="92"/>
+      <c r="M66" s="92"/>
+      <c r="N66" s="217"/>
     </row>
     <row r="67" spans="1:14">
-      <c r="A67" s="207"/>
-      <c r="B67" s="209"/>
-      <c r="C67" s="211"/>
-      <c r="D67" s="213"/>
-      <c r="E67" s="215"/>
-      <c r="F67" s="217"/>
-      <c r="G67" s="219"/>
-      <c r="H67" s="221"/>
-      <c r="I67" s="223"/>
-      <c r="J67" s="225"/>
-      <c r="K67" s="227"/>
-      <c r="L67" s="228"/>
-      <c r="M67" s="231"/>
-      <c r="N67" s="233"/>
-    </row>
-    <row r="68" spans="1:14">
-      <c r="A68" s="241"/>
-      <c r="B68" s="92"/>
-      <c r="C68" s="92"/>
-      <c r="D68" s="92"/>
-      <c r="E68" s="92"/>
-      <c r="F68" s="94"/>
-      <c r="G68" s="95"/>
-      <c r="H68" s="92"/>
-      <c r="I68" s="95"/>
-      <c r="J68" s="95"/>
-      <c r="K68" s="92"/>
-      <c r="L68" s="92"/>
-      <c r="M68" s="92"/>
-      <c r="N68" s="240"/>
-    </row>
-    <row r="69" spans="1:14">
-      <c r="A69" s="235" t="s">
+      <c r="A67" s="212" t="s">
         <v>71</v>
       </c>
-      <c r="B69" s="236"/>
-      <c r="C69" s="236"/>
-      <c r="D69" s="236"/>
-      <c r="E69" s="236"/>
-      <c r="F69" s="237"/>
-      <c r="G69" s="238"/>
-      <c r="H69" s="236"/>
-      <c r="I69" s="238"/>
-      <c r="J69" s="238"/>
-      <c r="K69" s="236"/>
-      <c r="L69" s="236"/>
-      <c r="M69" s="236"/>
-      <c r="N69" s="239"/>
-    </row>
-    <row r="70" spans="1:14">
-      <c r="A70" s="242" t="s">
+      <c r="B67" s="213"/>
+      <c r="C67" s="213"/>
+      <c r="D67" s="213"/>
+      <c r="E67" s="213"/>
+      <c r="F67" s="214"/>
+      <c r="G67" s="215"/>
+      <c r="H67" s="213"/>
+      <c r="I67" s="215"/>
+      <c r="J67" s="215"/>
+      <c r="K67" s="213"/>
+      <c r="L67" s="213"/>
+      <c r="M67" s="213"/>
+      <c r="N67" s="216"/>
+    </row>
+    <row r="68" spans="1:14">
+      <c r="A68" s="219" t="s">
         <v>72</v>
       </c>
-      <c r="B70" s="243"/>
-      <c r="C70" s="243"/>
-      <c r="D70" s="243"/>
-      <c r="E70" s="243"/>
-      <c r="F70" s="244"/>
-      <c r="G70" s="245"/>
-      <c r="H70" s="243"/>
-      <c r="I70" s="245"/>
-      <c r="J70" s="245"/>
-      <c r="K70" s="243"/>
-      <c r="L70" s="243"/>
-      <c r="M70" s="243"/>
-      <c r="N70" s="246"/>
-    </row>
-    <row r="71" spans="1:14">
-      <c r="A71" s="247" t="s">
+      <c r="B68" s="220"/>
+      <c r="C68" s="220"/>
+      <c r="D68" s="220"/>
+      <c r="E68" s="220"/>
+      <c r="F68" s="221"/>
+      <c r="G68" s="222"/>
+      <c r="H68" s="220"/>
+      <c r="I68" s="222"/>
+      <c r="J68" s="222"/>
+      <c r="K68" s="220"/>
+      <c r="L68" s="220"/>
+      <c r="M68" s="220"/>
+      <c r="N68" s="223"/>
+    </row>
+    <row r="69" spans="1:14">
+      <c r="A69" s="224" t="s">
         <v>73</v>
       </c>
-      <c r="B71" s="248"/>
-      <c r="C71" s="249"/>
-      <c r="D71" s="249"/>
-      <c r="E71" s="249"/>
-      <c r="F71" s="250"/>
-      <c r="G71" s="251"/>
-      <c r="H71" s="249"/>
-      <c r="I71" s="251"/>
-      <c r="J71" s="251"/>
-      <c r="K71" s="249"/>
-      <c r="L71" s="249"/>
-      <c r="M71" s="249"/>
-      <c r="N71" s="252"/>
-    </row>
-    <row r="72" spans="1:14">
-      <c r="A72" s="253" t="s">
+      <c r="B69" s="225"/>
+      <c r="C69" s="226"/>
+      <c r="D69" s="226"/>
+      <c r="E69" s="226"/>
+      <c r="F69" s="227"/>
+      <c r="G69" s="228"/>
+      <c r="H69" s="226"/>
+      <c r="I69" s="228"/>
+      <c r="J69" s="228"/>
+      <c r="K69" s="226"/>
+      <c r="L69" s="226"/>
+      <c r="M69" s="226"/>
+      <c r="N69" s="229"/>
+    </row>
+    <row r="70" spans="1:14">
+      <c r="A70" s="230" t="s">
         <v>74</v>
       </c>
-      <c r="B72" s="254"/>
-      <c r="C72" s="255"/>
-      <c r="D72" s="255"/>
-      <c r="E72" s="255"/>
-      <c r="F72" s="256"/>
-      <c r="G72" s="257"/>
-      <c r="H72" s="255"/>
-      <c r="I72" s="257"/>
-      <c r="J72" s="257"/>
-      <c r="K72" s="255"/>
-      <c r="L72" s="255"/>
-      <c r="M72" s="255"/>
-      <c r="N72" s="258"/>
-    </row>
-    <row r="73" spans="1:14">
-      <c r="A73" s="259" t="s">
+      <c r="B70" s="231"/>
+      <c r="C70" s="232"/>
+      <c r="D70" s="232"/>
+      <c r="E70" s="232"/>
+      <c r="F70" s="233"/>
+      <c r="G70" s="234"/>
+      <c r="H70" s="232"/>
+      <c r="I70" s="234"/>
+      <c r="J70" s="234"/>
+      <c r="K70" s="232"/>
+      <c r="L70" s="232"/>
+      <c r="M70" s="232"/>
+      <c r="N70" s="235"/>
+    </row>
+    <row r="71" spans="1:14">
+      <c r="A71" s="236" t="s">
         <v>75</v>
       </c>
-      <c r="B73" s="260"/>
-      <c r="C73" s="261"/>
-      <c r="D73" s="261"/>
-      <c r="E73" s="261"/>
-      <c r="F73" s="262"/>
-      <c r="G73" s="263"/>
-      <c r="H73" s="264"/>
-      <c r="I73" s="265" t="s">
+      <c r="B71" s="237"/>
+      <c r="C71" s="238"/>
+      <c r="D71" s="238"/>
+      <c r="E71" s="238"/>
+      <c r="F71" s="239"/>
+      <c r="G71" s="240"/>
+      <c r="H71" s="241"/>
+      <c r="I71" s="242" t="s">
         <v>6</v>
       </c>
-      <c r="J73" s="266"/>
-      <c r="K73" s="267"/>
-      <c r="L73" s="267"/>
-      <c r="M73" s="267"/>
-      <c r="N73" s="268"/>
+      <c r="J71" s="243"/>
+      <c r="K71" s="244"/>
+      <c r="L71" s="244"/>
+      <c r="M71" s="244"/>
+      <c r="N71" s="245"/>
+    </row>
+    <row r="72" spans="1:14">
+      <c r="A72" s="92"/>
+      <c r="B72" s="92"/>
+      <c r="C72" s="92"/>
+      <c r="D72" s="92"/>
+      <c r="E72" s="92"/>
+      <c r="F72" s="94"/>
+      <c r="G72" s="95"/>
+      <c r="H72" s="92"/>
+      <c r="I72" s="95"/>
+      <c r="J72" s="95"/>
+      <c r="K72" s="92"/>
+      <c r="L72" s="92"/>
+      <c r="M72" s="92"/>
+      <c r="N72" s="92"/>
+    </row>
+    <row r="73" spans="1:14">
+      <c r="A73" s="92"/>
+      <c r="B73" s="92"/>
+      <c r="C73" s="92"/>
+      <c r="D73" s="92"/>
+      <c r="E73" s="92"/>
+      <c r="F73" s="94"/>
+      <c r="G73" s="95"/>
+      <c r="H73" s="92"/>
+      <c r="I73" s="95"/>
+      <c r="J73" s="95"/>
+      <c r="K73" s="92"/>
+      <c r="L73" s="92"/>
+      <c r="M73" s="92"/>
+      <c r="N73" s="92"/>
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="92"/>
@@ -16044,19 +15954,19 @@
     <mergeCell ref="E15:N15"/>
     <mergeCell ref="E16:N16"/>
     <mergeCell ref="E17:N17"/>
-    <mergeCell ref="A53:N65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="B66:D67"/>
-    <mergeCell ref="E66:G67"/>
-    <mergeCell ref="H66:J67"/>
-    <mergeCell ref="K66:L67"/>
-    <mergeCell ref="M66:N67"/>
-    <mergeCell ref="A69:N69"/>
-    <mergeCell ref="A70:N70"/>
-    <mergeCell ref="B71:N71"/>
-    <mergeCell ref="B72:N72"/>
-    <mergeCell ref="B73:H73"/>
-    <mergeCell ref="J73:N73"/>
+    <mergeCell ref="A51:N63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:D65"/>
+    <mergeCell ref="E64:G65"/>
+    <mergeCell ref="H64:J65"/>
+    <mergeCell ref="K64:L65"/>
+    <mergeCell ref="M64:N65"/>
+    <mergeCell ref="A67:N67"/>
+    <mergeCell ref="A68:N68"/>
+    <mergeCell ref="B69:N69"/>
+    <mergeCell ref="B70:N70"/>
+    <mergeCell ref="B71:H71"/>
+    <mergeCell ref="J71:N71"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.5" right="0.5" top="0" bottom="0.25" header="0.12" footer="0.12"/>

--- a/export_rfq.xlsx
+++ b/export_rfq.xlsx
@@ -12,12 +12,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Sheet1'!$A$1:$N$75</definedName>
   </definedNames>
-  <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="0"/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="74">
   <si>
     <t>Republic of the Philippines</t>
   </si>
@@ -46,7 +46,7 @@
     <t>RFQ Number :</t>
   </si>
   <si>
-    <t>2020-0094</t>
+    <t>2020-0090</t>
   </si>
   <si>
     <t>Mode of Procurement:</t>
@@ -55,7 +55,7 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>March 25,   2020</t>
+    <t>March 13,   2020</t>
   </si>
   <si>
     <t>Office/End User:</t>
@@ -67,7 +67,7 @@
     <t>Purpose:</t>
   </si>
   <si>
-    <t>Test</t>
+    <t xml:space="preserve">Meals for HRMPSB Meeting </t>
   </si>
   <si>
     <t>Company Name:</t>
@@ -169,7 +169,7 @@
     <t>Approved Budget for the Contract (ABC):</t>
   </si>
   <si>
-    <t>16,000.00</t>
+    <t>5,100.00</t>
   </si>
   <si>
     <t>DR. CARINA S. CRUZ</t>
@@ -226,14 +226,11 @@
     <t>NO</t>
   </si>
   <si>
-    <t xml:space="preserve">Battery 2-3 SMF, 12 Volts
+    <t xml:space="preserve">HRMPSB Meeting
 </t>
   </si>
   <si>
-    <t>piece</t>
-  </si>
-  <si>
-    <t>8,000.00</t>
+    <t>unit</t>
   </si>
   <si>
     <t>REF:  approved and funded PPMP; approved and funded Activity Design	
@@ -241,14 +238,6 @@
 1. PhilGEPS Platinum Registration No. 									
 2. For non-Platinum Registration, please provide copy of:
     a) Mayor's Permit; b) Latest Income / Business Tax Return; c) PhilGEPS Registration No. _____________________________________									
-Other Instruction:</t>
-  </si>
-  <si>
-    <t>NOTE: ** A guaranteed of a minimum of 75% out of total number of target participants	
-              ** Free Flowing Coffee 
-              ** Free Wi-Fi
-              ** Atleast Triple/Quad Sharing Per Room  
-              ** Free use of Function Room, Sound System and LCD
 Other Instruction:</t>
   </si>
   <si>
@@ -618,7 +607,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="246">
+  <cellXfs count="193">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -679,10 +668,10 @@
     <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="15" fillId="2" borderId="6" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="1" quotePrefix="1" numFmtId="15" fillId="2" borderId="6" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="15" fillId="2" borderId="9" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="1" quotePrefix="1" numFmtId="15" fillId="2" borderId="9" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
@@ -934,13 +923,13 @@
     <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="15" fillId="2" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="1" quotePrefix="1" numFmtId="15" fillId="2" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="15" fillId="2" borderId="6" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="1" quotePrefix="1" numFmtId="15" fillId="2" borderId="6" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="15" fillId="2" borderId="9" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="1" quotePrefix="1" numFmtId="15" fillId="2" borderId="9" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="15" numFmtId="0" fillId="3" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1060,116 +1049,47 @@
     <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="166" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="166" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="166" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="166" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="166" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="17" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="166" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="166" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -1177,82 +1097,46 @@
     <xf xfId="0" fontId="4" numFmtId="0" fillId="5" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="166" fillId="2" borderId="3" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="165" fillId="2" borderId="12" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="166" fillId="2" borderId="10" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="166" fillId="2" borderId="3" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="11" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="165" fillId="2" borderId="12" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="5" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="165" fillId="2" borderId="3" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="10" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="165" fillId="2" borderId="3" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="11" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="165" fillId="2" borderId="12" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="5" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="bottom" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="5" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1270,12 +1154,6 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="5" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="5" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -1294,9 +1172,6 @@
     <xf xfId="0" fontId="4" numFmtId="0" fillId="5" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -1309,52 +1184,7 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="5" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="166" fillId="2" borderId="6" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="165" fillId="2" borderId="6" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="5" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="166" fillId="2" borderId="6" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="165" fillId="2" borderId="6" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="4" numFmtId="165" fillId="5" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -1761,7 +1591,7 @@
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="true" style="45"/>
     <col min="2" max="2" width="19.140625" customWidth="true" style="45"/>
-    <col min="3" max="3" width="0.28515625" customWidth="true" style="45"/>
+    <col min="3" max="3" width="0.28515625" hidden="true" customWidth="true" style="45"/>
     <col min="4" max="4" width="1" customWidth="true" style="45"/>
     <col min="5" max="5" width="5.42578125" customWidth="true" style="45"/>
     <col min="6" max="6" width="5.5703125" customWidth="true" style="45"/>
@@ -1900,7 +1730,7 @@
       <c r="J10" s="48"/>
       <c r="K10" s="43"/>
     </row>
-    <row r="11" spans="1:14" customHeight="1" ht="6">
+    <row r="11" spans="1:14" customHeight="1" ht="6" hidden="true">
       <c r="A11" s="99" t="s">
         <v>1</v>
       </c>
@@ -2643,282 +2473,284 @@
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="145"/>
-      <c r="B50" s="148" t="s">
+      <c r="B50" s="147" t="s">
         <v>62</v>
       </c>
       <c r="C50" s="146"/>
-      <c r="D50" s="147"/>
+      <c r="D50" s="146"/>
       <c r="E50" s="149">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F50" s="150" t="s">
         <v>63</v>
       </c>
-      <c r="G50" s="151" t="s">
+      <c r="G50" s="152">
+        <v>425</v>
+      </c>
+      <c r="H50" s="149"/>
+      <c r="I50" s="152"/>
+      <c r="J50" s="152"/>
+      <c r="K50" s="149"/>
+      <c r="L50" s="149"/>
+      <c r="M50" s="149"/>
+      <c r="N50" s="149"/>
+    </row>
+    <row r="51" spans="1:14">
+      <c r="A51" s="158" t="s">
         <v>64</v>
       </c>
-      <c r="H50" s="152"/>
-      <c r="I50" s="153"/>
-      <c r="J50" s="154"/>
-      <c r="K50" s="155"/>
-      <c r="L50" s="156"/>
-      <c r="M50" s="157"/>
-      <c r="N50" s="158"/>
-    </row>
-    <row r="51" spans="1:14">
-      <c r="A51" s="173" t="s">
+      <c r="B51" s="153"/>
+      <c r="C51" s="153"/>
+      <c r="D51" s="153"/>
+      <c r="E51" s="153"/>
+      <c r="F51" s="154"/>
+      <c r="G51" s="155"/>
+      <c r="H51" s="153"/>
+      <c r="I51" s="155"/>
+      <c r="J51" s="155"/>
+      <c r="K51" s="153"/>
+      <c r="L51" s="153"/>
+      <c r="M51" s="153"/>
+      <c r="N51" s="156"/>
+    </row>
+    <row r="52" spans="1:14">
+      <c r="A52" s="157" t="s">
         <v>65</v>
       </c>
-      <c r="B51" s="161"/>
-      <c r="C51" s="161"/>
-      <c r="D51" s="161"/>
-      <c r="E51" s="161"/>
-      <c r="F51" s="162"/>
-      <c r="G51" s="163"/>
-      <c r="H51" s="161"/>
-      <c r="I51" s="163"/>
-      <c r="J51" s="163"/>
-      <c r="K51" s="164"/>
-      <c r="L51" s="164"/>
-      <c r="M51" s="164"/>
-      <c r="N51" s="171"/>
-    </row>
-    <row r="52" spans="1:14">
-      <c r="A52" s="159" t="s">
+      <c r="B52" s="153"/>
+      <c r="C52" s="153"/>
+      <c r="D52" s="153"/>
+      <c r="E52" s="153"/>
+      <c r="F52" s="154"/>
+      <c r="G52" s="155"/>
+      <c r="H52" s="153"/>
+      <c r="I52" s="155"/>
+      <c r="J52" s="155"/>
+      <c r="K52" s="153"/>
+      <c r="L52" s="153"/>
+      <c r="M52" s="153"/>
+      <c r="N52" s="156"/>
+    </row>
+    <row r="53" spans="1:14">
+      <c r="A53" s="157" t="s">
+        <v>64</v>
+      </c>
+      <c r="B53" s="153"/>
+      <c r="C53" s="153"/>
+      <c r="D53" s="153"/>
+      <c r="E53" s="153"/>
+      <c r="F53" s="154"/>
+      <c r="G53" s="155"/>
+      <c r="H53" s="153"/>
+      <c r="I53" s="155"/>
+      <c r="J53" s="155"/>
+      <c r="K53" s="153"/>
+      <c r="L53" s="153"/>
+      <c r="M53" s="153"/>
+      <c r="N53" s="156"/>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="A54" s="157" t="s">
+        <v>65</v>
+      </c>
+      <c r="B54" s="153"/>
+      <c r="C54" s="153"/>
+      <c r="D54" s="153"/>
+      <c r="E54" s="153"/>
+      <c r="F54" s="154"/>
+      <c r="G54" s="155"/>
+      <c r="H54" s="153"/>
+      <c r="I54" s="155"/>
+      <c r="J54" s="155"/>
+      <c r="K54" s="153"/>
+      <c r="L54" s="153"/>
+      <c r="M54" s="153"/>
+      <c r="N54" s="156"/>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="A55" s="157"/>
+      <c r="B55" s="153"/>
+      <c r="C55" s="153"/>
+      <c r="D55" s="153"/>
+      <c r="E55" s="153"/>
+      <c r="F55" s="154"/>
+      <c r="G55" s="155"/>
+      <c r="H55" s="153"/>
+      <c r="I55" s="155"/>
+      <c r="J55" s="155"/>
+      <c r="K55" s="153"/>
+      <c r="L55" s="153"/>
+      <c r="M55" s="153"/>
+      <c r="N55" s="156"/>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="A56" s="157"/>
+      <c r="B56" s="153"/>
+      <c r="C56" s="153"/>
+      <c r="D56" s="153"/>
+      <c r="E56" s="153"/>
+      <c r="F56" s="154"/>
+      <c r="G56" s="155"/>
+      <c r="H56" s="153"/>
+      <c r="I56" s="155"/>
+      <c r="J56" s="155"/>
+      <c r="K56" s="153"/>
+      <c r="L56" s="153"/>
+      <c r="M56" s="153"/>
+      <c r="N56" s="156"/>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="A57" s="157"/>
+      <c r="B57" s="153"/>
+      <c r="C57" s="153"/>
+      <c r="D57" s="153"/>
+      <c r="E57" s="153"/>
+      <c r="F57" s="154"/>
+      <c r="G57" s="155"/>
+      <c r="H57" s="153"/>
+      <c r="I57" s="155"/>
+      <c r="J57" s="155"/>
+      <c r="K57" s="153"/>
+      <c r="L57" s="153"/>
+      <c r="M57" s="153"/>
+      <c r="N57" s="156"/>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="A58" s="157"/>
+      <c r="B58" s="153"/>
+      <c r="C58" s="153"/>
+      <c r="D58" s="153"/>
+      <c r="E58" s="153"/>
+      <c r="F58" s="154"/>
+      <c r="G58" s="155"/>
+      <c r="H58" s="153"/>
+      <c r="I58" s="155"/>
+      <c r="J58" s="155"/>
+      <c r="K58" s="153"/>
+      <c r="L58" s="153"/>
+      <c r="M58" s="153"/>
+      <c r="N58" s="156"/>
+    </row>
+    <row r="59" spans="1:14">
+      <c r="A59" s="157"/>
+      <c r="B59" s="153"/>
+      <c r="C59" s="153"/>
+      <c r="D59" s="153"/>
+      <c r="E59" s="153"/>
+      <c r="F59" s="154"/>
+      <c r="G59" s="155"/>
+      <c r="H59" s="153"/>
+      <c r="I59" s="155"/>
+      <c r="J59" s="155"/>
+      <c r="K59" s="153"/>
+      <c r="L59" s="153"/>
+      <c r="M59" s="153"/>
+      <c r="N59" s="156"/>
+    </row>
+    <row r="60" spans="1:14">
+      <c r="A60" s="157"/>
+      <c r="B60" s="153"/>
+      <c r="C60" s="153"/>
+      <c r="D60" s="153"/>
+      <c r="E60" s="153"/>
+      <c r="F60" s="154"/>
+      <c r="G60" s="155"/>
+      <c r="H60" s="153"/>
+      <c r="I60" s="155"/>
+      <c r="J60" s="155"/>
+      <c r="K60" s="153"/>
+      <c r="L60" s="153"/>
+      <c r="M60" s="153"/>
+      <c r="N60" s="156"/>
+    </row>
+    <row r="61" spans="1:14">
+      <c r="A61" s="157"/>
+      <c r="B61" s="153"/>
+      <c r="C61" s="153"/>
+      <c r="D61" s="153"/>
+      <c r="E61" s="153"/>
+      <c r="F61" s="154"/>
+      <c r="G61" s="155"/>
+      <c r="H61" s="153"/>
+      <c r="I61" s="155"/>
+      <c r="J61" s="155"/>
+      <c r="K61" s="153"/>
+      <c r="L61" s="153"/>
+      <c r="M61" s="153"/>
+      <c r="N61" s="156"/>
+    </row>
+    <row r="62" spans="1:14">
+      <c r="A62" s="157"/>
+      <c r="B62" s="153"/>
+      <c r="C62" s="153"/>
+      <c r="D62" s="153"/>
+      <c r="E62" s="153"/>
+      <c r="F62" s="154"/>
+      <c r="G62" s="155"/>
+      <c r="H62" s="153"/>
+      <c r="I62" s="155"/>
+      <c r="J62" s="155"/>
+      <c r="K62" s="153"/>
+      <c r="L62" s="153"/>
+      <c r="M62" s="153"/>
+      <c r="N62" s="156"/>
+    </row>
+    <row r="63" spans="1:14">
+      <c r="A63" s="157"/>
+      <c r="B63" s="153"/>
+      <c r="C63" s="153"/>
+      <c r="D63" s="153"/>
+      <c r="E63" s="153"/>
+      <c r="F63" s="154"/>
+      <c r="G63" s="155"/>
+      <c r="H63" s="153"/>
+      <c r="I63" s="155"/>
+      <c r="J63" s="155"/>
+      <c r="K63" s="153"/>
+      <c r="L63" s="153"/>
+      <c r="M63" s="153"/>
+      <c r="N63" s="156"/>
+    </row>
+    <row r="64" spans="1:14">
+      <c r="A64" s="162" t="s">
         <v>66</v>
       </c>
-      <c r="B52" s="165"/>
-      <c r="C52" s="165"/>
-      <c r="D52" s="165"/>
-      <c r="E52" s="165"/>
-      <c r="F52" s="167"/>
-      <c r="G52" s="169"/>
-      <c r="H52" s="165"/>
-      <c r="I52" s="169"/>
-      <c r="J52" s="169"/>
-      <c r="K52" s="166"/>
-      <c r="L52" s="166"/>
-      <c r="M52" s="166"/>
-      <c r="N52" s="172"/>
-    </row>
-    <row r="53" spans="1:14">
-      <c r="A53" s="160" t="s">
+      <c r="B64" s="165"/>
+      <c r="C64" s="166"/>
+      <c r="D64" s="167"/>
+      <c r="E64" s="172" t="s">
         <v>67</v>
       </c>
-      <c r="B53" s="166"/>
-      <c r="C53" s="166"/>
-      <c r="D53" s="166"/>
-      <c r="E53" s="166"/>
-      <c r="F53" s="168"/>
-      <c r="G53" s="170"/>
-      <c r="H53" s="166"/>
-      <c r="I53" s="170"/>
-      <c r="J53" s="170"/>
-      <c r="K53" s="166"/>
-      <c r="L53" s="166"/>
-      <c r="M53" s="166"/>
-      <c r="N53" s="172"/>
-    </row>
-    <row r="54" spans="1:14">
-      <c r="A54" s="174"/>
-      <c r="B54" s="176"/>
-      <c r="C54" s="176"/>
-      <c r="D54" s="176"/>
-      <c r="E54" s="176"/>
-      <c r="F54" s="178"/>
-      <c r="G54" s="180"/>
-      <c r="H54" s="176"/>
-      <c r="I54" s="180"/>
-      <c r="J54" s="180"/>
-      <c r="K54" s="176"/>
-      <c r="L54" s="176"/>
-      <c r="M54" s="176"/>
-      <c r="N54" s="182"/>
-    </row>
-    <row r="55" spans="1:14">
-      <c r="A55" s="174"/>
-      <c r="B55" s="176"/>
-      <c r="C55" s="176"/>
-      <c r="D55" s="176"/>
-      <c r="E55" s="176"/>
-      <c r="F55" s="178"/>
-      <c r="G55" s="180"/>
-      <c r="H55" s="176"/>
-      <c r="I55" s="180"/>
-      <c r="J55" s="180"/>
-      <c r="K55" s="176"/>
-      <c r="L55" s="176"/>
-      <c r="M55" s="176"/>
-      <c r="N55" s="182"/>
-    </row>
-    <row r="56" spans="1:14">
-      <c r="A56" s="174"/>
-      <c r="B56" s="176"/>
-      <c r="C56" s="176"/>
-      <c r="D56" s="176"/>
-      <c r="E56" s="176"/>
-      <c r="F56" s="178"/>
-      <c r="G56" s="180"/>
-      <c r="H56" s="176"/>
-      <c r="I56" s="180"/>
-      <c r="J56" s="180"/>
-      <c r="K56" s="176"/>
-      <c r="L56" s="176"/>
-      <c r="M56" s="176"/>
-      <c r="N56" s="182"/>
-    </row>
-    <row r="57" spans="1:14">
-      <c r="A57" s="174"/>
-      <c r="B57" s="176"/>
-      <c r="C57" s="176"/>
-      <c r="D57" s="176"/>
-      <c r="E57" s="176"/>
-      <c r="F57" s="178"/>
-      <c r="G57" s="180"/>
-      <c r="H57" s="176"/>
-      <c r="I57" s="180"/>
-      <c r="J57" s="180"/>
-      <c r="K57" s="176"/>
-      <c r="L57" s="176"/>
-      <c r="M57" s="176"/>
-      <c r="N57" s="182"/>
-    </row>
-    <row r="58" spans="1:14">
-      <c r="A58" s="174"/>
-      <c r="B58" s="176"/>
-      <c r="C58" s="176"/>
-      <c r="D58" s="176"/>
-      <c r="E58" s="176"/>
-      <c r="F58" s="178"/>
-      <c r="G58" s="180"/>
-      <c r="H58" s="176"/>
-      <c r="I58" s="180"/>
-      <c r="J58" s="180"/>
-      <c r="K58" s="176"/>
-      <c r="L58" s="176"/>
-      <c r="M58" s="176"/>
-      <c r="N58" s="182"/>
-    </row>
-    <row r="59" spans="1:14">
-      <c r="A59" s="174"/>
-      <c r="B59" s="176"/>
-      <c r="C59" s="176"/>
-      <c r="D59" s="176"/>
-      <c r="E59" s="176"/>
-      <c r="F59" s="178"/>
-      <c r="G59" s="180"/>
-      <c r="H59" s="176"/>
-      <c r="I59" s="180"/>
-      <c r="J59" s="180"/>
-      <c r="K59" s="176"/>
-      <c r="L59" s="176"/>
-      <c r="M59" s="176"/>
-      <c r="N59" s="182"/>
-    </row>
-    <row r="60" spans="1:14">
-      <c r="A60" s="174"/>
-      <c r="B60" s="176"/>
-      <c r="C60" s="176"/>
-      <c r="D60" s="176"/>
-      <c r="E60" s="176"/>
-      <c r="F60" s="178"/>
-      <c r="G60" s="180"/>
-      <c r="H60" s="176"/>
-      <c r="I60" s="180"/>
-      <c r="J60" s="180"/>
-      <c r="K60" s="176"/>
-      <c r="L60" s="176"/>
-      <c r="M60" s="176"/>
-      <c r="N60" s="182"/>
-    </row>
-    <row r="61" spans="1:14">
-      <c r="A61" s="174"/>
-      <c r="B61" s="176"/>
-      <c r="C61" s="176"/>
-      <c r="D61" s="176"/>
-      <c r="E61" s="176"/>
-      <c r="F61" s="178"/>
-      <c r="G61" s="180"/>
-      <c r="H61" s="176"/>
-      <c r="I61" s="180"/>
-      <c r="J61" s="180"/>
-      <c r="K61" s="176"/>
-      <c r="L61" s="176"/>
-      <c r="M61" s="176"/>
-      <c r="N61" s="182"/>
-    </row>
-    <row r="62" spans="1:14">
-      <c r="A62" s="174"/>
-      <c r="B62" s="176"/>
-      <c r="C62" s="176"/>
-      <c r="D62" s="176"/>
-      <c r="E62" s="176"/>
-      <c r="F62" s="178"/>
-      <c r="G62" s="180"/>
-      <c r="H62" s="176"/>
-      <c r="I62" s="180"/>
-      <c r="J62" s="180"/>
-      <c r="K62" s="176"/>
-      <c r="L62" s="176"/>
-      <c r="M62" s="176"/>
-      <c r="N62" s="182"/>
-    </row>
-    <row r="63" spans="1:14">
-      <c r="A63" s="175"/>
-      <c r="B63" s="177"/>
-      <c r="C63" s="177"/>
-      <c r="D63" s="177"/>
-      <c r="E63" s="177"/>
-      <c r="F63" s="179"/>
-      <c r="G63" s="181"/>
-      <c r="H63" s="177"/>
-      <c r="I63" s="181"/>
-      <c r="J63" s="181"/>
-      <c r="K63" s="177"/>
-      <c r="L63" s="177"/>
-      <c r="M63" s="177"/>
-      <c r="N63" s="183"/>
-    </row>
-    <row r="64" spans="1:14">
-      <c r="A64" s="185" t="s">
+      <c r="F64" s="170"/>
+      <c r="G64" s="171"/>
+      <c r="H64" s="165"/>
+      <c r="I64" s="174"/>
+      <c r="J64" s="171"/>
+      <c r="K64" s="172" t="s">
         <v>68</v>
       </c>
-      <c r="B64" s="191"/>
-      <c r="C64" s="187"/>
-      <c r="D64" s="189"/>
-      <c r="E64" s="197" t="s">
-        <v>69</v>
-      </c>
-      <c r="F64" s="193"/>
-      <c r="G64" s="195"/>
-      <c r="H64" s="203"/>
-      <c r="I64" s="199"/>
-      <c r="J64" s="201"/>
-      <c r="K64" s="206" t="s">
-        <v>70</v>
-      </c>
-      <c r="L64" s="207"/>
-      <c r="M64" s="211"/>
-      <c r="N64" s="209"/>
+      <c r="L64" s="175"/>
+      <c r="M64" s="165"/>
+      <c r="N64" s="167"/>
     </row>
     <row r="65" spans="1:14">
-      <c r="A65" s="184"/>
-      <c r="B65" s="186"/>
-      <c r="C65" s="188"/>
-      <c r="D65" s="190"/>
-      <c r="E65" s="192"/>
-      <c r="F65" s="194"/>
-      <c r="G65" s="196"/>
-      <c r="H65" s="198"/>
-      <c r="I65" s="200"/>
-      <c r="J65" s="202"/>
-      <c r="K65" s="204"/>
-      <c r="L65" s="205"/>
-      <c r="M65" s="208"/>
-      <c r="N65" s="210"/>
+      <c r="A65" s="161"/>
+      <c r="B65" s="164"/>
+      <c r="C65" s="163"/>
+      <c r="D65" s="160"/>
+      <c r="E65" s="164"/>
+      <c r="F65" s="168"/>
+      <c r="G65" s="169"/>
+      <c r="H65" s="164"/>
+      <c r="I65" s="173"/>
+      <c r="J65" s="169"/>
+      <c r="K65" s="164"/>
+      <c r="L65" s="160"/>
+      <c r="M65" s="164"/>
+      <c r="N65" s="161"/>
     </row>
     <row r="66" spans="1:14">
-      <c r="A66" s="218"/>
+      <c r="A66" s="176"/>
       <c r="B66" s="92"/>
       <c r="C66" s="92"/>
       <c r="D66" s="92"/>
@@ -2931,99 +2763,99 @@
       <c r="K66" s="92"/>
       <c r="L66" s="92"/>
       <c r="M66" s="92"/>
-      <c r="N66" s="217"/>
+      <c r="N66" s="159"/>
     </row>
     <row r="67" spans="1:14">
-      <c r="A67" s="212" t="s">
+      <c r="A67" s="177" t="s">
+        <v>69</v>
+      </c>
+      <c r="B67" s="178"/>
+      <c r="C67" s="178"/>
+      <c r="D67" s="178"/>
+      <c r="E67" s="178"/>
+      <c r="F67" s="179"/>
+      <c r="G67" s="180"/>
+      <c r="H67" s="178"/>
+      <c r="I67" s="180"/>
+      <c r="J67" s="180"/>
+      <c r="K67" s="178"/>
+      <c r="L67" s="178"/>
+      <c r="M67" s="178"/>
+      <c r="N67" s="181"/>
+    </row>
+    <row r="68" spans="1:14">
+      <c r="A68" s="182" t="s">
+        <v>70</v>
+      </c>
+      <c r="B68" s="183"/>
+      <c r="C68" s="183"/>
+      <c r="D68" s="183"/>
+      <c r="E68" s="183"/>
+      <c r="F68" s="184"/>
+      <c r="G68" s="185"/>
+      <c r="H68" s="183"/>
+      <c r="I68" s="185"/>
+      <c r="J68" s="185"/>
+      <c r="K68" s="183"/>
+      <c r="L68" s="183"/>
+      <c r="M68" s="183"/>
+      <c r="N68" s="186"/>
+    </row>
+    <row r="69" spans="1:14">
+      <c r="A69" s="187" t="s">
         <v>71</v>
       </c>
-      <c r="B67" s="213"/>
-      <c r="C67" s="213"/>
-      <c r="D67" s="213"/>
-      <c r="E67" s="213"/>
-      <c r="F67" s="214"/>
-      <c r="G67" s="215"/>
-      <c r="H67" s="213"/>
-      <c r="I67" s="215"/>
-      <c r="J67" s="215"/>
-      <c r="K67" s="213"/>
-      <c r="L67" s="213"/>
-      <c r="M67" s="213"/>
-      <c r="N67" s="216"/>
-    </row>
-    <row r="68" spans="1:14">
-      <c r="A68" s="219" t="s">
+      <c r="B69" s="148"/>
+      <c r="C69" s="188"/>
+      <c r="D69" s="188"/>
+      <c r="E69" s="188"/>
+      <c r="F69" s="189"/>
+      <c r="G69" s="190"/>
+      <c r="H69" s="188"/>
+      <c r="I69" s="190"/>
+      <c r="J69" s="190"/>
+      <c r="K69" s="188"/>
+      <c r="L69" s="188"/>
+      <c r="M69" s="188"/>
+      <c r="N69" s="191"/>
+    </row>
+    <row r="70" spans="1:14">
+      <c r="A70" s="187" t="s">
         <v>72</v>
       </c>
-      <c r="B68" s="220"/>
-      <c r="C68" s="220"/>
-      <c r="D68" s="220"/>
-      <c r="E68" s="220"/>
-      <c r="F68" s="221"/>
-      <c r="G68" s="222"/>
-      <c r="H68" s="220"/>
-      <c r="I68" s="222"/>
-      <c r="J68" s="222"/>
-      <c r="K68" s="220"/>
-      <c r="L68" s="220"/>
-      <c r="M68" s="220"/>
-      <c r="N68" s="223"/>
-    </row>
-    <row r="69" spans="1:14">
-      <c r="A69" s="224" t="s">
+      <c r="B70" s="148"/>
+      <c r="C70" s="188"/>
+      <c r="D70" s="188"/>
+      <c r="E70" s="188"/>
+      <c r="F70" s="189"/>
+      <c r="G70" s="190"/>
+      <c r="H70" s="188"/>
+      <c r="I70" s="190"/>
+      <c r="J70" s="190"/>
+      <c r="K70" s="188"/>
+      <c r="L70" s="188"/>
+      <c r="M70" s="188"/>
+      <c r="N70" s="191"/>
+    </row>
+    <row r="71" spans="1:14">
+      <c r="A71" s="187" t="s">
         <v>73</v>
       </c>
-      <c r="B69" s="225"/>
-      <c r="C69" s="226"/>
-      <c r="D69" s="226"/>
-      <c r="E69" s="226"/>
-      <c r="F69" s="227"/>
-      <c r="G69" s="228"/>
-      <c r="H69" s="226"/>
-      <c r="I69" s="228"/>
-      <c r="J69" s="228"/>
-      <c r="K69" s="226"/>
-      <c r="L69" s="226"/>
-      <c r="M69" s="226"/>
-      <c r="N69" s="229"/>
-    </row>
-    <row r="70" spans="1:14">
-      <c r="A70" s="230" t="s">
-        <v>74</v>
-      </c>
-      <c r="B70" s="231"/>
-      <c r="C70" s="232"/>
-      <c r="D70" s="232"/>
-      <c r="E70" s="232"/>
-      <c r="F70" s="233"/>
-      <c r="G70" s="234"/>
-      <c r="H70" s="232"/>
-      <c r="I70" s="234"/>
-      <c r="J70" s="234"/>
-      <c r="K70" s="232"/>
-      <c r="L70" s="232"/>
-      <c r="M70" s="232"/>
-      <c r="N70" s="235"/>
-    </row>
-    <row r="71" spans="1:14">
-      <c r="A71" s="236" t="s">
-        <v>75</v>
-      </c>
-      <c r="B71" s="237"/>
-      <c r="C71" s="238"/>
-      <c r="D71" s="238"/>
-      <c r="E71" s="238"/>
-      <c r="F71" s="239"/>
-      <c r="G71" s="240"/>
-      <c r="H71" s="241"/>
-      <c r="I71" s="242" t="s">
+      <c r="B71" s="148"/>
+      <c r="C71" s="188"/>
+      <c r="D71" s="188"/>
+      <c r="E71" s="188"/>
+      <c r="F71" s="189"/>
+      <c r="G71" s="190"/>
+      <c r="H71" s="191"/>
+      <c r="I71" s="192" t="s">
         <v>6</v>
       </c>
-      <c r="J71" s="243"/>
-      <c r="K71" s="244"/>
-      <c r="L71" s="244"/>
-      <c r="M71" s="244"/>
-      <c r="N71" s="245"/>
+      <c r="J71" s="151"/>
+      <c r="K71" s="188"/>
+      <c r="L71" s="188"/>
+      <c r="M71" s="188"/>
+      <c r="N71" s="191"/>
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="92"/>

--- a/export_rfq.xlsx
+++ b/export_rfq.xlsx
@@ -46,7 +46,7 @@
     <t>RFQ Number :</t>
   </si>
   <si>
-    <t>2020-0090</t>
+    <t>2020-0094</t>
   </si>
   <si>
     <t>Mode of Procurement:</t>
@@ -55,7 +55,7 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>March 13,   2020</t>
+    <t>April 06,   2020</t>
   </si>
   <si>
     <t>Office/End User:</t>
@@ -67,7 +67,7 @@
     <t>Purpose:</t>
   </si>
   <si>
-    <t xml:space="preserve">Meals for HRMPSB Meeting </t>
+    <t xml:space="preserve">Test </t>
   </si>
   <si>
     <t>Company Name:</t>
@@ -169,9 +169,6 @@
     <t>Approved Budget for the Contract (ABC):</t>
   </si>
   <si>
-    <t>5,100.00</t>
-  </si>
-  <si>
     <t>DR. CARINA S. CRUZ</t>
   </si>
   <si>
@@ -226,11 +223,11 @@
     <t>NO</t>
   </si>
   <si>
-    <t xml:space="preserve">HRMPSB Meeting
+    <t xml:space="preserve">Copy Paper, A4, 80gsm, 500sheets
 </t>
   </si>
   <si>
-    <t>unit</t>
+    <t>ream</t>
   </si>
   <si>
     <t>REF:  approved and funded PPMP; approved and funded Activity Design	
@@ -238,6 +235,14 @@
 1. PhilGEPS Platinum Registration No. 									
 2. For non-Platinum Registration, please provide copy of:
     a) Mayor's Permit; b) Latest Income / Business Tax Return; c) PhilGEPS Registration No. _____________________________________									
+Other Instruction:</t>
+  </si>
+  <si>
+    <t>NOTE: ** A guaranteed of a minimum of 75% out of total number of target participants	
+              ** Free Flowing Coffee 
+              ** Free Wi-Fi
+              ** Atleast Triple/Quad Sharing Per Room  
+              ** Free use of Function Room, Sound System and LCD
 Other Instruction:</t>
   </si>
   <si>
@@ -2250,8 +2255,8 @@
       <c r="B38" s="112"/>
       <c r="C38" s="112"/>
       <c r="D38" s="112"/>
-      <c r="E38" s="113" t="s">
-        <v>45</v>
+      <c r="E38" s="113">
+        <v>350</v>
       </c>
       <c r="F38" s="113"/>
       <c r="G38" s="113"/>
@@ -2291,7 +2296,7 @@
       <c r="I40" s="89"/>
       <c r="J40" s="89"/>
       <c r="K40" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L40" s="18"/>
       <c r="M40" s="18"/>
@@ -2308,7 +2313,7 @@
       <c r="H41" s="113"/>
       <c r="I41" s="90"/>
       <c r="J41" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K41" s="19"/>
       <c r="L41" s="19"/>
@@ -2333,24 +2338,24 @@
     </row>
     <row r="43" spans="1:14" customHeight="1" ht="14.25">
       <c r="A43" s="112" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B43" s="116" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C43" s="117"/>
       <c r="D43" s="118"/>
       <c r="E43" s="115" t="s">
+        <v>49</v>
+      </c>
+      <c r="F43" s="112" t="s">
         <v>50</v>
       </c>
-      <c r="F43" s="112" t="s">
+      <c r="G43" s="130" t="s">
         <v>51</v>
       </c>
-      <c r="G43" s="130" t="s">
+      <c r="H43" s="128" t="s">
         <v>52</v>
-      </c>
-      <c r="H43" s="128" t="s">
-        <v>53</v>
       </c>
       <c r="I43" s="128"/>
       <c r="J43" s="128"/>
@@ -2368,16 +2373,16 @@
       <c r="F44" s="112"/>
       <c r="G44" s="130"/>
       <c r="H44" s="126" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I44" s="127"/>
       <c r="J44" s="127"/>
       <c r="K44" s="125" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L44" s="125"/>
       <c r="M44" s="131" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N44" s="132"/>
     </row>
@@ -2438,19 +2443,19 @@
       <c r="F48" s="112"/>
       <c r="G48" s="130"/>
       <c r="H48" s="137" t="s">
+        <v>56</v>
+      </c>
+      <c r="I48" s="139" t="s">
         <v>57</v>
       </c>
-      <c r="I48" s="139" t="s">
+      <c r="J48" s="141" t="s">
         <v>58</v>
       </c>
-      <c r="J48" s="141" t="s">
+      <c r="K48" s="143" t="s">
         <v>59</v>
       </c>
-      <c r="K48" s="143" t="s">
+      <c r="L48" s="144" t="s">
         <v>60</v>
-      </c>
-      <c r="L48" s="144" t="s">
-        <v>61</v>
       </c>
       <c r="M48" s="133"/>
       <c r="N48" s="134"/>
@@ -2474,18 +2479,18 @@
     <row r="50" spans="1:14">
       <c r="A50" s="145"/>
       <c r="B50" s="147" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C50" s="146"/>
       <c r="D50" s="146"/>
       <c r="E50" s="149">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F50" s="150" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G50" s="152">
-        <v>425</v>
+        <v>350</v>
       </c>
       <c r="H50" s="149"/>
       <c r="I50" s="152"/>
@@ -2497,7 +2502,7 @@
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="158" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B51" s="153"/>
       <c r="C51" s="153"/>
@@ -2515,7 +2520,7 @@
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="157" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B52" s="153"/>
       <c r="C52" s="153"/>
@@ -2533,7 +2538,7 @@
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="157" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B53" s="153"/>
       <c r="C53" s="153"/>
@@ -2550,9 +2555,7 @@
       <c r="N53" s="156"/>
     </row>
     <row r="54" spans="1:14">
-      <c r="A54" s="157" t="s">
-        <v>65</v>
-      </c>
+      <c r="A54" s="157"/>
       <c r="B54" s="153"/>
       <c r="C54" s="153"/>
       <c r="D54" s="153"/>

--- a/export_rfq.xlsx
+++ b/export_rfq.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="78">
   <si>
     <t>Republic of the Philippines</t>
   </si>
@@ -46,7 +46,7 @@
     <t>RFQ Number :</t>
   </si>
   <si>
-    <t>2020-0094</t>
+    <t>2020-0095</t>
   </si>
   <si>
     <t>Mode of Procurement:</t>
@@ -55,7 +55,7 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>April 06,   2020</t>
+    <t>April 13,   2020</t>
   </si>
   <si>
     <t>Office/End User:</t>
@@ -67,7 +67,7 @@
     <t>Purpose:</t>
   </si>
   <si>
-    <t xml:space="preserve">Test </t>
+    <t xml:space="preserve">Equipment for Audio-Video Conferencing System </t>
   </si>
   <si>
     <t>Company Name:</t>
@@ -169,6 +169,9 @@
     <t>Approved Budget for the Contract (ABC):</t>
   </si>
   <si>
+    <t>94,010.00</t>
+  </si>
+  <si>
     <t>DR. CARINA S. CRUZ</t>
   </si>
   <si>
@@ -223,11 +226,32 @@
     <t>NO</t>
   </si>
   <si>
-    <t xml:space="preserve">Copy Paper, A4, 80gsm, 500sheets
-</t>
+    <t>Portable Speaker
+* 15" 500W Portable Sound System
+* With 2 Wireless Microphone
+* Remote Controlled
+* Rechargeable Built-in-Battery
+* Line-in Guitar Input / Mic
+* Impedance: 4Ohms
+* Frequency Response: 50Hz - 20KHz
+* S/N Ratio : 71dB</t>
   </si>
   <si>
-    <t>ream</t>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>23,000.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laptop
+* Intel Core i7-10510U (1.8 GHz base frequency(2b), up to 4.9 GHz base with Intel® Turbo Boost Technology(2g), 8 MB cache, 4 cores)
+* 8 GB DDR4-2400 SDRAM 
+* 512 GB PCIe NVMe M.2 SSD
+* 4-cell, 53 Wh Li-ion polymer
+* 13.3" diagonal FHD IPS BrightView </t>
+  </si>
+  <si>
+    <t>48,010.00</t>
   </si>
   <si>
     <t>REF:  approved and funded PPMP; approved and funded Activity Design	
@@ -612,7 +636,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="193">
+  <cellXfs count="194">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -913,6 +937,9 @@
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -1055,7 +1082,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -1072,9 +1099,6 @@
     <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="4" numFmtId="166" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
@@ -1108,41 +1132,44 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="166" fillId="2" borderId="3" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="165" fillId="2" borderId="12" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="166" fillId="2" borderId="10" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="165" fillId="2" borderId="11" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="5" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="165" fillId="2" borderId="3" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="165" fillId="2" borderId="10" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="166" fillId="2" borderId="3" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="165" fillId="2" borderId="12" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="166" fillId="2" borderId="10" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="11" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="5" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="165" fillId="2" borderId="3" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="10" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="bottom" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="5" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -1589,24 +1616,24 @@
   <dimension ref="A1:N877"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="145" zoomScaleNormal="55" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="N71" sqref="N71"/>
+      <selection activeCell="N72" sqref="N72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="9.109375" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="true" style="45"/>
-    <col min="2" max="2" width="19.140625" customWidth="true" style="45"/>
-    <col min="3" max="3" width="0.28515625" hidden="true" customWidth="true" style="45"/>
+    <col min="1" max="1" width="9.109375" style="45"/>
+    <col min="2" max="2" width="19.109375" customWidth="true" style="45"/>
+    <col min="3" max="3" width="0.33203125" hidden="true" customWidth="true" style="45"/>
     <col min="4" max="4" width="1" customWidth="true" style="45"/>
-    <col min="5" max="5" width="5.42578125" customWidth="true" style="45"/>
-    <col min="6" max="6" width="5.5703125" customWidth="true" style="45"/>
-    <col min="7" max="7" width="11.42578125" customWidth="true" style="51"/>
-    <col min="8" max="8" width="6.85546875" customWidth="true" style="45"/>
-    <col min="9" max="9" width="9.140625" customWidth="true" style="52"/>
-    <col min="10" max="10" width="7.7109375" customWidth="true" style="52"/>
-    <col min="11" max="11" width="11.7109375" customWidth="true" style="45"/>
-    <col min="12" max="12" width="9.140625" customWidth="true" style="45"/>
-    <col min="13" max="13" width="9.140625" customWidth="true" style="45"/>
+    <col min="5" max="5" width="5.44140625" customWidth="true" style="45"/>
+    <col min="6" max="6" width="5.5546875" customWidth="true" style="45"/>
+    <col min="7" max="7" width="11.44140625" customWidth="true" style="51"/>
+    <col min="8" max="8" width="6.88671875" customWidth="true" style="45"/>
+    <col min="9" max="9" width="9.109375" style="52"/>
+    <col min="10" max="10" width="7.6640625" customWidth="true" style="52"/>
+    <col min="11" max="11" width="11.6640625" customWidth="true" style="45"/>
+    <col min="12" max="12" width="9.109375" style="45"/>
+    <col min="13" max="13" width="9.109375" style="45"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" customHeight="1" ht="0.75">
@@ -1653,7 +1680,7 @@
       <c r="J3" s="48"/>
       <c r="K3" s="43"/>
     </row>
-    <row r="4" spans="1:14" customHeight="1" ht="12.95">
+    <row r="4" spans="1:14" customHeight="1" ht="12.9">
       <c r="A4" s="49"/>
       <c r="C4" s="22"/>
       <c r="D4" s="4"/>
@@ -1665,7 +1692,7 @@
       <c r="J4" s="48"/>
       <c r="K4" s="43"/>
     </row>
-    <row r="5" spans="1:14" customHeight="1" ht="12.95">
+    <row r="5" spans="1:14" customHeight="1" ht="12.9">
       <c r="A5" s="49"/>
       <c r="B5" s="4"/>
       <c r="C5" s="22"/>
@@ -1678,7 +1705,7 @@
       <c r="J5" s="48"/>
       <c r="K5" s="43"/>
     </row>
-    <row r="6" spans="1:14" customHeight="1" ht="12.95">
+    <row r="6" spans="1:14" customHeight="1" ht="12.9">
       <c r="A6" s="49"/>
       <c r="B6" s="5"/>
       <c r="C6" s="22"/>
@@ -1691,12 +1718,12 @@
       <c r="J6" s="48"/>
       <c r="K6" s="43"/>
     </row>
-    <row r="7" spans="1:14" customHeight="1" ht="12.95">
+    <row r="7" spans="1:14" customHeight="1" ht="12.9">
       <c r="A7" s="49"/>
       <c r="B7" s="5"/>
       <c r="K7" s="43"/>
     </row>
-    <row r="8" spans="1:14" customHeight="1" ht="12.95">
+    <row r="8" spans="1:14" customHeight="1" ht="12.9">
       <c r="A8" s="49"/>
       <c r="B8" s="5"/>
       <c r="C8" s="22"/>
@@ -1709,7 +1736,7 @@
       <c r="J8" s="48"/>
       <c r="K8" s="43"/>
     </row>
-    <row r="9" spans="1:14" customHeight="1" ht="12.95">
+    <row r="9" spans="1:14" customHeight="1" ht="12.9">
       <c r="A9" s="49"/>
       <c r="B9" s="5"/>
       <c r="C9" s="22"/>
@@ -1765,11 +1792,11 @@
       <c r="K12" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="100" t="s">
+      <c r="L12" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="M12" s="101"/>
-      <c r="N12" s="102"/>
+      <c r="M12" s="102"/>
+      <c r="N12" s="103"/>
     </row>
     <row r="13" spans="1:14" customHeight="1" ht="15.75">
       <c r="A13" s="9"/>
@@ -1778,19 +1805,19 @@
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
-      <c r="F13" s="103"/>
-      <c r="G13" s="103"/>
-      <c r="H13" s="103"/>
-      <c r="I13" s="103"/>
-      <c r="J13" s="104"/>
+      <c r="F13" s="104"/>
+      <c r="G13" s="104"/>
+      <c r="H13" s="104"/>
+      <c r="I13" s="104"/>
+      <c r="J13" s="105"/>
       <c r="K13" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="L13" s="105" t="s">
+      <c r="L13" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="M13" s="106"/>
-      <c r="N13" s="107"/>
+      <c r="M13" s="107"/>
+      <c r="N13" s="108"/>
     </row>
     <row r="14" spans="1:14" customHeight="1" ht="4.5">
       <c r="A14" s="12"/>
@@ -1808,71 +1835,71 @@
       <c r="M14" s="20"/>
       <c r="N14" s="21"/>
     </row>
-    <row r="15" spans="1:14" customHeight="1" ht="12.95">
-      <c r="A15" s="114" t="s">
+    <row r="15" spans="1:14" customHeight="1" ht="12.9">
+      <c r="A15" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="114"/>
-      <c r="C15" s="114"/>
-      <c r="D15" s="114"/>
-      <c r="E15" s="100" t="s">
+      <c r="B15" s="115"/>
+      <c r="C15" s="115"/>
+      <c r="D15" s="115"/>
+      <c r="E15" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="101"/>
-      <c r="G15" s="101"/>
-      <c r="H15" s="101"/>
-      <c r="I15" s="101"/>
-      <c r="J15" s="101"/>
-      <c r="K15" s="101"/>
-      <c r="L15" s="101"/>
-      <c r="M15" s="101"/>
-      <c r="N15" s="102"/>
-    </row>
-    <row r="16" spans="1:14" customHeight="1" ht="12.95">
-      <c r="A16" s="114" t="s">
+      <c r="F15" s="102"/>
+      <c r="G15" s="102"/>
+      <c r="H15" s="102"/>
+      <c r="I15" s="102"/>
+      <c r="J15" s="102"/>
+      <c r="K15" s="102"/>
+      <c r="L15" s="102"/>
+      <c r="M15" s="102"/>
+      <c r="N15" s="103"/>
+    </row>
+    <row r="16" spans="1:14" customHeight="1" ht="12.9">
+      <c r="A16" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="114"/>
-      <c r="C16" s="114"/>
-      <c r="D16" s="114"/>
-      <c r="E16" s="100" t="s">
+      <c r="B16" s="115"/>
+      <c r="C16" s="115"/>
+      <c r="D16" s="115"/>
+      <c r="E16" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="101"/>
-      <c r="G16" s="101"/>
-      <c r="H16" s="101"/>
-      <c r="I16" s="101"/>
-      <c r="J16" s="101"/>
-      <c r="K16" s="101"/>
-      <c r="L16" s="101"/>
-      <c r="M16" s="101"/>
-      <c r="N16" s="102"/>
-    </row>
-    <row r="17" spans="1:14" customHeight="1" ht="12.95">
-      <c r="A17" s="114" t="s">
+      <c r="F16" s="102"/>
+      <c r="G16" s="102"/>
+      <c r="H16" s="102"/>
+      <c r="I16" s="102"/>
+      <c r="J16" s="102"/>
+      <c r="K16" s="102"/>
+      <c r="L16" s="102"/>
+      <c r="M16" s="102"/>
+      <c r="N16" s="103"/>
+    </row>
+    <row r="17" spans="1:14" customHeight="1" ht="12.9">
+      <c r="A17" s="115" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="114"/>
-      <c r="C17" s="114"/>
-      <c r="D17" s="114"/>
-      <c r="E17" s="100"/>
-      <c r="F17" s="101"/>
-      <c r="G17" s="101"/>
-      <c r="H17" s="101"/>
-      <c r="I17" s="101"/>
-      <c r="J17" s="101"/>
-      <c r="K17" s="101"/>
-      <c r="L17" s="101"/>
-      <c r="M17" s="101"/>
-      <c r="N17" s="102"/>
-    </row>
-    <row r="18" spans="1:14" customHeight="1" ht="12.95">
-      <c r="A18" s="114" t="s">
+      <c r="B17" s="115"/>
+      <c r="C17" s="115"/>
+      <c r="D17" s="115"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="102"/>
+      <c r="G17" s="102"/>
+      <c r="H17" s="102"/>
+      <c r="I17" s="102"/>
+      <c r="J17" s="102"/>
+      <c r="K17" s="102"/>
+      <c r="L17" s="102"/>
+      <c r="M17" s="102"/>
+      <c r="N17" s="103"/>
+    </row>
+    <row r="18" spans="1:14" customHeight="1" ht="12.9">
+      <c r="A18" s="115" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="114"/>
-      <c r="C18" s="114"/>
-      <c r="D18" s="114"/>
+      <c r="B18" s="115"/>
+      <c r="C18" s="115"/>
+      <c r="D18" s="115"/>
       <c r="E18" s="40"/>
       <c r="F18" s="40"/>
       <c r="G18" s="40"/>
@@ -1884,13 +1911,13 @@
       <c r="M18" s="40"/>
       <c r="N18" s="41"/>
     </row>
-    <row r="19" spans="1:14" customHeight="1" ht="12.95">
-      <c r="A19" s="114" t="s">
+    <row r="19" spans="1:14" customHeight="1" ht="12.9">
+      <c r="A19" s="115" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="114"/>
-      <c r="C19" s="114"/>
-      <c r="D19" s="114"/>
+      <c r="B19" s="115"/>
+      <c r="C19" s="115"/>
+      <c r="D19" s="115"/>
       <c r="E19" s="40"/>
       <c r="F19" s="40"/>
       <c r="G19" s="40"/>
@@ -1902,13 +1929,13 @@
       <c r="M19" s="40"/>
       <c r="N19" s="41"/>
     </row>
-    <row r="20" spans="1:14" customHeight="1" ht="12.95">
-      <c r="A20" s="114" t="s">
+    <row r="20" spans="1:14" customHeight="1" ht="12.9">
+      <c r="A20" s="115" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="114"/>
-      <c r="C20" s="114"/>
-      <c r="D20" s="114"/>
+      <c r="B20" s="115"/>
+      <c r="C20" s="115"/>
+      <c r="D20" s="115"/>
       <c r="E20" s="40"/>
       <c r="F20" s="40"/>
       <c r="G20" s="40"/>
@@ -1920,7 +1947,7 @@
       <c r="M20" s="40"/>
       <c r="N20" s="41"/>
     </row>
-    <row r="21" spans="1:14" customHeight="1" ht="12.95">
+    <row r="21" spans="1:14" customHeight="1" ht="12.9">
       <c r="A21" s="15" t="s">
         <v>16</v>
       </c>
@@ -1938,7 +1965,7 @@
       <c r="M21" s="56"/>
       <c r="N21" s="57"/>
     </row>
-    <row r="22" spans="1:14" customHeight="1" ht="12.95">
+    <row r="22" spans="1:14" customHeight="1" ht="12.9">
       <c r="A22" s="16" t="s">
         <v>17</v>
       </c>
@@ -1957,38 +1984,38 @@
       <c r="N22" s="64"/>
     </row>
     <row r="23" spans="1:14" customHeight="1" ht="8.25">
-      <c r="A23" s="111" t="s">
+      <c r="A23" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="111"/>
-      <c r="C23" s="111"/>
-      <c r="D23" s="111"/>
-      <c r="E23" s="111"/>
-      <c r="F23" s="111"/>
-      <c r="G23" s="111"/>
-      <c r="H23" s="111"/>
-      <c r="I23" s="111"/>
-      <c r="J23" s="111"/>
-      <c r="K23" s="111"/>
-      <c r="L23" s="111"/>
-      <c r="M23" s="111"/>
-      <c r="N23" s="111"/>
-    </row>
-    <row r="24" spans="1:14" customHeight="1" ht="12.95">
-      <c r="A24" s="111"/>
-      <c r="B24" s="111"/>
-      <c r="C24" s="111"/>
-      <c r="D24" s="111"/>
-      <c r="E24" s="111"/>
-      <c r="F24" s="111"/>
-      <c r="G24" s="111"/>
-      <c r="H24" s="111"/>
-      <c r="I24" s="111"/>
-      <c r="J24" s="111"/>
-      <c r="K24" s="111"/>
-      <c r="L24" s="111"/>
-      <c r="M24" s="111"/>
-      <c r="N24" s="111"/>
+      <c r="B23" s="112"/>
+      <c r="C23" s="112"/>
+      <c r="D23" s="112"/>
+      <c r="E23" s="112"/>
+      <c r="F23" s="112"/>
+      <c r="G23" s="112"/>
+      <c r="H23" s="112"/>
+      <c r="I23" s="112"/>
+      <c r="J23" s="112"/>
+      <c r="K23" s="112"/>
+      <c r="L23" s="112"/>
+      <c r="M23" s="112"/>
+      <c r="N23" s="112"/>
+    </row>
+    <row r="24" spans="1:14" customHeight="1" ht="12.9">
+      <c r="A24" s="112"/>
+      <c r="B24" s="112"/>
+      <c r="C24" s="112"/>
+      <c r="D24" s="112"/>
+      <c r="E24" s="112"/>
+      <c r="F24" s="112"/>
+      <c r="G24" s="112"/>
+      <c r="H24" s="112"/>
+      <c r="I24" s="112"/>
+      <c r="J24" s="112"/>
+      <c r="K24" s="112"/>
+      <c r="L24" s="112"/>
+      <c r="M24" s="112"/>
+      <c r="N24" s="112"/>
     </row>
     <row r="25" spans="1:14" customHeight="1" ht="12">
       <c r="A25" s="23" t="s">
@@ -2248,19 +2275,19 @@
       <c r="M37" s="82"/>
       <c r="N37" s="83"/>
     </row>
-    <row r="38" spans="1:14" customHeight="1" ht="12.95">
-      <c r="A38" s="112" t="s">
+    <row r="38" spans="1:14" customHeight="1" ht="12.9">
+      <c r="A38" s="113" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="112"/>
-      <c r="C38" s="112"/>
-      <c r="D38" s="112"/>
-      <c r="E38" s="113">
-        <v>350</v>
+      <c r="B38" s="113"/>
+      <c r="C38" s="113"/>
+      <c r="D38" s="113"/>
+      <c r="E38" s="114" t="s">
+        <v>45</v>
       </c>
-      <c r="F38" s="113"/>
-      <c r="G38" s="113"/>
-      <c r="H38" s="113"/>
+      <c r="F38" s="114"/>
+      <c r="G38" s="114"/>
+      <c r="H38" s="114"/>
       <c r="I38" s="84"/>
       <c r="J38" s="84"/>
       <c r="K38" s="85"/>
@@ -2268,15 +2295,15 @@
       <c r="M38" s="85"/>
       <c r="N38" s="86"/>
     </row>
-    <row r="39" spans="1:14" customHeight="1" ht="12.95">
-      <c r="A39" s="112"/>
-      <c r="B39" s="112"/>
-      <c r="C39" s="112"/>
-      <c r="D39" s="112"/>
-      <c r="E39" s="113"/>
-      <c r="F39" s="113"/>
-      <c r="G39" s="113"/>
-      <c r="H39" s="113"/>
+    <row r="39" spans="1:14" customHeight="1" ht="12.9">
+      <c r="A39" s="113"/>
+      <c r="B39" s="113"/>
+      <c r="C39" s="113"/>
+      <c r="D39" s="113"/>
+      <c r="E39" s="114"/>
+      <c r="F39" s="114"/>
+      <c r="G39" s="114"/>
+      <c r="H39" s="114"/>
       <c r="I39" s="87"/>
       <c r="J39" s="87"/>
       <c r="K39" s="43"/>
@@ -2284,36 +2311,36 @@
       <c r="M39" s="43"/>
       <c r="N39" s="88"/>
     </row>
-    <row r="40" spans="1:14" customHeight="1" ht="12.95">
-      <c r="A40" s="112"/>
-      <c r="B40" s="112"/>
-      <c r="C40" s="112"/>
-      <c r="D40" s="112"/>
-      <c r="E40" s="113"/>
-      <c r="F40" s="113"/>
-      <c r="G40" s="113"/>
-      <c r="H40" s="113"/>
+    <row r="40" spans="1:14" customHeight="1" ht="12.9">
+      <c r="A40" s="113"/>
+      <c r="B40" s="113"/>
+      <c r="C40" s="113"/>
+      <c r="D40" s="113"/>
+      <c r="E40" s="114"/>
+      <c r="F40" s="114"/>
+      <c r="G40" s="114"/>
+      <c r="H40" s="114"/>
       <c r="I40" s="89"/>
       <c r="J40" s="89"/>
       <c r="K40" s="17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L40" s="18"/>
       <c r="M40" s="18"/>
       <c r="N40" s="88"/>
     </row>
     <row r="41" spans="1:14" customHeight="1" ht="12.75">
-      <c r="A41" s="112"/>
-      <c r="B41" s="112"/>
-      <c r="C41" s="112"/>
-      <c r="D41" s="112"/>
-      <c r="E41" s="113"/>
-      <c r="F41" s="113"/>
-      <c r="G41" s="113"/>
-      <c r="H41" s="113"/>
+      <c r="A41" s="113"/>
+      <c r="B41" s="113"/>
+      <c r="C41" s="113"/>
+      <c r="D41" s="113"/>
+      <c r="E41" s="114"/>
+      <c r="F41" s="114"/>
+      <c r="G41" s="114"/>
+      <c r="H41" s="114"/>
       <c r="I41" s="90"/>
       <c r="J41" s="19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K41" s="19"/>
       <c r="L41" s="19"/>
@@ -2321,560 +2348,568 @@
       <c r="N41" s="91"/>
     </row>
     <row r="42" spans="1:14" customHeight="1" ht="4.5">
-      <c r="A42" s="108"/>
-      <c r="B42" s="109"/>
-      <c r="C42" s="109"/>
-      <c r="D42" s="109"/>
-      <c r="E42" s="109"/>
-      <c r="F42" s="109"/>
-      <c r="G42" s="109"/>
-      <c r="H42" s="109"/>
-      <c r="I42" s="109"/>
-      <c r="J42" s="109"/>
-      <c r="K42" s="109"/>
-      <c r="L42" s="109"/>
-      <c r="M42" s="109"/>
-      <c r="N42" s="110"/>
+      <c r="A42" s="109"/>
+      <c r="B42" s="110"/>
+      <c r="C42" s="110"/>
+      <c r="D42" s="110"/>
+      <c r="E42" s="110"/>
+      <c r="F42" s="110"/>
+      <c r="G42" s="110"/>
+      <c r="H42" s="110"/>
+      <c r="I42" s="110"/>
+      <c r="J42" s="110"/>
+      <c r="K42" s="110"/>
+      <c r="L42" s="110"/>
+      <c r="M42" s="110"/>
+      <c r="N42" s="111"/>
     </row>
     <row r="43" spans="1:14" customHeight="1" ht="14.25">
-      <c r="A43" s="112" t="s">
-        <v>47</v>
-      </c>
-      <c r="B43" s="116" t="s">
+      <c r="A43" s="113" t="s">
         <v>48</v>
       </c>
-      <c r="C43" s="117"/>
-      <c r="D43" s="118"/>
-      <c r="E43" s="115" t="s">
+      <c r="B43" s="117" t="s">
         <v>49</v>
       </c>
-      <c r="F43" s="112" t="s">
+      <c r="C43" s="118"/>
+      <c r="D43" s="119"/>
+      <c r="E43" s="116" t="s">
         <v>50</v>
       </c>
-      <c r="G43" s="130" t="s">
+      <c r="F43" s="113" t="s">
         <v>51</v>
       </c>
-      <c r="H43" s="128" t="s">
+      <c r="G43" s="131" t="s">
         <v>52</v>
       </c>
-      <c r="I43" s="128"/>
-      <c r="J43" s="128"/>
-      <c r="K43" s="128"/>
-      <c r="L43" s="128"/>
-      <c r="M43" s="128"/>
-      <c r="N43" s="129"/>
-    </row>
-    <row r="44" spans="1:14" customHeight="1" ht="12.75">
-      <c r="A44" s="112"/>
-      <c r="B44" s="119"/>
-      <c r="C44" s="120"/>
-      <c r="D44" s="121"/>
-      <c r="E44" s="115"/>
-      <c r="F44" s="112"/>
-      <c r="G44" s="130"/>
-      <c r="H44" s="126" t="s">
+      <c r="H43" s="129" t="s">
         <v>53</v>
       </c>
-      <c r="I44" s="127"/>
-      <c r="J44" s="127"/>
-      <c r="K44" s="125" t="s">
+      <c r="I43" s="129"/>
+      <c r="J43" s="129"/>
+      <c r="K43" s="129"/>
+      <c r="L43" s="129"/>
+      <c r="M43" s="129"/>
+      <c r="N43" s="130"/>
+    </row>
+    <row r="44" spans="1:14" customHeight="1" ht="12.75">
+      <c r="A44" s="113"/>
+      <c r="B44" s="120"/>
+      <c r="C44" s="121"/>
+      <c r="D44" s="122"/>
+      <c r="E44" s="116"/>
+      <c r="F44" s="113"/>
+      <c r="G44" s="131"/>
+      <c r="H44" s="127" t="s">
         <v>54</v>
       </c>
-      <c r="L44" s="125"/>
-      <c r="M44" s="131" t="s">
+      <c r="I44" s="128"/>
+      <c r="J44" s="128"/>
+      <c r="K44" s="126" t="s">
         <v>55</v>
       </c>
-      <c r="N44" s="132"/>
-    </row>
-    <row r="45" spans="1:14" customHeight="1" ht="12.75">
-      <c r="A45" s="112"/>
-      <c r="B45" s="119"/>
-      <c r="C45" s="120"/>
-      <c r="D45" s="121"/>
-      <c r="E45" s="115"/>
-      <c r="F45" s="112"/>
-      <c r="G45" s="130"/>
-      <c r="H45" s="126"/>
-      <c r="I45" s="127"/>
-      <c r="J45" s="127"/>
-      <c r="K45" s="125"/>
-      <c r="L45" s="125"/>
-      <c r="M45" s="133"/>
-      <c r="N45" s="134"/>
-    </row>
-    <row r="46" spans="1:14" customHeight="1" ht="12.75">
-      <c r="A46" s="112"/>
-      <c r="B46" s="119"/>
-      <c r="C46" s="120"/>
-      <c r="D46" s="121"/>
-      <c r="E46" s="115"/>
-      <c r="F46" s="112"/>
-      <c r="G46" s="130"/>
-      <c r="H46" s="126"/>
-      <c r="I46" s="127"/>
-      <c r="J46" s="127"/>
-      <c r="K46" s="125"/>
-      <c r="L46" s="125"/>
-      <c r="M46" s="133"/>
-      <c r="N46" s="134"/>
-    </row>
-    <row r="47" spans="1:14" customHeight="1" ht="12.75">
-      <c r="A47" s="112"/>
-      <c r="B47" s="119"/>
-      <c r="C47" s="120"/>
-      <c r="D47" s="121"/>
-      <c r="E47" s="115"/>
-      <c r="F47" s="112"/>
-      <c r="G47" s="130"/>
-      <c r="H47" s="126"/>
-      <c r="I47" s="127"/>
-      <c r="J47" s="127"/>
-      <c r="K47" s="125"/>
-      <c r="L47" s="125"/>
-      <c r="M47" s="133"/>
-      <c r="N47" s="134"/>
-    </row>
-    <row r="48" spans="1:14" customHeight="1" ht="14.1">
-      <c r="A48" s="112"/>
-      <c r="B48" s="119"/>
-      <c r="C48" s="120"/>
-      <c r="D48" s="121"/>
-      <c r="E48" s="115"/>
-      <c r="F48" s="112"/>
-      <c r="G48" s="130"/>
-      <c r="H48" s="137" t="s">
+      <c r="L44" s="126"/>
+      <c r="M44" s="132" t="s">
         <v>56</v>
       </c>
-      <c r="I48" s="139" t="s">
+      <c r="N44" s="133"/>
+    </row>
+    <row r="45" spans="1:14" customHeight="1" ht="12.75">
+      <c r="A45" s="113"/>
+      <c r="B45" s="120"/>
+      <c r="C45" s="121"/>
+      <c r="D45" s="122"/>
+      <c r="E45" s="116"/>
+      <c r="F45" s="113"/>
+      <c r="G45" s="131"/>
+      <c r="H45" s="127"/>
+      <c r="I45" s="128"/>
+      <c r="J45" s="128"/>
+      <c r="K45" s="126"/>
+      <c r="L45" s="126"/>
+      <c r="M45" s="134"/>
+      <c r="N45" s="135"/>
+    </row>
+    <row r="46" spans="1:14" customHeight="1" ht="12.75">
+      <c r="A46" s="113"/>
+      <c r="B46" s="120"/>
+      <c r="C46" s="121"/>
+      <c r="D46" s="122"/>
+      <c r="E46" s="116"/>
+      <c r="F46" s="113"/>
+      <c r="G46" s="131"/>
+      <c r="H46" s="127"/>
+      <c r="I46" s="128"/>
+      <c r="J46" s="128"/>
+      <c r="K46" s="126"/>
+      <c r="L46" s="126"/>
+      <c r="M46" s="134"/>
+      <c r="N46" s="135"/>
+    </row>
+    <row r="47" spans="1:14" customHeight="1" ht="12.75">
+      <c r="A47" s="113"/>
+      <c r="B47" s="120"/>
+      <c r="C47" s="121"/>
+      <c r="D47" s="122"/>
+      <c r="E47" s="116"/>
+      <c r="F47" s="113"/>
+      <c r="G47" s="131"/>
+      <c r="H47" s="127"/>
+      <c r="I47" s="128"/>
+      <c r="J47" s="128"/>
+      <c r="K47" s="126"/>
+      <c r="L47" s="126"/>
+      <c r="M47" s="134"/>
+      <c r="N47" s="135"/>
+    </row>
+    <row r="48" spans="1:14" customHeight="1" ht="14.1">
+      <c r="A48" s="113"/>
+      <c r="B48" s="120"/>
+      <c r="C48" s="121"/>
+      <c r="D48" s="122"/>
+      <c r="E48" s="116"/>
+      <c r="F48" s="113"/>
+      <c r="G48" s="131"/>
+      <c r="H48" s="138" t="s">
         <v>57</v>
       </c>
-      <c r="J48" s="141" t="s">
+      <c r="I48" s="140" t="s">
         <v>58</v>
       </c>
-      <c r="K48" s="143" t="s">
+      <c r="J48" s="142" t="s">
         <v>59</v>
       </c>
-      <c r="L48" s="144" t="s">
+      <c r="K48" s="144" t="s">
         <v>60</v>
       </c>
-      <c r="M48" s="133"/>
-      <c r="N48" s="134"/>
-    </row>
-    <row r="49" spans="1:14" customHeight="1" ht="13.5">
-      <c r="A49" s="112"/>
-      <c r="B49" s="122"/>
-      <c r="C49" s="123"/>
-      <c r="D49" s="124"/>
-      <c r="E49" s="115"/>
-      <c r="F49" s="112"/>
-      <c r="G49" s="130"/>
-      <c r="H49" s="138"/>
-      <c r="I49" s="140"/>
-      <c r="J49" s="142"/>
-      <c r="K49" s="144"/>
-      <c r="L49" s="127"/>
-      <c r="M49" s="135"/>
-      <c r="N49" s="136"/>
-    </row>
-    <row r="50" spans="1:14">
-      <c r="A50" s="145"/>
-      <c r="B50" s="147" t="s">
+      <c r="L48" s="145" t="s">
         <v>61</v>
       </c>
-      <c r="C50" s="146"/>
-      <c r="D50" s="146"/>
-      <c r="E50" s="149">
+      <c r="M48" s="134"/>
+      <c r="N48" s="135"/>
+    </row>
+    <row r="49" spans="1:14" customHeight="1" ht="13.5">
+      <c r="A49" s="113"/>
+      <c r="B49" s="123"/>
+      <c r="C49" s="124"/>
+      <c r="D49" s="125"/>
+      <c r="E49" s="116"/>
+      <c r="F49" s="113"/>
+      <c r="G49" s="131"/>
+      <c r="H49" s="139"/>
+      <c r="I49" s="141"/>
+      <c r="J49" s="143"/>
+      <c r="K49" s="145"/>
+      <c r="L49" s="128"/>
+      <c r="M49" s="136"/>
+      <c r="N49" s="137"/>
+    </row>
+    <row r="50" spans="1:14">
+      <c r="A50" s="146"/>
+      <c r="B50" s="148" t="s">
+        <v>62</v>
+      </c>
+      <c r="C50" s="147"/>
+      <c r="D50" s="147"/>
+      <c r="E50" s="150">
+        <v>2</v>
+      </c>
+      <c r="F50" s="151" t="s">
+        <v>63</v>
+      </c>
+      <c r="G50" s="153" t="s">
+        <v>64</v>
+      </c>
+      <c r="H50" s="150"/>
+      <c r="I50" s="153"/>
+      <c r="J50" s="153"/>
+      <c r="K50" s="150"/>
+      <c r="L50" s="150"/>
+      <c r="M50" s="150"/>
+      <c r="N50" s="150"/>
+    </row>
+    <row r="51" spans="1:14">
+      <c r="A51" s="150"/>
+      <c r="B51" s="148" t="s">
+        <v>65</v>
+      </c>
+      <c r="C51" s="147"/>
+      <c r="D51" s="147"/>
+      <c r="E51" s="150">
         <v>1</v>
       </c>
-      <c r="F50" s="150" t="s">
-        <v>62</v>
-      </c>
-      <c r="G50" s="152">
-        <v>350</v>
-      </c>
-      <c r="H50" s="149"/>
-      <c r="I50" s="152"/>
-      <c r="J50" s="152"/>
-      <c r="K50" s="149"/>
-      <c r="L50" s="149"/>
-      <c r="M50" s="149"/>
-      <c r="N50" s="149"/>
-    </row>
-    <row r="51" spans="1:14">
-      <c r="A51" s="158" t="s">
+      <c r="F51" s="151" t="s">
         <v>63</v>
       </c>
-      <c r="B51" s="153"/>
-      <c r="C51" s="153"/>
-      <c r="D51" s="153"/>
-      <c r="E51" s="153"/>
-      <c r="F51" s="154"/>
-      <c r="G51" s="155"/>
-      <c r="H51" s="153"/>
-      <c r="I51" s="155"/>
-      <c r="J51" s="155"/>
-      <c r="K51" s="153"/>
-      <c r="L51" s="153"/>
-      <c r="M51" s="153"/>
-      <c r="N51" s="156"/>
+      <c r="G51" s="153" t="s">
+        <v>66</v>
+      </c>
+      <c r="H51" s="150"/>
+      <c r="I51" s="153"/>
+      <c r="J51" s="153"/>
+      <c r="K51" s="150"/>
+      <c r="L51" s="150"/>
+      <c r="M51" s="150"/>
+      <c r="N51" s="150"/>
     </row>
     <row r="52" spans="1:14">
-      <c r="A52" s="157" t="s">
-        <v>64</v>
+      <c r="A52" s="158" t="s">
+        <v>67</v>
       </c>
-      <c r="B52" s="153"/>
-      <c r="C52" s="153"/>
-      <c r="D52" s="153"/>
-      <c r="E52" s="153"/>
+      <c r="B52" s="100"/>
+      <c r="C52" s="100"/>
+      <c r="D52" s="100"/>
+      <c r="E52" s="100"/>
       <c r="F52" s="154"/>
       <c r="G52" s="155"/>
-      <c r="H52" s="153"/>
+      <c r="H52" s="100"/>
       <c r="I52" s="155"/>
       <c r="J52" s="155"/>
-      <c r="K52" s="153"/>
-      <c r="L52" s="153"/>
-      <c r="M52" s="153"/>
+      <c r="K52" s="100"/>
+      <c r="L52" s="100"/>
+      <c r="M52" s="100"/>
       <c r="N52" s="156"/>
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="157" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
-      <c r="B53" s="153"/>
-      <c r="C53" s="153"/>
-      <c r="D53" s="153"/>
-      <c r="E53" s="153"/>
+      <c r="B53" s="100"/>
+      <c r="C53" s="100"/>
+      <c r="D53" s="100"/>
+      <c r="E53" s="100"/>
       <c r="F53" s="154"/>
       <c r="G53" s="155"/>
-      <c r="H53" s="153"/>
+      <c r="H53" s="100"/>
       <c r="I53" s="155"/>
       <c r="J53" s="155"/>
-      <c r="K53" s="153"/>
-      <c r="L53" s="153"/>
-      <c r="M53" s="153"/>
+      <c r="K53" s="100"/>
+      <c r="L53" s="100"/>
+      <c r="M53" s="100"/>
       <c r="N53" s="156"/>
     </row>
     <row r="54" spans="1:14">
-      <c r="A54" s="157"/>
-      <c r="B54" s="153"/>
-      <c r="C54" s="153"/>
-      <c r="D54" s="153"/>
-      <c r="E54" s="153"/>
+      <c r="A54" s="157" t="s">
+        <v>69</v>
+      </c>
+      <c r="B54" s="100"/>
+      <c r="C54" s="100"/>
+      <c r="D54" s="100"/>
+      <c r="E54" s="100"/>
       <c r="F54" s="154"/>
       <c r="G54" s="155"/>
-      <c r="H54" s="153"/>
+      <c r="H54" s="100"/>
       <c r="I54" s="155"/>
       <c r="J54" s="155"/>
-      <c r="K54" s="153"/>
-      <c r="L54" s="153"/>
-      <c r="M54" s="153"/>
+      <c r="K54" s="100"/>
+      <c r="L54" s="100"/>
+      <c r="M54" s="100"/>
       <c r="N54" s="156"/>
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="157"/>
-      <c r="B55" s="153"/>
-      <c r="C55" s="153"/>
-      <c r="D55" s="153"/>
-      <c r="E55" s="153"/>
+      <c r="B55" s="100"/>
+      <c r="C55" s="100"/>
+      <c r="D55" s="100"/>
+      <c r="E55" s="100"/>
       <c r="F55" s="154"/>
       <c r="G55" s="155"/>
-      <c r="H55" s="153"/>
+      <c r="H55" s="100"/>
       <c r="I55" s="155"/>
       <c r="J55" s="155"/>
-      <c r="K55" s="153"/>
-      <c r="L55" s="153"/>
-      <c r="M55" s="153"/>
+      <c r="K55" s="100"/>
+      <c r="L55" s="100"/>
+      <c r="M55" s="100"/>
       <c r="N55" s="156"/>
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="157"/>
-      <c r="B56" s="153"/>
-      <c r="C56" s="153"/>
-      <c r="D56" s="153"/>
-      <c r="E56" s="153"/>
+      <c r="B56" s="100"/>
+      <c r="C56" s="100"/>
+      <c r="D56" s="100"/>
+      <c r="E56" s="100"/>
       <c r="F56" s="154"/>
       <c r="G56" s="155"/>
-      <c r="H56" s="153"/>
+      <c r="H56" s="100"/>
       <c r="I56" s="155"/>
       <c r="J56" s="155"/>
-      <c r="K56" s="153"/>
-      <c r="L56" s="153"/>
-      <c r="M56" s="153"/>
+      <c r="K56" s="100"/>
+      <c r="L56" s="100"/>
+      <c r="M56" s="100"/>
       <c r="N56" s="156"/>
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="157"/>
-      <c r="B57" s="153"/>
-      <c r="C57" s="153"/>
-      <c r="D57" s="153"/>
-      <c r="E57" s="153"/>
+      <c r="B57" s="100"/>
+      <c r="C57" s="100"/>
+      <c r="D57" s="100"/>
+      <c r="E57" s="100"/>
       <c r="F57" s="154"/>
       <c r="G57" s="155"/>
-      <c r="H57" s="153"/>
+      <c r="H57" s="100"/>
       <c r="I57" s="155"/>
       <c r="J57" s="155"/>
-      <c r="K57" s="153"/>
-      <c r="L57" s="153"/>
-      <c r="M57" s="153"/>
+      <c r="K57" s="100"/>
+      <c r="L57" s="100"/>
+      <c r="M57" s="100"/>
       <c r="N57" s="156"/>
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="157"/>
-      <c r="B58" s="153"/>
-      <c r="C58" s="153"/>
-      <c r="D58" s="153"/>
-      <c r="E58" s="153"/>
+      <c r="B58" s="100"/>
+      <c r="C58" s="100"/>
+      <c r="D58" s="100"/>
+      <c r="E58" s="100"/>
       <c r="F58" s="154"/>
       <c r="G58" s="155"/>
-      <c r="H58" s="153"/>
+      <c r="H58" s="100"/>
       <c r="I58" s="155"/>
       <c r="J58" s="155"/>
-      <c r="K58" s="153"/>
-      <c r="L58" s="153"/>
-      <c r="M58" s="153"/>
+      <c r="K58" s="100"/>
+      <c r="L58" s="100"/>
+      <c r="M58" s="100"/>
       <c r="N58" s="156"/>
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="157"/>
-      <c r="B59" s="153"/>
-      <c r="C59" s="153"/>
-      <c r="D59" s="153"/>
-      <c r="E59" s="153"/>
+      <c r="B59" s="100"/>
+      <c r="C59" s="100"/>
+      <c r="D59" s="100"/>
+      <c r="E59" s="100"/>
       <c r="F59" s="154"/>
       <c r="G59" s="155"/>
-      <c r="H59" s="153"/>
+      <c r="H59" s="100"/>
       <c r="I59" s="155"/>
       <c r="J59" s="155"/>
-      <c r="K59" s="153"/>
-      <c r="L59" s="153"/>
-      <c r="M59" s="153"/>
+      <c r="K59" s="100"/>
+      <c r="L59" s="100"/>
+      <c r="M59" s="100"/>
       <c r="N59" s="156"/>
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="157"/>
-      <c r="B60" s="153"/>
-      <c r="C60" s="153"/>
-      <c r="D60" s="153"/>
-      <c r="E60" s="153"/>
+      <c r="B60" s="100"/>
+      <c r="C60" s="100"/>
+      <c r="D60" s="100"/>
+      <c r="E60" s="100"/>
       <c r="F60" s="154"/>
       <c r="G60" s="155"/>
-      <c r="H60" s="153"/>
+      <c r="H60" s="100"/>
       <c r="I60" s="155"/>
       <c r="J60" s="155"/>
-      <c r="K60" s="153"/>
-      <c r="L60" s="153"/>
-      <c r="M60" s="153"/>
+      <c r="K60" s="100"/>
+      <c r="L60" s="100"/>
+      <c r="M60" s="100"/>
       <c r="N60" s="156"/>
     </row>
     <row r="61" spans="1:14">
       <c r="A61" s="157"/>
-      <c r="B61" s="153"/>
-      <c r="C61" s="153"/>
-      <c r="D61" s="153"/>
-      <c r="E61" s="153"/>
+      <c r="B61" s="100"/>
+      <c r="C61" s="100"/>
+      <c r="D61" s="100"/>
+      <c r="E61" s="100"/>
       <c r="F61" s="154"/>
       <c r="G61" s="155"/>
-      <c r="H61" s="153"/>
+      <c r="H61" s="100"/>
       <c r="I61" s="155"/>
       <c r="J61" s="155"/>
-      <c r="K61" s="153"/>
-      <c r="L61" s="153"/>
-      <c r="M61" s="153"/>
+      <c r="K61" s="100"/>
+      <c r="L61" s="100"/>
+      <c r="M61" s="100"/>
       <c r="N61" s="156"/>
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="157"/>
-      <c r="B62" s="153"/>
-      <c r="C62" s="153"/>
-      <c r="D62" s="153"/>
-      <c r="E62" s="153"/>
+      <c r="B62" s="100"/>
+      <c r="C62" s="100"/>
+      <c r="D62" s="100"/>
+      <c r="E62" s="100"/>
       <c r="F62" s="154"/>
       <c r="G62" s="155"/>
-      <c r="H62" s="153"/>
+      <c r="H62" s="100"/>
       <c r="I62" s="155"/>
       <c r="J62" s="155"/>
-      <c r="K62" s="153"/>
-      <c r="L62" s="153"/>
-      <c r="M62" s="153"/>
+      <c r="K62" s="100"/>
+      <c r="L62" s="100"/>
+      <c r="M62" s="100"/>
       <c r="N62" s="156"/>
     </row>
     <row r="63" spans="1:14">
       <c r="A63" s="157"/>
-      <c r="B63" s="153"/>
-      <c r="C63" s="153"/>
-      <c r="D63" s="153"/>
-      <c r="E63" s="153"/>
+      <c r="B63" s="100"/>
+      <c r="C63" s="100"/>
+      <c r="D63" s="100"/>
+      <c r="E63" s="100"/>
       <c r="F63" s="154"/>
       <c r="G63" s="155"/>
-      <c r="H63" s="153"/>
+      <c r="H63" s="100"/>
       <c r="I63" s="155"/>
       <c r="J63" s="155"/>
-      <c r="K63" s="153"/>
-      <c r="L63" s="153"/>
-      <c r="M63" s="153"/>
+      <c r="K63" s="100"/>
+      <c r="L63" s="100"/>
+      <c r="M63" s="100"/>
       <c r="N63" s="156"/>
     </row>
     <row r="64" spans="1:14">
-      <c r="A64" s="162" t="s">
-        <v>66</v>
-      </c>
-      <c r="B64" s="165"/>
-      <c r="C64" s="166"/>
-      <c r="D64" s="167"/>
-      <c r="E64" s="172" t="s">
-        <v>67</v>
-      </c>
-      <c r="F64" s="170"/>
-      <c r="G64" s="171"/>
-      <c r="H64" s="165"/>
-      <c r="I64" s="174"/>
-      <c r="J64" s="171"/>
-      <c r="K64" s="172" t="s">
-        <v>68</v>
-      </c>
-      <c r="L64" s="175"/>
-      <c r="M64" s="165"/>
-      <c r="N64" s="167"/>
+      <c r="A64" s="157"/>
+      <c r="B64" s="100"/>
+      <c r="C64" s="100"/>
+      <c r="D64" s="100"/>
+      <c r="E64" s="100"/>
+      <c r="F64" s="154"/>
+      <c r="G64" s="155"/>
+      <c r="H64" s="100"/>
+      <c r="I64" s="155"/>
+      <c r="J64" s="155"/>
+      <c r="K64" s="100"/>
+      <c r="L64" s="100"/>
+      <c r="M64" s="100"/>
+      <c r="N64" s="156"/>
     </row>
     <row r="65" spans="1:14">
-      <c r="A65" s="161"/>
-      <c r="B65" s="164"/>
-      <c r="C65" s="163"/>
-      <c r="D65" s="160"/>
-      <c r="E65" s="164"/>
-      <c r="F65" s="168"/>
-      <c r="G65" s="169"/>
-      <c r="H65" s="164"/>
-      <c r="I65" s="173"/>
-      <c r="J65" s="169"/>
-      <c r="K65" s="164"/>
-      <c r="L65" s="160"/>
-      <c r="M65" s="164"/>
-      <c r="N65" s="161"/>
-    </row>
-    <row r="66" spans="1:14">
-      <c r="A66" s="176"/>
-      <c r="B66" s="92"/>
-      <c r="C66" s="92"/>
-      <c r="D66" s="92"/>
-      <c r="E66" s="92"/>
-      <c r="F66" s="94"/>
-      <c r="G66" s="95"/>
-      <c r="H66" s="92"/>
-      <c r="I66" s="95"/>
-      <c r="J66" s="95"/>
-      <c r="K66" s="92"/>
-      <c r="L66" s="92"/>
-      <c r="M66" s="92"/>
-      <c r="N66" s="159"/>
-    </row>
-    <row r="67" spans="1:14">
-      <c r="A67" s="177" t="s">
-        <v>69</v>
-      </c>
-      <c r="B67" s="178"/>
-      <c r="C67" s="178"/>
-      <c r="D67" s="178"/>
-      <c r="E67" s="178"/>
-      <c r="F67" s="179"/>
-      <c r="G67" s="180"/>
-      <c r="H67" s="178"/>
-      <c r="I67" s="180"/>
-      <c r="J67" s="180"/>
-      <c r="K67" s="178"/>
-      <c r="L67" s="178"/>
-      <c r="M67" s="178"/>
-      <c r="N67" s="181"/>
-    </row>
-    <row r="68" spans="1:14">
-      <c r="A68" s="182" t="s">
+      <c r="A65" s="162" t="s">
         <v>70</v>
       </c>
-      <c r="B68" s="183"/>
-      <c r="C68" s="183"/>
-      <c r="D68" s="183"/>
-      <c r="E68" s="183"/>
-      <c r="F68" s="184"/>
-      <c r="G68" s="185"/>
-      <c r="H68" s="183"/>
-      <c r="I68" s="185"/>
-      <c r="J68" s="185"/>
-      <c r="K68" s="183"/>
-      <c r="L68" s="183"/>
-      <c r="M68" s="183"/>
-      <c r="N68" s="186"/>
-    </row>
-    <row r="69" spans="1:14">
-      <c r="A69" s="187" t="s">
+      <c r="B65" s="167"/>
+      <c r="C65" s="165"/>
+      <c r="D65" s="166"/>
+      <c r="E65" s="172" t="s">
         <v>71</v>
       </c>
-      <c r="B69" s="148"/>
-      <c r="C69" s="188"/>
-      <c r="D69" s="188"/>
-      <c r="E69" s="188"/>
-      <c r="F69" s="189"/>
-      <c r="G69" s="190"/>
-      <c r="H69" s="188"/>
-      <c r="I69" s="190"/>
-      <c r="J69" s="190"/>
-      <c r="K69" s="188"/>
-      <c r="L69" s="188"/>
-      <c r="M69" s="188"/>
-      <c r="N69" s="191"/>
-    </row>
-    <row r="70" spans="1:14">
-      <c r="A70" s="187" t="s">
+      <c r="F65" s="170"/>
+      <c r="G65" s="171"/>
+      <c r="H65" s="176"/>
+      <c r="I65" s="175"/>
+      <c r="J65" s="171"/>
+      <c r="K65" s="172" t="s">
         <v>72</v>
       </c>
-      <c r="B70" s="148"/>
-      <c r="C70" s="188"/>
-      <c r="D70" s="188"/>
-      <c r="E70" s="188"/>
-      <c r="F70" s="189"/>
-      <c r="G70" s="190"/>
-      <c r="H70" s="188"/>
-      <c r="I70" s="190"/>
-      <c r="J70" s="190"/>
-      <c r="K70" s="188"/>
-      <c r="L70" s="188"/>
-      <c r="M70" s="188"/>
-      <c r="N70" s="191"/>
-    </row>
-    <row r="71" spans="1:14">
-      <c r="A71" s="187" t="s">
+      <c r="L65" s="177"/>
+      <c r="M65" s="176"/>
+      <c r="N65" s="166"/>
+    </row>
+    <row r="66" spans="1:14">
+      <c r="A66" s="161"/>
+      <c r="B66" s="164"/>
+      <c r="C66" s="163"/>
+      <c r="D66" s="160"/>
+      <c r="E66" s="164"/>
+      <c r="F66" s="168"/>
+      <c r="G66" s="169"/>
+      <c r="H66" s="164"/>
+      <c r="I66" s="173"/>
+      <c r="J66" s="169"/>
+      <c r="K66" s="164"/>
+      <c r="L66" s="160"/>
+      <c r="M66" s="164"/>
+      <c r="N66" s="161"/>
+    </row>
+    <row r="67" spans="1:14">
+      <c r="A67" s="174"/>
+      <c r="B67" s="92"/>
+      <c r="C67" s="92"/>
+      <c r="D67" s="92"/>
+      <c r="E67" s="92"/>
+      <c r="F67" s="94"/>
+      <c r="G67" s="95"/>
+      <c r="H67" s="92"/>
+      <c r="I67" s="95"/>
+      <c r="J67" s="95"/>
+      <c r="K67" s="92"/>
+      <c r="L67" s="92"/>
+      <c r="M67" s="92"/>
+      <c r="N67" s="159"/>
+    </row>
+    <row r="68" spans="1:14">
+      <c r="A68" s="178" t="s">
         <v>73</v>
       </c>
-      <c r="B71" s="148"/>
-      <c r="C71" s="188"/>
-      <c r="D71" s="188"/>
-      <c r="E71" s="188"/>
-      <c r="F71" s="189"/>
-      <c r="G71" s="190"/>
-      <c r="H71" s="191"/>
-      <c r="I71" s="192" t="s">
+      <c r="B68" s="179"/>
+      <c r="C68" s="179"/>
+      <c r="D68" s="179"/>
+      <c r="E68" s="179"/>
+      <c r="F68" s="180"/>
+      <c r="G68" s="181"/>
+      <c r="H68" s="179"/>
+      <c r="I68" s="181"/>
+      <c r="J68" s="181"/>
+      <c r="K68" s="179"/>
+      <c r="L68" s="179"/>
+      <c r="M68" s="179"/>
+      <c r="N68" s="182"/>
+    </row>
+    <row r="69" spans="1:14">
+      <c r="A69" s="183" t="s">
+        <v>74</v>
+      </c>
+      <c r="B69" s="184"/>
+      <c r="C69" s="184"/>
+      <c r="D69" s="184"/>
+      <c r="E69" s="184"/>
+      <c r="F69" s="185"/>
+      <c r="G69" s="186"/>
+      <c r="H69" s="184"/>
+      <c r="I69" s="186"/>
+      <c r="J69" s="186"/>
+      <c r="K69" s="184"/>
+      <c r="L69" s="184"/>
+      <c r="M69" s="184"/>
+      <c r="N69" s="187"/>
+    </row>
+    <row r="70" spans="1:14">
+      <c r="A70" s="188" t="s">
+        <v>75</v>
+      </c>
+      <c r="B70" s="149"/>
+      <c r="C70" s="189"/>
+      <c r="D70" s="189"/>
+      <c r="E70" s="189"/>
+      <c r="F70" s="190"/>
+      <c r="G70" s="191"/>
+      <c r="H70" s="189"/>
+      <c r="I70" s="191"/>
+      <c r="J70" s="191"/>
+      <c r="K70" s="189"/>
+      <c r="L70" s="189"/>
+      <c r="M70" s="189"/>
+      <c r="N70" s="192"/>
+    </row>
+    <row r="71" spans="1:14">
+      <c r="A71" s="188" t="s">
+        <v>76</v>
+      </c>
+      <c r="B71" s="149"/>
+      <c r="C71" s="189"/>
+      <c r="D71" s="189"/>
+      <c r="E71" s="189"/>
+      <c r="F71" s="190"/>
+      <c r="G71" s="191"/>
+      <c r="H71" s="189"/>
+      <c r="I71" s="191"/>
+      <c r="J71" s="191"/>
+      <c r="K71" s="189"/>
+      <c r="L71" s="189"/>
+      <c r="M71" s="189"/>
+      <c r="N71" s="192"/>
+    </row>
+    <row r="72" spans="1:14">
+      <c r="A72" s="188" t="s">
+        <v>77</v>
+      </c>
+      <c r="B72" s="149"/>
+      <c r="C72" s="189"/>
+      <c r="D72" s="189"/>
+      <c r="E72" s="189"/>
+      <c r="F72" s="190"/>
+      <c r="G72" s="191"/>
+      <c r="H72" s="192"/>
+      <c r="I72" s="193" t="s">
         <v>6</v>
       </c>
-      <c r="J71" s="151"/>
-      <c r="K71" s="188"/>
-      <c r="L71" s="188"/>
-      <c r="M71" s="188"/>
-      <c r="N71" s="191"/>
-    </row>
-    <row r="72" spans="1:14">
-      <c r="A72" s="92"/>
-      <c r="B72" s="92"/>
-      <c r="C72" s="92"/>
-      <c r="D72" s="92"/>
-      <c r="E72" s="92"/>
-      <c r="F72" s="94"/>
-      <c r="G72" s="95"/>
-      <c r="H72" s="92"/>
-      <c r="I72" s="95"/>
-      <c r="J72" s="95"/>
-      <c r="K72" s="92"/>
-      <c r="L72" s="92"/>
-      <c r="M72" s="92"/>
-      <c r="N72" s="92"/>
+      <c r="J72" s="152"/>
+      <c r="K72" s="189"/>
+      <c r="L72" s="189"/>
+      <c r="M72" s="189"/>
+      <c r="N72" s="192"/>
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="92"/>
@@ -15789,19 +15824,19 @@
     <mergeCell ref="E15:N15"/>
     <mergeCell ref="E16:N16"/>
     <mergeCell ref="E17:N17"/>
-    <mergeCell ref="A51:N63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B64:D65"/>
-    <mergeCell ref="E64:G65"/>
-    <mergeCell ref="H64:J65"/>
-    <mergeCell ref="K64:L65"/>
-    <mergeCell ref="M64:N65"/>
-    <mergeCell ref="A67:N67"/>
+    <mergeCell ref="A52:N64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:D66"/>
+    <mergeCell ref="E65:G66"/>
+    <mergeCell ref="H65:J66"/>
+    <mergeCell ref="K65:L66"/>
+    <mergeCell ref="M65:N66"/>
     <mergeCell ref="A68:N68"/>
-    <mergeCell ref="B69:N69"/>
+    <mergeCell ref="A69:N69"/>
     <mergeCell ref="B70:N70"/>
-    <mergeCell ref="B71:H71"/>
-    <mergeCell ref="J71:N71"/>
+    <mergeCell ref="B71:N71"/>
+    <mergeCell ref="B72:H72"/>
+    <mergeCell ref="J72:N72"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.5" right="0.5" top="0" bottom="0.25" header="0.12" footer="0.12"/>

--- a/export_rfq.xlsx
+++ b/export_rfq.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="79">
   <si>
     <t>Republic of the Philippines</t>
   </si>
@@ -46,7 +46,7 @@
     <t>RFQ Number :</t>
   </si>
   <si>
-    <t>2020-0095</t>
+    <t>2020-00100</t>
   </si>
   <si>
     <t>Mode of Procurement:</t>
@@ -55,7 +55,7 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>April 13,   2020</t>
+    <t>May 05,   2020</t>
   </si>
   <si>
     <t>Office/End User:</t>
@@ -67,7 +67,7 @@
     <t>Purpose:</t>
   </si>
   <si>
-    <t xml:space="preserve">Equipment for Audio-Video Conferencing System </t>
+    <t>For the payment for CN 8994 last March 6, 2020</t>
   </si>
   <si>
     <t>Company Name:</t>
@@ -169,9 +169,6 @@
     <t>Approved Budget for the Contract (ABC):</t>
   </si>
   <si>
-    <t>94,010.00</t>
-  </si>
-  <si>
     <t>DR. CARINA S. CRUZ</t>
   </si>
   <si>
@@ -226,32 +223,11 @@
     <t>NO</t>
   </si>
   <si>
-    <t>Portable Speaker
-* 15" 500W Portable Sound System
-* With 2 Wireless Microphone
-* Remote Controlled
-* Rechargeable Built-in-Battery
-* Line-in Guitar Input / Mic
-* Impedance: 4Ohms
-* Frequency Response: 50Hz - 20KHz
-* S/N Ratio : 71dB</t>
+    <t xml:space="preserve">Fuel and Lubricants
+</t>
   </si>
   <si>
-    <t>unit</t>
-  </si>
-  <si>
-    <t>23,000.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laptop
-* Intel Core i7-10510U (1.8 GHz base frequency(2b), up to 4.9 GHz base with Intel® Turbo Boost Technology(2g), 8 MB cache, 4 cores)
-* 8 GB DDR4-2400 SDRAM 
-* 512 GB PCIe NVMe M.2 SSD
-* 4-cell, 53 Wh Li-ion polymer
-* 13.3" diagonal FHD IPS BrightView </t>
-  </si>
-  <si>
-    <t>48,010.00</t>
+    <t>lot</t>
   </si>
   <si>
     <t>REF:  approved and funded PPMP; approved and funded Activity Design	
@@ -271,6 +247,26 @@
   </si>
   <si>
     <t>Kindly send your quotation/ proposal within three days after the receiving of RFQ.
+Other Instruction:</t>
+  </si>
+  <si>
+    <t>Guaranteed payment of 75% out of total number of target participants.
+Other Instruction:</t>
+  </si>
+  <si>
+    <t>Free use of Function Room, Wi-Fi, Sound System, Projector and Extensions Cords.
+Other Instruction:</t>
+  </si>
+  <si>
+    <t>Free Flowing Coffee with candies and chips.
+Other Instruction:</t>
+  </si>
+  <si>
+    <t>Maximum Triple/Quad Sharing Per Room.
+Other Instruction:</t>
+  </si>
+  <si>
+    <t>Free on room for Secretariat
 Other Instruction:</t>
   </si>
   <si>
@@ -606,17 +602,6 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -632,11 +617,22 @@
         <color rgb="FF000000"/>
       </right>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="194">
+  <cellXfs count="197">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -940,7 +936,103 @@
     <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="164" fillId="3" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="3" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="3" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="3" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="3" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="3" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="3" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="3" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="16" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="165" fillId="3" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="3" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="3" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="165" fillId="3" borderId="4" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="165" fillId="3" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="165" fillId="3" borderId="14" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="165" fillId="3" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -955,7 +1047,7 @@
     <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" quotePrefix="1" numFmtId="15" fillId="2" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="1" quotePrefix="1" numFmtId="15" fillId="2" borderId="15" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" quotePrefix="1" numFmtId="15" fillId="2" borderId="6" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -964,7 +1056,7 @@
     <xf xfId="0" fontId="1" quotePrefix="1" numFmtId="15" fillId="2" borderId="9" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="3" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="3" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="15" numFmtId="0" fillId="3" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -976,116 +1068,20 @@
     <xf xfId="0" fontId="15" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="5" numFmtId="167" fillId="4" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="15" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="15" numFmtId="164" fillId="3" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="3" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="3" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="3" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="3" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="3" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="3" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="3" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="16" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="165" fillId="3" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="3" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="3" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="165" fillId="3" borderId="4" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="165" fillId="3" borderId="14" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="165" fillId="3" borderId="15" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="165" fillId="3" borderId="14" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -1093,7 +1089,7 @@
     <xf xfId="0" fontId="4" numFmtId="166" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="15" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -1120,7 +1116,7 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="5" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1130,27 +1126,30 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="2" numFmtId="166" fillId="2" borderId="3" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="165" fillId="2" borderId="12" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="166" fillId="2" borderId="10" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="165" fillId="2" borderId="11" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="166" fillId="2" borderId="10" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="11" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="5" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1159,20 +1158,23 @@
     <xf xfId="0" fontId="2" numFmtId="165" fillId="2" borderId="3" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="10" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="bottom" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="165" fillId="2" borderId="10" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="bottom" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="5" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="5" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="5" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="5" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -1186,8 +1188,11 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="5" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="5" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="5" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="5" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="5" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -1616,7 +1621,7 @@
   <dimension ref="A1:N877"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="145" zoomScaleNormal="55" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="N72" sqref="N72"/>
+      <selection activeCell="N71" sqref="N71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="9.109375" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1792,11 +1797,11 @@
       <c r="K12" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="101" t="s">
+      <c r="L12" s="133" t="s">
         <v>4</v>
       </c>
-      <c r="M12" s="102"/>
-      <c r="N12" s="103"/>
+      <c r="M12" s="134"/>
+      <c r="N12" s="135"/>
     </row>
     <row r="13" spans="1:14" customHeight="1" ht="15.75">
       <c r="A13" s="9"/>
@@ -1805,19 +1810,19 @@
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
-      <c r="F13" s="104"/>
-      <c r="G13" s="104"/>
-      <c r="H13" s="104"/>
-      <c r="I13" s="104"/>
-      <c r="J13" s="105"/>
+      <c r="F13" s="136"/>
+      <c r="G13" s="136"/>
+      <c r="H13" s="136"/>
+      <c r="I13" s="136"/>
+      <c r="J13" s="137"/>
       <c r="K13" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="L13" s="106" t="s">
+      <c r="L13" s="138" t="s">
         <v>7</v>
       </c>
-      <c r="M13" s="107"/>
-      <c r="N13" s="108"/>
+      <c r="M13" s="139"/>
+      <c r="N13" s="140"/>
     </row>
     <row r="14" spans="1:14" customHeight="1" ht="4.5">
       <c r="A14" s="12"/>
@@ -1836,70 +1841,70 @@
       <c r="N14" s="21"/>
     </row>
     <row r="15" spans="1:14" customHeight="1" ht="12.9">
-      <c r="A15" s="115" t="s">
+      <c r="A15" s="146" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="115"/>
-      <c r="C15" s="115"/>
-      <c r="D15" s="115"/>
-      <c r="E15" s="101" t="s">
+      <c r="B15" s="146"/>
+      <c r="C15" s="146"/>
+      <c r="D15" s="146"/>
+      <c r="E15" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="102"/>
-      <c r="G15" s="102"/>
-      <c r="H15" s="102"/>
-      <c r="I15" s="102"/>
-      <c r="J15" s="102"/>
-      <c r="K15" s="102"/>
-      <c r="L15" s="102"/>
-      <c r="M15" s="102"/>
-      <c r="N15" s="103"/>
+      <c r="F15" s="134"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="134"/>
+      <c r="I15" s="134"/>
+      <c r="J15" s="134"/>
+      <c r="K15" s="134"/>
+      <c r="L15" s="134"/>
+      <c r="M15" s="134"/>
+      <c r="N15" s="135"/>
     </row>
     <row r="16" spans="1:14" customHeight="1" ht="12.9">
-      <c r="A16" s="115" t="s">
+      <c r="A16" s="146" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="115"/>
-      <c r="C16" s="115"/>
-      <c r="D16" s="115"/>
-      <c r="E16" s="101" t="s">
+      <c r="B16" s="146"/>
+      <c r="C16" s="146"/>
+      <c r="D16" s="146"/>
+      <c r="E16" s="133" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="102"/>
-      <c r="G16" s="102"/>
-      <c r="H16" s="102"/>
-      <c r="I16" s="102"/>
-      <c r="J16" s="102"/>
-      <c r="K16" s="102"/>
-      <c r="L16" s="102"/>
-      <c r="M16" s="102"/>
-      <c r="N16" s="103"/>
+      <c r="F16" s="134"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="134"/>
+      <c r="I16" s="134"/>
+      <c r="J16" s="134"/>
+      <c r="K16" s="134"/>
+      <c r="L16" s="134"/>
+      <c r="M16" s="134"/>
+      <c r="N16" s="135"/>
     </row>
     <row r="17" spans="1:14" customHeight="1" ht="12.9">
-      <c r="A17" s="115" t="s">
+      <c r="A17" s="146" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="115"/>
-      <c r="C17" s="115"/>
-      <c r="D17" s="115"/>
-      <c r="E17" s="101"/>
-      <c r="F17" s="102"/>
-      <c r="G17" s="102"/>
-      <c r="H17" s="102"/>
-      <c r="I17" s="102"/>
-      <c r="J17" s="102"/>
-      <c r="K17" s="102"/>
-      <c r="L17" s="102"/>
-      <c r="M17" s="102"/>
-      <c r="N17" s="103"/>
+      <c r="B17" s="146"/>
+      <c r="C17" s="146"/>
+      <c r="D17" s="146"/>
+      <c r="E17" s="133"/>
+      <c r="F17" s="134"/>
+      <c r="G17" s="134"/>
+      <c r="H17" s="134"/>
+      <c r="I17" s="134"/>
+      <c r="J17" s="134"/>
+      <c r="K17" s="134"/>
+      <c r="L17" s="134"/>
+      <c r="M17" s="134"/>
+      <c r="N17" s="135"/>
     </row>
     <row r="18" spans="1:14" customHeight="1" ht="12.9">
-      <c r="A18" s="115" t="s">
+      <c r="A18" s="146" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="115"/>
-      <c r="C18" s="115"/>
-      <c r="D18" s="115"/>
+      <c r="B18" s="146"/>
+      <c r="C18" s="146"/>
+      <c r="D18" s="146"/>
       <c r="E18" s="40"/>
       <c r="F18" s="40"/>
       <c r="G18" s="40"/>
@@ -1912,12 +1917,12 @@
       <c r="N18" s="41"/>
     </row>
     <row r="19" spans="1:14" customHeight="1" ht="12.9">
-      <c r="A19" s="115" t="s">
+      <c r="A19" s="146" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="115"/>
-      <c r="C19" s="115"/>
-      <c r="D19" s="115"/>
+      <c r="B19" s="146"/>
+      <c r="C19" s="146"/>
+      <c r="D19" s="146"/>
       <c r="E19" s="40"/>
       <c r="F19" s="40"/>
       <c r="G19" s="40"/>
@@ -1930,12 +1935,12 @@
       <c r="N19" s="41"/>
     </row>
     <row r="20" spans="1:14" customHeight="1" ht="12.9">
-      <c r="A20" s="115" t="s">
+      <c r="A20" s="146" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="115"/>
-      <c r="C20" s="115"/>
-      <c r="D20" s="115"/>
+      <c r="B20" s="146"/>
+      <c r="C20" s="146"/>
+      <c r="D20" s="146"/>
       <c r="E20" s="40"/>
       <c r="F20" s="40"/>
       <c r="G20" s="40"/>
@@ -1984,38 +1989,38 @@
       <c r="N22" s="64"/>
     </row>
     <row r="23" spans="1:14" customHeight="1" ht="8.25">
-      <c r="A23" s="112" t="s">
+      <c r="A23" s="144" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="112"/>
-      <c r="C23" s="112"/>
-      <c r="D23" s="112"/>
-      <c r="E23" s="112"/>
-      <c r="F23" s="112"/>
-      <c r="G23" s="112"/>
-      <c r="H23" s="112"/>
-      <c r="I23" s="112"/>
-      <c r="J23" s="112"/>
-      <c r="K23" s="112"/>
-      <c r="L23" s="112"/>
-      <c r="M23" s="112"/>
-      <c r="N23" s="112"/>
+      <c r="B23" s="144"/>
+      <c r="C23" s="144"/>
+      <c r="D23" s="144"/>
+      <c r="E23" s="144"/>
+      <c r="F23" s="144"/>
+      <c r="G23" s="144"/>
+      <c r="H23" s="144"/>
+      <c r="I23" s="144"/>
+      <c r="J23" s="144"/>
+      <c r="K23" s="144"/>
+      <c r="L23" s="144"/>
+      <c r="M23" s="144"/>
+      <c r="N23" s="144"/>
     </row>
     <row r="24" spans="1:14" customHeight="1" ht="12.9">
-      <c r="A24" s="112"/>
-      <c r="B24" s="112"/>
-      <c r="C24" s="112"/>
-      <c r="D24" s="112"/>
-      <c r="E24" s="112"/>
-      <c r="F24" s="112"/>
-      <c r="G24" s="112"/>
-      <c r="H24" s="112"/>
-      <c r="I24" s="112"/>
-      <c r="J24" s="112"/>
-      <c r="K24" s="112"/>
-      <c r="L24" s="112"/>
-      <c r="M24" s="112"/>
-      <c r="N24" s="112"/>
+      <c r="A24" s="144"/>
+      <c r="B24" s="144"/>
+      <c r="C24" s="144"/>
+      <c r="D24" s="144"/>
+      <c r="E24" s="144"/>
+      <c r="F24" s="144"/>
+      <c r="G24" s="144"/>
+      <c r="H24" s="144"/>
+      <c r="I24" s="144"/>
+      <c r="J24" s="144"/>
+      <c r="K24" s="144"/>
+      <c r="L24" s="144"/>
+      <c r="M24" s="144"/>
+      <c r="N24" s="144"/>
     </row>
     <row r="25" spans="1:14" customHeight="1" ht="12">
       <c r="A25" s="23" t="s">
@@ -2276,18 +2281,18 @@
       <c r="N37" s="83"/>
     </row>
     <row r="38" spans="1:14" customHeight="1" ht="12.9">
-      <c r="A38" s="113" t="s">
+      <c r="A38" s="102" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="113"/>
-      <c r="C38" s="113"/>
-      <c r="D38" s="113"/>
-      <c r="E38" s="114" t="s">
-        <v>45</v>
+      <c r="B38" s="102"/>
+      <c r="C38" s="102"/>
+      <c r="D38" s="102"/>
+      <c r="E38" s="145">
+        <v>528</v>
       </c>
-      <c r="F38" s="114"/>
-      <c r="G38" s="114"/>
-      <c r="H38" s="114"/>
+      <c r="F38" s="145"/>
+      <c r="G38" s="145"/>
+      <c r="H38" s="145"/>
       <c r="I38" s="84"/>
       <c r="J38" s="84"/>
       <c r="K38" s="85"/>
@@ -2296,14 +2301,14 @@
       <c r="N38" s="86"/>
     </row>
     <row r="39" spans="1:14" customHeight="1" ht="12.9">
-      <c r="A39" s="113"/>
-      <c r="B39" s="113"/>
-      <c r="C39" s="113"/>
-      <c r="D39" s="113"/>
-      <c r="E39" s="114"/>
-      <c r="F39" s="114"/>
-      <c r="G39" s="114"/>
-      <c r="H39" s="114"/>
+      <c r="A39" s="102"/>
+      <c r="B39" s="102"/>
+      <c r="C39" s="102"/>
+      <c r="D39" s="102"/>
+      <c r="E39" s="145"/>
+      <c r="F39" s="145"/>
+      <c r="G39" s="145"/>
+      <c r="H39" s="145"/>
       <c r="I39" s="87"/>
       <c r="J39" s="87"/>
       <c r="K39" s="43"/>
@@ -2312,35 +2317,35 @@
       <c r="N39" s="88"/>
     </row>
     <row r="40" spans="1:14" customHeight="1" ht="12.9">
-      <c r="A40" s="113"/>
-      <c r="B40" s="113"/>
-      <c r="C40" s="113"/>
-      <c r="D40" s="113"/>
-      <c r="E40" s="114"/>
-      <c r="F40" s="114"/>
-      <c r="G40" s="114"/>
-      <c r="H40" s="114"/>
+      <c r="A40" s="102"/>
+      <c r="B40" s="102"/>
+      <c r="C40" s="102"/>
+      <c r="D40" s="102"/>
+      <c r="E40" s="145"/>
+      <c r="F40" s="145"/>
+      <c r="G40" s="145"/>
+      <c r="H40" s="145"/>
       <c r="I40" s="89"/>
       <c r="J40" s="89"/>
       <c r="K40" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L40" s="18"/>
       <c r="M40" s="18"/>
       <c r="N40" s="88"/>
     </row>
     <row r="41" spans="1:14" customHeight="1" ht="12.75">
-      <c r="A41" s="113"/>
-      <c r="B41" s="113"/>
-      <c r="C41" s="113"/>
-      <c r="D41" s="113"/>
-      <c r="E41" s="114"/>
-      <c r="F41" s="114"/>
-      <c r="G41" s="114"/>
-      <c r="H41" s="114"/>
+      <c r="A41" s="102"/>
+      <c r="B41" s="102"/>
+      <c r="C41" s="102"/>
+      <c r="D41" s="102"/>
+      <c r="E41" s="145"/>
+      <c r="F41" s="145"/>
+      <c r="G41" s="145"/>
+      <c r="H41" s="145"/>
       <c r="I41" s="90"/>
       <c r="J41" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K41" s="19"/>
       <c r="L41" s="19"/>
@@ -2348,176 +2353,178 @@
       <c r="N41" s="91"/>
     </row>
     <row r="42" spans="1:14" customHeight="1" ht="4.5">
-      <c r="A42" s="109"/>
-      <c r="B42" s="110"/>
-      <c r="C42" s="110"/>
-      <c r="D42" s="110"/>
-      <c r="E42" s="110"/>
-      <c r="F42" s="110"/>
-      <c r="G42" s="110"/>
-      <c r="H42" s="110"/>
-      <c r="I42" s="110"/>
-      <c r="J42" s="110"/>
-      <c r="K42" s="110"/>
-      <c r="L42" s="110"/>
-      <c r="M42" s="110"/>
-      <c r="N42" s="111"/>
+      <c r="A42" s="141"/>
+      <c r="B42" s="142"/>
+      <c r="C42" s="142"/>
+      <c r="D42" s="142"/>
+      <c r="E42" s="142"/>
+      <c r="F42" s="142"/>
+      <c r="G42" s="142"/>
+      <c r="H42" s="142"/>
+      <c r="I42" s="142"/>
+      <c r="J42" s="142"/>
+      <c r="K42" s="142"/>
+      <c r="L42" s="142"/>
+      <c r="M42" s="142"/>
+      <c r="N42" s="143"/>
     </row>
     <row r="43" spans="1:14" customHeight="1" ht="14.25">
-      <c r="A43" s="113" t="s">
+      <c r="A43" s="102" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" s="104" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="117" t="s">
+      <c r="C43" s="105"/>
+      <c r="D43" s="106"/>
+      <c r="E43" s="103" t="s">
         <v>49</v>
       </c>
-      <c r="C43" s="118"/>
-      <c r="D43" s="119"/>
-      <c r="E43" s="116" t="s">
+      <c r="F43" s="102" t="s">
         <v>50</v>
       </c>
-      <c r="F43" s="113" t="s">
+      <c r="G43" s="118" t="s">
         <v>51</v>
       </c>
-      <c r="G43" s="131" t="s">
+      <c r="H43" s="116" t="s">
         <v>52</v>
       </c>
-      <c r="H43" s="129" t="s">
+      <c r="I43" s="116"/>
+      <c r="J43" s="116"/>
+      <c r="K43" s="116"/>
+      <c r="L43" s="116"/>
+      <c r="M43" s="116"/>
+      <c r="N43" s="117"/>
+    </row>
+    <row r="44" spans="1:14" customHeight="1" ht="12.75">
+      <c r="A44" s="102"/>
+      <c r="B44" s="107"/>
+      <c r="C44" s="108"/>
+      <c r="D44" s="109"/>
+      <c r="E44" s="103"/>
+      <c r="F44" s="102"/>
+      <c r="G44" s="118"/>
+      <c r="H44" s="114" t="s">
         <v>53</v>
       </c>
-      <c r="I43" s="129"/>
-      <c r="J43" s="129"/>
-      <c r="K43" s="129"/>
-      <c r="L43" s="129"/>
-      <c r="M43" s="129"/>
-      <c r="N43" s="130"/>
-    </row>
-    <row r="44" spans="1:14" customHeight="1" ht="12.75">
-      <c r="A44" s="113"/>
-      <c r="B44" s="120"/>
-      <c r="C44" s="121"/>
-      <c r="D44" s="122"/>
-      <c r="E44" s="116"/>
-      <c r="F44" s="113"/>
-      <c r="G44" s="131"/>
-      <c r="H44" s="127" t="s">
+      <c r="I44" s="115"/>
+      <c r="J44" s="115"/>
+      <c r="K44" s="113" t="s">
         <v>54</v>
       </c>
-      <c r="I44" s="128"/>
-      <c r="J44" s="128"/>
-      <c r="K44" s="126" t="s">
+      <c r="L44" s="113"/>
+      <c r="M44" s="119" t="s">
         <v>55</v>
       </c>
-      <c r="L44" s="126"/>
-      <c r="M44" s="132" t="s">
+      <c r="N44" s="120"/>
+    </row>
+    <row r="45" spans="1:14" customHeight="1" ht="12.75">
+      <c r="A45" s="102"/>
+      <c r="B45" s="107"/>
+      <c r="C45" s="108"/>
+      <c r="D45" s="109"/>
+      <c r="E45" s="103"/>
+      <c r="F45" s="102"/>
+      <c r="G45" s="118"/>
+      <c r="H45" s="114"/>
+      <c r="I45" s="115"/>
+      <c r="J45" s="115"/>
+      <c r="K45" s="113"/>
+      <c r="L45" s="113"/>
+      <c r="M45" s="121"/>
+      <c r="N45" s="122"/>
+    </row>
+    <row r="46" spans="1:14" customHeight="1" ht="12.75">
+      <c r="A46" s="102"/>
+      <c r="B46" s="107"/>
+      <c r="C46" s="108"/>
+      <c r="D46" s="109"/>
+      <c r="E46" s="103"/>
+      <c r="F46" s="102"/>
+      <c r="G46" s="118"/>
+      <c r="H46" s="114"/>
+      <c r="I46" s="115"/>
+      <c r="J46" s="115"/>
+      <c r="K46" s="113"/>
+      <c r="L46" s="113"/>
+      <c r="M46" s="121"/>
+      <c r="N46" s="122"/>
+    </row>
+    <row r="47" spans="1:14" customHeight="1" ht="12.75">
+      <c r="A47" s="102"/>
+      <c r="B47" s="107"/>
+      <c r="C47" s="108"/>
+      <c r="D47" s="109"/>
+      <c r="E47" s="103"/>
+      <c r="F47" s="102"/>
+      <c r="G47" s="118"/>
+      <c r="H47" s="114"/>
+      <c r="I47" s="115"/>
+      <c r="J47" s="115"/>
+      <c r="K47" s="113"/>
+      <c r="L47" s="113"/>
+      <c r="M47" s="121"/>
+      <c r="N47" s="122"/>
+    </row>
+    <row r="48" spans="1:14" customHeight="1" ht="14.1">
+      <c r="A48" s="102"/>
+      <c r="B48" s="107"/>
+      <c r="C48" s="108"/>
+      <c r="D48" s="109"/>
+      <c r="E48" s="103"/>
+      <c r="F48" s="102"/>
+      <c r="G48" s="118"/>
+      <c r="H48" s="125" t="s">
         <v>56</v>
       </c>
-      <c r="N44" s="133"/>
-    </row>
-    <row r="45" spans="1:14" customHeight="1" ht="12.75">
-      <c r="A45" s="113"/>
-      <c r="B45" s="120"/>
-      <c r="C45" s="121"/>
-      <c r="D45" s="122"/>
-      <c r="E45" s="116"/>
-      <c r="F45" s="113"/>
-      <c r="G45" s="131"/>
-      <c r="H45" s="127"/>
-      <c r="I45" s="128"/>
-      <c r="J45" s="128"/>
-      <c r="K45" s="126"/>
-      <c r="L45" s="126"/>
-      <c r="M45" s="134"/>
-      <c r="N45" s="135"/>
-    </row>
-    <row r="46" spans="1:14" customHeight="1" ht="12.75">
-      <c r="A46" s="113"/>
-      <c r="B46" s="120"/>
-      <c r="C46" s="121"/>
-      <c r="D46" s="122"/>
-      <c r="E46" s="116"/>
-      <c r="F46" s="113"/>
-      <c r="G46" s="131"/>
-      <c r="H46" s="127"/>
-      <c r="I46" s="128"/>
-      <c r="J46" s="128"/>
-      <c r="K46" s="126"/>
-      <c r="L46" s="126"/>
-      <c r="M46" s="134"/>
-      <c r="N46" s="135"/>
-    </row>
-    <row r="47" spans="1:14" customHeight="1" ht="12.75">
-      <c r="A47" s="113"/>
-      <c r="B47" s="120"/>
-      <c r="C47" s="121"/>
-      <c r="D47" s="122"/>
-      <c r="E47" s="116"/>
-      <c r="F47" s="113"/>
-      <c r="G47" s="131"/>
-      <c r="H47" s="127"/>
-      <c r="I47" s="128"/>
-      <c r="J47" s="128"/>
-      <c r="K47" s="126"/>
-      <c r="L47" s="126"/>
-      <c r="M47" s="134"/>
-      <c r="N47" s="135"/>
-    </row>
-    <row r="48" spans="1:14" customHeight="1" ht="14.1">
-      <c r="A48" s="113"/>
-      <c r="B48" s="120"/>
-      <c r="C48" s="121"/>
-      <c r="D48" s="122"/>
-      <c r="E48" s="116"/>
-      <c r="F48" s="113"/>
-      <c r="G48" s="131"/>
-      <c r="H48" s="138" t="s">
+      <c r="I48" s="127" t="s">
         <v>57</v>
       </c>
-      <c r="I48" s="140" t="s">
+      <c r="J48" s="129" t="s">
         <v>58</v>
       </c>
-      <c r="J48" s="142" t="s">
+      <c r="K48" s="131" t="s">
         <v>59</v>
       </c>
-      <c r="K48" s="144" t="s">
+      <c r="L48" s="132" t="s">
         <v>60</v>
       </c>
-      <c r="L48" s="145" t="s">
+      <c r="M48" s="121"/>
+      <c r="N48" s="122"/>
+    </row>
+    <row r="49" spans="1:14" customHeight="1" ht="13.5">
+      <c r="A49" s="102"/>
+      <c r="B49" s="110"/>
+      <c r="C49" s="111"/>
+      <c r="D49" s="112"/>
+      <c r="E49" s="103"/>
+      <c r="F49" s="102"/>
+      <c r="G49" s="118"/>
+      <c r="H49" s="126"/>
+      <c r="I49" s="128"/>
+      <c r="J49" s="130"/>
+      <c r="K49" s="132"/>
+      <c r="L49" s="115"/>
+      <c r="M49" s="123"/>
+      <c r="N49" s="124"/>
+    </row>
+    <row r="50" spans="1:14">
+      <c r="A50" s="147">
+        <v>1</v>
+      </c>
+      <c r="B50" s="149" t="s">
         <v>61</v>
       </c>
-      <c r="M48" s="134"/>
-      <c r="N48" s="135"/>
-    </row>
-    <row r="49" spans="1:14" customHeight="1" ht="13.5">
-      <c r="A49" s="113"/>
-      <c r="B49" s="123"/>
-      <c r="C49" s="124"/>
-      <c r="D49" s="125"/>
-      <c r="E49" s="116"/>
-      <c r="F49" s="113"/>
-      <c r="G49" s="131"/>
-      <c r="H49" s="139"/>
-      <c r="I49" s="141"/>
-      <c r="J49" s="143"/>
-      <c r="K49" s="145"/>
-      <c r="L49" s="128"/>
-      <c r="M49" s="136"/>
-      <c r="N49" s="137"/>
-    </row>
-    <row r="50" spans="1:14">
-      <c r="A50" s="146"/>
-      <c r="B50" s="148" t="s">
+      <c r="C50" s="148"/>
+      <c r="D50" s="148"/>
+      <c r="E50" s="150">
+        <v>11</v>
+      </c>
+      <c r="F50" s="151" t="s">
         <v>62</v>
       </c>
-      <c r="C50" s="147"/>
-      <c r="D50" s="147"/>
-      <c r="E50" s="150">
-        <v>2</v>
-      </c>
-      <c r="F50" s="151" t="s">
-        <v>63</v>
-      </c>
-      <c r="G50" s="153" t="s">
-        <v>64</v>
+      <c r="G50" s="153">
+        <v>48</v>
       </c>
       <c r="H50" s="150"/>
       <c r="I50" s="153"/>
@@ -2528,32 +2535,26 @@
       <c r="N50" s="150"/>
     </row>
     <row r="51" spans="1:14">
-      <c r="A51" s="150"/>
-      <c r="B51" s="148" t="s">
-        <v>65</v>
-      </c>
-      <c r="C51" s="147"/>
-      <c r="D51" s="147"/>
-      <c r="E51" s="150">
-        <v>1</v>
-      </c>
-      <c r="F51" s="151" t="s">
+      <c r="A51" s="158" t="s">
         <v>63</v>
       </c>
-      <c r="G51" s="153" t="s">
-        <v>66</v>
-      </c>
-      <c r="H51" s="150"/>
-      <c r="I51" s="153"/>
-      <c r="J51" s="153"/>
-      <c r="K51" s="150"/>
-      <c r="L51" s="150"/>
-      <c r="M51" s="150"/>
-      <c r="N51" s="150"/>
+      <c r="B51" s="100"/>
+      <c r="C51" s="100"/>
+      <c r="D51" s="100"/>
+      <c r="E51" s="100"/>
+      <c r="F51" s="154"/>
+      <c r="G51" s="155"/>
+      <c r="H51" s="100"/>
+      <c r="I51" s="155"/>
+      <c r="J51" s="155"/>
+      <c r="K51" s="100"/>
+      <c r="L51" s="100"/>
+      <c r="M51" s="100"/>
+      <c r="N51" s="156"/>
     </row>
     <row r="52" spans="1:14">
-      <c r="A52" s="158" t="s">
-        <v>67</v>
+      <c r="A52" s="157" t="s">
+        <v>64</v>
       </c>
       <c r="B52" s="100"/>
       <c r="C52" s="100"/>
@@ -2571,7 +2572,7 @@
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="157" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B53" s="100"/>
       <c r="C53" s="100"/>
@@ -2589,7 +2590,7 @@
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="157" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B54" s="100"/>
       <c r="C54" s="100"/>
@@ -2606,7 +2607,9 @@
       <c r="N54" s="156"/>
     </row>
     <row r="55" spans="1:14">
-      <c r="A55" s="157"/>
+      <c r="A55" s="157" t="s">
+        <v>67</v>
+      </c>
       <c r="B55" s="100"/>
       <c r="C55" s="100"/>
       <c r="D55" s="100"/>
@@ -2622,7 +2625,9 @@
       <c r="N55" s="156"/>
     </row>
     <row r="56" spans="1:14">
-      <c r="A56" s="157"/>
+      <c r="A56" s="157" t="s">
+        <v>68</v>
+      </c>
       <c r="B56" s="100"/>
       <c r="C56" s="100"/>
       <c r="D56" s="100"/>
@@ -2638,7 +2643,9 @@
       <c r="N56" s="156"/>
     </row>
     <row r="57" spans="1:14">
-      <c r="A57" s="157"/>
+      <c r="A57" s="157" t="s">
+        <v>69</v>
+      </c>
       <c r="B57" s="100"/>
       <c r="C57" s="100"/>
       <c r="D57" s="100"/>
@@ -2654,7 +2661,9 @@
       <c r="N57" s="156"/>
     </row>
     <row r="58" spans="1:14">
-      <c r="A58" s="157"/>
+      <c r="A58" s="157" t="s">
+        <v>70</v>
+      </c>
       <c r="B58" s="100"/>
       <c r="C58" s="100"/>
       <c r="D58" s="100"/>
@@ -2750,170 +2759,170 @@
       <c r="N63" s="156"/>
     </row>
     <row r="64" spans="1:14">
-      <c r="A64" s="157"/>
-      <c r="B64" s="100"/>
-      <c r="C64" s="100"/>
-      <c r="D64" s="100"/>
-      <c r="E64" s="100"/>
-      <c r="F64" s="154"/>
-      <c r="G64" s="155"/>
-      <c r="H64" s="100"/>
-      <c r="I64" s="155"/>
-      <c r="J64" s="155"/>
-      <c r="K64" s="100"/>
-      <c r="L64" s="100"/>
-      <c r="M64" s="100"/>
-      <c r="N64" s="156"/>
-    </row>
-    <row r="65" spans="1:14">
-      <c r="A65" s="162" t="s">
-        <v>70</v>
-      </c>
-      <c r="B65" s="167"/>
-      <c r="C65" s="165"/>
-      <c r="D65" s="166"/>
-      <c r="E65" s="172" t="s">
+      <c r="A64" s="162" t="s">
         <v>71</v>
       </c>
-      <c r="F65" s="170"/>
-      <c r="G65" s="171"/>
-      <c r="H65" s="176"/>
-      <c r="I65" s="175"/>
-      <c r="J65" s="171"/>
-      <c r="K65" s="172" t="s">
+      <c r="B64" s="165"/>
+      <c r="C64" s="166"/>
+      <c r="D64" s="167"/>
+      <c r="E64" s="173" t="s">
         <v>72</v>
       </c>
-      <c r="L65" s="177"/>
-      <c r="M65" s="176"/>
-      <c r="N65" s="166"/>
-    </row>
-    <row r="66" spans="1:14">
-      <c r="A66" s="161"/>
-      <c r="B66" s="164"/>
-      <c r="C66" s="163"/>
-      <c r="D66" s="160"/>
-      <c r="E66" s="164"/>
-      <c r="F66" s="168"/>
-      <c r="G66" s="169"/>
-      <c r="H66" s="164"/>
-      <c r="I66" s="173"/>
-      <c r="J66" s="169"/>
-      <c r="K66" s="164"/>
-      <c r="L66" s="160"/>
-      <c r="M66" s="164"/>
-      <c r="N66" s="161"/>
-    </row>
-    <row r="67" spans="1:14">
-      <c r="A67" s="174"/>
-      <c r="B67" s="92"/>
-      <c r="C67" s="92"/>
-      <c r="D67" s="92"/>
-      <c r="E67" s="92"/>
-      <c r="F67" s="94"/>
-      <c r="G67" s="95"/>
-      <c r="H67" s="92"/>
-      <c r="I67" s="95"/>
-      <c r="J67" s="95"/>
-      <c r="K67" s="92"/>
-      <c r="L67" s="92"/>
-      <c r="M67" s="92"/>
-      <c r="N67" s="159"/>
-    </row>
-    <row r="68" spans="1:14">
-      <c r="A68" s="178" t="s">
+      <c r="F64" s="171"/>
+      <c r="G64" s="172"/>
+      <c r="H64" s="175"/>
+      <c r="I64" s="176"/>
+      <c r="J64" s="172"/>
+      <c r="K64" s="173" t="s">
         <v>73</v>
       </c>
-      <c r="B68" s="179"/>
-      <c r="C68" s="179"/>
-      <c r="D68" s="179"/>
-      <c r="E68" s="179"/>
-      <c r="F68" s="180"/>
-      <c r="G68" s="181"/>
-      <c r="H68" s="179"/>
-      <c r="I68" s="181"/>
-      <c r="J68" s="181"/>
-      <c r="K68" s="179"/>
-      <c r="L68" s="179"/>
-      <c r="M68" s="179"/>
-      <c r="N68" s="182"/>
-    </row>
-    <row r="69" spans="1:14">
-      <c r="A69" s="183" t="s">
+      <c r="L64" s="177"/>
+      <c r="M64" s="175"/>
+      <c r="N64" s="167"/>
+    </row>
+    <row r="65" spans="1:14">
+      <c r="A65" s="161"/>
+      <c r="B65" s="164"/>
+      <c r="C65" s="163"/>
+      <c r="D65" s="160"/>
+      <c r="E65" s="170"/>
+      <c r="F65" s="168"/>
+      <c r="G65" s="169"/>
+      <c r="H65" s="170"/>
+      <c r="I65" s="174"/>
+      <c r="J65" s="169"/>
+      <c r="K65" s="170"/>
+      <c r="L65" s="160"/>
+      <c r="M65" s="170"/>
+      <c r="N65" s="161"/>
+    </row>
+    <row r="66" spans="1:14">
+      <c r="A66" s="178"/>
+      <c r="B66" s="92"/>
+      <c r="C66" s="92"/>
+      <c r="D66" s="92"/>
+      <c r="E66" s="92"/>
+      <c r="F66" s="94"/>
+      <c r="G66" s="95"/>
+      <c r="H66" s="92"/>
+      <c r="I66" s="95"/>
+      <c r="J66" s="95"/>
+      <c r="K66" s="92"/>
+      <c r="L66" s="92"/>
+      <c r="M66" s="92"/>
+      <c r="N66" s="159"/>
+    </row>
+    <row r="67" spans="1:14">
+      <c r="A67" s="179" t="s">
         <v>74</v>
       </c>
-      <c r="B69" s="184"/>
-      <c r="C69" s="184"/>
-      <c r="D69" s="184"/>
-      <c r="E69" s="184"/>
-      <c r="F69" s="185"/>
-      <c r="G69" s="186"/>
-      <c r="H69" s="184"/>
-      <c r="I69" s="186"/>
-      <c r="J69" s="186"/>
-      <c r="K69" s="184"/>
-      <c r="L69" s="184"/>
-      <c r="M69" s="184"/>
-      <c r="N69" s="187"/>
-    </row>
-    <row r="70" spans="1:14">
-      <c r="A70" s="188" t="s">
+      <c r="B67" s="180"/>
+      <c r="C67" s="181"/>
+      <c r="D67" s="181"/>
+      <c r="E67" s="181"/>
+      <c r="F67" s="182"/>
+      <c r="G67" s="183"/>
+      <c r="H67" s="181"/>
+      <c r="I67" s="183"/>
+      <c r="J67" s="183"/>
+      <c r="K67" s="181"/>
+      <c r="L67" s="181"/>
+      <c r="M67" s="181"/>
+      <c r="N67" s="184"/>
+    </row>
+    <row r="68" spans="1:14">
+      <c r="A68" s="185" t="s">
         <v>75</v>
       </c>
-      <c r="B70" s="149"/>
-      <c r="C70" s="189"/>
-      <c r="D70" s="189"/>
-      <c r="E70" s="189"/>
-      <c r="F70" s="190"/>
-      <c r="G70" s="191"/>
-      <c r="H70" s="189"/>
-      <c r="I70" s="191"/>
-      <c r="J70" s="191"/>
-      <c r="K70" s="189"/>
-      <c r="L70" s="189"/>
-      <c r="M70" s="189"/>
-      <c r="N70" s="192"/>
-    </row>
-    <row r="71" spans="1:14">
-      <c r="A71" s="188" t="s">
+      <c r="B68" s="186"/>
+      <c r="C68" s="187"/>
+      <c r="D68" s="187"/>
+      <c r="E68" s="187"/>
+      <c r="F68" s="188"/>
+      <c r="G68" s="189"/>
+      <c r="H68" s="187"/>
+      <c r="I68" s="189"/>
+      <c r="J68" s="189"/>
+      <c r="K68" s="187"/>
+      <c r="L68" s="187"/>
+      <c r="M68" s="187"/>
+      <c r="N68" s="190"/>
+    </row>
+    <row r="69" spans="1:14">
+      <c r="A69" s="191" t="s">
         <v>76</v>
       </c>
-      <c r="B71" s="149"/>
-      <c r="C71" s="189"/>
-      <c r="D71" s="189"/>
-      <c r="E71" s="189"/>
-      <c r="F71" s="190"/>
-      <c r="G71" s="191"/>
-      <c r="H71" s="189"/>
-      <c r="I71" s="191"/>
-      <c r="J71" s="191"/>
-      <c r="K71" s="189"/>
-      <c r="L71" s="189"/>
-      <c r="M71" s="189"/>
-      <c r="N71" s="192"/>
-    </row>
-    <row r="72" spans="1:14">
-      <c r="A72" s="188" t="s">
+      <c r="B69" s="149"/>
+      <c r="C69" s="192"/>
+      <c r="D69" s="192"/>
+      <c r="E69" s="192"/>
+      <c r="F69" s="193"/>
+      <c r="G69" s="194"/>
+      <c r="H69" s="192"/>
+      <c r="I69" s="194"/>
+      <c r="J69" s="194"/>
+      <c r="K69" s="192"/>
+      <c r="L69" s="192"/>
+      <c r="M69" s="192"/>
+      <c r="N69" s="195"/>
+    </row>
+    <row r="70" spans="1:14">
+      <c r="A70" s="191" t="s">
         <v>77</v>
       </c>
-      <c r="B72" s="149"/>
-      <c r="C72" s="189"/>
-      <c r="D72" s="189"/>
-      <c r="E72" s="189"/>
-      <c r="F72" s="190"/>
-      <c r="G72" s="191"/>
-      <c r="H72" s="192"/>
-      <c r="I72" s="193" t="s">
+      <c r="B70" s="149"/>
+      <c r="C70" s="192"/>
+      <c r="D70" s="192"/>
+      <c r="E70" s="192"/>
+      <c r="F70" s="193"/>
+      <c r="G70" s="194"/>
+      <c r="H70" s="192"/>
+      <c r="I70" s="194"/>
+      <c r="J70" s="194"/>
+      <c r="K70" s="192"/>
+      <c r="L70" s="192"/>
+      <c r="M70" s="192"/>
+      <c r="N70" s="195"/>
+    </row>
+    <row r="71" spans="1:14">
+      <c r="A71" s="191" t="s">
+        <v>78</v>
+      </c>
+      <c r="B71" s="149"/>
+      <c r="C71" s="192"/>
+      <c r="D71" s="192"/>
+      <c r="E71" s="192"/>
+      <c r="F71" s="193"/>
+      <c r="G71" s="194"/>
+      <c r="H71" s="195"/>
+      <c r="I71" s="196" t="s">
         <v>6</v>
       </c>
-      <c r="J72" s="152"/>
-      <c r="K72" s="189"/>
-      <c r="L72" s="189"/>
-      <c r="M72" s="189"/>
-      <c r="N72" s="192"/>
+      <c r="J71" s="152"/>
+      <c r="K71" s="192"/>
+      <c r="L71" s="192"/>
+      <c r="M71" s="192"/>
+      <c r="N71" s="195"/>
+    </row>
+    <row r="72" spans="1:14">
+      <c r="A72" s="92"/>
+      <c r="B72" s="101"/>
+      <c r="C72" s="92"/>
+      <c r="D72" s="92"/>
+      <c r="E72" s="92"/>
+      <c r="F72" s="94"/>
+      <c r="G72" s="95"/>
+      <c r="H72" s="92"/>
+      <c r="I72" s="95"/>
+      <c r="J72" s="95"/>
+      <c r="K72" s="92"/>
+      <c r="L72" s="92"/>
+      <c r="M72" s="92"/>
+      <c r="N72" s="92"/>
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="92"/>
-      <c r="B73" s="92"/>
+      <c r="B73" s="101"/>
       <c r="C73" s="92"/>
       <c r="D73" s="92"/>
       <c r="E73" s="92"/>
@@ -2929,7 +2938,7 @@
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="92"/>
-      <c r="B74" s="92"/>
+      <c r="B74" s="101"/>
       <c r="C74" s="92"/>
       <c r="D74" s="92"/>
       <c r="E74" s="92"/>
@@ -2945,7 +2954,7 @@
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="92"/>
-      <c r="B75" s="92"/>
+      <c r="B75" s="101"/>
       <c r="C75" s="92"/>
       <c r="D75" s="92"/>
       <c r="E75" s="92"/>
@@ -15794,20 +15803,6 @@
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
-    <mergeCell ref="F43:F49"/>
-    <mergeCell ref="E43:E49"/>
-    <mergeCell ref="B43:D49"/>
-    <mergeCell ref="A43:A49"/>
-    <mergeCell ref="K44:L47"/>
-    <mergeCell ref="H44:J47"/>
-    <mergeCell ref="H43:N43"/>
-    <mergeCell ref="G43:G49"/>
-    <mergeCell ref="M44:N49"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="J48:J49"/>
-    <mergeCell ref="K48:K49"/>
-    <mergeCell ref="L48:L49"/>
     <mergeCell ref="L12:N12"/>
     <mergeCell ref="F13:J13"/>
     <mergeCell ref="L13:N13"/>
@@ -15824,19 +15819,33 @@
     <mergeCell ref="E15:N15"/>
     <mergeCell ref="E16:N16"/>
     <mergeCell ref="E17:N17"/>
-    <mergeCell ref="A52:N64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:D66"/>
-    <mergeCell ref="E65:G66"/>
-    <mergeCell ref="H65:J66"/>
-    <mergeCell ref="K65:L66"/>
-    <mergeCell ref="M65:N66"/>
+    <mergeCell ref="F43:F49"/>
+    <mergeCell ref="E43:E49"/>
+    <mergeCell ref="B43:D49"/>
+    <mergeCell ref="A43:A49"/>
+    <mergeCell ref="K44:L47"/>
+    <mergeCell ref="H44:J47"/>
+    <mergeCell ref="H43:N43"/>
+    <mergeCell ref="G43:G49"/>
+    <mergeCell ref="M44:N49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="J48:J49"/>
+    <mergeCell ref="K48:K49"/>
+    <mergeCell ref="L48:L49"/>
+    <mergeCell ref="A51:N63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:D65"/>
+    <mergeCell ref="E64:G65"/>
+    <mergeCell ref="H64:J65"/>
+    <mergeCell ref="K64:L65"/>
+    <mergeCell ref="M64:N65"/>
+    <mergeCell ref="A67:N67"/>
     <mergeCell ref="A68:N68"/>
-    <mergeCell ref="A69:N69"/>
+    <mergeCell ref="B69:N69"/>
     <mergeCell ref="B70:N70"/>
-    <mergeCell ref="B71:N71"/>
-    <mergeCell ref="B72:H72"/>
-    <mergeCell ref="J72:N72"/>
+    <mergeCell ref="B71:H71"/>
+    <mergeCell ref="J71:N71"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.5" right="0.5" top="0" bottom="0.25" header="0.12" footer="0.12"/>

--- a/export_rfq.xlsx
+++ b/export_rfq.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="82">
   <si>
     <t>Republic of the Philippines</t>
   </si>
@@ -46,7 +46,7 @@
     <t>RFQ Number :</t>
   </si>
   <si>
-    <t>2020-00101</t>
+    <t>2020-107</t>
   </si>
   <si>
     <t>Mode of Procurement:</t>
@@ -58,7 +58,7 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>May 18, 2020</t>
+    <t>June 03, 2020</t>
   </si>
   <si>
     <t>Office/End User:</t>
@@ -70,7 +70,7 @@
     <t>Purpose:</t>
   </si>
   <si>
-    <t xml:space="preserve">For the internet connectivity of C/MLGOOs for May and June 2020 </t>
+    <t xml:space="preserve">Replacement tires of DILG Service Vehicles (Crosswind 8994 and 8974) as part of Preventive Maintenance  </t>
   </si>
   <si>
     <t>Company Name:</t>
@@ -172,7 +172,7 @@
     <t>Approved Budget for the Contract (ABC):</t>
   </si>
   <si>
-    <t>85,200.00</t>
+    <t>52,000.00</t>
   </si>
   <si>
     <t>DR. CARINA S. CRUZ</t>
@@ -229,26 +229,21 @@
     <t>NO</t>
   </si>
   <si>
-    <t xml:space="preserve">Globe Prepaid Card 300
+    <t xml:space="preserve">Tire, 215/65 R15
 </t>
   </si>
   <si>
     <t>piece</t>
   </si>
   <si>
-    <t xml:space="preserve">Smart Prepaid Card 300
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sun Prepaid Card 300
-</t>
+    <t>6,500.00</t>
   </si>
   <si>
     <t>REF:  approved and funded PPMP; approved and funded Activity Design	
 *In order to be eligible for this procurement, suppliers/service providers must submit together with the quotation/ proposal the following eligibility requirements:									
 1. PhilGEPS Platinum Registration No. 									
 2. For non-Platinum Registration, please provide copy of:
-    a) Mayor's Permit; b) Latest Income / Business Tax Return; c) PhilGEPS Registration No. _____________________________________									
+    a) Mayor's Permit; b) Latest Income / Business Tax Return; c) PhilGEPS Registration No.								
 Other Instruction:</t>
   </si>
   <si>
@@ -637,7 +632,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="200">
+  <cellXfs count="196">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -1100,33 +1095,18 @@
     <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="4" numFmtId="166" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="166" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="165" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -1142,47 +1122,50 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="166" fillId="2" borderId="3" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="165" fillId="2" borderId="12" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="166" fillId="2" borderId="10" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="11" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="5" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="165" fillId="2" borderId="3" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="10" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="bottom" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="166" fillId="2" borderId="3" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="165" fillId="2" borderId="12" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="166" fillId="2" borderId="10" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="165" fillId="2" borderId="11" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="5" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="165" fillId="2" borderId="3" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="165" fillId="2" borderId="10" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="bottom" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="5" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -1635,7 +1618,7 @@
   <dimension ref="A1:N877"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="145" zoomScaleNormal="55" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="N73" sqref="N73"/>
+      <selection activeCell="N71" sqref="N71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="9.109375" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2534,13 +2517,13 @@
       <c r="C50" s="148"/>
       <c r="D50" s="148"/>
       <c r="E50" s="150">
-        <v>196</v>
+        <v>8</v>
       </c>
       <c r="F50" s="151" t="s">
         <v>64</v>
       </c>
-      <c r="G50" s="153">
-        <v>300</v>
+      <c r="G50" s="153" t="s">
+        <v>65</v>
       </c>
       <c r="H50" s="150"/>
       <c r="I50" s="153"/>
@@ -2551,426 +2534,406 @@
       <c r="N50" s="150"/>
     </row>
     <row r="51" spans="1:14">
-      <c r="A51" s="154">
-        <v>2</v>
-      </c>
-      <c r="B51" s="149" t="s">
-        <v>65</v>
-      </c>
-      <c r="C51" s="148"/>
-      <c r="D51" s="148"/>
-      <c r="E51" s="150">
-        <v>82</v>
-      </c>
-      <c r="F51" s="151" t="s">
-        <v>64</v>
-      </c>
-      <c r="G51" s="153">
-        <v>300</v>
-      </c>
-      <c r="H51" s="150"/>
-      <c r="I51" s="153"/>
-      <c r="J51" s="153"/>
-      <c r="K51" s="150"/>
-      <c r="L51" s="150"/>
-      <c r="M51" s="150"/>
-      <c r="N51" s="150"/>
-    </row>
-    <row r="52" spans="1:14">
-      <c r="A52" s="154">
-        <v>3</v>
-      </c>
-      <c r="B52" s="149" t="s">
+      <c r="A51" s="157" t="s">
         <v>66</v>
       </c>
-      <c r="C52" s="148"/>
-      <c r="D52" s="148"/>
-      <c r="E52" s="150">
-        <v>6</v>
+      <c r="B51" s="99"/>
+      <c r="C51" s="99"/>
+      <c r="D51" s="99"/>
+      <c r="E51" s="99"/>
+      <c r="F51" s="154"/>
+      <c r="G51" s="155"/>
+      <c r="H51" s="99"/>
+      <c r="I51" s="155"/>
+      <c r="J51" s="155"/>
+      <c r="K51" s="99"/>
+      <c r="L51" s="99"/>
+      <c r="M51" s="99"/>
+      <c r="N51" s="156"/>
+    </row>
+    <row r="52" spans="1:14">
+      <c r="A52" s="157" t="s">
+        <v>67</v>
       </c>
-      <c r="F52" s="151" t="s">
-        <v>64</v>
-      </c>
-      <c r="G52" s="153">
-        <v>300</v>
-      </c>
-      <c r="H52" s="150"/>
-      <c r="I52" s="153"/>
-      <c r="J52" s="153"/>
-      <c r="K52" s="150"/>
-      <c r="L52" s="150"/>
-      <c r="M52" s="150"/>
-      <c r="N52" s="150"/>
+      <c r="B52" s="99"/>
+      <c r="C52" s="99"/>
+      <c r="D52" s="99"/>
+      <c r="E52" s="99"/>
+      <c r="F52" s="154"/>
+      <c r="G52" s="155"/>
+      <c r="H52" s="99"/>
+      <c r="I52" s="155"/>
+      <c r="J52" s="155"/>
+      <c r="K52" s="99"/>
+      <c r="L52" s="99"/>
+      <c r="M52" s="99"/>
+      <c r="N52" s="156"/>
     </row>
     <row r="53" spans="1:14">
-      <c r="A53" s="161" t="s">
-        <v>67</v>
+      <c r="A53" s="157" t="s">
+        <v>68</v>
       </c>
       <c r="B53" s="99"/>
       <c r="C53" s="99"/>
       <c r="D53" s="99"/>
       <c r="E53" s="99"/>
-      <c r="F53" s="155"/>
-      <c r="G53" s="157"/>
+      <c r="F53" s="154"/>
+      <c r="G53" s="155"/>
       <c r="H53" s="99"/>
-      <c r="I53" s="157"/>
-      <c r="J53" s="157"/>
+      <c r="I53" s="155"/>
+      <c r="J53" s="155"/>
       <c r="K53" s="99"/>
       <c r="L53" s="99"/>
       <c r="M53" s="99"/>
-      <c r="N53" s="159"/>
+      <c r="N53" s="156"/>
     </row>
     <row r="54" spans="1:14">
-      <c r="A54" s="161" t="s">
-        <v>68</v>
+      <c r="A54" s="157" t="s">
+        <v>69</v>
       </c>
       <c r="B54" s="99"/>
       <c r="C54" s="99"/>
       <c r="D54" s="99"/>
       <c r="E54" s="99"/>
-      <c r="F54" s="155"/>
-      <c r="G54" s="157"/>
+      <c r="F54" s="154"/>
+      <c r="G54" s="155"/>
       <c r="H54" s="99"/>
-      <c r="I54" s="157"/>
-      <c r="J54" s="157"/>
+      <c r="I54" s="155"/>
+      <c r="J54" s="155"/>
       <c r="K54" s="99"/>
       <c r="L54" s="99"/>
       <c r="M54" s="99"/>
-      <c r="N54" s="159"/>
+      <c r="N54" s="156"/>
     </row>
     <row r="55" spans="1:14">
-      <c r="A55" s="161" t="s">
-        <v>69</v>
+      <c r="A55" s="157" t="s">
+        <v>70</v>
       </c>
       <c r="B55" s="99"/>
       <c r="C55" s="99"/>
       <c r="D55" s="99"/>
       <c r="E55" s="99"/>
-      <c r="F55" s="155"/>
-      <c r="G55" s="157"/>
+      <c r="F55" s="154"/>
+      <c r="G55" s="155"/>
       <c r="H55" s="99"/>
-      <c r="I55" s="157"/>
-      <c r="J55" s="157"/>
+      <c r="I55" s="155"/>
+      <c r="J55" s="155"/>
       <c r="K55" s="99"/>
       <c r="L55" s="99"/>
       <c r="M55" s="99"/>
-      <c r="N55" s="159"/>
+      <c r="N55" s="156"/>
     </row>
     <row r="56" spans="1:14">
-      <c r="A56" s="161" t="s">
-        <v>70</v>
+      <c r="A56" s="157" t="s">
+        <v>71</v>
       </c>
       <c r="B56" s="99"/>
       <c r="C56" s="99"/>
       <c r="D56" s="99"/>
       <c r="E56" s="99"/>
-      <c r="F56" s="155"/>
-      <c r="G56" s="157"/>
+      <c r="F56" s="154"/>
+      <c r="G56" s="155"/>
       <c r="H56" s="99"/>
-      <c r="I56" s="157"/>
-      <c r="J56" s="157"/>
+      <c r="I56" s="155"/>
+      <c r="J56" s="155"/>
       <c r="K56" s="99"/>
       <c r="L56" s="99"/>
       <c r="M56" s="99"/>
-      <c r="N56" s="159"/>
+      <c r="N56" s="156"/>
     </row>
     <row r="57" spans="1:14">
-      <c r="A57" s="161" t="s">
-        <v>71</v>
+      <c r="A57" s="157" t="s">
+        <v>72</v>
       </c>
       <c r="B57" s="99"/>
       <c r="C57" s="99"/>
       <c r="D57" s="99"/>
       <c r="E57" s="99"/>
-      <c r="F57" s="155"/>
-      <c r="G57" s="157"/>
+      <c r="F57" s="154"/>
+      <c r="G57" s="155"/>
       <c r="H57" s="99"/>
-      <c r="I57" s="157"/>
-      <c r="J57" s="157"/>
+      <c r="I57" s="155"/>
+      <c r="J57" s="155"/>
       <c r="K57" s="99"/>
       <c r="L57" s="99"/>
       <c r="M57" s="99"/>
-      <c r="N57" s="159"/>
+      <c r="N57" s="156"/>
     </row>
     <row r="58" spans="1:14">
-      <c r="A58" s="161" t="s">
-        <v>72</v>
+      <c r="A58" s="157" t="s">
+        <v>73</v>
       </c>
       <c r="B58" s="99"/>
       <c r="C58" s="99"/>
       <c r="D58" s="99"/>
       <c r="E58" s="99"/>
-      <c r="F58" s="155"/>
-      <c r="G58" s="157"/>
+      <c r="F58" s="154"/>
+      <c r="G58" s="155"/>
       <c r="H58" s="99"/>
-      <c r="I58" s="157"/>
-      <c r="J58" s="157"/>
+      <c r="I58" s="155"/>
+      <c r="J58" s="155"/>
       <c r="K58" s="99"/>
       <c r="L58" s="99"/>
       <c r="M58" s="99"/>
-      <c r="N58" s="159"/>
+      <c r="N58" s="156"/>
     </row>
     <row r="59" spans="1:14">
-      <c r="A59" s="161" t="s">
-        <v>73</v>
-      </c>
+      <c r="A59" s="157"/>
       <c r="B59" s="99"/>
       <c r="C59" s="99"/>
       <c r="D59" s="99"/>
       <c r="E59" s="99"/>
-      <c r="F59" s="155"/>
-      <c r="G59" s="157"/>
+      <c r="F59" s="154"/>
+      <c r="G59" s="155"/>
       <c r="H59" s="99"/>
-      <c r="I59" s="157"/>
-      <c r="J59" s="157"/>
+      <c r="I59" s="155"/>
+      <c r="J59" s="155"/>
       <c r="K59" s="99"/>
       <c r="L59" s="99"/>
       <c r="M59" s="99"/>
-      <c r="N59" s="159"/>
+      <c r="N59" s="156"/>
     </row>
     <row r="60" spans="1:14">
-      <c r="A60" s="161" t="s">
-        <v>74</v>
-      </c>
+      <c r="A60" s="157"/>
       <c r="B60" s="99"/>
       <c r="C60" s="99"/>
       <c r="D60" s="99"/>
       <c r="E60" s="99"/>
-      <c r="F60" s="155"/>
-      <c r="G60" s="157"/>
+      <c r="F60" s="154"/>
+      <c r="G60" s="155"/>
       <c r="H60" s="99"/>
-      <c r="I60" s="157"/>
-      <c r="J60" s="157"/>
+      <c r="I60" s="155"/>
+      <c r="J60" s="155"/>
       <c r="K60" s="99"/>
       <c r="L60" s="99"/>
       <c r="M60" s="99"/>
-      <c r="N60" s="159"/>
+      <c r="N60" s="156"/>
     </row>
     <row r="61" spans="1:14">
-      <c r="A61" s="161"/>
+      <c r="A61" s="157"/>
       <c r="B61" s="99"/>
       <c r="C61" s="99"/>
       <c r="D61" s="99"/>
       <c r="E61" s="99"/>
-      <c r="F61" s="155"/>
-      <c r="G61" s="157"/>
+      <c r="F61" s="154"/>
+      <c r="G61" s="155"/>
       <c r="H61" s="99"/>
-      <c r="I61" s="157"/>
-      <c r="J61" s="157"/>
+      <c r="I61" s="155"/>
+      <c r="J61" s="155"/>
       <c r="K61" s="99"/>
       <c r="L61" s="99"/>
       <c r="M61" s="99"/>
-      <c r="N61" s="159"/>
+      <c r="N61" s="156"/>
     </row>
     <row r="62" spans="1:14">
-      <c r="A62" s="161"/>
+      <c r="A62" s="157"/>
       <c r="B62" s="99"/>
       <c r="C62" s="99"/>
       <c r="D62" s="99"/>
       <c r="E62" s="99"/>
-      <c r="F62" s="155"/>
-      <c r="G62" s="157"/>
+      <c r="F62" s="154"/>
+      <c r="G62" s="155"/>
       <c r="H62" s="99"/>
-      <c r="I62" s="157"/>
-      <c r="J62" s="157"/>
+      <c r="I62" s="155"/>
+      <c r="J62" s="155"/>
       <c r="K62" s="99"/>
       <c r="L62" s="99"/>
       <c r="M62" s="99"/>
-      <c r="N62" s="159"/>
+      <c r="N62" s="156"/>
     </row>
     <row r="63" spans="1:14">
-      <c r="A63" s="161"/>
+      <c r="A63" s="157"/>
       <c r="B63" s="99"/>
       <c r="C63" s="99"/>
       <c r="D63" s="99"/>
       <c r="E63" s="99"/>
-      <c r="F63" s="155"/>
-      <c r="G63" s="157"/>
+      <c r="F63" s="154"/>
+      <c r="G63" s="155"/>
       <c r="H63" s="99"/>
-      <c r="I63" s="157"/>
-      <c r="J63" s="157"/>
+      <c r="I63" s="155"/>
+      <c r="J63" s="155"/>
       <c r="K63" s="99"/>
       <c r="L63" s="99"/>
       <c r="M63" s="99"/>
-      <c r="N63" s="159"/>
+      <c r="N63" s="156"/>
     </row>
     <row r="64" spans="1:14">
-      <c r="A64" s="161"/>
-      <c r="B64" s="99"/>
-      <c r="C64" s="99"/>
-      <c r="D64" s="99"/>
-      <c r="E64" s="99"/>
-      <c r="F64" s="155"/>
-      <c r="G64" s="157"/>
-      <c r="H64" s="99"/>
-      <c r="I64" s="157"/>
-      <c r="J64" s="157"/>
-      <c r="K64" s="99"/>
-      <c r="L64" s="99"/>
-      <c r="M64" s="99"/>
-      <c r="N64" s="159"/>
-    </row>
-    <row r="65" spans="1:14">
-      <c r="A65" s="162"/>
-      <c r="B65" s="100"/>
-      <c r="C65" s="100"/>
-      <c r="D65" s="100"/>
-      <c r="E65" s="100"/>
-      <c r="F65" s="156"/>
-      <c r="G65" s="158"/>
-      <c r="H65" s="100"/>
-      <c r="I65" s="158"/>
-      <c r="J65" s="158"/>
-      <c r="K65" s="100"/>
-      <c r="L65" s="100"/>
-      <c r="M65" s="100"/>
-      <c r="N65" s="160"/>
-    </row>
-    <row r="66" spans="1:14">
-      <c r="A66" s="166" t="s">
+      <c r="A64" s="161" t="s">
+        <v>74</v>
+      </c>
+      <c r="B64" s="164"/>
+      <c r="C64" s="165"/>
+      <c r="D64" s="166"/>
+      <c r="E64" s="172" t="s">
         <v>75</v>
       </c>
-      <c r="B66" s="172"/>
-      <c r="C66" s="170"/>
-      <c r="D66" s="171"/>
-      <c r="E66" s="178" t="s">
+      <c r="F64" s="170"/>
+      <c r="G64" s="171"/>
+      <c r="H64" s="174"/>
+      <c r="I64" s="175"/>
+      <c r="J64" s="171"/>
+      <c r="K64" s="172" t="s">
         <v>76</v>
       </c>
-      <c r="F66" s="176"/>
-      <c r="G66" s="177"/>
-      <c r="H66" s="172"/>
-      <c r="I66" s="180"/>
-      <c r="J66" s="177"/>
-      <c r="K66" s="178" t="s">
+      <c r="L64" s="176"/>
+      <c r="M64" s="174"/>
+      <c r="N64" s="166"/>
+    </row>
+    <row r="65" spans="1:14">
+      <c r="A65" s="160"/>
+      <c r="B65" s="163"/>
+      <c r="C65" s="162"/>
+      <c r="D65" s="159"/>
+      <c r="E65" s="169"/>
+      <c r="F65" s="167"/>
+      <c r="G65" s="168"/>
+      <c r="H65" s="169"/>
+      <c r="I65" s="173"/>
+      <c r="J65" s="168"/>
+      <c r="K65" s="169"/>
+      <c r="L65" s="159"/>
+      <c r="M65" s="169"/>
+      <c r="N65" s="160"/>
+    </row>
+    <row r="66" spans="1:14">
+      <c r="A66" s="177"/>
+      <c r="B66" s="91"/>
+      <c r="C66" s="91"/>
+      <c r="D66" s="91"/>
+      <c r="E66" s="91"/>
+      <c r="F66" s="93"/>
+      <c r="G66" s="94"/>
+      <c r="H66" s="91"/>
+      <c r="I66" s="94"/>
+      <c r="J66" s="94"/>
+      <c r="K66" s="91"/>
+      <c r="L66" s="91"/>
+      <c r="M66" s="91"/>
+      <c r="N66" s="158"/>
+    </row>
+    <row r="67" spans="1:14">
+      <c r="A67" s="178" t="s">
         <v>77</v>
       </c>
-      <c r="L66" s="181"/>
-      <c r="M66" s="172"/>
-      <c r="N66" s="171"/>
-    </row>
-    <row r="67" spans="1:14">
-      <c r="A67" s="165"/>
-      <c r="B67" s="169"/>
-      <c r="C67" s="167"/>
-      <c r="D67" s="164"/>
-      <c r="E67" s="175"/>
-      <c r="F67" s="173"/>
-      <c r="G67" s="174"/>
-      <c r="H67" s="175"/>
-      <c r="I67" s="179"/>
-      <c r="J67" s="174"/>
-      <c r="K67" s="175"/>
-      <c r="L67" s="164"/>
-      <c r="M67" s="175"/>
-      <c r="N67" s="165"/>
+      <c r="B67" s="179"/>
+      <c r="C67" s="180"/>
+      <c r="D67" s="180"/>
+      <c r="E67" s="180"/>
+      <c r="F67" s="181"/>
+      <c r="G67" s="182"/>
+      <c r="H67" s="180"/>
+      <c r="I67" s="182"/>
+      <c r="J67" s="182"/>
+      <c r="K67" s="180"/>
+      <c r="L67" s="180"/>
+      <c r="M67" s="180"/>
+      <c r="N67" s="183"/>
     </row>
     <row r="68" spans="1:14">
-      <c r="A68" s="168"/>
-      <c r="B68" s="100"/>
-      <c r="C68" s="91"/>
-      <c r="D68" s="91"/>
-      <c r="E68" s="91"/>
-      <c r="F68" s="93"/>
-      <c r="G68" s="94"/>
-      <c r="H68" s="91"/>
-      <c r="I68" s="94"/>
-      <c r="J68" s="94"/>
-      <c r="K68" s="91"/>
-      <c r="L68" s="91"/>
-      <c r="M68" s="91"/>
-      <c r="N68" s="163"/>
-    </row>
-    <row r="69" spans="1:14">
-      <c r="A69" s="182" t="s">
+      <c r="A68" s="184" t="s">
         <v>78</v>
       </c>
-      <c r="B69" s="183"/>
-      <c r="C69" s="184"/>
-      <c r="D69" s="184"/>
-      <c r="E69" s="184"/>
-      <c r="F69" s="185"/>
-      <c r="G69" s="186"/>
-      <c r="H69" s="184"/>
-      <c r="I69" s="186"/>
-      <c r="J69" s="186"/>
-      <c r="K69" s="184"/>
-      <c r="L69" s="184"/>
-      <c r="M69" s="184"/>
-      <c r="N69" s="187"/>
-    </row>
-    <row r="70" spans="1:14">
-      <c r="A70" s="188" t="s">
+      <c r="B68" s="185"/>
+      <c r="C68" s="186"/>
+      <c r="D68" s="186"/>
+      <c r="E68" s="186"/>
+      <c r="F68" s="187"/>
+      <c r="G68" s="188"/>
+      <c r="H68" s="186"/>
+      <c r="I68" s="188"/>
+      <c r="J68" s="188"/>
+      <c r="K68" s="186"/>
+      <c r="L68" s="186"/>
+      <c r="M68" s="186"/>
+      <c r="N68" s="189"/>
+    </row>
+    <row r="69" spans="1:14">
+      <c r="A69" s="190" t="s">
         <v>79</v>
       </c>
-      <c r="B70" s="189"/>
-      <c r="C70" s="190"/>
-      <c r="D70" s="190"/>
-      <c r="E70" s="190"/>
-      <c r="F70" s="191"/>
-      <c r="G70" s="192"/>
-      <c r="H70" s="190"/>
-      <c r="I70" s="192"/>
-      <c r="J70" s="192"/>
-      <c r="K70" s="190"/>
-      <c r="L70" s="190"/>
-      <c r="M70" s="190"/>
-      <c r="N70" s="193"/>
-    </row>
-    <row r="71" spans="1:14">
-      <c r="A71" s="194" t="s">
+      <c r="B69" s="149"/>
+      <c r="C69" s="191"/>
+      <c r="D69" s="191"/>
+      <c r="E69" s="191"/>
+      <c r="F69" s="192"/>
+      <c r="G69" s="193"/>
+      <c r="H69" s="191"/>
+      <c r="I69" s="193"/>
+      <c r="J69" s="193"/>
+      <c r="K69" s="191"/>
+      <c r="L69" s="191"/>
+      <c r="M69" s="191"/>
+      <c r="N69" s="194"/>
+    </row>
+    <row r="70" spans="1:14">
+      <c r="A70" s="190" t="s">
         <v>80</v>
       </c>
-      <c r="B71" s="149"/>
-      <c r="C71" s="195"/>
-      <c r="D71" s="195"/>
-      <c r="E71" s="195"/>
-      <c r="F71" s="196"/>
-      <c r="G71" s="197"/>
-      <c r="H71" s="195"/>
-      <c r="I71" s="197"/>
-      <c r="J71" s="197"/>
-      <c r="K71" s="195"/>
-      <c r="L71" s="195"/>
-      <c r="M71" s="195"/>
-      <c r="N71" s="198"/>
-    </row>
-    <row r="72" spans="1:14">
-      <c r="A72" s="194" t="s">
+      <c r="B70" s="149"/>
+      <c r="C70" s="191"/>
+      <c r="D70" s="191"/>
+      <c r="E70" s="191"/>
+      <c r="F70" s="192"/>
+      <c r="G70" s="193"/>
+      <c r="H70" s="191"/>
+      <c r="I70" s="193"/>
+      <c r="J70" s="193"/>
+      <c r="K70" s="191"/>
+      <c r="L70" s="191"/>
+      <c r="M70" s="191"/>
+      <c r="N70" s="194"/>
+    </row>
+    <row r="71" spans="1:14">
+      <c r="A71" s="190" t="s">
         <v>81</v>
       </c>
-      <c r="B72" s="149"/>
-      <c r="C72" s="195"/>
-      <c r="D72" s="195"/>
-      <c r="E72" s="195"/>
-      <c r="F72" s="196"/>
-      <c r="G72" s="197"/>
-      <c r="H72" s="195"/>
-      <c r="I72" s="197"/>
-      <c r="J72" s="197"/>
-      <c r="K72" s="195"/>
-      <c r="L72" s="195"/>
-      <c r="M72" s="195"/>
-      <c r="N72" s="198"/>
-    </row>
-    <row r="73" spans="1:14">
-      <c r="A73" s="194" t="s">
-        <v>82</v>
-      </c>
-      <c r="B73" s="149"/>
-      <c r="C73" s="195"/>
-      <c r="D73" s="195"/>
-      <c r="E73" s="195"/>
-      <c r="F73" s="196"/>
-      <c r="G73" s="197"/>
-      <c r="H73" s="198"/>
-      <c r="I73" s="199" t="s">
+      <c r="B71" s="149"/>
+      <c r="C71" s="191"/>
+      <c r="D71" s="191"/>
+      <c r="E71" s="191"/>
+      <c r="F71" s="192"/>
+      <c r="G71" s="193"/>
+      <c r="H71" s="194"/>
+      <c r="I71" s="195" t="s">
         <v>7</v>
       </c>
-      <c r="J73" s="152"/>
-      <c r="K73" s="195"/>
-      <c r="L73" s="195"/>
-      <c r="M73" s="195"/>
-      <c r="N73" s="198"/>
+      <c r="J71" s="152"/>
+      <c r="K71" s="191"/>
+      <c r="L71" s="191"/>
+      <c r="M71" s="191"/>
+      <c r="N71" s="194"/>
+    </row>
+    <row r="72" spans="1:14">
+      <c r="A72" s="91"/>
+      <c r="B72" s="100"/>
+      <c r="C72" s="91"/>
+      <c r="D72" s="91"/>
+      <c r="E72" s="91"/>
+      <c r="F72" s="93"/>
+      <c r="G72" s="94"/>
+      <c r="H72" s="91"/>
+      <c r="I72" s="94"/>
+      <c r="J72" s="94"/>
+      <c r="K72" s="91"/>
+      <c r="L72" s="91"/>
+      <c r="M72" s="91"/>
+      <c r="N72" s="91"/>
+    </row>
+    <row r="73" spans="1:14">
+      <c r="A73" s="91"/>
+      <c r="B73" s="100"/>
+      <c r="C73" s="91"/>
+      <c r="D73" s="91"/>
+      <c r="E73" s="91"/>
+      <c r="F73" s="93"/>
+      <c r="G73" s="94"/>
+      <c r="H73" s="91"/>
+      <c r="I73" s="94"/>
+      <c r="J73" s="94"/>
+      <c r="K73" s="91"/>
+      <c r="L73" s="91"/>
+      <c r="M73" s="91"/>
+      <c r="N73" s="91"/>
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="91"/>
@@ -15870,19 +15833,19 @@
     <mergeCell ref="E15:N15"/>
     <mergeCell ref="E16:N16"/>
     <mergeCell ref="E17:N17"/>
-    <mergeCell ref="A53:N65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="B66:D67"/>
-    <mergeCell ref="E66:G67"/>
-    <mergeCell ref="H66:J67"/>
-    <mergeCell ref="K66:L67"/>
-    <mergeCell ref="M66:N67"/>
-    <mergeCell ref="A69:N69"/>
-    <mergeCell ref="A70:N70"/>
-    <mergeCell ref="B71:N71"/>
-    <mergeCell ref="B72:N72"/>
-    <mergeCell ref="B73:H73"/>
-    <mergeCell ref="J73:N73"/>
+    <mergeCell ref="A51:N63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:D65"/>
+    <mergeCell ref="E64:G65"/>
+    <mergeCell ref="H64:J65"/>
+    <mergeCell ref="K64:L65"/>
+    <mergeCell ref="M64:N65"/>
+    <mergeCell ref="A67:N67"/>
+    <mergeCell ref="A68:N68"/>
+    <mergeCell ref="B69:N69"/>
+    <mergeCell ref="B70:N70"/>
+    <mergeCell ref="B71:H71"/>
+    <mergeCell ref="J71:N71"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.5" right="0.5" top="0" bottom="0.25" header="0.12" footer="0.12"/>

--- a/export_rfq.xlsx
+++ b/export_rfq.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Sheet1'!$A$1:$N$75</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Sheet1'!$A$1:$N$82</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="92">
   <si>
     <t>Republic of the Philippines</t>
   </si>
@@ -46,31 +46,31 @@
     <t>RFQ Number :</t>
   </si>
   <si>
-    <t>2020-107</t>
+    <t>2020-134</t>
   </si>
   <si>
     <t>Mode of Procurement:</t>
   </si>
   <si>
-    <t>Small Value Procurement</t>
+    <t>Shopping</t>
   </si>
   <si>
     <t>Date:</t>
   </si>
   <si>
-    <t>June 03, 2020</t>
+    <t>July 08, 2020</t>
   </si>
   <si>
     <t>Office/End User:</t>
   </si>
   <si>
-    <t>FAD</t>
+    <t>LGMED-PDMU</t>
   </si>
   <si>
     <t>Purpose:</t>
   </si>
   <si>
-    <t xml:space="preserve">Replacement tires of DILG Service Vehicles (Crosswind 8994 and 8974) as part of Preventive Maintenance  </t>
+    <t xml:space="preserve">Purchase of Office Supplies for PDMU in support to operation in the implementation of Locally Funded Projects   </t>
   </si>
   <si>
     <t>Company Name:</t>
@@ -172,7 +172,7 @@
     <t>Approved Budget for the Contract (ABC):</t>
   </si>
   <si>
-    <t>52,000.00</t>
+    <t>128,298.00</t>
   </si>
   <si>
     <t>DR. CARINA S. CRUZ</t>
@@ -229,54 +229,116 @@
     <t>NO</t>
   </si>
   <si>
-    <t xml:space="preserve">Tire, 215/65 R15
+    <t>Printer
+Paper Size:A4, A5, A6, B5, C6, DL, Input Tray Type 100sheets, Nozzle Configuration:180nozzles, Black, 59 nozzles each colour (Cyan, Magenta, Yellow), Printing Method: On-demand</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>14,999.00</t>
+  </si>
+  <si>
+    <t>Epson Ink (003)
+Paper Size:A4, A5, A6, B5, C6, DL, Input Tray Type 100sheets, Nozzle Configuration:180nozzles, Black, 59 nozzles each colour (Cyan, Magenta, Yellow), Printing Method: On-demand</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>1,500.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epson ink (T664) 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canon ink (GI-790)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Camera bag Canon 80D
 </t>
   </si>
   <si>
     <t>piece</t>
   </si>
   <si>
-    <t>6,500.00</t>
+    <t>Uninterruptible power supply
+Output capacity 1325watts/625VA</t>
   </si>
   <si>
-    <t>REF:  approved and funded PPMP; approved and funded Activity Design	
-*In order to be eligible for this procurement, suppliers/service providers must submit together with the quotation/ proposal the following eligibility requirements:									
-1. PhilGEPS Platinum Registration No. 									
-2. For non-Platinum Registration, please provide copy of:
-    a) Mayor's Permit; b) Latest Income / Business Tax Return; c) PhilGEPS Registration No.								
-Other Instruction:</t>
+    <t>3,500.00</t>
   </si>
   <si>
-    <t>NOTE: ** A guaranteed of a minimum of 75% out of total number of target participants	
-              ** Free Flowing Coffee 
-              ** Free Wi-Fi
-              ** Atleast Triple/Quad Sharing Per Room  
-              ** Free use of Function Room, Sound System and LCD
-Other Instruction:</t>
+    <t>External hard drive
+(1 TB)</t>
   </si>
   <si>
-    <t>Kindly send your quotation/ proposal within three days after the receiving of RFQ.
-Other Instruction:</t>
+    <t>4,500.00</t>
   </si>
   <si>
-    <t>Guaranteed payment of 75% out of total number of target participants.
-Other Instruction:</t>
+    <t>Wireless Presenter
+2.4GHz wireless presenter pen support excel.powerpoint etc.</t>
   </si>
   <si>
-    <t>Free use of Function Room, Wi-Fi, Sound System, Projector and Extensions Cords.
-Other Instruction:</t>
+    <t>1,800.00</t>
   </si>
   <si>
-    <t>Free Flowing Coffee with candies and chips.
-Other Instruction:</t>
+    <t xml:space="preserve">USB 16 gb
+</t>
   </si>
   <si>
-    <t>Maximum Triple/Quad Sharing Per Room.
-Other Instruction:</t>
+    <t>Printer
+Type: FINE Cartridge
+Number of Nozzles: Total 1,280 nozzles
+Ink Cartridges: PG-745S, CL-746S (Optional: PG-745, CL-746 / PG-745XL, CL-746XL)</t>
   </si>
   <si>
-    <t>Free on room for Secretariat
-Other Instruction:</t>
+    <t>4,000.00</t>
+  </si>
+  <si>
+    <t>NOTE:
+*In order to be eligible for this procurement, suppliers/service providers
+   must submit together with the quotation/proposal the following
+   1. Valid Business Peromit 2020 ( Application for renewal with Official Receipt 2020)
+   2. PhilGEPS Registration No. (Please indicate on the space provided above)
+   3. Others:
+     a. Any documents to prove that the signatory of the quotation is
+autorized representative of the company, or eligibility requirements.
+     b. Photocopy of ID bearing the pictures/ signature of the
+representatives.
+   4. Accomplished and Notarized Omnibus Sworn Statement
+Other Instruction:
+ * Please submit Your quotation using our official Request for Quotation (RFQ) Form.
+You can secure a copy of the said RFQ to 
+General Services and supply section, Finance and Administrative Division, DILG.
+ *Please submit your quotations//s together with the Eligibility Documents on/or before June 23, 2020
+ at 5:00pm addressed to the DILG
+through any of the following
+      a. Email us at dilg4a.bac@gmail.com
+      b. Deliver on hand at the receiving area of DILG IV-A CALABARZON, Andenson Bldg1. National Highway, Parian, Calamba City, Laguna</t>
+  </si>
+  <si>
+    <t>NOTE:
+*In order to be eligible for this procurement, suppliers/service providers
+   must submit together with the quotation/proposal the following
+   1. Valid Business Peromit 2020 ( Application for renewal with Official Receipt 2020)
+   2. PhilGEPS Registration No. (Please indicate on the space provided above)
+   3. Others:
+     a. Any documents to prove that the signatory of the quotation is
+autorized representative of the company, or eligibility requirements.
+     b. Photocopy of ID bearing the pictures/ signature of the
+representatives.
+Other Instruction:
+ * Please submit Your quotation using our official Request for Quotation (RFQ) Form.
+You can secure a copy of the said RFQ to 
+General Services and supply section, Finance and Administrative Division, DILG.
+ *Please submit your quotations//s together with the Eligibility Documents on/or before June 23, 2020
+ at 5:00pm addressed to the DILG
+through any of the following
+      a. Email us at dilg4a.bac@gmail.com
+      b. Deliver on hand at the receiving area of DILG IV-A CALABARZON, Andenson Bldg1. National Highway, Parian, Calamba City, Laguna</t>
   </si>
   <si>
     <t>Warranty:</t>
@@ -313,7 +375,7 @@
     <numFmt numFmtId="166" formatCode="0.00;[Red]0.00"/>
     <numFmt numFmtId="167" formatCode="[$PHP]\ #,##0.00;[Red][$PHP]\ #,##0.00"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -467,6 +529,15 @@
       <color rgb="FF000000"/>
       <name val="Cambria"/>
     </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -602,17 +673,6 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -628,11 +688,22 @@
         <color rgb="FF000000"/>
       </right>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="196">
+  <cellXfs count="199">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -936,7 +1007,103 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="11" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="164" fillId="3" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="3" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="3" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="3" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="3" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="3" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="3" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="3" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="16" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="165" fillId="3" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="3" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="3" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="165" fillId="3" borderId="4" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="165" fillId="3" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="165" fillId="3" borderId="14" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="165" fillId="3" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -945,7 +1112,13 @@
     <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" quotePrefix="1" numFmtId="15" fillId="2" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" quotePrefix="1" numFmtId="15" fillId="2" borderId="15" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" quotePrefix="1" numFmtId="15" fillId="2" borderId="6" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -954,7 +1127,7 @@
     <xf xfId="0" fontId="1" quotePrefix="1" numFmtId="15" fillId="2" borderId="9" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="3" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="3" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="15" numFmtId="0" fillId="3" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -966,130 +1139,37 @@
     <xf xfId="0" fontId="15" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="5" numFmtId="167" fillId="4" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="15" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="15" numFmtId="164" fillId="3" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="3" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="3" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="3" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="3" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="3" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="3" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="3" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="16" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="165" fillId="3" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="3" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="3" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="165" fillId="3" borderId="4" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="165" fillId="3" borderId="14" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="165" fillId="3" borderId="15" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="165" fillId="3" borderId="14" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="11" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="17" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="17" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="17" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="17" numFmtId="166" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="17" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="166" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="15" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -1098,22 +1178,34 @@
     <xf xfId="0" fontId="4" numFmtId="166" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="2" numFmtId="166" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="2" numFmtId="165" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="5" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1122,16 +1214,19 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="166" fillId="2" borderId="3" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -1140,13 +1235,10 @@
     <xf xfId="0" fontId="2" numFmtId="165" fillId="2" borderId="12" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="166" fillId="2" borderId="10" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="166" fillId="2" borderId="10" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="11" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="165" fillId="2" borderId="11" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="5" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1155,23 +1247,14 @@
     <xf xfId="0" fontId="2" numFmtId="165" fillId="2" borderId="3" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="165" fillId="2" borderId="10" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="165" fillId="2" borderId="10" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="bottom" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="5" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="5" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="5" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="5" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -1185,11 +1268,8 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="5" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="5" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="5" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="5" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="5" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -1618,24 +1698,24 @@
   <dimension ref="A1:N877"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="145" zoomScaleNormal="55" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="N71" sqref="N71"/>
+      <selection activeCell="N86" sqref="N86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="9.109375" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="9.140625" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="44"/>
-    <col min="2" max="2" width="19.109375" customWidth="true" style="44"/>
-    <col min="3" max="3" width="0.33203125" hidden="true" customWidth="true" style="44"/>
+    <col min="1" max="1" width="9.140625" style="44"/>
+    <col min="2" max="2" width="19.140625" customWidth="true" style="44"/>
+    <col min="3" max="3" width="0.28515625" hidden="true" customWidth="true" style="44"/>
     <col min="4" max="4" width="1" customWidth="true" style="44"/>
-    <col min="5" max="5" width="5.44140625" customWidth="true" style="44"/>
-    <col min="6" max="6" width="5.5546875" customWidth="true" style="44"/>
-    <col min="7" max="7" width="11.44140625" customWidth="true" style="50"/>
-    <col min="8" max="8" width="6.88671875" customWidth="true" style="44"/>
-    <col min="9" max="9" width="9.109375" style="51"/>
-    <col min="10" max="10" width="7.6640625" customWidth="true" style="51"/>
-    <col min="11" max="11" width="11.6640625" customWidth="true" style="44"/>
-    <col min="12" max="12" width="9.109375" style="44"/>
-    <col min="13" max="13" width="9.109375" style="44"/>
+    <col min="5" max="5" width="5.42578125" customWidth="true" style="44"/>
+    <col min="6" max="6" width="5.5703125" customWidth="true" style="44"/>
+    <col min="7" max="7" width="11.42578125" customWidth="true" style="50"/>
+    <col min="8" max="8" width="6.85546875" customWidth="true" style="44"/>
+    <col min="9" max="9" width="9.140625" style="51"/>
+    <col min="10" max="10" width="7.7109375" customWidth="true" style="51"/>
+    <col min="11" max="11" width="11.7109375" customWidth="true" style="44"/>
+    <col min="12" max="12" width="9.140625" style="44"/>
+    <col min="13" max="13" width="9.140625" style="44"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" customHeight="1" ht="0.75">
@@ -1682,7 +1762,7 @@
       <c r="J3" s="47"/>
       <c r="K3" s="42"/>
     </row>
-    <row r="4" spans="1:14" customHeight="1" ht="12.9">
+    <row r="4" spans="1:14" customHeight="1" ht="12.95">
       <c r="A4" s="48"/>
       <c r="C4" s="21"/>
       <c r="D4" s="4"/>
@@ -1694,7 +1774,7 @@
       <c r="J4" s="47"/>
       <c r="K4" s="42"/>
     </row>
-    <row r="5" spans="1:14" customHeight="1" ht="12.9">
+    <row r="5" spans="1:14" customHeight="1" ht="12.95">
       <c r="A5" s="48"/>
       <c r="B5" s="4"/>
       <c r="C5" s="21"/>
@@ -1707,7 +1787,7 @@
       <c r="J5" s="47"/>
       <c r="K5" s="42"/>
     </row>
-    <row r="6" spans="1:14" customHeight="1" ht="12.9">
+    <row r="6" spans="1:14" customHeight="1" ht="12.95">
       <c r="A6" s="48"/>
       <c r="B6" s="5"/>
       <c r="C6" s="21"/>
@@ -1720,12 +1800,12 @@
       <c r="J6" s="47"/>
       <c r="K6" s="42"/>
     </row>
-    <row r="7" spans="1:14" customHeight="1" ht="12.9">
+    <row r="7" spans="1:14" customHeight="1" ht="12.95">
       <c r="A7" s="48"/>
       <c r="B7" s="5"/>
       <c r="K7" s="42"/>
     </row>
-    <row r="8" spans="1:14" customHeight="1" ht="12.9">
+    <row r="8" spans="1:14" customHeight="1" ht="12.95">
       <c r="A8" s="48"/>
       <c r="B8" s="5"/>
       <c r="C8" s="21"/>
@@ -1738,7 +1818,7 @@
       <c r="J8" s="47"/>
       <c r="K8" s="42"/>
     </row>
-    <row r="9" spans="1:14" customHeight="1" ht="12.9">
+    <row r="9" spans="1:14" customHeight="1" ht="12.95">
       <c r="A9" s="48"/>
       <c r="B9" s="5"/>
       <c r="C9" s="21"/>
@@ -1794,11 +1874,11 @@
       <c r="K12" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="101" t="s">
+      <c r="L12" s="133" t="s">
         <v>4</v>
       </c>
-      <c r="M12" s="102"/>
-      <c r="N12" s="103"/>
+      <c r="M12" s="134"/>
+      <c r="N12" s="135"/>
     </row>
     <row r="13" spans="1:14" customHeight="1" ht="15.75">
       <c r="A13" s="9"/>
@@ -1807,21 +1887,21 @@
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
-      <c r="F13" s="145" t="s">
+      <c r="F13" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="145"/>
-      <c r="H13" s="145"/>
-      <c r="I13" s="145"/>
-      <c r="J13" s="146"/>
+      <c r="G13" s="136"/>
+      <c r="H13" s="136"/>
+      <c r="I13" s="136"/>
+      <c r="J13" s="137"/>
       <c r="K13" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="L13" s="104" t="s">
+      <c r="L13" s="138" t="s">
         <v>8</v>
       </c>
-      <c r="M13" s="105"/>
-      <c r="N13" s="106"/>
+      <c r="M13" s="139"/>
+      <c r="N13" s="140"/>
     </row>
     <row r="14" spans="1:14" customHeight="1" ht="4.5">
       <c r="A14" s="12"/>
@@ -1839,71 +1919,71 @@
       <c r="M14" s="19"/>
       <c r="N14" s="20"/>
     </row>
-    <row r="15" spans="1:14" customHeight="1" ht="12.9">
-      <c r="A15" s="113" t="s">
+    <row r="15" spans="1:14" customHeight="1" ht="12.95">
+      <c r="A15" s="146" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="113"/>
-      <c r="C15" s="113"/>
-      <c r="D15" s="113"/>
-      <c r="E15" s="101" t="s">
+      <c r="B15" s="146"/>
+      <c r="C15" s="146"/>
+      <c r="D15" s="146"/>
+      <c r="E15" s="133" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="102"/>
-      <c r="G15" s="102"/>
-      <c r="H15" s="102"/>
-      <c r="I15" s="102"/>
-      <c r="J15" s="102"/>
-      <c r="K15" s="102"/>
-      <c r="L15" s="102"/>
-      <c r="M15" s="102"/>
-      <c r="N15" s="103"/>
-    </row>
-    <row r="16" spans="1:14" customHeight="1" ht="12.9">
-      <c r="A16" s="113" t="s">
+      <c r="F15" s="134"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="134"/>
+      <c r="I15" s="134"/>
+      <c r="J15" s="134"/>
+      <c r="K15" s="134"/>
+      <c r="L15" s="134"/>
+      <c r="M15" s="134"/>
+      <c r="N15" s="135"/>
+    </row>
+    <row r="16" spans="1:14" customHeight="1" ht="12.95">
+      <c r="A16" s="146" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="113"/>
-      <c r="C16" s="113"/>
-      <c r="D16" s="113"/>
-      <c r="E16" s="101" t="s">
+      <c r="B16" s="146"/>
+      <c r="C16" s="146"/>
+      <c r="D16" s="146"/>
+      <c r="E16" s="133" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="102"/>
-      <c r="G16" s="102"/>
-      <c r="H16" s="102"/>
-      <c r="I16" s="102"/>
-      <c r="J16" s="102"/>
-      <c r="K16" s="102"/>
-      <c r="L16" s="102"/>
-      <c r="M16" s="102"/>
-      <c r="N16" s="103"/>
-    </row>
-    <row r="17" spans="1:14" customHeight="1" ht="12.9">
-      <c r="A17" s="113" t="s">
+      <c r="F16" s="134"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="134"/>
+      <c r="I16" s="134"/>
+      <c r="J16" s="134"/>
+      <c r="K16" s="134"/>
+      <c r="L16" s="134"/>
+      <c r="M16" s="134"/>
+      <c r="N16" s="135"/>
+    </row>
+    <row r="17" spans="1:14" customHeight="1" ht="12.95">
+      <c r="A17" s="146" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="113"/>
-      <c r="C17" s="113"/>
-      <c r="D17" s="113"/>
-      <c r="E17" s="101"/>
-      <c r="F17" s="102"/>
-      <c r="G17" s="102"/>
-      <c r="H17" s="102"/>
-      <c r="I17" s="102"/>
-      <c r="J17" s="102"/>
-      <c r="K17" s="102"/>
-      <c r="L17" s="102"/>
-      <c r="M17" s="102"/>
-      <c r="N17" s="103"/>
-    </row>
-    <row r="18" spans="1:14" customHeight="1" ht="12.9">
-      <c r="A18" s="113" t="s">
+      <c r="B17" s="146"/>
+      <c r="C17" s="146"/>
+      <c r="D17" s="146"/>
+      <c r="E17" s="133"/>
+      <c r="F17" s="134"/>
+      <c r="G17" s="134"/>
+      <c r="H17" s="134"/>
+      <c r="I17" s="134"/>
+      <c r="J17" s="134"/>
+      <c r="K17" s="134"/>
+      <c r="L17" s="134"/>
+      <c r="M17" s="134"/>
+      <c r="N17" s="135"/>
+    </row>
+    <row r="18" spans="1:14" customHeight="1" ht="12.95">
+      <c r="A18" s="146" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="113"/>
-      <c r="C18" s="113"/>
-      <c r="D18" s="113"/>
+      <c r="B18" s="146"/>
+      <c r="C18" s="146"/>
+      <c r="D18" s="146"/>
       <c r="E18" s="39"/>
       <c r="F18" s="39"/>
       <c r="G18" s="39"/>
@@ -1915,13 +1995,13 @@
       <c r="M18" s="39"/>
       <c r="N18" s="40"/>
     </row>
-    <row r="19" spans="1:14" customHeight="1" ht="12.9">
-      <c r="A19" s="113" t="s">
+    <row r="19" spans="1:14" customHeight="1" ht="12.95">
+      <c r="A19" s="146" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="113"/>
-      <c r="C19" s="113"/>
-      <c r="D19" s="113"/>
+      <c r="B19" s="146"/>
+      <c r="C19" s="146"/>
+      <c r="D19" s="146"/>
       <c r="E19" s="39"/>
       <c r="F19" s="39"/>
       <c r="G19" s="39"/>
@@ -1933,13 +2013,13 @@
       <c r="M19" s="39"/>
       <c r="N19" s="40"/>
     </row>
-    <row r="20" spans="1:14" customHeight="1" ht="12.9">
-      <c r="A20" s="113" t="s">
+    <row r="20" spans="1:14" customHeight="1" ht="12.95">
+      <c r="A20" s="146" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="113"/>
-      <c r="C20" s="113"/>
-      <c r="D20" s="113"/>
+      <c r="B20" s="146"/>
+      <c r="C20" s="146"/>
+      <c r="D20" s="146"/>
       <c r="E20" s="39"/>
       <c r="F20" s="39"/>
       <c r="G20" s="39"/>
@@ -1951,7 +2031,7 @@
       <c r="M20" s="39"/>
       <c r="N20" s="40"/>
     </row>
-    <row r="21" spans="1:14" customHeight="1" ht="12.9">
+    <row r="21" spans="1:14" customHeight="1" ht="12.95">
       <c r="A21" s="15" t="s">
         <v>17</v>
       </c>
@@ -1969,7 +2049,7 @@
       <c r="M21" s="55"/>
       <c r="N21" s="56"/>
     </row>
-    <row r="22" spans="1:14" customHeight="1" ht="12.9">
+    <row r="22" spans="1:14" customHeight="1" ht="12.95">
       <c r="A22" s="16" t="s">
         <v>18</v>
       </c>
@@ -1988,38 +2068,38 @@
       <c r="N22" s="63"/>
     </row>
     <row r="23" spans="1:14" customHeight="1" ht="8.25">
-      <c r="A23" s="110" t="s">
+      <c r="A23" s="144" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="110"/>
-      <c r="C23" s="110"/>
-      <c r="D23" s="110"/>
-      <c r="E23" s="110"/>
-      <c r="F23" s="110"/>
-      <c r="G23" s="110"/>
-      <c r="H23" s="110"/>
-      <c r="I23" s="110"/>
-      <c r="J23" s="110"/>
-      <c r="K23" s="110"/>
-      <c r="L23" s="110"/>
-      <c r="M23" s="110"/>
-      <c r="N23" s="110"/>
-    </row>
-    <row r="24" spans="1:14" customHeight="1" ht="12.9">
-      <c r="A24" s="110"/>
-      <c r="B24" s="110"/>
-      <c r="C24" s="110"/>
-      <c r="D24" s="110"/>
-      <c r="E24" s="110"/>
-      <c r="F24" s="110"/>
-      <c r="G24" s="110"/>
-      <c r="H24" s="110"/>
-      <c r="I24" s="110"/>
-      <c r="J24" s="110"/>
-      <c r="K24" s="110"/>
-      <c r="L24" s="110"/>
-      <c r="M24" s="110"/>
-      <c r="N24" s="110"/>
+      <c r="B23" s="144"/>
+      <c r="C23" s="144"/>
+      <c r="D23" s="144"/>
+      <c r="E23" s="144"/>
+      <c r="F23" s="144"/>
+      <c r="G23" s="144"/>
+      <c r="H23" s="144"/>
+      <c r="I23" s="144"/>
+      <c r="J23" s="144"/>
+      <c r="K23" s="144"/>
+      <c r="L23" s="144"/>
+      <c r="M23" s="144"/>
+      <c r="N23" s="144"/>
+    </row>
+    <row r="24" spans="1:14" customHeight="1" ht="12.95">
+      <c r="A24" s="144"/>
+      <c r="B24" s="144"/>
+      <c r="C24" s="144"/>
+      <c r="D24" s="144"/>
+      <c r="E24" s="144"/>
+      <c r="F24" s="144"/>
+      <c r="G24" s="144"/>
+      <c r="H24" s="144"/>
+      <c r="I24" s="144"/>
+      <c r="J24" s="144"/>
+      <c r="K24" s="144"/>
+      <c r="L24" s="144"/>
+      <c r="M24" s="144"/>
+      <c r="N24" s="144"/>
     </row>
     <row r="25" spans="1:14" customHeight="1" ht="12">
       <c r="A25" s="22" t="s">
@@ -2279,19 +2359,19 @@
       <c r="M37" s="81"/>
       <c r="N37" s="82"/>
     </row>
-    <row r="38" spans="1:14" customHeight="1" ht="12.9">
-      <c r="A38" s="111" t="s">
+    <row r="38" spans="1:14" customHeight="1" ht="12.95">
+      <c r="A38" s="102" t="s">
         <v>45</v>
       </c>
-      <c r="B38" s="111"/>
-      <c r="C38" s="111"/>
-      <c r="D38" s="111"/>
-      <c r="E38" s="112" t="s">
+      <c r="B38" s="102"/>
+      <c r="C38" s="102"/>
+      <c r="D38" s="102"/>
+      <c r="E38" s="145" t="s">
         <v>46</v>
       </c>
-      <c r="F38" s="112"/>
-      <c r="G38" s="112"/>
-      <c r="H38" s="112"/>
+      <c r="F38" s="145"/>
+      <c r="G38" s="145"/>
+      <c r="H38" s="145"/>
       <c r="I38" s="83"/>
       <c r="J38" s="83"/>
       <c r="K38" s="84"/>
@@ -2299,15 +2379,15 @@
       <c r="M38" s="84"/>
       <c r="N38" s="85"/>
     </row>
-    <row r="39" spans="1:14" customHeight="1" ht="12.9">
-      <c r="A39" s="111"/>
-      <c r="B39" s="111"/>
-      <c r="C39" s="111"/>
-      <c r="D39" s="111"/>
-      <c r="E39" s="112"/>
-      <c r="F39" s="112"/>
-      <c r="G39" s="112"/>
-      <c r="H39" s="112"/>
+    <row r="39" spans="1:14" customHeight="1" ht="12.95">
+      <c r="A39" s="102"/>
+      <c r="B39" s="102"/>
+      <c r="C39" s="102"/>
+      <c r="D39" s="102"/>
+      <c r="E39" s="145"/>
+      <c r="F39" s="145"/>
+      <c r="G39" s="145"/>
+      <c r="H39" s="145"/>
       <c r="I39" s="86"/>
       <c r="J39" s="86"/>
       <c r="K39" s="42"/>
@@ -2315,15 +2395,15 @@
       <c r="M39" s="42"/>
       <c r="N39" s="87"/>
     </row>
-    <row r="40" spans="1:14" customHeight="1" ht="12.9">
-      <c r="A40" s="111"/>
-      <c r="B40" s="111"/>
-      <c r="C40" s="111"/>
-      <c r="D40" s="111"/>
-      <c r="E40" s="112"/>
-      <c r="F40" s="112"/>
-      <c r="G40" s="112"/>
-      <c r="H40" s="112"/>
+    <row r="40" spans="1:14" customHeight="1" ht="12.95">
+      <c r="A40" s="102"/>
+      <c r="B40" s="102"/>
+      <c r="C40" s="102"/>
+      <c r="D40" s="102"/>
+      <c r="E40" s="145"/>
+      <c r="F40" s="145"/>
+      <c r="G40" s="145"/>
+      <c r="H40" s="145"/>
       <c r="I40" s="88"/>
       <c r="J40" s="88"/>
       <c r="K40" s="17" t="s">
@@ -2334,178 +2414,178 @@
       <c r="N40" s="87"/>
     </row>
     <row r="41" spans="1:14" customHeight="1" ht="12.75">
-      <c r="A41" s="111"/>
-      <c r="B41" s="111"/>
-      <c r="C41" s="111"/>
-      <c r="D41" s="111"/>
-      <c r="E41" s="112"/>
-      <c r="F41" s="112"/>
-      <c r="G41" s="112"/>
-      <c r="H41" s="112"/>
+      <c r="A41" s="102"/>
+      <c r="B41" s="102"/>
+      <c r="C41" s="102"/>
+      <c r="D41" s="102"/>
+      <c r="E41" s="145"/>
+      <c r="F41" s="145"/>
+      <c r="G41" s="145"/>
+      <c r="H41" s="145"/>
       <c r="I41" s="89"/>
-      <c r="J41" s="144" t="s">
+      <c r="J41" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="K41" s="144"/>
-      <c r="L41" s="144"/>
-      <c r="M41" s="144"/>
+      <c r="K41" s="101"/>
+      <c r="L41" s="101"/>
+      <c r="M41" s="101"/>
       <c r="N41" s="90"/>
     </row>
     <row r="42" spans="1:14" customHeight="1" ht="4.5">
-      <c r="A42" s="107"/>
-      <c r="B42" s="108"/>
-      <c r="C42" s="108"/>
-      <c r="D42" s="108"/>
-      <c r="E42" s="108"/>
-      <c r="F42" s="108"/>
-      <c r="G42" s="108"/>
-      <c r="H42" s="108"/>
-      <c r="I42" s="108"/>
-      <c r="J42" s="108"/>
-      <c r="K42" s="108"/>
-      <c r="L42" s="108"/>
-      <c r="M42" s="108"/>
-      <c r="N42" s="109"/>
+      <c r="A42" s="141"/>
+      <c r="B42" s="142"/>
+      <c r="C42" s="142"/>
+      <c r="D42" s="142"/>
+      <c r="E42" s="142"/>
+      <c r="F42" s="142"/>
+      <c r="G42" s="142"/>
+      <c r="H42" s="142"/>
+      <c r="I42" s="142"/>
+      <c r="J42" s="142"/>
+      <c r="K42" s="142"/>
+      <c r="L42" s="142"/>
+      <c r="M42" s="142"/>
+      <c r="N42" s="143"/>
     </row>
     <row r="43" spans="1:14" customHeight="1" ht="14.25">
-      <c r="A43" s="111" t="s">
+      <c r="A43" s="102" t="s">
         <v>49</v>
       </c>
-      <c r="B43" s="115" t="s">
+      <c r="B43" s="104" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="116"/>
-      <c r="D43" s="117"/>
-      <c r="E43" s="114" t="s">
+      <c r="C43" s="105"/>
+      <c r="D43" s="106"/>
+      <c r="E43" s="103" t="s">
         <v>51</v>
       </c>
-      <c r="F43" s="111" t="s">
+      <c r="F43" s="102" t="s">
         <v>52</v>
       </c>
-      <c r="G43" s="129" t="s">
+      <c r="G43" s="118" t="s">
         <v>53</v>
       </c>
-      <c r="H43" s="127" t="s">
+      <c r="H43" s="116" t="s">
         <v>54</v>
       </c>
-      <c r="I43" s="127"/>
-      <c r="J43" s="127"/>
-      <c r="K43" s="127"/>
-      <c r="L43" s="127"/>
-      <c r="M43" s="127"/>
-      <c r="N43" s="128"/>
+      <c r="I43" s="116"/>
+      <c r="J43" s="116"/>
+      <c r="K43" s="116"/>
+      <c r="L43" s="116"/>
+      <c r="M43" s="116"/>
+      <c r="N43" s="117"/>
     </row>
     <row r="44" spans="1:14" customHeight="1" ht="12.75">
-      <c r="A44" s="111"/>
-      <c r="B44" s="118"/>
-      <c r="C44" s="119"/>
-      <c r="D44" s="120"/>
-      <c r="E44" s="114"/>
-      <c r="F44" s="111"/>
-      <c r="G44" s="129"/>
-      <c r="H44" s="125" t="s">
+      <c r="A44" s="102"/>
+      <c r="B44" s="107"/>
+      <c r="C44" s="108"/>
+      <c r="D44" s="109"/>
+      <c r="E44" s="103"/>
+      <c r="F44" s="102"/>
+      <c r="G44" s="118"/>
+      <c r="H44" s="114" t="s">
         <v>55</v>
       </c>
-      <c r="I44" s="126"/>
-      <c r="J44" s="126"/>
-      <c r="K44" s="124" t="s">
+      <c r="I44" s="115"/>
+      <c r="J44" s="115"/>
+      <c r="K44" s="113" t="s">
         <v>56</v>
       </c>
-      <c r="L44" s="124"/>
-      <c r="M44" s="130" t="s">
+      <c r="L44" s="113"/>
+      <c r="M44" s="119" t="s">
         <v>57</v>
       </c>
-      <c r="N44" s="131"/>
+      <c r="N44" s="120"/>
     </row>
     <row r="45" spans="1:14" customHeight="1" ht="12.75">
-      <c r="A45" s="111"/>
-      <c r="B45" s="118"/>
-      <c r="C45" s="119"/>
-      <c r="D45" s="120"/>
-      <c r="E45" s="114"/>
-      <c r="F45" s="111"/>
-      <c r="G45" s="129"/>
-      <c r="H45" s="125"/>
-      <c r="I45" s="126"/>
-      <c r="J45" s="126"/>
-      <c r="K45" s="124"/>
-      <c r="L45" s="124"/>
-      <c r="M45" s="132"/>
-      <c r="N45" s="133"/>
+      <c r="A45" s="102"/>
+      <c r="B45" s="107"/>
+      <c r="C45" s="108"/>
+      <c r="D45" s="109"/>
+      <c r="E45" s="103"/>
+      <c r="F45" s="102"/>
+      <c r="G45" s="118"/>
+      <c r="H45" s="114"/>
+      <c r="I45" s="115"/>
+      <c r="J45" s="115"/>
+      <c r="K45" s="113"/>
+      <c r="L45" s="113"/>
+      <c r="M45" s="121"/>
+      <c r="N45" s="122"/>
     </row>
     <row r="46" spans="1:14" customHeight="1" ht="12.75">
-      <c r="A46" s="111"/>
-      <c r="B46" s="118"/>
-      <c r="C46" s="119"/>
-      <c r="D46" s="120"/>
-      <c r="E46" s="114"/>
-      <c r="F46" s="111"/>
-      <c r="G46" s="129"/>
-      <c r="H46" s="125"/>
-      <c r="I46" s="126"/>
-      <c r="J46" s="126"/>
-      <c r="K46" s="124"/>
-      <c r="L46" s="124"/>
-      <c r="M46" s="132"/>
-      <c r="N46" s="133"/>
+      <c r="A46" s="102"/>
+      <c r="B46" s="107"/>
+      <c r="C46" s="108"/>
+      <c r="D46" s="109"/>
+      <c r="E46" s="103"/>
+      <c r="F46" s="102"/>
+      <c r="G46" s="118"/>
+      <c r="H46" s="114"/>
+      <c r="I46" s="115"/>
+      <c r="J46" s="115"/>
+      <c r="K46" s="113"/>
+      <c r="L46" s="113"/>
+      <c r="M46" s="121"/>
+      <c r="N46" s="122"/>
     </row>
     <row r="47" spans="1:14" customHeight="1" ht="12.75">
-      <c r="A47" s="111"/>
-      <c r="B47" s="118"/>
-      <c r="C47" s="119"/>
-      <c r="D47" s="120"/>
-      <c r="E47" s="114"/>
-      <c r="F47" s="111"/>
-      <c r="G47" s="129"/>
-      <c r="H47" s="125"/>
-      <c r="I47" s="126"/>
-      <c r="J47" s="126"/>
-      <c r="K47" s="124"/>
-      <c r="L47" s="124"/>
-      <c r="M47" s="132"/>
-      <c r="N47" s="133"/>
+      <c r="A47" s="102"/>
+      <c r="B47" s="107"/>
+      <c r="C47" s="108"/>
+      <c r="D47" s="109"/>
+      <c r="E47" s="103"/>
+      <c r="F47" s="102"/>
+      <c r="G47" s="118"/>
+      <c r="H47" s="114"/>
+      <c r="I47" s="115"/>
+      <c r="J47" s="115"/>
+      <c r="K47" s="113"/>
+      <c r="L47" s="113"/>
+      <c r="M47" s="121"/>
+      <c r="N47" s="122"/>
     </row>
     <row r="48" spans="1:14" customHeight="1" ht="14.1">
-      <c r="A48" s="111"/>
-      <c r="B48" s="118"/>
-      <c r="C48" s="119"/>
-      <c r="D48" s="120"/>
-      <c r="E48" s="114"/>
-      <c r="F48" s="111"/>
-      <c r="G48" s="129"/>
-      <c r="H48" s="136" t="s">
+      <c r="A48" s="102"/>
+      <c r="B48" s="107"/>
+      <c r="C48" s="108"/>
+      <c r="D48" s="109"/>
+      <c r="E48" s="103"/>
+      <c r="F48" s="102"/>
+      <c r="G48" s="118"/>
+      <c r="H48" s="125" t="s">
         <v>58</v>
       </c>
-      <c r="I48" s="138" t="s">
+      <c r="I48" s="127" t="s">
         <v>59</v>
       </c>
-      <c r="J48" s="140" t="s">
+      <c r="J48" s="129" t="s">
         <v>60</v>
       </c>
-      <c r="K48" s="142" t="s">
+      <c r="K48" s="131" t="s">
         <v>61</v>
       </c>
-      <c r="L48" s="143" t="s">
+      <c r="L48" s="132" t="s">
         <v>62</v>
       </c>
-      <c r="M48" s="132"/>
-      <c r="N48" s="133"/>
+      <c r="M48" s="121"/>
+      <c r="N48" s="122"/>
     </row>
     <row r="49" spans="1:14" customHeight="1" ht="13.5">
-      <c r="A49" s="111"/>
-      <c r="B49" s="121"/>
-      <c r="C49" s="122"/>
-      <c r="D49" s="123"/>
-      <c r="E49" s="114"/>
-      <c r="F49" s="111"/>
-      <c r="G49" s="129"/>
-      <c r="H49" s="137"/>
-      <c r="I49" s="139"/>
-      <c r="J49" s="141"/>
-      <c r="K49" s="143"/>
-      <c r="L49" s="126"/>
-      <c r="M49" s="134"/>
-      <c r="N49" s="135"/>
+      <c r="A49" s="102"/>
+      <c r="B49" s="110"/>
+      <c r="C49" s="111"/>
+      <c r="D49" s="112"/>
+      <c r="E49" s="103"/>
+      <c r="F49" s="102"/>
+      <c r="G49" s="118"/>
+      <c r="H49" s="126"/>
+      <c r="I49" s="128"/>
+      <c r="J49" s="130"/>
+      <c r="K49" s="132"/>
+      <c r="L49" s="115"/>
+      <c r="M49" s="123"/>
+      <c r="N49" s="124"/>
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="147">
@@ -2517,538 +2597,616 @@
       <c r="C50" s="148"/>
       <c r="D50" s="148"/>
       <c r="E50" s="150">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F50" s="151" t="s">
         <v>64</v>
       </c>
-      <c r="G50" s="153" t="s">
+      <c r="G50" s="152" t="s">
         <v>65</v>
       </c>
-      <c r="H50" s="150"/>
-      <c r="I50" s="153"/>
-      <c r="J50" s="153"/>
-      <c r="K50" s="150"/>
-      <c r="L50" s="150"/>
-      <c r="M50" s="150"/>
-      <c r="N50" s="150"/>
+      <c r="H50" s="154"/>
+      <c r="I50" s="156"/>
+      <c r="J50" s="156"/>
+      <c r="K50" s="154"/>
+      <c r="L50" s="154"/>
+      <c r="M50" s="154"/>
+      <c r="N50" s="154"/>
     </row>
     <row r="51" spans="1:14">
-      <c r="A51" s="157" t="s">
+      <c r="A51" s="150">
+        <v>2</v>
+      </c>
+      <c r="B51" s="149" t="s">
         <v>66</v>
       </c>
-      <c r="B51" s="99"/>
-      <c r="C51" s="99"/>
-      <c r="D51" s="99"/>
-      <c r="E51" s="99"/>
-      <c r="F51" s="154"/>
-      <c r="G51" s="155"/>
-      <c r="H51" s="99"/>
-      <c r="I51" s="155"/>
-      <c r="J51" s="155"/>
-      <c r="K51" s="99"/>
-      <c r="L51" s="99"/>
-      <c r="M51" s="99"/>
-      <c r="N51" s="156"/>
-    </row>
-    <row r="52" spans="1:14">
-      <c r="A52" s="157" t="s">
+      <c r="C51" s="148"/>
+      <c r="D51" s="148"/>
+      <c r="E51" s="150">
+        <v>17</v>
+      </c>
+      <c r="F51" s="151" t="s">
         <v>67</v>
       </c>
-      <c r="B52" s="99"/>
-      <c r="C52" s="99"/>
-      <c r="D52" s="99"/>
-      <c r="E52" s="99"/>
-      <c r="F52" s="154"/>
-      <c r="G52" s="155"/>
-      <c r="H52" s="99"/>
-      <c r="I52" s="155"/>
-      <c r="J52" s="155"/>
-      <c r="K52" s="99"/>
-      <c r="L52" s="99"/>
-      <c r="M52" s="99"/>
-      <c r="N52" s="156"/>
-    </row>
-    <row r="53" spans="1:14">
-      <c r="A53" s="157" t="s">
+      <c r="G51" s="152" t="s">
         <v>68</v>
       </c>
-      <c r="B53" s="99"/>
-      <c r="C53" s="99"/>
-      <c r="D53" s="99"/>
-      <c r="E53" s="99"/>
-      <c r="F53" s="154"/>
-      <c r="G53" s="155"/>
-      <c r="H53" s="99"/>
-      <c r="I53" s="155"/>
-      <c r="J53" s="155"/>
-      <c r="K53" s="99"/>
-      <c r="L53" s="99"/>
-      <c r="M53" s="99"/>
-      <c r="N53" s="156"/>
-    </row>
-    <row r="54" spans="1:14">
-      <c r="A54" s="157" t="s">
+      <c r="H51" s="154"/>
+      <c r="I51" s="156"/>
+      <c r="J51" s="156"/>
+      <c r="K51" s="154"/>
+      <c r="L51" s="154"/>
+      <c r="M51" s="154"/>
+      <c r="N51" s="154"/>
+    </row>
+    <row r="52" spans="1:14">
+      <c r="A52" s="150">
+        <v>3</v>
+      </c>
+      <c r="B52" s="149" t="s">
         <v>69</v>
       </c>
-      <c r="B54" s="99"/>
-      <c r="C54" s="99"/>
-      <c r="D54" s="99"/>
-      <c r="E54" s="99"/>
-      <c r="F54" s="154"/>
-      <c r="G54" s="155"/>
-      <c r="H54" s="99"/>
-      <c r="I54" s="155"/>
-      <c r="J54" s="155"/>
-      <c r="K54" s="99"/>
-      <c r="L54" s="99"/>
-      <c r="M54" s="99"/>
-      <c r="N54" s="156"/>
-    </row>
-    <row r="55" spans="1:14">
-      <c r="A55" s="157" t="s">
+      <c r="C52" s="148"/>
+      <c r="D52" s="148"/>
+      <c r="E52" s="150">
+        <v>8</v>
+      </c>
+      <c r="F52" s="151" t="s">
+        <v>67</v>
+      </c>
+      <c r="G52" s="152" t="s">
+        <v>68</v>
+      </c>
+      <c r="H52" s="154"/>
+      <c r="I52" s="156"/>
+      <c r="J52" s="156"/>
+      <c r="K52" s="154"/>
+      <c r="L52" s="154"/>
+      <c r="M52" s="154"/>
+      <c r="N52" s="154"/>
+    </row>
+    <row r="53" spans="1:14">
+      <c r="A53" s="150">
+        <v>4</v>
+      </c>
+      <c r="B53" s="149" t="s">
         <v>70</v>
       </c>
-      <c r="B55" s="99"/>
-      <c r="C55" s="99"/>
-      <c r="D55" s="99"/>
-      <c r="E55" s="99"/>
-      <c r="F55" s="154"/>
-      <c r="G55" s="155"/>
-      <c r="H55" s="99"/>
-      <c r="I55" s="155"/>
-      <c r="J55" s="155"/>
-      <c r="K55" s="99"/>
-      <c r="L55" s="99"/>
-      <c r="M55" s="99"/>
-      <c r="N55" s="156"/>
-    </row>
-    <row r="56" spans="1:14">
-      <c r="A56" s="157" t="s">
+      <c r="C53" s="148"/>
+      <c r="D53" s="148"/>
+      <c r="E53" s="150">
+        <v>9</v>
+      </c>
+      <c r="F53" s="151" t="s">
+        <v>67</v>
+      </c>
+      <c r="G53" s="152" t="s">
+        <v>68</v>
+      </c>
+      <c r="H53" s="154"/>
+      <c r="I53" s="156"/>
+      <c r="J53" s="156"/>
+      <c r="K53" s="154"/>
+      <c r="L53" s="154"/>
+      <c r="M53" s="154"/>
+      <c r="N53" s="154"/>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="A54" s="150">
+        <v>5</v>
+      </c>
+      <c r="B54" s="149" t="s">
         <v>71</v>
       </c>
-      <c r="B56" s="99"/>
-      <c r="C56" s="99"/>
-      <c r="D56" s="99"/>
-      <c r="E56" s="99"/>
-      <c r="F56" s="154"/>
-      <c r="G56" s="155"/>
-      <c r="H56" s="99"/>
-      <c r="I56" s="155"/>
-      <c r="J56" s="155"/>
-      <c r="K56" s="99"/>
-      <c r="L56" s="99"/>
-      <c r="M56" s="99"/>
-      <c r="N56" s="156"/>
-    </row>
-    <row r="57" spans="1:14">
-      <c r="A57" s="157" t="s">
+      <c r="C54" s="148"/>
+      <c r="D54" s="148"/>
+      <c r="E54" s="150">
+        <v>1</v>
+      </c>
+      <c r="F54" s="151" t="s">
         <v>72</v>
       </c>
-      <c r="B57" s="99"/>
-      <c r="C57" s="99"/>
-      <c r="D57" s="99"/>
-      <c r="E57" s="99"/>
-      <c r="F57" s="154"/>
-      <c r="G57" s="155"/>
-      <c r="H57" s="99"/>
-      <c r="I57" s="155"/>
-      <c r="J57" s="155"/>
-      <c r="K57" s="99"/>
-      <c r="L57" s="99"/>
-      <c r="M57" s="99"/>
-      <c r="N57" s="156"/>
-    </row>
-    <row r="58" spans="1:14">
-      <c r="A58" s="157" t="s">
+      <c r="G54" s="152">
+        <v>700</v>
+      </c>
+      <c r="H54" s="154"/>
+      <c r="I54" s="156"/>
+      <c r="J54" s="156"/>
+      <c r="K54" s="154"/>
+      <c r="L54" s="154"/>
+      <c r="M54" s="154"/>
+      <c r="N54" s="154"/>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="A55" s="150">
+        <v>6</v>
+      </c>
+      <c r="B55" s="149" t="s">
         <v>73</v>
       </c>
-      <c r="B58" s="99"/>
-      <c r="C58" s="99"/>
-      <c r="D58" s="99"/>
-      <c r="E58" s="99"/>
-      <c r="F58" s="154"/>
-      <c r="G58" s="155"/>
-      <c r="H58" s="99"/>
-      <c r="I58" s="155"/>
-      <c r="J58" s="155"/>
-      <c r="K58" s="99"/>
-      <c r="L58" s="99"/>
-      <c r="M58" s="99"/>
-      <c r="N58" s="156"/>
+      <c r="C55" s="148"/>
+      <c r="D55" s="148"/>
+      <c r="E55" s="150">
+        <v>2</v>
+      </c>
+      <c r="F55" s="151" t="s">
+        <v>64</v>
+      </c>
+      <c r="G55" s="152" t="s">
+        <v>74</v>
+      </c>
+      <c r="H55" s="154"/>
+      <c r="I55" s="156"/>
+      <c r="J55" s="156"/>
+      <c r="K55" s="154"/>
+      <c r="L55" s="154"/>
+      <c r="M55" s="154"/>
+      <c r="N55" s="154"/>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="A56" s="150">
+        <v>7</v>
+      </c>
+      <c r="B56" s="149" t="s">
+        <v>75</v>
+      </c>
+      <c r="C56" s="148"/>
+      <c r="D56" s="148"/>
+      <c r="E56" s="150">
+        <v>6</v>
+      </c>
+      <c r="F56" s="151" t="s">
+        <v>64</v>
+      </c>
+      <c r="G56" s="152" t="s">
+        <v>76</v>
+      </c>
+      <c r="H56" s="154"/>
+      <c r="I56" s="156"/>
+      <c r="J56" s="156"/>
+      <c r="K56" s="154"/>
+      <c r="L56" s="154"/>
+      <c r="M56" s="154"/>
+      <c r="N56" s="154"/>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="A57" s="150">
+        <v>8</v>
+      </c>
+      <c r="B57" s="149" t="s">
+        <v>77</v>
+      </c>
+      <c r="C57" s="148"/>
+      <c r="D57" s="148"/>
+      <c r="E57" s="150">
+        <v>2</v>
+      </c>
+      <c r="F57" s="151" t="s">
+        <v>64</v>
+      </c>
+      <c r="G57" s="152" t="s">
+        <v>78</v>
+      </c>
+      <c r="H57" s="154"/>
+      <c r="I57" s="156"/>
+      <c r="J57" s="156"/>
+      <c r="K57" s="154"/>
+      <c r="L57" s="154"/>
+      <c r="M57" s="154"/>
+      <c r="N57" s="154"/>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="A58" s="150">
+        <v>9</v>
+      </c>
+      <c r="B58" s="149" t="s">
+        <v>79</v>
+      </c>
+      <c r="C58" s="148"/>
+      <c r="D58" s="148"/>
+      <c r="E58" s="150">
+        <v>10</v>
+      </c>
+      <c r="F58" s="151" t="s">
+        <v>72</v>
+      </c>
+      <c r="G58" s="152">
+        <v>500</v>
+      </c>
+      <c r="H58" s="154"/>
+      <c r="I58" s="156"/>
+      <c r="J58" s="156"/>
+      <c r="K58" s="154"/>
+      <c r="L58" s="154"/>
+      <c r="M58" s="154"/>
+      <c r="N58" s="154"/>
     </row>
     <row r="59" spans="1:14">
-      <c r="A59" s="157"/>
-      <c r="B59" s="99"/>
-      <c r="C59" s="99"/>
-      <c r="D59" s="99"/>
-      <c r="E59" s="99"/>
-      <c r="F59" s="154"/>
-      <c r="G59" s="155"/>
-      <c r="H59" s="99"/>
-      <c r="I59" s="155"/>
-      <c r="J59" s="155"/>
-      <c r="K59" s="99"/>
-      <c r="L59" s="99"/>
-      <c r="M59" s="99"/>
-      <c r="N59" s="156"/>
+      <c r="A59" s="150">
+        <v>10</v>
+      </c>
+      <c r="B59" s="149" t="s">
+        <v>80</v>
+      </c>
+      <c r="C59" s="148"/>
+      <c r="D59" s="148"/>
+      <c r="E59" s="150">
+        <v>1</v>
+      </c>
+      <c r="F59" s="151" t="s">
+        <v>64</v>
+      </c>
+      <c r="G59" s="152" t="s">
+        <v>81</v>
+      </c>
+      <c r="H59" s="154"/>
+      <c r="I59" s="156"/>
+      <c r="J59" s="156"/>
+      <c r="K59" s="154"/>
+      <c r="L59" s="154"/>
+      <c r="M59" s="154"/>
+      <c r="N59" s="154"/>
     </row>
     <row r="60" spans="1:14">
-      <c r="A60" s="157"/>
+      <c r="A60" s="163" t="s">
+        <v>82</v>
+      </c>
       <c r="B60" s="99"/>
       <c r="C60" s="99"/>
       <c r="D60" s="99"/>
       <c r="E60" s="99"/>
-      <c r="F60" s="154"/>
-      <c r="G60" s="155"/>
+      <c r="F60" s="157"/>
+      <c r="G60" s="159"/>
       <c r="H60" s="99"/>
-      <c r="I60" s="155"/>
-      <c r="J60" s="155"/>
+      <c r="I60" s="159"/>
+      <c r="J60" s="159"/>
       <c r="K60" s="99"/>
       <c r="L60" s="99"/>
       <c r="M60" s="99"/>
-      <c r="N60" s="156"/>
+      <c r="N60" s="161"/>
     </row>
     <row r="61" spans="1:14">
-      <c r="A61" s="157"/>
+      <c r="A61" s="163" t="s">
+        <v>83</v>
+      </c>
       <c r="B61" s="99"/>
       <c r="C61" s="99"/>
       <c r="D61" s="99"/>
       <c r="E61" s="99"/>
-      <c r="F61" s="154"/>
-      <c r="G61" s="155"/>
+      <c r="F61" s="157"/>
+      <c r="G61" s="159"/>
       <c r="H61" s="99"/>
-      <c r="I61" s="155"/>
-      <c r="J61" s="155"/>
+      <c r="I61" s="159"/>
+      <c r="J61" s="159"/>
       <c r="K61" s="99"/>
       <c r="L61" s="99"/>
       <c r="M61" s="99"/>
-      <c r="N61" s="156"/>
+      <c r="N61" s="161"/>
     </row>
     <row r="62" spans="1:14">
-      <c r="A62" s="157"/>
+      <c r="A62" s="163" t="s">
+        <v>83</v>
+      </c>
       <c r="B62" s="99"/>
       <c r="C62" s="99"/>
       <c r="D62" s="99"/>
       <c r="E62" s="99"/>
-      <c r="F62" s="154"/>
-      <c r="G62" s="155"/>
+      <c r="F62" s="157"/>
+      <c r="G62" s="159"/>
       <c r="H62" s="99"/>
-      <c r="I62" s="155"/>
-      <c r="J62" s="155"/>
+      <c r="I62" s="159"/>
+      <c r="J62" s="159"/>
       <c r="K62" s="99"/>
       <c r="L62" s="99"/>
       <c r="M62" s="99"/>
-      <c r="N62" s="156"/>
+      <c r="N62" s="161"/>
     </row>
     <row r="63" spans="1:14">
-      <c r="A63" s="157"/>
+      <c r="A63" s="163" t="s">
+        <v>83</v>
+      </c>
       <c r="B63" s="99"/>
       <c r="C63" s="99"/>
       <c r="D63" s="99"/>
       <c r="E63" s="99"/>
-      <c r="F63" s="154"/>
-      <c r="G63" s="155"/>
+      <c r="F63" s="157"/>
+      <c r="G63" s="159"/>
       <c r="H63" s="99"/>
-      <c r="I63" s="155"/>
-      <c r="J63" s="155"/>
+      <c r="I63" s="159"/>
+      <c r="J63" s="159"/>
       <c r="K63" s="99"/>
       <c r="L63" s="99"/>
       <c r="M63" s="99"/>
-      <c r="N63" s="156"/>
+      <c r="N63" s="161"/>
     </row>
     <row r="64" spans="1:14">
-      <c r="A64" s="161" t="s">
-        <v>74</v>
+      <c r="A64" s="163" t="s">
+        <v>83</v>
       </c>
-      <c r="B64" s="164"/>
-      <c r="C64" s="165"/>
-      <c r="D64" s="166"/>
-      <c r="E64" s="172" t="s">
-        <v>75</v>
+      <c r="B64" s="99"/>
+      <c r="C64" s="99"/>
+      <c r="D64" s="99"/>
+      <c r="E64" s="99"/>
+      <c r="F64" s="157"/>
+      <c r="G64" s="159"/>
+      <c r="H64" s="99"/>
+      <c r="I64" s="159"/>
+      <c r="J64" s="159"/>
+      <c r="K64" s="99"/>
+      <c r="L64" s="99"/>
+      <c r="M64" s="99"/>
+      <c r="N64" s="161"/>
+    </row>
+    <row r="65" spans="1:14">
+      <c r="A65" s="164" t="s">
+        <v>83</v>
       </c>
-      <c r="F64" s="170"/>
-      <c r="G64" s="171"/>
-      <c r="H64" s="174"/>
-      <c r="I64" s="175"/>
-      <c r="J64" s="171"/>
-      <c r="K64" s="172" t="s">
-        <v>76</v>
+      <c r="B65" s="100"/>
+      <c r="C65" s="100"/>
+      <c r="D65" s="100"/>
+      <c r="E65" s="100"/>
+      <c r="F65" s="158"/>
+      <c r="G65" s="160"/>
+      <c r="H65" s="100"/>
+      <c r="I65" s="160"/>
+      <c r="J65" s="160"/>
+      <c r="K65" s="100"/>
+      <c r="L65" s="100"/>
+      <c r="M65" s="100"/>
+      <c r="N65" s="162"/>
+    </row>
+    <row r="66" spans="1:14">
+      <c r="A66" s="164" t="s">
+        <v>83</v>
       </c>
-      <c r="L64" s="176"/>
-      <c r="M64" s="174"/>
-      <c r="N64" s="166"/>
-    </row>
-    <row r="65" spans="1:14">
-      <c r="A65" s="160"/>
-      <c r="B65" s="163"/>
-      <c r="C65" s="162"/>
-      <c r="D65" s="159"/>
-      <c r="E65" s="169"/>
-      <c r="F65" s="167"/>
-      <c r="G65" s="168"/>
-      <c r="H65" s="169"/>
-      <c r="I65" s="173"/>
-      <c r="J65" s="168"/>
-      <c r="K65" s="169"/>
-      <c r="L65" s="159"/>
-      <c r="M65" s="169"/>
-      <c r="N65" s="160"/>
-    </row>
-    <row r="66" spans="1:14">
-      <c r="A66" s="177"/>
-      <c r="B66" s="91"/>
-      <c r="C66" s="91"/>
-      <c r="D66" s="91"/>
-      <c r="E66" s="91"/>
-      <c r="F66" s="93"/>
-      <c r="G66" s="94"/>
-      <c r="H66" s="91"/>
-      <c r="I66" s="94"/>
-      <c r="J66" s="94"/>
-      <c r="K66" s="91"/>
-      <c r="L66" s="91"/>
-      <c r="M66" s="91"/>
-      <c r="N66" s="158"/>
+      <c r="B66" s="100"/>
+      <c r="C66" s="100"/>
+      <c r="D66" s="100"/>
+      <c r="E66" s="100"/>
+      <c r="F66" s="158"/>
+      <c r="G66" s="160"/>
+      <c r="H66" s="100"/>
+      <c r="I66" s="160"/>
+      <c r="J66" s="160"/>
+      <c r="K66" s="100"/>
+      <c r="L66" s="100"/>
+      <c r="M66" s="100"/>
+      <c r="N66" s="162"/>
     </row>
     <row r="67" spans="1:14">
-      <c r="A67" s="178" t="s">
-        <v>77</v>
+      <c r="A67" s="164" t="s">
+        <v>83</v>
       </c>
-      <c r="B67" s="179"/>
-      <c r="C67" s="180"/>
-      <c r="D67" s="180"/>
-      <c r="E67" s="180"/>
-      <c r="F67" s="181"/>
-      <c r="G67" s="182"/>
-      <c r="H67" s="180"/>
-      <c r="I67" s="182"/>
-      <c r="J67" s="182"/>
-      <c r="K67" s="180"/>
-      <c r="L67" s="180"/>
-      <c r="M67" s="180"/>
-      <c r="N67" s="183"/>
+      <c r="B67" s="100"/>
+      <c r="C67" s="100"/>
+      <c r="D67" s="100"/>
+      <c r="E67" s="100"/>
+      <c r="F67" s="158"/>
+      <c r="G67" s="160"/>
+      <c r="H67" s="100"/>
+      <c r="I67" s="160"/>
+      <c r="J67" s="160"/>
+      <c r="K67" s="100"/>
+      <c r="L67" s="100"/>
+      <c r="M67" s="100"/>
+      <c r="N67" s="162"/>
     </row>
     <row r="68" spans="1:14">
-      <c r="A68" s="184" t="s">
-        <v>78</v>
+      <c r="A68" s="164"/>
+      <c r="B68" s="100"/>
+      <c r="C68" s="100"/>
+      <c r="D68" s="100"/>
+      <c r="E68" s="100"/>
+      <c r="F68" s="158"/>
+      <c r="G68" s="160"/>
+      <c r="H68" s="100"/>
+      <c r="I68" s="160"/>
+      <c r="J68" s="160"/>
+      <c r="K68" s="100"/>
+      <c r="L68" s="100"/>
+      <c r="M68" s="100"/>
+      <c r="N68" s="162"/>
+    </row>
+    <row r="69" spans="1:14">
+      <c r="A69" s="164"/>
+      <c r="B69" s="100"/>
+      <c r="C69" s="100"/>
+      <c r="D69" s="100"/>
+      <c r="E69" s="100"/>
+      <c r="F69" s="158"/>
+      <c r="G69" s="160"/>
+      <c r="H69" s="100"/>
+      <c r="I69" s="160"/>
+      <c r="J69" s="160"/>
+      <c r="K69" s="100"/>
+      <c r="L69" s="100"/>
+      <c r="M69" s="100"/>
+      <c r="N69" s="162"/>
+    </row>
+    <row r="70" spans="1:14">
+      <c r="A70" s="164"/>
+      <c r="B70" s="100"/>
+      <c r="C70" s="100"/>
+      <c r="D70" s="100"/>
+      <c r="E70" s="100"/>
+      <c r="F70" s="158"/>
+      <c r="G70" s="160"/>
+      <c r="H70" s="100"/>
+      <c r="I70" s="160"/>
+      <c r="J70" s="160"/>
+      <c r="K70" s="100"/>
+      <c r="L70" s="100"/>
+      <c r="M70" s="100"/>
+      <c r="N70" s="162"/>
+    </row>
+    <row r="71" spans="1:14">
+      <c r="A71" s="164"/>
+      <c r="B71" s="100"/>
+      <c r="C71" s="100"/>
+      <c r="D71" s="100"/>
+      <c r="E71" s="100"/>
+      <c r="F71" s="158"/>
+      <c r="G71" s="160"/>
+      <c r="H71" s="100"/>
+      <c r="I71" s="160"/>
+      <c r="J71" s="160"/>
+      <c r="K71" s="100"/>
+      <c r="L71" s="100"/>
+      <c r="M71" s="100"/>
+      <c r="N71" s="162"/>
+    </row>
+    <row r="72" spans="1:14">
+      <c r="A72" s="164"/>
+      <c r="B72" s="100"/>
+      <c r="C72" s="100"/>
+      <c r="D72" s="100"/>
+      <c r="E72" s="100"/>
+      <c r="F72" s="158"/>
+      <c r="G72" s="160"/>
+      <c r="H72" s="100"/>
+      <c r="I72" s="160"/>
+      <c r="J72" s="160"/>
+      <c r="K72" s="100"/>
+      <c r="L72" s="100"/>
+      <c r="M72" s="100"/>
+      <c r="N72" s="162"/>
+    </row>
+    <row r="73" spans="1:14">
+      <c r="A73" s="164"/>
+      <c r="B73" s="100"/>
+      <c r="C73" s="100"/>
+      <c r="D73" s="100"/>
+      <c r="E73" s="100"/>
+      <c r="F73" s="158"/>
+      <c r="G73" s="160"/>
+      <c r="H73" s="100"/>
+      <c r="I73" s="160"/>
+      <c r="J73" s="160"/>
+      <c r="K73" s="100"/>
+      <c r="L73" s="100"/>
+      <c r="M73" s="100"/>
+      <c r="N73" s="162"/>
+    </row>
+    <row r="74" spans="1:14">
+      <c r="A74" s="164"/>
+      <c r="B74" s="100"/>
+      <c r="C74" s="100"/>
+      <c r="D74" s="100"/>
+      <c r="E74" s="100"/>
+      <c r="F74" s="158"/>
+      <c r="G74" s="160"/>
+      <c r="H74" s="100"/>
+      <c r="I74" s="160"/>
+      <c r="J74" s="160"/>
+      <c r="K74" s="100"/>
+      <c r="L74" s="100"/>
+      <c r="M74" s="100"/>
+      <c r="N74" s="162"/>
+    </row>
+    <row r="75" spans="1:14">
+      <c r="A75" s="164"/>
+      <c r="B75" s="100"/>
+      <c r="C75" s="100"/>
+      <c r="D75" s="100"/>
+      <c r="E75" s="100"/>
+      <c r="F75" s="158"/>
+      <c r="G75" s="160"/>
+      <c r="H75" s="100"/>
+      <c r="I75" s="160"/>
+      <c r="J75" s="160"/>
+      <c r="K75" s="100"/>
+      <c r="L75" s="100"/>
+      <c r="M75" s="100"/>
+      <c r="N75" s="162"/>
+    </row>
+    <row r="76" spans="1:14">
+      <c r="A76" s="164"/>
+      <c r="B76" s="100"/>
+      <c r="C76" s="100"/>
+      <c r="D76" s="100"/>
+      <c r="E76" s="100"/>
+      <c r="F76" s="158"/>
+      <c r="G76" s="160"/>
+      <c r="H76" s="100"/>
+      <c r="I76" s="160"/>
+      <c r="J76" s="160"/>
+      <c r="K76" s="100"/>
+      <c r="L76" s="100"/>
+      <c r="M76" s="100"/>
+      <c r="N76" s="162"/>
+    </row>
+    <row r="77" spans="1:14">
+      <c r="A77" s="164"/>
+      <c r="B77" s="100"/>
+      <c r="C77" s="100"/>
+      <c r="D77" s="100"/>
+      <c r="E77" s="100"/>
+      <c r="F77" s="158"/>
+      <c r="G77" s="160"/>
+      <c r="H77" s="100"/>
+      <c r="I77" s="160"/>
+      <c r="J77" s="160"/>
+      <c r="K77" s="100"/>
+      <c r="L77" s="100"/>
+      <c r="M77" s="100"/>
+      <c r="N77" s="162"/>
+    </row>
+    <row r="78" spans="1:14">
+      <c r="A78" s="164"/>
+      <c r="B78" s="100"/>
+      <c r="C78" s="100"/>
+      <c r="D78" s="100"/>
+      <c r="E78" s="100"/>
+      <c r="F78" s="158"/>
+      <c r="G78" s="160"/>
+      <c r="H78" s="100"/>
+      <c r="I78" s="160"/>
+      <c r="J78" s="160"/>
+      <c r="K78" s="100"/>
+      <c r="L78" s="100"/>
+      <c r="M78" s="100"/>
+      <c r="N78" s="162"/>
+    </row>
+    <row r="79" spans="1:14">
+      <c r="A79" s="168" t="s">
+        <v>84</v>
       </c>
-      <c r="B68" s="185"/>
-      <c r="C68" s="186"/>
-      <c r="D68" s="186"/>
-      <c r="E68" s="186"/>
-      <c r="F68" s="187"/>
-      <c r="G68" s="188"/>
-      <c r="H68" s="186"/>
-      <c r="I68" s="188"/>
-      <c r="J68" s="188"/>
-      <c r="K68" s="186"/>
-      <c r="L68" s="186"/>
-      <c r="M68" s="186"/>
-      <c r="N68" s="189"/>
-    </row>
-    <row r="69" spans="1:14">
-      <c r="A69" s="190" t="s">
-        <v>79</v>
+      <c r="B79" s="174"/>
+      <c r="C79" s="172"/>
+      <c r="D79" s="173"/>
+      <c r="E79" s="179" t="s">
+        <v>85</v>
       </c>
-      <c r="B69" s="149"/>
-      <c r="C69" s="191"/>
-      <c r="D69" s="191"/>
-      <c r="E69" s="191"/>
-      <c r="F69" s="192"/>
-      <c r="G69" s="193"/>
-      <c r="H69" s="191"/>
-      <c r="I69" s="193"/>
-      <c r="J69" s="193"/>
-      <c r="K69" s="191"/>
-      <c r="L69" s="191"/>
-      <c r="M69" s="191"/>
-      <c r="N69" s="194"/>
-    </row>
-    <row r="70" spans="1:14">
-      <c r="A70" s="190" t="s">
-        <v>80</v>
+      <c r="F79" s="177"/>
+      <c r="G79" s="178"/>
+      <c r="H79" s="174"/>
+      <c r="I79" s="181"/>
+      <c r="J79" s="178"/>
+      <c r="K79" s="179" t="s">
+        <v>86</v>
       </c>
-      <c r="B70" s="149"/>
-      <c r="C70" s="191"/>
-      <c r="D70" s="191"/>
-      <c r="E70" s="191"/>
-      <c r="F70" s="192"/>
-      <c r="G70" s="193"/>
-      <c r="H70" s="191"/>
-      <c r="I70" s="193"/>
-      <c r="J70" s="193"/>
-      <c r="K70" s="191"/>
-      <c r="L70" s="191"/>
-      <c r="M70" s="191"/>
-      <c r="N70" s="194"/>
-    </row>
-    <row r="71" spans="1:14">
-      <c r="A71" s="190" t="s">
-        <v>81</v>
-      </c>
-      <c r="B71" s="149"/>
-      <c r="C71" s="191"/>
-      <c r="D71" s="191"/>
-      <c r="E71" s="191"/>
-      <c r="F71" s="192"/>
-      <c r="G71" s="193"/>
-      <c r="H71" s="194"/>
-      <c r="I71" s="195" t="s">
-        <v>7</v>
-      </c>
-      <c r="J71" s="152"/>
-      <c r="K71" s="191"/>
-      <c r="L71" s="191"/>
-      <c r="M71" s="191"/>
-      <c r="N71" s="194"/>
-    </row>
-    <row r="72" spans="1:14">
-      <c r="A72" s="91"/>
-      <c r="B72" s="100"/>
-      <c r="C72" s="91"/>
-      <c r="D72" s="91"/>
-      <c r="E72" s="91"/>
-      <c r="F72" s="93"/>
-      <c r="G72" s="94"/>
-      <c r="H72" s="91"/>
-      <c r="I72" s="94"/>
-      <c r="J72" s="94"/>
-      <c r="K72" s="91"/>
-      <c r="L72" s="91"/>
-      <c r="M72" s="91"/>
-      <c r="N72" s="91"/>
-    </row>
-    <row r="73" spans="1:14">
-      <c r="A73" s="91"/>
-      <c r="B73" s="100"/>
-      <c r="C73" s="91"/>
-      <c r="D73" s="91"/>
-      <c r="E73" s="91"/>
-      <c r="F73" s="93"/>
-      <c r="G73" s="94"/>
-      <c r="H73" s="91"/>
-      <c r="I73" s="94"/>
-      <c r="J73" s="94"/>
-      <c r="K73" s="91"/>
-      <c r="L73" s="91"/>
-      <c r="M73" s="91"/>
-      <c r="N73" s="91"/>
-    </row>
-    <row r="74" spans="1:14">
-      <c r="A74" s="91"/>
-      <c r="B74" s="100"/>
-      <c r="C74" s="91"/>
-      <c r="D74" s="91"/>
-      <c r="E74" s="91"/>
-      <c r="F74" s="93"/>
-      <c r="G74" s="94"/>
-      <c r="H74" s="91"/>
-      <c r="I74" s="94"/>
-      <c r="J74" s="94"/>
-      <c r="K74" s="91"/>
-      <c r="L74" s="91"/>
-      <c r="M74" s="91"/>
-      <c r="N74" s="91"/>
-    </row>
-    <row r="75" spans="1:14">
-      <c r="A75" s="91"/>
-      <c r="B75" s="100"/>
-      <c r="C75" s="91"/>
-      <c r="D75" s="91"/>
-      <c r="E75" s="91"/>
-      <c r="F75" s="93"/>
-      <c r="G75" s="94"/>
-      <c r="H75" s="91"/>
-      <c r="I75" s="94"/>
-      <c r="J75" s="94"/>
-      <c r="K75" s="91"/>
-      <c r="L75" s="91"/>
-      <c r="M75" s="91"/>
-      <c r="N75" s="91"/>
-    </row>
-    <row r="76" spans="1:14">
-      <c r="A76" s="91"/>
-      <c r="B76" s="91"/>
-      <c r="C76" s="91"/>
-      <c r="D76" s="91"/>
-      <c r="E76" s="91"/>
-      <c r="F76" s="93"/>
-      <c r="G76" s="94"/>
-      <c r="H76" s="91"/>
-      <c r="I76" s="94"/>
-      <c r="J76" s="94"/>
-      <c r="K76" s="91"/>
-      <c r="L76" s="91"/>
-      <c r="M76" s="91"/>
-      <c r="N76" s="91"/>
-    </row>
-    <row r="77" spans="1:14">
-      <c r="A77" s="91"/>
-      <c r="B77" s="91"/>
-      <c r="C77" s="91"/>
-      <c r="D77" s="91"/>
-      <c r="E77" s="91"/>
-      <c r="F77" s="93"/>
-      <c r="G77" s="94"/>
-      <c r="H77" s="91"/>
-      <c r="I77" s="94"/>
-      <c r="J77" s="94"/>
-      <c r="K77" s="91"/>
-      <c r="L77" s="91"/>
-      <c r="M77" s="91"/>
-      <c r="N77" s="91"/>
-    </row>
-    <row r="78" spans="1:14">
-      <c r="A78" s="91"/>
-      <c r="B78" s="91"/>
-      <c r="C78" s="91"/>
-      <c r="D78" s="91"/>
-      <c r="E78" s="91"/>
-      <c r="F78" s="93"/>
-      <c r="G78" s="94"/>
-      <c r="H78" s="91"/>
-      <c r="I78" s="94"/>
-      <c r="J78" s="94"/>
-      <c r="K78" s="91"/>
-      <c r="L78" s="91"/>
-      <c r="M78" s="91"/>
-      <c r="N78" s="91"/>
-    </row>
-    <row r="79" spans="1:14">
-      <c r="A79" s="91"/>
-      <c r="B79" s="91"/>
-      <c r="C79" s="91"/>
-      <c r="D79" s="91"/>
-      <c r="E79" s="91"/>
-      <c r="F79" s="93"/>
-      <c r="G79" s="94"/>
-      <c r="H79" s="91"/>
-      <c r="I79" s="94"/>
-      <c r="J79" s="94"/>
-      <c r="K79" s="91"/>
-      <c r="L79" s="91"/>
-      <c r="M79" s="91"/>
-      <c r="N79" s="91"/>
+      <c r="L79" s="182"/>
+      <c r="M79" s="174"/>
+      <c r="N79" s="173"/>
     </row>
     <row r="80" spans="1:14">
-      <c r="A80" s="91"/>
-      <c r="B80" s="91"/>
-      <c r="C80" s="91"/>
-      <c r="D80" s="91"/>
-      <c r="E80" s="91"/>
-      <c r="F80" s="93"/>
-      <c r="G80" s="94"/>
-      <c r="H80" s="91"/>
-      <c r="I80" s="94"/>
-      <c r="J80" s="94"/>
-      <c r="K80" s="91"/>
-      <c r="L80" s="91"/>
-      <c r="M80" s="91"/>
-      <c r="N80" s="91"/>
+      <c r="A80" s="167"/>
+      <c r="B80" s="171"/>
+      <c r="C80" s="169"/>
+      <c r="D80" s="166"/>
+      <c r="E80" s="171"/>
+      <c r="F80" s="175"/>
+      <c r="G80" s="176"/>
+      <c r="H80" s="171"/>
+      <c r="I80" s="180"/>
+      <c r="J80" s="176"/>
+      <c r="K80" s="171"/>
+      <c r="L80" s="166"/>
+      <c r="M80" s="171"/>
+      <c r="N80" s="167"/>
     </row>
     <row r="81" spans="1:14">
-      <c r="A81" s="91"/>
+      <c r="A81" s="170"/>
       <c r="B81" s="91"/>
       <c r="C81" s="91"/>
       <c r="D81" s="91"/>
@@ -3061,87 +3219,99 @@
       <c r="K81" s="91"/>
       <c r="L81" s="91"/>
       <c r="M81" s="91"/>
-      <c r="N81" s="91"/>
+      <c r="N81" s="165"/>
     </row>
     <row r="82" spans="1:14">
-      <c r="A82" s="91"/>
-      <c r="B82" s="91"/>
-      <c r="C82" s="91"/>
-      <c r="D82" s="91"/>
-      <c r="E82" s="91"/>
-      <c r="F82" s="93"/>
-      <c r="G82" s="94"/>
-      <c r="H82" s="91"/>
-      <c r="I82" s="94"/>
-      <c r="J82" s="94"/>
-      <c r="K82" s="91"/>
-      <c r="L82" s="91"/>
-      <c r="M82" s="91"/>
-      <c r="N82" s="91"/>
+      <c r="A82" s="183" t="s">
+        <v>87</v>
+      </c>
+      <c r="B82" s="184"/>
+      <c r="C82" s="184"/>
+      <c r="D82" s="184"/>
+      <c r="E82" s="184"/>
+      <c r="F82" s="185"/>
+      <c r="G82" s="186"/>
+      <c r="H82" s="184"/>
+      <c r="I82" s="186"/>
+      <c r="J82" s="186"/>
+      <c r="K82" s="184"/>
+      <c r="L82" s="184"/>
+      <c r="M82" s="184"/>
+      <c r="N82" s="187"/>
     </row>
     <row r="83" spans="1:14">
-      <c r="A83" s="91"/>
-      <c r="B83" s="91"/>
-      <c r="C83" s="91"/>
-      <c r="D83" s="91"/>
-      <c r="E83" s="91"/>
-      <c r="F83" s="93"/>
-      <c r="G83" s="94"/>
-      <c r="H83" s="91"/>
-      <c r="I83" s="94"/>
-      <c r="J83" s="94"/>
-      <c r="K83" s="91"/>
-      <c r="L83" s="91"/>
-      <c r="M83" s="91"/>
-      <c r="N83" s="91"/>
+      <c r="A83" s="188" t="s">
+        <v>88</v>
+      </c>
+      <c r="B83" s="189"/>
+      <c r="C83" s="189"/>
+      <c r="D83" s="189"/>
+      <c r="E83" s="189"/>
+      <c r="F83" s="190"/>
+      <c r="G83" s="191"/>
+      <c r="H83" s="189"/>
+      <c r="I83" s="191"/>
+      <c r="J83" s="191"/>
+      <c r="K83" s="189"/>
+      <c r="L83" s="189"/>
+      <c r="M83" s="189"/>
+      <c r="N83" s="192"/>
     </row>
     <row r="84" spans="1:14">
-      <c r="A84" s="91"/>
-      <c r="B84" s="91"/>
-      <c r="C84" s="91"/>
-      <c r="D84" s="91"/>
-      <c r="E84" s="91"/>
-      <c r="F84" s="93"/>
-      <c r="G84" s="94"/>
-      <c r="H84" s="91"/>
-      <c r="I84" s="94"/>
-      <c r="J84" s="94"/>
-      <c r="K84" s="91"/>
-      <c r="L84" s="91"/>
-      <c r="M84" s="91"/>
-      <c r="N84" s="91"/>
+      <c r="A84" s="193" t="s">
+        <v>89</v>
+      </c>
+      <c r="B84" s="153"/>
+      <c r="C84" s="194"/>
+      <c r="D84" s="194"/>
+      <c r="E84" s="194"/>
+      <c r="F84" s="195"/>
+      <c r="G84" s="196"/>
+      <c r="H84" s="194"/>
+      <c r="I84" s="196"/>
+      <c r="J84" s="196"/>
+      <c r="K84" s="194"/>
+      <c r="L84" s="194"/>
+      <c r="M84" s="194"/>
+      <c r="N84" s="197"/>
     </row>
     <row r="85" spans="1:14">
-      <c r="A85" s="91"/>
-      <c r="B85" s="91"/>
-      <c r="C85" s="91"/>
-      <c r="D85" s="91"/>
-      <c r="E85" s="91"/>
-      <c r="F85" s="93"/>
-      <c r="G85" s="94"/>
-      <c r="H85" s="91"/>
-      <c r="I85" s="94"/>
-      <c r="J85" s="94"/>
-      <c r="K85" s="91"/>
-      <c r="L85" s="91"/>
-      <c r="M85" s="91"/>
-      <c r="N85" s="91"/>
+      <c r="A85" s="193" t="s">
+        <v>90</v>
+      </c>
+      <c r="B85" s="153"/>
+      <c r="C85" s="194"/>
+      <c r="D85" s="194"/>
+      <c r="E85" s="194"/>
+      <c r="F85" s="195"/>
+      <c r="G85" s="196"/>
+      <c r="H85" s="194"/>
+      <c r="I85" s="196"/>
+      <c r="J85" s="196"/>
+      <c r="K85" s="194"/>
+      <c r="L85" s="194"/>
+      <c r="M85" s="194"/>
+      <c r="N85" s="197"/>
     </row>
     <row r="86" spans="1:14">
-      <c r="A86" s="91"/>
-      <c r="B86" s="91"/>
-      <c r="C86" s="91"/>
-      <c r="D86" s="91"/>
-      <c r="E86" s="91"/>
-      <c r="F86" s="93"/>
-      <c r="G86" s="94"/>
-      <c r="H86" s="91"/>
-      <c r="I86" s="94"/>
-      <c r="J86" s="94"/>
-      <c r="K86" s="91"/>
-      <c r="L86" s="91"/>
-      <c r="M86" s="91"/>
-      <c r="N86" s="91"/>
+      <c r="A86" s="193" t="s">
+        <v>91</v>
+      </c>
+      <c r="B86" s="153"/>
+      <c r="C86" s="194"/>
+      <c r="D86" s="194"/>
+      <c r="E86" s="194"/>
+      <c r="F86" s="195"/>
+      <c r="G86" s="196"/>
+      <c r="H86" s="197"/>
+      <c r="I86" s="198" t="s">
+        <v>7</v>
+      </c>
+      <c r="J86" s="155"/>
+      <c r="K86" s="194"/>
+      <c r="L86" s="194"/>
+      <c r="M86" s="194"/>
+      <c r="N86" s="197"/>
     </row>
     <row r="87" spans="1:14">
       <c r="A87" s="91"/>
@@ -15802,21 +15972,6 @@
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
-    <mergeCell ref="J41:M41"/>
-    <mergeCell ref="F43:F49"/>
-    <mergeCell ref="E43:E49"/>
-    <mergeCell ref="B43:D49"/>
-    <mergeCell ref="A43:A49"/>
-    <mergeCell ref="K44:L47"/>
-    <mergeCell ref="H44:J47"/>
-    <mergeCell ref="H43:N43"/>
-    <mergeCell ref="G43:G49"/>
-    <mergeCell ref="M44:N49"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="J48:J49"/>
-    <mergeCell ref="K48:K49"/>
-    <mergeCell ref="L48:L49"/>
     <mergeCell ref="L12:N12"/>
     <mergeCell ref="F13:J13"/>
     <mergeCell ref="L13:N13"/>
@@ -15833,19 +15988,34 @@
     <mergeCell ref="E15:N15"/>
     <mergeCell ref="E16:N16"/>
     <mergeCell ref="E17:N17"/>
-    <mergeCell ref="A51:N63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B64:D65"/>
-    <mergeCell ref="E64:G65"/>
-    <mergeCell ref="H64:J65"/>
-    <mergeCell ref="K64:L65"/>
-    <mergeCell ref="M64:N65"/>
-    <mergeCell ref="A67:N67"/>
-    <mergeCell ref="A68:N68"/>
-    <mergeCell ref="B69:N69"/>
-    <mergeCell ref="B70:N70"/>
-    <mergeCell ref="B71:H71"/>
-    <mergeCell ref="J71:N71"/>
+    <mergeCell ref="J41:M41"/>
+    <mergeCell ref="F43:F49"/>
+    <mergeCell ref="E43:E49"/>
+    <mergeCell ref="B43:D49"/>
+    <mergeCell ref="A43:A49"/>
+    <mergeCell ref="K44:L47"/>
+    <mergeCell ref="H44:J47"/>
+    <mergeCell ref="H43:N43"/>
+    <mergeCell ref="G43:G49"/>
+    <mergeCell ref="M44:N49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="J48:J49"/>
+    <mergeCell ref="K48:K49"/>
+    <mergeCell ref="L48:L49"/>
+    <mergeCell ref="A60:N78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:D80"/>
+    <mergeCell ref="E79:G80"/>
+    <mergeCell ref="H79:J80"/>
+    <mergeCell ref="K79:L80"/>
+    <mergeCell ref="M79:N80"/>
+    <mergeCell ref="A82:N82"/>
+    <mergeCell ref="A83:N83"/>
+    <mergeCell ref="B84:N84"/>
+    <mergeCell ref="B85:N85"/>
+    <mergeCell ref="B86:H86"/>
+    <mergeCell ref="J86:N86"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.5" right="0.5" top="0" bottom="0.25" header="0.12" footer="0.12"/>

--- a/export_rfq.xlsx
+++ b/export_rfq.xlsx
@@ -237,22 +237,15 @@
   </si>
   <si>
     <t>NOTE:
-*In order to be eligible for this procurement, suppliers/service providers
-   must submit together with the quotation/proposal the following
+*In order to be eligible for this procurement, suppliers/service providers must submit together with the quotation the following Eligibility Documents:
    1. Valid Business Peromit 2020 ( Application for renewal with Official Receipt 2020)
    2. PhilGEPS Registration No. (Please indicate on the space provided above)
-   3. Others:
-     a. Any documents to prove that the signatory of the quotation is
-autorized representative of the company, or eligibility requirements.
-     b. Photocopy of ID bearing the pictures/ signature of the
-representatives.
+   3.a. Any documents to prove that the signatory of the quotation is autorized representative of the company.
+     b. Photocopy of ID bearing the pictures/ signature of the representatives.
    4. Accomplished and Notarized Omnibus Sworn Statement
-Other Instruction:
- * Please submit Your quotation using our official Request for Quotation (RFQ) Form.
-You can secure a copy of the said RFQ to 
-General Services and supply section, Finance and Administrative Division, DILG.
- *Please submit your quotations//s together with the Eligibility Documents
-through any of the following : 
+ * Please submit Your quotation using our official Request for Quotation (RFQ) Form. You can secure a copy of the RFQ 
+from the General Services and Supply Section, Finance and Administrative Division. 
+ *Please submit your quotation together with the Eligibility Documents through any of the following : 
       a. Email us at dilg4a.bac@gmail.com
       b. Deliver on hand at the receiving area of DILG IV-A CALABARZON, Andenson Bldg1. National Highway, Parian, Calamba City, Laguna</t>
   </si>
@@ -291,7 +284,7 @@
     <numFmt numFmtId="166" formatCode="0.00;[Red]0.00"/>
     <numFmt numFmtId="167" formatCode="[$PHP]\ #,##0.00;[Red][$PHP]\ #,##0.00"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="18">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -450,18 +443,9 @@
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
-      <sz val="14"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1118,7 +1102,7 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -1136,7 +1120,7 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="5" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="5" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -1169,7 +1153,7 @@
     <xf xfId="0" fontId="2" numFmtId="165" fillId="2" borderId="11" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="5" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="5" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="165" fillId="2" borderId="3" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -1205,7 +1189,7 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="5" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="18" numFmtId="0" fillId="5" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="11" numFmtId="0" fillId="5" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="5" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1223,7 +1207,7 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="5" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="5" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="5" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -1241,7 +1225,7 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="5" numFmtId="165" fillId="5" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="165" fillId="5" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>

--- a/export_rfq.xlsx
+++ b/export_rfq.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="76">
   <si>
     <t>Republic of the Philippines</t>
   </si>
@@ -172,7 +172,7 @@
     <t>Approved Budget for the Contract (ABC):</t>
   </si>
   <si>
-    <t>380,000.00</t>
+    <t>380,750.00</t>
   </si>
   <si>
     <t>DR. CARINA S. CRUZ</t>
@@ -234,6 +234,13 @@
   </si>
   <si>
     <t>piece</t>
+  </si>
+  <si>
+    <t>Alcohol 70%, (1 Gal)
+qwe</t>
+  </si>
+  <si>
+    <t>gallon</t>
   </si>
   <si>
     <t>NOTE:
@@ -612,7 +619,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="205">
+  <cellXfs count="204">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -1209,9 +1216,6 @@
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="5" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -1625,7 +1629,7 @@
   <dimension ref="A1:N877"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="145" zoomScaleNormal="55" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="N77" sqref="N77"/>
+      <selection activeCell="N78" sqref="N78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="9.140625" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2541,25 +2545,35 @@
       <c r="N50" s="154"/>
     </row>
     <row r="51" spans="1:14">
-      <c r="A51" s="163" t="s">
+      <c r="A51" s="150">
+        <v>2</v>
+      </c>
+      <c r="B51" s="149" t="s">
         <v>65</v>
       </c>
-      <c r="B51" s="99"/>
-      <c r="C51" s="99"/>
-      <c r="D51" s="99"/>
-      <c r="E51" s="99"/>
-      <c r="F51" s="157"/>
-      <c r="G51" s="159"/>
-      <c r="H51" s="99"/>
-      <c r="I51" s="159"/>
-      <c r="J51" s="159"/>
-      <c r="K51" s="99"/>
-      <c r="L51" s="99"/>
-      <c r="M51" s="99"/>
-      <c r="N51" s="161"/>
+      <c r="C51" s="148"/>
+      <c r="D51" s="148"/>
+      <c r="E51" s="150">
+        <v>1</v>
+      </c>
+      <c r="F51" s="151" t="s">
+        <v>66</v>
+      </c>
+      <c r="G51" s="152">
+        <v>750</v>
+      </c>
+      <c r="H51" s="154"/>
+      <c r="I51" s="156"/>
+      <c r="J51" s="156"/>
+      <c r="K51" s="154"/>
+      <c r="L51" s="154"/>
+      <c r="M51" s="154"/>
+      <c r="N51" s="154"/>
     </row>
     <row r="52" spans="1:14">
-      <c r="A52" s="164"/>
+      <c r="A52" s="163" t="s">
+        <v>67</v>
+      </c>
       <c r="B52" s="99"/>
       <c r="C52" s="99"/>
       <c r="D52" s="99"/>
@@ -2847,166 +2861,166 @@
       <c r="N69" s="162"/>
     </row>
     <row r="70" spans="1:14">
-      <c r="A70" s="169" t="s">
-        <v>66</v>
-      </c>
-      <c r="B70" s="174"/>
-      <c r="C70" s="172"/>
-      <c r="D70" s="173"/>
-      <c r="E70" s="180" t="s">
-        <v>67</v>
-      </c>
-      <c r="F70" s="178"/>
-      <c r="G70" s="179"/>
-      <c r="H70" s="184"/>
-      <c r="I70" s="183"/>
-      <c r="J70" s="179"/>
-      <c r="K70" s="180" t="s">
+      <c r="A70" s="165"/>
+      <c r="B70" s="100"/>
+      <c r="C70" s="100"/>
+      <c r="D70" s="100"/>
+      <c r="E70" s="100"/>
+      <c r="F70" s="158"/>
+      <c r="G70" s="160"/>
+      <c r="H70" s="100"/>
+      <c r="I70" s="160"/>
+      <c r="J70" s="160"/>
+      <c r="K70" s="100"/>
+      <c r="L70" s="100"/>
+      <c r="M70" s="100"/>
+      <c r="N70" s="162"/>
+    </row>
+    <row r="71" spans="1:14">
+      <c r="A71" s="169" t="s">
         <v>68</v>
       </c>
-      <c r="L70" s="185"/>
-      <c r="M70" s="184"/>
-      <c r="N70" s="173"/>
-    </row>
-    <row r="71" spans="1:14" customHeight="1" ht="10">
-      <c r="A71" s="168"/>
-      <c r="B71" s="171"/>
-      <c r="C71" s="170"/>
-      <c r="D71" s="167"/>
-      <c r="E71" s="177"/>
-      <c r="F71" s="175"/>
-      <c r="G71" s="176"/>
-      <c r="H71" s="177"/>
-      <c r="I71" s="181"/>
-      <c r="J71" s="176"/>
-      <c r="K71" s="177"/>
-      <c r="L71" s="167"/>
-      <c r="M71" s="177"/>
-      <c r="N71" s="168"/>
-    </row>
-    <row r="72" spans="1:14">
-      <c r="A72" s="182"/>
-      <c r="B72" s="100"/>
-      <c r="C72" s="91"/>
-      <c r="D72" s="91"/>
-      <c r="E72" s="91"/>
-      <c r="F72" s="93"/>
-      <c r="G72" s="94"/>
-      <c r="H72" s="91"/>
-      <c r="I72" s="94"/>
-      <c r="J72" s="94"/>
-      <c r="K72" s="91"/>
-      <c r="L72" s="91"/>
-      <c r="M72" s="91"/>
-      <c r="N72" s="166"/>
-    </row>
-    <row r="73" spans="1:14" customHeight="1" ht="30">
-      <c r="A73" s="186" t="s">
+      <c r="B71" s="174"/>
+      <c r="C71" s="172"/>
+      <c r="D71" s="173"/>
+      <c r="E71" s="180" t="s">
         <v>69</v>
       </c>
-      <c r="B73" s="187"/>
-      <c r="C73" s="188"/>
-      <c r="D73" s="188"/>
-      <c r="E73" s="188"/>
-      <c r="F73" s="189"/>
-      <c r="G73" s="190"/>
-      <c r="H73" s="188"/>
-      <c r="I73" s="190"/>
-      <c r="J73" s="190"/>
-      <c r="K73" s="188"/>
-      <c r="L73" s="188"/>
-      <c r="M73" s="188"/>
-      <c r="N73" s="191"/>
-    </row>
-    <row r="74" spans="1:14" customHeight="1" ht="30">
-      <c r="A74" s="192" t="s">
+      <c r="F71" s="178"/>
+      <c r="G71" s="179"/>
+      <c r="H71" s="184"/>
+      <c r="I71" s="183"/>
+      <c r="J71" s="179"/>
+      <c r="K71" s="180" t="s">
         <v>70</v>
       </c>
-      <c r="B74" s="193"/>
-      <c r="C74" s="194"/>
-      <c r="D74" s="194"/>
-      <c r="E74" s="194"/>
-      <c r="F74" s="195"/>
-      <c r="G74" s="196"/>
-      <c r="H74" s="194"/>
-      <c r="I74" s="196"/>
-      <c r="J74" s="196"/>
-      <c r="K74" s="194"/>
-      <c r="L74" s="194"/>
-      <c r="M74" s="194"/>
-      <c r="N74" s="197"/>
-    </row>
-    <row r="75" spans="1:14" customHeight="1" ht="30">
-      <c r="A75" s="198" t="s">
+      <c r="L71" s="185"/>
+      <c r="M71" s="184"/>
+      <c r="N71" s="173"/>
+    </row>
+    <row r="72" spans="1:14" customHeight="1" ht="10">
+      <c r="A72" s="168"/>
+      <c r="B72" s="171"/>
+      <c r="C72" s="170"/>
+      <c r="D72" s="167"/>
+      <c r="E72" s="177"/>
+      <c r="F72" s="175"/>
+      <c r="G72" s="176"/>
+      <c r="H72" s="177"/>
+      <c r="I72" s="181"/>
+      <c r="J72" s="176"/>
+      <c r="K72" s="177"/>
+      <c r="L72" s="167"/>
+      <c r="M72" s="177"/>
+      <c r="N72" s="168"/>
+    </row>
+    <row r="73" spans="1:14">
+      <c r="A73" s="182"/>
+      <c r="B73" s="100"/>
+      <c r="C73" s="91"/>
+      <c r="D73" s="91"/>
+      <c r="E73" s="91"/>
+      <c r="F73" s="93"/>
+      <c r="G73" s="94"/>
+      <c r="H73" s="91"/>
+      <c r="I73" s="94"/>
+      <c r="J73" s="94"/>
+      <c r="K73" s="91"/>
+      <c r="L73" s="91"/>
+      <c r="M73" s="91"/>
+      <c r="N73" s="166"/>
+    </row>
+    <row r="74" spans="1:14" customHeight="1" ht="30">
+      <c r="A74" s="186" t="s">
         <v>71</v>
       </c>
-      <c r="B75" s="199"/>
-      <c r="C75" s="200"/>
-      <c r="D75" s="200"/>
-      <c r="E75" s="200"/>
-      <c r="F75" s="201"/>
-      <c r="G75" s="202"/>
-      <c r="H75" s="200"/>
-      <c r="I75" s="202"/>
-      <c r="J75" s="202"/>
-      <c r="K75" s="200"/>
-      <c r="L75" s="200"/>
-      <c r="M75" s="200"/>
-      <c r="N75" s="203"/>
+      <c r="B74" s="187"/>
+      <c r="C74" s="188"/>
+      <c r="D74" s="188"/>
+      <c r="E74" s="188"/>
+      <c r="F74" s="189"/>
+      <c r="G74" s="190"/>
+      <c r="H74" s="188"/>
+      <c r="I74" s="190"/>
+      <c r="J74" s="190"/>
+      <c r="K74" s="188"/>
+      <c r="L74" s="188"/>
+      <c r="M74" s="188"/>
+      <c r="N74" s="191"/>
+    </row>
+    <row r="75" spans="1:14" customHeight="1" ht="30">
+      <c r="A75" s="192" t="s">
+        <v>72</v>
+      </c>
+      <c r="B75" s="193"/>
+      <c r="C75" s="194"/>
+      <c r="D75" s="194"/>
+      <c r="E75" s="194"/>
+      <c r="F75" s="195"/>
+      <c r="G75" s="196"/>
+      <c r="H75" s="194"/>
+      <c r="I75" s="196"/>
+      <c r="J75" s="196"/>
+      <c r="K75" s="194"/>
+      <c r="L75" s="194"/>
+      <c r="M75" s="194"/>
+      <c r="N75" s="197"/>
     </row>
     <row r="76" spans="1:14" customHeight="1" ht="30">
       <c r="A76" s="198" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B76" s="153"/>
-      <c r="C76" s="200"/>
-      <c r="D76" s="200"/>
-      <c r="E76" s="200"/>
-      <c r="F76" s="201"/>
-      <c r="G76" s="202"/>
-      <c r="H76" s="200"/>
-      <c r="I76" s="202"/>
-      <c r="J76" s="202"/>
-      <c r="K76" s="200"/>
-      <c r="L76" s="200"/>
-      <c r="M76" s="200"/>
-      <c r="N76" s="203"/>
+      <c r="C76" s="199"/>
+      <c r="D76" s="199"/>
+      <c r="E76" s="199"/>
+      <c r="F76" s="200"/>
+      <c r="G76" s="201"/>
+      <c r="H76" s="199"/>
+      <c r="I76" s="201"/>
+      <c r="J76" s="201"/>
+      <c r="K76" s="199"/>
+      <c r="L76" s="199"/>
+      <c r="M76" s="199"/>
+      <c r="N76" s="202"/>
     </row>
     <row r="77" spans="1:14" customHeight="1" ht="30">
       <c r="A77" s="198" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B77" s="153"/>
-      <c r="C77" s="200"/>
-      <c r="D77" s="200"/>
-      <c r="E77" s="200"/>
-      <c r="F77" s="201"/>
-      <c r="G77" s="202"/>
-      <c r="H77" s="203"/>
-      <c r="I77" s="204" t="s">
+      <c r="C77" s="199"/>
+      <c r="D77" s="199"/>
+      <c r="E77" s="199"/>
+      <c r="F77" s="200"/>
+      <c r="G77" s="201"/>
+      <c r="H77" s="199"/>
+      <c r="I77" s="201"/>
+      <c r="J77" s="201"/>
+      <c r="K77" s="199"/>
+      <c r="L77" s="199"/>
+      <c r="M77" s="199"/>
+      <c r="N77" s="202"/>
+    </row>
+    <row r="78" spans="1:14" customHeight="1" ht="30">
+      <c r="A78" s="198" t="s">
+        <v>75</v>
+      </c>
+      <c r="B78" s="153"/>
+      <c r="C78" s="199"/>
+      <c r="D78" s="199"/>
+      <c r="E78" s="199"/>
+      <c r="F78" s="200"/>
+      <c r="G78" s="201"/>
+      <c r="H78" s="202"/>
+      <c r="I78" s="203" t="s">
         <v>7</v>
       </c>
-      <c r="J77" s="155"/>
-      <c r="K77" s="200"/>
-      <c r="L77" s="200"/>
-      <c r="M77" s="200"/>
-      <c r="N77" s="203"/>
-    </row>
-    <row r="78" spans="1:14">
-      <c r="A78" s="91"/>
-      <c r="B78" s="91"/>
-      <c r="C78" s="91"/>
-      <c r="D78" s="91"/>
-      <c r="E78" s="91"/>
-      <c r="F78" s="93"/>
-      <c r="G78" s="94"/>
-      <c r="H78" s="91"/>
-      <c r="I78" s="94"/>
-      <c r="J78" s="94"/>
-      <c r="K78" s="91"/>
-      <c r="L78" s="91"/>
-      <c r="M78" s="91"/>
-      <c r="N78" s="91"/>
+      <c r="J78" s="155"/>
+      <c r="K78" s="199"/>
+      <c r="L78" s="199"/>
+      <c r="M78" s="199"/>
+      <c r="N78" s="202"/>
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="91"/>
@@ -15826,19 +15840,19 @@
     <mergeCell ref="E15:N15"/>
     <mergeCell ref="E16:N16"/>
     <mergeCell ref="E17:N17"/>
-    <mergeCell ref="A51:N69"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="B70:D71"/>
-    <mergeCell ref="E70:G71"/>
-    <mergeCell ref="H70:J71"/>
-    <mergeCell ref="K70:L71"/>
-    <mergeCell ref="M70:N71"/>
-    <mergeCell ref="A73:N73"/>
+    <mergeCell ref="A52:N70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:D72"/>
+    <mergeCell ref="E71:G72"/>
+    <mergeCell ref="H71:J72"/>
+    <mergeCell ref="K71:L72"/>
+    <mergeCell ref="M71:N72"/>
     <mergeCell ref="A74:N74"/>
-    <mergeCell ref="B75:N75"/>
+    <mergeCell ref="A75:N75"/>
     <mergeCell ref="B76:N76"/>
-    <mergeCell ref="B77:H77"/>
-    <mergeCell ref="J77:N77"/>
+    <mergeCell ref="B77:N77"/>
+    <mergeCell ref="B78:H78"/>
+    <mergeCell ref="J78:N78"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.5" right="0.5" top="0" bottom="0.25" header="0.12" footer="0.12"/>
